--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0C039-8E2A-498C-9BFC-C6A276C4E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98377C6-74B8-4DCC-80F1-70870D63CD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -4346,17 +4346,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4364,23 +4358,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4406,11 +4391,20 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4418,103 +4412,109 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="\-"/>
+      <numFmt numFmtId="178" formatCode="\-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4828,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:W163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4858,73 +4858,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4943,8 +4943,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="V3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="38"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="4" t="s">
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P7" s="12">
         <v>900107</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P8" s="12">
         <v>900111</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P9" s="12">
         <v>900132</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P10" s="12">
         <v>900143</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P11" s="12">
         <v>900128</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P12" s="12">
         <v>900158</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P13" s="12">
         <v>900145</v>
@@ -5680,7 +5680,7 @@
         <v>900160</v>
       </c>
       <c r="O14" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P14" s="12">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P15" s="12">
         <v>900204</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P19" s="12">
         <v>900132</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P23" s="12">
         <v>900206</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P24" s="12">
         <v>900132</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P25" s="12">
         <v>900132</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P26" s="12">
         <v>900195</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P27" s="12">
         <v>900195</v>
@@ -6700,7 +6700,7 @@
         <v>900121</v>
       </c>
       <c r="O29" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P29" s="12">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>900103</v>
       </c>
       <c r="O30" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P30" s="12">
         <v>900104</v>
@@ -6834,7 +6834,7 @@
         <v>900105</v>
       </c>
       <c r="O31" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P31" s="12">
         <v>900106</v>
@@ -6900,7 +6900,7 @@
         <v>900108</v>
       </c>
       <c r="O32" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P32" s="12">
         <v>900110</v>
@@ -6968,7 +6968,7 @@
         <v>900109</v>
       </c>
       <c r="O33" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P33" s="12">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P34" s="12">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>900112</v>
       </c>
       <c r="O35" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P35" s="12">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>900113</v>
       </c>
       <c r="O36" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P36" s="12">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>900114</v>
       </c>
       <c r="O37" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P37" s="12">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>900115</v>
       </c>
       <c r="O38" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P38" s="12">
         <v>0</v>
@@ -7430,7 +7430,7 @@
         <v>900121</v>
       </c>
       <c r="O40" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P40" s="12">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>900121</v>
       </c>
       <c r="O42" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P42" s="12">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>900121</v>
       </c>
       <c r="O44" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P44" s="12">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>900123</v>
       </c>
       <c r="O45" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P45" s="12">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>900123</v>
       </c>
       <c r="O46" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P46" s="12">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>900123</v>
       </c>
       <c r="O47" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P47" s="12">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>900125</v>
       </c>
       <c r="O48" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P48" s="12">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>900125</v>
       </c>
       <c r="O49" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P49" s="12">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>900125</v>
       </c>
       <c r="O50" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P50" s="12">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>900133</v>
       </c>
       <c r="O54" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P54" s="12">
         <v>0</v>
@@ -8420,7 +8420,7 @@
         <v>900133</v>
       </c>
       <c r="O55" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P55" s="12">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>900133</v>
       </c>
       <c r="O56" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P56" s="12">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>900137</v>
       </c>
       <c r="O57" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P57" s="12">
         <v>900138</v>
@@ -8618,7 +8618,7 @@
         <v>900137</v>
       </c>
       <c r="O58" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P58" s="12">
         <v>900138</v>
@@ -8684,7 +8684,7 @@
         <v>900137</v>
       </c>
       <c r="O59" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P59" s="12">
         <v>900138</v>
@@ -8750,7 +8750,7 @@
         <v>900142</v>
       </c>
       <c r="O60" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P60" s="12">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>900142</v>
       </c>
       <c r="O61" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P61" s="12">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>900142</v>
       </c>
       <c r="O62" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P62" s="12">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P63" s="12">
         <v>900144</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P64" s="12">
         <v>900144</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P65" s="12">
         <v>900144</v>
@@ -9146,7 +9146,7 @@
         <v>900146</v>
       </c>
       <c r="O66" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P66" s="12">
         <v>0</v>
@@ -9212,7 +9212,7 @@
         <v>900146</v>
       </c>
       <c r="O67" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P67" s="12">
         <v>0</v>
@@ -9278,7 +9278,7 @@
         <v>900146</v>
       </c>
       <c r="O68" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P68" s="12">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>900148</v>
       </c>
       <c r="O69" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P69" s="12">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>900148</v>
       </c>
       <c r="O70" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P70" s="12">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>900148</v>
       </c>
       <c r="O71" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P71" s="12">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>900150</v>
       </c>
       <c r="O72" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P72" s="12">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>900150</v>
       </c>
       <c r="O73" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P73" s="12">
         <v>0</v>
@@ -9674,7 +9674,7 @@
         <v>900150</v>
       </c>
       <c r="O74" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P74" s="12">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P75" s="12">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>900152</v>
       </c>
       <c r="O76" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P76" s="12">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P77" s="12">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>900152</v>
       </c>
       <c r="O78" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P78" s="12">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P79" s="12">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>900152</v>
       </c>
       <c r="O80" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P80" s="12">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>900156</v>
       </c>
       <c r="O81" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P81" s="12">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>900156</v>
       </c>
       <c r="O82" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P82" s="12">
         <v>0</v>
@@ -10268,7 +10268,7 @@
         <v>900156</v>
       </c>
       <c r="O83" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P83" s="12">
         <v>0</v>
@@ -10334,7 +10334,7 @@
         <v>900157</v>
       </c>
       <c r="O84" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P84" s="12">
         <v>0</v>
@@ -10400,7 +10400,7 @@
         <v>900159</v>
       </c>
       <c r="O85" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P85" s="12">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>900159</v>
       </c>
       <c r="O86" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P86" s="12">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>900159</v>
       </c>
       <c r="O87" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P87" s="12">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>900161</v>
       </c>
       <c r="O88" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P88" s="12">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P89" s="12">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P90" s="12">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P91" s="12">
         <v>0</v>
@@ -10862,7 +10862,7 @@
         <v>900161</v>
       </c>
       <c r="O92" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P92" s="12">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P93" s="12">
         <v>0</v>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P94" s="12">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P95" s="12">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>900161</v>
       </c>
       <c r="O96" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P96" s="12">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P97" s="12">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P98" s="12">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P99" s="12">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>900163</v>
       </c>
       <c r="O100" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P100" s="12">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>900163</v>
       </c>
       <c r="O101" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P101" s="12">
         <v>0</v>
@@ -11522,7 +11522,7 @@
         <v>900163</v>
       </c>
       <c r="O102" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P102" s="12">
         <v>0</v>
@@ -11588,7 +11588,7 @@
         <v>900165</v>
       </c>
       <c r="O103" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P103" s="12">
         <v>0</v>
@@ -11654,7 +11654,7 @@
         <v>900165</v>
       </c>
       <c r="O104" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P104" s="12">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>900165</v>
       </c>
       <c r="O105" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P105" s="12">
         <v>0</v>
@@ -11786,7 +11786,7 @@
         <v>900167</v>
       </c>
       <c r="O106" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P106" s="12">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>900167</v>
       </c>
       <c r="O107" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P107" s="12">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>900167</v>
       </c>
       <c r="O108" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P108" s="12">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>900169</v>
       </c>
       <c r="O109" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P109" s="12">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>900169</v>
       </c>
       <c r="O110" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P110" s="12">
         <v>0</v>
@@ -12116,7 +12116,7 @@
         <v>900169</v>
       </c>
       <c r="O111" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P111" s="12">
         <v>0</v>
@@ -12182,7 +12182,7 @@
         <v>900171</v>
       </c>
       <c r="O112" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P112" s="12">
         <v>900172</v>
@@ -12248,7 +12248,7 @@
         <v>900171</v>
       </c>
       <c r="O113" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P113" s="12">
         <v>900172</v>
@@ -12314,7 +12314,7 @@
         <v>900171</v>
       </c>
       <c r="O114" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P114" s="12">
         <v>900172</v>
@@ -12380,7 +12380,7 @@
         <v>900174</v>
       </c>
       <c r="O115" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P115" s="12">
         <v>0</v>
@@ -12446,7 +12446,7 @@
         <v>900174</v>
       </c>
       <c r="O116" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P116" s="12">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>900174</v>
       </c>
       <c r="O117" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P117" s="12">
         <v>0</v>
@@ -12776,7 +12776,7 @@
         <v>900184</v>
       </c>
       <c r="O121" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P121" s="12">
         <v>0</v>
@@ -12842,7 +12842,7 @@
         <v>900184</v>
       </c>
       <c r="O122" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P122" s="12">
         <v>0</v>
@@ -12908,7 +12908,7 @@
         <v>900184</v>
       </c>
       <c r="O123" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P123" s="12">
         <v>0</v>
@@ -12974,7 +12974,7 @@
         <v>900188</v>
       </c>
       <c r="O124" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P124" s="12">
         <v>0</v>
@@ -13040,7 +13040,7 @@
         <v>900188</v>
       </c>
       <c r="O125" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P125" s="12">
         <v>0</v>
@@ -13106,7 +13106,7 @@
         <v>900188</v>
       </c>
       <c r="O126" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P126" s="12">
         <v>0</v>
@@ -13172,7 +13172,7 @@
         <v>900192</v>
       </c>
       <c r="O127" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P127" s="12">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>900192</v>
       </c>
       <c r="O128" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P128" s="12">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>900192</v>
       </c>
       <c r="O129" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P129" s="12">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>900194</v>
       </c>
       <c r="O130" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P130" s="12">
         <v>900195</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P131" s="12">
         <v>900195</v>
@@ -13502,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P132" s="12">
         <v>900195</v>
@@ -13568,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P133" s="12">
         <v>900195</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P134" s="12">
         <v>900195</v>
@@ -13700,7 +13700,7 @@
         <v>900194</v>
       </c>
       <c r="O135" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P135" s="12">
         <v>900195</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P136" s="12">
         <v>900195</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P137" s="12">
         <v>900195</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P138" s="12">
         <v>900195</v>
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P139" s="12">
         <v>900195</v>
@@ -14030,7 +14030,7 @@
         <v>900194</v>
       </c>
       <c r="O140" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P140" s="12">
         <v>900195</v>
@@ -14096,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P141" s="12">
         <v>900195</v>
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P142" s="12">
         <v>900195</v>
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P143" s="12">
         <v>900195</v>
@@ -14294,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P144" s="12">
         <v>900195</v>
@@ -14360,7 +14360,7 @@
         <v>900182</v>
       </c>
       <c r="O145" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P145" s="12">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P146" s="12">
         <v>0</v>
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P147" s="12">
         <v>0</v>
@@ -14558,7 +14558,7 @@
         <v>900182</v>
       </c>
       <c r="O148" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P148" s="12">
         <v>0</v>
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P149" s="12">
         <v>0</v>
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P150" s="12">
         <v>0</v>
@@ -14756,7 +14756,7 @@
         <v>900182</v>
       </c>
       <c r="O151" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P151" s="12">
         <v>0</v>
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P152" s="12">
         <v>0</v>
@@ -14888,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P153" s="12">
         <v>0</v>
@@ -14954,7 +14954,7 @@
         <v>900197</v>
       </c>
       <c r="O154" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P154" s="12">
         <v>900198</v>
@@ -15020,7 +15020,7 @@
         <v>900200</v>
       </c>
       <c r="O155" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P155" s="12">
         <v>900201</v>
@@ -15086,7 +15086,7 @@
         <v>900203</v>
       </c>
       <c r="O156" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P156" s="12">
         <v>0</v>
@@ -15152,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P157" s="12">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         <v>900216</v>
       </c>
       <c r="O158" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P158" s="12">
         <v>0</v>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P159" s="12">
         <v>0</v>
@@ -15350,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P160" s="12">
         <v>0</v>
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="O161" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P161" s="12">
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="O162" s="12">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="P162" s="12">
         <v>0</v>
@@ -15514,6 +15514,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15523,12 +15529,6 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15710,7 +15710,7 @@
   <dimension ref="B2:Q141"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15733,74 +15733,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="22" t="s">
         <v>347</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="23" t="s">
@@ -22415,6 +22415,12 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22424,12 +22430,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98377C6-74B8-4DCC-80F1-70870D63CD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE24E787-369A-45B9-879B-0B96127D4038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="776">
   <si>
     <t>번호</t>
   </si>
@@ -2566,24 +2566,6 @@
     <t>방어력 감소</t>
   </si>
   <si>
-    <t>[&lt;b&gt;{50%}&lt;/b]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{100%}&lt;/b]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{2000}&lt;/b]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{200}&lt;/b]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{60%}&lt;/b]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{150}&lt;/b]</t>
-  </si>
-  <si>
     <t>[&lt;b&gt;{50}&lt;/b&gt; / {100} / {200}]</t>
   </si>
   <si>
@@ -3558,39 +3540,21 @@
     <t>기사, 대검사, 기사2, 양손검사</t>
   </si>
   <si>
-    <t>증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</t>
-  </si>
-  <si>
     <t>공격력 증가</t>
   </si>
   <si>
-    <t>증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 증가시킵니다.</t>
-  </si>
-  <si>
-    <t>지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다. 마왕의 체력이 50%이하라면 전체피해량의 10%만큼 체력을 회복합니다.</t>
-  </si>
-  <si>
     <t>피해량</t>
   </si>
   <si>
     <t>예외 처리: 자신의 HP가 000% 이하라면 피해량의 000% 회복</t>
   </si>
   <si>
-    <t>지옥의 군주 체력이 50%이하라면 기본 공격 시 피해량의 10%만큼 체력을 회복합니다.</t>
-  </si>
-  <si>
-    <t>프로스트리치가 영구동토를 10초간 생성해 피해를 입히며 이동속도를 감소시킵니다.</t>
-  </si>
-  <si>
     <t>초당 피해량</t>
   </si>
   <si>
     <t>얼음왕의 검</t>
   </si>
   <si>
-    <t>프로스트리치가 얼음회오리를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</t>
-  </si>
-  <si>
     <t>포격 1</t>
   </si>
   <si>
@@ -3805,6 +3769,30 @@
   </si>
   <si>
     <t>광역 데미지</t>
+  </si>
+  <si>
+    <t>[&lt;b&gt;{50%}&lt;/b&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;b&gt;{100%}&lt;/b&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;b&gt;{2000}&lt;/b&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;b&gt;{200}&lt;/b&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;b&gt;{150}&lt;/b&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;b&gt;{60%}&lt;/b&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4346,11 +4334,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4358,14 +4346,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4391,19 +4388,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4411,12 +4405,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4829,7 +4817,10 @@
   <dimension ref="B2:W163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4854,7 +4845,7 @@
     <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -4867,46 +4858,46 @@
       <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="41"/>
+      <c r="U2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="34"/>
+      <c r="V2" s="41"/>
       <c r="W2" s="35" t="s">
         <v>33</v>
       </c>
@@ -4922,9 +4913,9 @@
       <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4943,7 +4934,7 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="46"/>
+      <c r="Q3" s="49"/>
       <c r="R3" s="36"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
@@ -5163,7 +5154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="38.25">
+    <row r="7" spans="2:23" ht="25.5">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -5228,7 +5219,7 @@
         <v>53</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -5772,7 +5763,7 @@
         <v>53</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -6776,14 +6767,17 @@
       <c r="Q30" s="12">
         <v>910028</v>
       </c>
-      <c r="R30" s="17" t="s">
-        <v>699</v>
+      <c r="R30" s="17" t="str">
+        <f>"&lt;b&gt;"&amp;C30&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G13&amp;"초]"&amp;"
+증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다."</f>
+        <v>&lt;b&gt;증오의 씨앗&lt;/b&gt; [액티브 / 쿨타임: 15초]
+증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>373</v>
+        <v>770</v>
       </c>
       <c r="U30" s="15" t="s">
         <v>53</v>
@@ -6842,14 +6836,17 @@
       <c r="Q31" s="12">
         <v>910029</v>
       </c>
-      <c r="R31" s="17" t="s">
-        <v>701</v>
+      <c r="R31" s="17" t="str">
+        <f>"&lt;b&gt;"&amp;C31&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G14&amp;"초]"&amp;"
+증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다."</f>
+        <v>&lt;b&gt;증오의 권능&lt;/b&gt; [액티브 / 쿨타임: 30초]
+증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다.</v>
       </c>
       <c r="S31" s="17" t="s">
         <v>370</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>374</v>
+        <v>771</v>
       </c>
       <c r="U31" s="15" t="s">
         <v>53</v>
@@ -6859,7 +6856,7 @@
       </c>
       <c r="W31" s="17"/>
     </row>
-    <row r="32" spans="2:23" ht="25.5">
+    <row r="32" spans="2:23">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -6908,14 +6905,17 @@
       <c r="Q32" s="12">
         <v>910030</v>
       </c>
-      <c r="R32" s="17" t="s">
-        <v>702</v>
+      <c r="R32" s="17" t="str">
+        <f>"&lt;b&gt;"&amp;C32&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G15&amp;"초]"&amp;"
+지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다."</f>
+        <v>&lt;b&gt;불구덩이&lt;/b&gt; [액티브 / 쿨타임: 10초]
+지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>375</v>
+        <v>772</v>
       </c>
       <c r="U32" s="15" t="s">
         <v>53</v>
@@ -6924,7 +6924,7 @@
         <v>53</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="2:23">
@@ -7042,8 +7042,11 @@
       <c r="Q34" s="12">
         <v>910031</v>
       </c>
-      <c r="R34" s="17" t="s">
-        <v>705</v>
+      <c r="R34" s="17" t="str">
+        <f>"&lt;b&gt;"&amp;C34&amp;"&lt;/b&gt;"&amp;" [패시브]"&amp;"
+지옥의 군주 체력이 50%이하라면, 피해량의 10%만큼 체력을 회복합니다."</f>
+        <v>&lt;b&gt;피의 권능&lt;/b&gt; [패시브]
+지옥의 군주 체력이 50%이하라면, 피해량의 10%만큼 체력을 회복합니다.</v>
       </c>
       <c r="S34" s="15" t="s">
         <v>53</v>
@@ -7108,20 +7111,23 @@
       <c r="Q35" s="12">
         <v>910032</v>
       </c>
-      <c r="R35" s="17" t="s">
-        <v>706</v>
+      <c r="R35" s="17" t="str">
+        <f>"&lt;b&gt;"&amp;C35&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G16&amp;"초]"&amp;"
+프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다."</f>
+        <v>&lt;b&gt;영구동토&lt;/b&gt; [액티브 / 쿨타임: 15초]
+프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>376</v>
+        <v>773</v>
       </c>
       <c r="U35" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>377</v>
+        <v>775</v>
       </c>
       <c r="W35" s="17"/>
     </row>
@@ -7196,7 +7202,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>135</v>
@@ -7240,20 +7246,23 @@
       <c r="Q37" s="12">
         <v>910033</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>709</v>
+      <c r="R37" s="17" t="str">
+        <f>"&lt;b&gt;"&amp;C37&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G17&amp;"초]"&amp;"
+프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다."</f>
+        <v>&lt;b&gt;얼음왕의 검&lt;/b&gt; [액티브 / 쿨타임: 45초]
+프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다.</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>378</v>
+        <v>774</v>
       </c>
       <c r="U37" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>374</v>
+        <v>771</v>
       </c>
       <c r="W37" s="19"/>
     </row>
@@ -7328,7 +7337,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>138</v>
@@ -7373,13 +7382,13 @@
         <v>910001</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U39" s="17" t="s">
         <v>53</v>
@@ -7394,7 +7403,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>139</v>
@@ -7460,7 +7469,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>140</v>
@@ -7505,13 +7514,13 @@
         <v>910001</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="U41" s="17" t="s">
         <v>53</v>
@@ -7526,7 +7535,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>141</v>
@@ -7592,7 +7601,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>142</v>
@@ -7637,13 +7646,13 @@
         <v>910001</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U43" s="17" t="s">
         <v>53</v>
@@ -7658,7 +7667,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>143</v>
@@ -7724,7 +7733,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>144</v>
@@ -7769,13 +7778,13 @@
         <v>910002</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="S45" s="17" t="s">
         <v>370</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="U45" s="17" t="s">
         <v>53</v>
@@ -7790,7 +7799,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>145</v>
@@ -7835,13 +7844,13 @@
         <v>910002</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="S46" s="17" t="s">
         <v>370</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="U46" s="17" t="s">
         <v>53</v>
@@ -7856,7 +7865,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>146</v>
@@ -7907,7 +7916,7 @@
         <v>370</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="U47" s="17" t="s">
         <v>53</v>
@@ -7922,7 +7931,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>148</v>
@@ -7967,13 +7976,13 @@
         <v>910003</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U48" s="17" t="s">
         <v>53</v>
@@ -8033,13 +8042,13 @@
         <v>910003</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U49" s="17" t="s">
         <v>53</v>
@@ -8099,13 +8108,13 @@
         <v>910003</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U50" s="17" t="s">
         <v>53</v>
@@ -8165,13 +8174,13 @@
         <v>910004</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="U51" s="17" t="s">
         <v>53</v>
@@ -8231,13 +8240,13 @@
         <v>910004</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="U52" s="17" t="s">
         <v>53</v>
@@ -8297,13 +8306,13 @@
         <v>910004</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="U53" s="17" t="s">
         <v>53</v>
@@ -8363,13 +8372,13 @@
         <v>910005</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U54" s="17" t="s">
         <v>53</v>
@@ -8429,13 +8438,13 @@
         <v>910005</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U55" s="17" t="s">
         <v>53</v>
@@ -8495,13 +8504,13 @@
         <v>910005</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="U56" s="17" t="s">
         <v>53</v>
@@ -8561,13 +8570,13 @@
         <v>910006</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="S57" s="17" t="s">
         <v>370</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="U57" s="17" t="s">
         <v>53</v>
@@ -8627,13 +8636,13 @@
         <v>910006</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="S58" s="17" t="s">
         <v>370</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="U58" s="17" t="s">
         <v>53</v>
@@ -8693,13 +8702,13 @@
         <v>910006</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="S59" s="17" t="s">
         <v>370</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="U59" s="17" t="s">
         <v>53</v>
@@ -8759,19 +8768,19 @@
         <v>910007</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U60" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V60" s="17" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="W60" s="17"/>
     </row>
@@ -8825,19 +8834,19 @@
         <v>910007</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U61" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="W61" s="17"/>
     </row>
@@ -8891,19 +8900,19 @@
         <v>910007</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U62" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="W62" s="17"/>
     </row>
@@ -8957,13 +8966,13 @@
         <v>910008</v>
       </c>
       <c r="R63" s="17" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="S63" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="U63" s="17" t="s">
         <v>53</v>
@@ -9023,13 +9032,13 @@
         <v>910008</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="U64" s="17" t="s">
         <v>53</v>
@@ -9089,13 +9098,13 @@
         <v>910008</v>
       </c>
       <c r="R65" s="17" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="S65" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="U65" s="17" t="s">
         <v>53</v>
@@ -9155,19 +9164,19 @@
         <v>910009</v>
       </c>
       <c r="R66" s="17" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="S66" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="U66" s="17" t="s">
         <v>369</v>
       </c>
       <c r="V66" s="17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="W66" s="19"/>
     </row>
@@ -9221,19 +9230,19 @@
         <v>910009</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="U67" s="17" t="s">
         <v>369</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="W67" s="19"/>
     </row>
@@ -9287,19 +9296,19 @@
         <v>910009</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="U68" s="17" t="s">
         <v>369</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="W68" s="17"/>
     </row>
@@ -9353,13 +9362,13 @@
         <v>910010</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="S69" s="17" t="s">
         <v>372</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="U69" s="17" t="s">
         <v>53</v>
@@ -9419,13 +9428,13 @@
         <v>910010</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="S70" s="17" t="s">
         <v>372</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="U70" s="17" t="s">
         <v>53</v>
@@ -9485,13 +9494,13 @@
         <v>910010</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="S71" s="17" t="s">
         <v>372</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="U71" s="17" t="s">
         <v>53</v>
@@ -9551,19 +9560,19 @@
         <v>910011</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="U72" s="17" t="s">
         <v>370</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="W72" s="17"/>
     </row>
@@ -9617,19 +9626,19 @@
         <v>910011</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="U73" s="17" t="s">
         <v>370</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="W73" s="17"/>
     </row>
@@ -9683,19 +9692,19 @@
         <v>910011</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="U74" s="17" t="s">
         <v>370</v>
       </c>
       <c r="V74" s="17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="W74" s="17"/>
     </row>
@@ -9749,19 +9758,19 @@
         <v>910012</v>
       </c>
       <c r="R75" s="17" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="S75" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="U75" s="17" t="s">
         <v>371</v>
       </c>
       <c r="V75" s="17" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="W75" s="17"/>
     </row>
@@ -9770,7 +9779,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>203</v>
@@ -9881,19 +9890,19 @@
         <v>910012</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="U77" s="17" t="s">
         <v>371</v>
       </c>
       <c r="V77" s="17" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="W77" s="17"/>
     </row>
@@ -9902,7 +9911,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>206</v>
@@ -10013,19 +10022,19 @@
         <v>910012</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="U79" s="17" t="s">
         <v>371</v>
       </c>
       <c r="V79" s="17" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="W79" s="17"/>
     </row>
@@ -10034,7 +10043,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>209</v>
@@ -10145,19 +10154,19 @@
         <v>910013</v>
       </c>
       <c r="R81" s="17" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U81" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V81" s="17" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="W81" s="19"/>
     </row>
@@ -10211,19 +10220,19 @@
         <v>910013</v>
       </c>
       <c r="R82" s="17" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U82" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V82" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="W82" s="17"/>
     </row>
@@ -10277,19 +10286,19 @@
         <v>910013</v>
       </c>
       <c r="R83" s="17" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="S83" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U83" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V83" s="17" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="W83" s="17"/>
     </row>
@@ -10298,7 +10307,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>216</v>
@@ -10409,13 +10418,13 @@
         <v>910014</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U85" s="15" t="s">
         <v>53</v>
@@ -10475,13 +10484,13 @@
         <v>910014</v>
       </c>
       <c r="R86" s="17" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="S86" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U86" s="15" t="s">
         <v>53</v>
@@ -10541,13 +10550,13 @@
         <v>910014</v>
       </c>
       <c r="R87" s="17" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="S87" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U87" s="15" t="s">
         <v>53</v>
@@ -10607,13 +10616,13 @@
         <v>910015</v>
       </c>
       <c r="R88" s="17" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="S88" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="U88" s="15" t="s">
         <v>53</v>
@@ -10628,7 +10637,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>225</v>
@@ -10694,7 +10703,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>226</v>
@@ -10760,7 +10769,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>227</v>
@@ -10871,13 +10880,13 @@
         <v>910015</v>
       </c>
       <c r="R92" s="17" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="S92" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="U92" s="15" t="s">
         <v>53</v>
@@ -10892,7 +10901,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>230</v>
@@ -10958,7 +10967,7 @@
         <v>89</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>231</v>
@@ -11024,7 +11033,7 @@
         <v>90</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>232</v>
@@ -11135,13 +11144,13 @@
         <v>910015</v>
       </c>
       <c r="R96" s="17" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="S96" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="U96" s="15" t="s">
         <v>53</v>
@@ -11156,7 +11165,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>235</v>
@@ -11222,7 +11231,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>236</v>
@@ -11288,7 +11297,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>237</v>
@@ -11399,13 +11408,13 @@
         <v>910016</v>
       </c>
       <c r="R100" s="17" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="S100" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U100" s="15" t="s">
         <v>53</v>
@@ -11465,13 +11474,13 @@
         <v>910016</v>
       </c>
       <c r="R101" s="17" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="S101" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U101" s="15" t="s">
         <v>53</v>
@@ -11531,13 +11540,13 @@
         <v>910016</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="S102" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U102" s="15" t="s">
         <v>53</v>
@@ -11597,13 +11606,13 @@
         <v>910017</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="S103" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U103" s="15" t="s">
         <v>53</v>
@@ -11663,13 +11672,13 @@
         <v>910017</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U104" s="15" t="s">
         <v>53</v>
@@ -11729,13 +11738,13 @@
         <v>910017</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="S105" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U105" s="15" t="s">
         <v>53</v>
@@ -11795,13 +11804,13 @@
         <v>910018</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="S106" s="17" t="s">
         <v>369</v>
       </c>
       <c r="T106" s="17" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="U106" s="15" t="s">
         <v>53</v>
@@ -11861,13 +11870,13 @@
         <v>910018</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="S107" s="17" t="s">
         <v>369</v>
       </c>
       <c r="T107" s="17" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="U107" s="15" t="s">
         <v>53</v>
@@ -11927,13 +11936,13 @@
         <v>910018</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="S108" s="17" t="s">
         <v>369</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="U108" s="15" t="s">
         <v>53</v>
@@ -11993,13 +12002,13 @@
         <v>910019</v>
       </c>
       <c r="R109" s="17" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="S109" s="17" t="s">
         <v>372</v>
       </c>
       <c r="T109" s="17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="U109" s="15" t="s">
         <v>53</v>
@@ -12059,13 +12068,13 @@
         <v>910019</v>
       </c>
       <c r="R110" s="17" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="S110" s="17" t="s">
         <v>372</v>
       </c>
       <c r="T110" s="17" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="U110" s="15" t="s">
         <v>53</v>
@@ -12125,13 +12134,13 @@
         <v>910019</v>
       </c>
       <c r="R111" s="17" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="S111" s="17" t="s">
         <v>372</v>
       </c>
       <c r="T111" s="17" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="U111" s="17" t="s">
         <v>53</v>
@@ -12191,19 +12200,19 @@
         <v>910020</v>
       </c>
       <c r="R112" s="17" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="S112" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="U112" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V112" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="W112" s="17"/>
     </row>
@@ -12257,19 +12266,19 @@
         <v>910020</v>
       </c>
       <c r="R113" s="17" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="S113" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="U113" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V113" s="17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="W113" s="17"/>
     </row>
@@ -12323,19 +12332,19 @@
         <v>910020</v>
       </c>
       <c r="R114" s="17" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="U114" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V114" s="17" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="W114" s="17"/>
     </row>
@@ -12389,13 +12398,13 @@
         <v>910021</v>
       </c>
       <c r="R115" s="17" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="S115" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="U115" s="17" t="s">
         <v>53</v>
@@ -12455,13 +12464,13 @@
         <v>910021</v>
       </c>
       <c r="R116" s="17" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="S116" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="U116" s="17" t="s">
         <v>53</v>
@@ -12521,13 +12530,13 @@
         <v>910021</v>
       </c>
       <c r="R117" s="17" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="S117" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="U117" s="17" t="s">
         <v>53</v>
@@ -12587,13 +12596,13 @@
         <v>910022</v>
       </c>
       <c r="R118" s="17" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="S118" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U118" s="17" t="s">
         <v>53</v>
@@ -12653,13 +12662,13 @@
         <v>910022</v>
       </c>
       <c r="R119" s="17" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="S119" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U119" s="17" t="s">
         <v>53</v>
@@ -12719,13 +12728,13 @@
         <v>910022</v>
       </c>
       <c r="R120" s="17" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="S120" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U120" s="17" t="s">
         <v>53</v>
@@ -12785,13 +12794,13 @@
         <v>910024</v>
       </c>
       <c r="R121" s="17" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="S121" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U121" s="17" t="s">
         <v>53</v>
@@ -12851,13 +12860,13 @@
         <v>910024</v>
       </c>
       <c r="R122" s="17" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="S122" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U122" s="17" t="s">
         <v>53</v>
@@ -12917,13 +12926,13 @@
         <v>910024</v>
       </c>
       <c r="R123" s="17" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="S123" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U123" s="17" t="s">
         <v>53</v>
@@ -12983,19 +12992,19 @@
         <v>910025</v>
       </c>
       <c r="R124" s="17" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="S124" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U124" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V124" s="17" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="W124" s="17"/>
     </row>
@@ -13049,19 +13058,19 @@
         <v>910025</v>
       </c>
       <c r="R125" s="17" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="S125" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U125" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V125" s="17" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="W125" s="17"/>
     </row>
@@ -13115,19 +13124,19 @@
         <v>910025</v>
       </c>
       <c r="R126" s="17" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="S126" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U126" s="17" t="s">
         <v>368</v>
       </c>
       <c r="V126" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="W126" s="17"/>
     </row>
@@ -13181,13 +13190,13 @@
         <v>910026</v>
       </c>
       <c r="R127" s="17" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="S127" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="U127" s="15" t="s">
         <v>53</v>
@@ -13247,13 +13256,13 @@
         <v>910026</v>
       </c>
       <c r="R128" s="17" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="S128" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="U128" s="15" t="s">
         <v>53</v>
@@ -13313,13 +13322,13 @@
         <v>910026</v>
       </c>
       <c r="R129" s="17" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="S129" s="17" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="U129" s="15" t="s">
         <v>53</v>
@@ -13379,19 +13388,19 @@
         <v>910027</v>
       </c>
       <c r="R130" s="17" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="S130" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="U130" s="17" t="s">
         <v>372</v>
       </c>
       <c r="V130" s="17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="W130" s="17"/>
     </row>
@@ -13400,7 +13409,7 @@
         <v>126</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>300</v>
@@ -13466,7 +13475,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>301</v>
@@ -13532,7 +13541,7 @@
         <v>128</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>302</v>
@@ -13598,7 +13607,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>303</v>
@@ -13709,19 +13718,19 @@
         <v>910027</v>
       </c>
       <c r="R135" s="17" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="S135" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="U135" s="17" t="s">
         <v>372</v>
       </c>
       <c r="V135" s="17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="W135" s="17"/>
     </row>
@@ -13730,7 +13739,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>306</v>
@@ -13796,7 +13805,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>307</v>
@@ -13862,7 +13871,7 @@
         <v>133</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>308</v>
@@ -13928,7 +13937,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>309</v>
@@ -14039,19 +14048,19 @@
         <v>910027</v>
       </c>
       <c r="R140" s="17" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="S140" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="U140" s="17" t="s">
         <v>372</v>
       </c>
       <c r="V140" s="17" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="W140" s="17"/>
     </row>
@@ -14060,7 +14069,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>312</v>
@@ -14126,7 +14135,7 @@
         <v>137</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>313</v>
@@ -14192,7 +14201,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>314</v>
@@ -14258,7 +14267,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>315</v>
@@ -14369,13 +14378,13 @@
         <v>910023</v>
       </c>
       <c r="R145" s="17" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="S145" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="U145" s="15" t="s">
         <v>53</v>
@@ -14390,7 +14399,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>318</v>
@@ -14456,7 +14465,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>319</v>
@@ -14567,13 +14576,13 @@
         <v>910023</v>
       </c>
       <c r="R148" s="17" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="S148" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T148" s="17" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="U148" s="15" t="s">
         <v>53</v>
@@ -14588,7 +14597,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>322</v>
@@ -14654,7 +14663,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>323</v>
@@ -14765,13 +14774,13 @@
         <v>910023</v>
       </c>
       <c r="R151" s="17" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="S151" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="U151" s="15" t="s">
         <v>53</v>
@@ -14786,7 +14795,7 @@
         <v>147</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>326</v>
@@ -14852,7 +14861,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>327</v>
@@ -15514,12 +15523,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15529,6 +15532,12 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15710,7 +15719,7 @@
   <dimension ref="B2:Q141"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15745,17 +15754,17 @@
       <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="33" t="s">
         <v>351</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="J2" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>355</v>
       </c>
       <c r="K2" s="51" t="s">
@@ -15764,16 +15773,16 @@
       <c r="L2" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="M2" s="54" t="s">
-        <v>442</v>
+      <c r="M2" s="56" t="s">
+        <v>436</v>
       </c>
       <c r="N2" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="33" t="s">
         <v>366</v>
       </c>
       <c r="Q2" s="51" t="s">
@@ -15791,15 +15800,15 @@
       <c r="G3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="M3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="52"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="2:17">
@@ -15910,7 +15919,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E6" s="15">
         <v>310001</v>
@@ -15958,7 +15967,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E7" s="15">
         <v>310002</v>
@@ -16006,7 +16015,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E8" s="15">
         <v>310003</v>
@@ -16054,7 +16063,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E9" s="15">
         <v>310004</v>
@@ -16102,7 +16111,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E10" s="15">
         <v>310005</v>
@@ -16141,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -16152,7 +16161,7 @@
         <v>116</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E11" s="15">
         <v>310006</v>
@@ -16191,7 +16200,7 @@
         <v>300024</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -16202,7 +16211,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E12" s="15">
         <v>310007</v>
@@ -16241,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -16249,10 +16258,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E13" s="15">
         <v>310008</v>
@@ -16297,10 +16306,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E14" s="15">
         <v>310009</v>
@@ -16345,10 +16354,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E15" s="15">
         <v>310010</v>
@@ -16393,10 +16402,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E16" s="15">
         <v>310011</v>
@@ -16441,10 +16450,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E17" s="15">
         <v>310012</v>
@@ -16489,10 +16498,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E18" s="15">
         <v>310013</v>
@@ -16537,10 +16546,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E19" s="15">
         <v>310014</v>
@@ -16585,10 +16594,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E20" s="15">
         <v>310015</v>
@@ -16633,10 +16642,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E21" s="15">
         <v>310016</v>
@@ -16681,10 +16690,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E22" s="15">
         <v>310017</v>
@@ -16729,10 +16738,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E23" s="15">
         <v>310018</v>
@@ -16777,10 +16786,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E24" s="15">
         <v>310019</v>
@@ -16825,10 +16834,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E25" s="15">
         <v>310020</v>
@@ -16873,10 +16882,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E26" s="15">
         <v>310021</v>
@@ -16921,10 +16930,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E27" s="15">
         <v>310022</v>
@@ -16969,10 +16978,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E28" s="15">
         <v>310023</v>
@@ -17017,10 +17026,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E29" s="15">
         <v>310024</v>
@@ -17065,10 +17074,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E30" s="15">
         <v>310025</v>
@@ -17113,10 +17122,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E31" s="15">
         <v>310026</v>
@@ -17161,10 +17170,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E32" s="15">
         <v>310027</v>
@@ -17209,10 +17218,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E33" s="15">
         <v>310028</v>
@@ -17257,10 +17266,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E34" s="15">
         <v>310029</v>
@@ -17305,10 +17314,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E35" s="15">
         <v>310030</v>
@@ -17353,10 +17362,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E36" s="15">
         <v>310031</v>
@@ -17401,10 +17410,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E37" s="15">
         <v>310032</v>
@@ -17449,10 +17458,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E38" s="15">
         <v>310033</v>
@@ -17497,10 +17506,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E39" s="15">
         <v>310034</v>
@@ -17545,10 +17554,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E40" s="15">
         <v>310035</v>
@@ -17593,10 +17602,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E41" s="15">
         <v>310036</v>
@@ -17641,10 +17650,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E42" s="15">
         <v>310037</v>
@@ -17689,10 +17698,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E43" s="15">
         <v>310038</v>
@@ -17737,10 +17746,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E44" s="15">
         <v>310039</v>
@@ -17785,10 +17794,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E45" s="15">
         <v>310040</v>
@@ -17833,10 +17842,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E46" s="15">
         <v>310041</v>
@@ -17881,10 +17890,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E47" s="15">
         <v>310042</v>
@@ -17929,10 +17938,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E48" s="15">
         <v>310043</v>
@@ -17977,10 +17986,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E49" s="15">
         <v>310044</v>
@@ -18025,10 +18034,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E50" s="15">
         <v>310045</v>
@@ -18073,10 +18082,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E51" s="15">
         <v>310046</v>
@@ -18121,10 +18130,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E52" s="15">
         <v>310047</v>
@@ -18169,10 +18178,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E53" s="15">
         <v>310048</v>
@@ -18217,10 +18226,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E54" s="15">
         <v>310049</v>
@@ -18265,10 +18274,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E55" s="15">
         <v>310050</v>
@@ -18313,10 +18322,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E56" s="15">
         <v>310051</v>
@@ -18361,10 +18370,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E57" s="15">
         <v>310052</v>
@@ -18409,10 +18418,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E58" s="15">
         <v>310053</v>
@@ -18457,10 +18466,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E59" s="15">
         <v>310054</v>
@@ -18505,10 +18514,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E60" s="15">
         <v>310055</v>
@@ -18553,10 +18562,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E61" s="15">
         <v>310056</v>
@@ -18601,10 +18610,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E62" s="15">
         <v>310057</v>
@@ -18649,10 +18658,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E63" s="15">
         <v>310058</v>
@@ -18697,10 +18706,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E64" s="15">
         <v>310059</v>
@@ -18745,10 +18754,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E65" s="15">
         <v>310060</v>
@@ -18793,10 +18802,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E66" s="15">
         <v>310061</v>
@@ -18841,10 +18850,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E67" s="15">
         <v>310062</v>
@@ -18889,10 +18898,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E68" s="15">
         <v>310063</v>
@@ -18937,10 +18946,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E69" s="15">
         <v>310064</v>
@@ -18985,10 +18994,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E70" s="15">
         <v>310065</v>
@@ -19033,10 +19042,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E71" s="15">
         <v>310066</v>
@@ -19083,10 +19092,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E72" s="15">
         <v>310067</v>
@@ -19133,10 +19142,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E73" s="15">
         <v>310068</v>
@@ -19183,10 +19192,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E74" s="15">
         <v>310069</v>
@@ -19231,10 +19240,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E75" s="15">
         <v>310070</v>
@@ -19279,10 +19288,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E76" s="15">
         <v>310071</v>
@@ -19327,10 +19336,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E77" s="15">
         <v>310072</v>
@@ -19375,10 +19384,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E78" s="15">
         <v>310073</v>
@@ -19423,10 +19432,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E79" s="15">
         <v>310074</v>
@@ -19471,10 +19480,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E80" s="15">
         <v>310075</v>
@@ -19519,10 +19528,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E81" s="15">
         <v>310076</v>
@@ -19567,10 +19576,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E82" s="15">
         <v>310077</v>
@@ -19615,10 +19624,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E83" s="15">
         <v>310078</v>
@@ -19663,10 +19672,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E84" s="15">
         <v>310079</v>
@@ -19711,10 +19720,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E85" s="15">
         <v>310080</v>
@@ -19759,10 +19768,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E86" s="15">
         <v>310081</v>
@@ -19807,10 +19816,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E87" s="15">
         <v>310082</v>
@@ -19855,10 +19864,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E88" s="15">
         <v>310083</v>
@@ -19903,10 +19912,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E89" s="15">
         <v>310084</v>
@@ -19951,10 +19960,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E90" s="15">
         <v>310085</v>
@@ -19999,10 +20008,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E91" s="15">
         <v>310086</v>
@@ -20047,10 +20056,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E92" s="15">
         <v>310087</v>
@@ -20095,10 +20104,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E93" s="15">
         <v>310088</v>
@@ -20143,10 +20152,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E94" s="15">
         <v>310089</v>
@@ -20191,10 +20200,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E95" s="15">
         <v>310090</v>
@@ -20239,10 +20248,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E96" s="15">
         <v>310091</v>
@@ -20287,10 +20296,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E97" s="15">
         <v>310092</v>
@@ -20335,10 +20344,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E98" s="15">
         <v>310093</v>
@@ -20383,10 +20392,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E99" s="15">
         <v>310094</v>
@@ -20431,10 +20440,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E100" s="15">
         <v>310095</v>
@@ -20479,10 +20488,10 @@
         <v>96</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E101" s="15">
         <v>310096</v>
@@ -20527,10 +20536,10 @@
         <v>97</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E102" s="15">
         <v>310097</v>
@@ -20575,10 +20584,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E103" s="15">
         <v>310098</v>
@@ -20623,10 +20632,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E104" s="15">
         <v>310099</v>
@@ -20671,10 +20680,10 @@
         <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E105" s="15">
         <v>310100</v>
@@ -20719,10 +20728,10 @@
         <v>101</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E106" s="15">
         <v>310101</v>
@@ -20767,10 +20776,10 @@
         <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E107" s="15">
         <v>310102</v>
@@ -20815,10 +20824,10 @@
         <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E108" s="15">
         <v>310103</v>
@@ -20863,10 +20872,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E109" s="15">
         <v>310104</v>
@@ -20911,10 +20920,10 @@
         <v>105</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E110" s="15">
         <v>310105</v>
@@ -20959,10 +20968,10 @@
         <v>106</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E111" s="15">
         <v>310106</v>
@@ -21007,10 +21016,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E112" s="15">
         <v>310107</v>
@@ -21055,10 +21064,10 @@
         <v>108</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E113" s="15">
         <v>310108</v>
@@ -21103,10 +21112,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E114" s="15">
         <v>310109</v>
@@ -21151,10 +21160,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E115" s="15">
         <v>310110</v>
@@ -21199,10 +21208,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E116" s="15">
         <v>310111</v>
@@ -21247,10 +21256,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E117" s="15">
         <v>310112</v>
@@ -21295,10 +21304,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E118" s="15">
         <v>310113</v>
@@ -21343,10 +21352,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E119" s="15">
         <v>310114</v>
@@ -21391,10 +21400,10 @@
         <v>115</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E120" s="15">
         <v>310115</v>
@@ -21439,10 +21448,10 @@
         <v>116</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E121" s="15">
         <v>310116</v>
@@ -21487,10 +21496,10 @@
         <v>117</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E122" s="15">
         <v>310117</v>
@@ -21535,10 +21544,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E123" s="15">
         <v>310118</v>
@@ -21583,10 +21592,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E124" s="15">
         <v>310119</v>
@@ -21631,10 +21640,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E125" s="15">
         <v>310120</v>
@@ -21679,10 +21688,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E126" s="15">
         <v>310121</v>
@@ -21727,10 +21736,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E127" s="15">
         <v>310122</v>
@@ -21775,10 +21784,10 @@
         <v>123</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E128" s="15">
         <v>310123</v>
@@ -21823,10 +21832,10 @@
         <v>124</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E129" s="15">
         <v>310124</v>
@@ -21871,10 +21880,10 @@
         <v>125</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E130" s="15">
         <v>310125</v>
@@ -21919,10 +21928,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E131" s="15">
         <v>310126</v>
@@ -21970,7 +21979,7 @@
         <v>328</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E132" s="15">
         <v>310127</v>
@@ -22018,7 +22027,7 @@
         <v>330</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E133" s="15">
         <v>310128</v>
@@ -22066,7 +22075,7 @@
         <v>332</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E134" s="15">
         <v>310129</v>
@@ -22114,7 +22123,7 @@
         <v>334</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E135" s="15">
         <v>310130</v>
@@ -22162,7 +22171,7 @@
         <v>336</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E136" s="15">
         <v>310131</v>
@@ -22210,7 +22219,7 @@
         <v>338</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E137" s="15">
         <v>310132</v>
@@ -22258,7 +22267,7 @@
         <v>340</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E138" s="15">
         <v>310133</v>
@@ -22306,7 +22315,7 @@
         <v>342</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E139" s="15">
         <v>310134</v>
@@ -22354,7 +22363,7 @@
         <v>344</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E140" s="15">
         <v>310135</v>
@@ -22415,12 +22424,6 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22430,6 +22433,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE24E787-369A-45B9-879B-0B96127D4038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DDD369-23DF-477C-AEEA-E64E06958921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
     <sheet name="SkillStat_Table" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4816,11 +4817,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:W163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15522,6 +15523,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
@@ -15718,8 +15720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q141"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DDD369-23DF-477C-AEEA-E64E06958921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0FE738-5134-40A1-8378-7F1D5EF194C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -2499,16 +2499,6 @@
     <t>CoolTime</t>
   </si>
   <si>
-    <t>데미지</t>
-  </si>
-  <si>
-    <t>Dmg</t>
-  </si>
-  <si>
-    <t>Dmg_plus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2753,21 +2743,6 @@
     <t>[{60} / {120} / &lt;b&gt;{240}&lt;/b&gt;]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>데미지추가</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>크기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3794,6 +3769,22 @@
   <si>
     <t>[&lt;b&gt;{60%}&lt;/b&gt;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg_Percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg_Fix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 곱연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 합연산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4235,7 +4226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4335,11 +4326,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4347,23 +4338,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4389,11 +4371,26 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4401,10 +4398,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4824,29 +4818,29 @@
       <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="113.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="113.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="53.625" customWidth="1"/>
+    <col min="23" max="23" width="53.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -4859,46 +4853,46 @@
       <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="41"/>
+      <c r="V2" s="34"/>
       <c r="W2" s="35" t="s">
         <v>33</v>
       </c>
@@ -4914,9 +4908,9 @@
       <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4935,7 +4929,7 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="49"/>
+      <c r="Q3" s="46"/>
       <c r="R3" s="36"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
@@ -5155,7 +5149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="25.5">
+    <row r="7" spans="2:23" ht="27.6">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>53</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -5764,7 +5758,7 @@
         <v>53</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -6775,10 +6769,10 @@
 증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="U30" s="15" t="s">
         <v>53</v>
@@ -6844,10 +6838,10 @@
 증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다.</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="U31" s="15" t="s">
         <v>53</v>
@@ -6913,10 +6907,10 @@
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="U32" s="15" t="s">
         <v>53</v>
@@ -6925,7 +6919,7 @@
         <v>53</v>
       </c>
       <c r="W32" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="2:23">
@@ -7119,16 +7113,16 @@
 프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="W35" s="17"/>
     </row>
@@ -7203,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>135</v>
@@ -7254,16 +7248,16 @@
 프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다.</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="W37" s="19"/>
     </row>
@@ -7338,7 +7332,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>138</v>
@@ -7383,13 +7377,13 @@
         <v>910001</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U39" s="17" t="s">
         <v>53</v>
@@ -7404,7 +7398,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>139</v>
@@ -7470,7 +7464,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>140</v>
@@ -7515,13 +7509,13 @@
         <v>910001</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="U41" s="17" t="s">
         <v>53</v>
@@ -7536,7 +7530,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>141</v>
@@ -7602,7 +7596,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>142</v>
@@ -7647,13 +7641,13 @@
         <v>910001</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U43" s="17" t="s">
         <v>53</v>
@@ -7668,7 +7662,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>143</v>
@@ -7734,7 +7728,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>144</v>
@@ -7779,13 +7773,13 @@
         <v>910002</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="U45" s="17" t="s">
         <v>53</v>
@@ -7800,7 +7794,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>145</v>
@@ -7845,13 +7839,13 @@
         <v>910002</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U46" s="17" t="s">
         <v>53</v>
@@ -7866,7 +7860,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>146</v>
@@ -7914,10 +7908,10 @@
         <v>147</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="U47" s="17" t="s">
         <v>53</v>
@@ -7932,7 +7926,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>148</v>
@@ -7977,13 +7971,13 @@
         <v>910003</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U48" s="17" t="s">
         <v>53</v>
@@ -8043,13 +8037,13 @@
         <v>910003</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U49" s="17" t="s">
         <v>53</v>
@@ -8109,13 +8103,13 @@
         <v>910003</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U50" s="17" t="s">
         <v>53</v>
@@ -8175,13 +8169,13 @@
         <v>910004</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="U51" s="17" t="s">
         <v>53</v>
@@ -8241,13 +8235,13 @@
         <v>910004</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="U52" s="17" t="s">
         <v>53</v>
@@ -8307,13 +8301,13 @@
         <v>910004</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U53" s="17" t="s">
         <v>53</v>
@@ -8373,13 +8367,13 @@
         <v>910005</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U54" s="17" t="s">
         <v>53</v>
@@ -8439,13 +8433,13 @@
         <v>910005</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U55" s="17" t="s">
         <v>53</v>
@@ -8505,13 +8499,13 @@
         <v>910005</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U56" s="17" t="s">
         <v>53</v>
@@ -8571,13 +8565,13 @@
         <v>910006</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="U57" s="17" t="s">
         <v>53</v>
@@ -8637,13 +8631,13 @@
         <v>910006</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="U58" s="17" t="s">
         <v>53</v>
@@ -8703,13 +8697,13 @@
         <v>910006</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U59" s="17" t="s">
         <v>53</v>
@@ -8769,19 +8763,19 @@
         <v>910007</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V60" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="W60" s="17"/>
     </row>
@@ -8835,19 +8829,19 @@
         <v>910007</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="W61" s="17"/>
     </row>
@@ -8901,19 +8895,19 @@
         <v>910007</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U62" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="W62" s="17"/>
     </row>
@@ -8967,13 +8961,13 @@
         <v>910008</v>
       </c>
       <c r="R63" s="17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="S63" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="U63" s="17" t="s">
         <v>53</v>
@@ -9033,13 +9027,13 @@
         <v>910008</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U64" s="17" t="s">
         <v>53</v>
@@ -9099,13 +9093,13 @@
         <v>910008</v>
       </c>
       <c r="R65" s="17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="S65" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U65" s="17" t="s">
         <v>53</v>
@@ -9165,19 +9159,19 @@
         <v>910009</v>
       </c>
       <c r="R66" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="S66" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="U66" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V66" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="W66" s="19"/>
     </row>
@@ -9231,19 +9225,19 @@
         <v>910009</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W67" s="19"/>
     </row>
@@ -9297,19 +9291,19 @@
         <v>910009</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="W68" s="17"/>
     </row>
@@ -9363,13 +9357,13 @@
         <v>910010</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="U69" s="17" t="s">
         <v>53</v>
@@ -9429,13 +9423,13 @@
         <v>910010</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="U70" s="17" t="s">
         <v>53</v>
@@ -9495,13 +9489,13 @@
         <v>910010</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U71" s="17" t="s">
         <v>53</v>
@@ -9561,19 +9555,19 @@
         <v>910011</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W72" s="17"/>
     </row>
@@ -9627,19 +9621,19 @@
         <v>910011</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="W73" s="17"/>
     </row>
@@ -9693,19 +9687,19 @@
         <v>910011</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="V74" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="W74" s="17"/>
     </row>
@@ -9759,19 +9753,19 @@
         <v>910012</v>
       </c>
       <c r="R75" s="17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="S75" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="U75" s="17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V75" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="W75" s="17"/>
     </row>
@@ -9780,7 +9774,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>203</v>
@@ -9891,19 +9885,19 @@
         <v>910012</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V77" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="W77" s="17"/>
     </row>
@@ -9912,7 +9906,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>206</v>
@@ -10023,19 +10017,19 @@
         <v>910012</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V79" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="W79" s="17"/>
     </row>
@@ -10044,7 +10038,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>209</v>
@@ -10155,19 +10149,19 @@
         <v>910013</v>
       </c>
       <c r="R81" s="17" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U81" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V81" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="W81" s="19"/>
     </row>
@@ -10221,19 +10215,19 @@
         <v>910013</v>
       </c>
       <c r="R82" s="17" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U82" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V82" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="W82" s="17"/>
     </row>
@@ -10287,19 +10281,19 @@
         <v>910013</v>
       </c>
       <c r="R83" s="17" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="S83" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V83" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="W83" s="17"/>
     </row>
@@ -10308,7 +10302,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>216</v>
@@ -10419,13 +10413,13 @@
         <v>910014</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U85" s="15" t="s">
         <v>53</v>
@@ -10485,13 +10479,13 @@
         <v>910014</v>
       </c>
       <c r="R86" s="17" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="S86" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U86" s="15" t="s">
         <v>53</v>
@@ -10551,13 +10545,13 @@
         <v>910014</v>
       </c>
       <c r="R87" s="17" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="S87" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U87" s="15" t="s">
         <v>53</v>
@@ -10617,13 +10611,13 @@
         <v>910015</v>
       </c>
       <c r="R88" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="S88" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U88" s="15" t="s">
         <v>53</v>
@@ -10638,7 +10632,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>225</v>
@@ -10704,7 +10698,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>226</v>
@@ -10770,7 +10764,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>227</v>
@@ -10881,13 +10875,13 @@
         <v>910015</v>
       </c>
       <c r="R92" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="S92" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="U92" s="15" t="s">
         <v>53</v>
@@ -10902,7 +10896,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>230</v>
@@ -10968,7 +10962,7 @@
         <v>89</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>231</v>
@@ -11034,7 +11028,7 @@
         <v>90</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>232</v>
@@ -11145,13 +11139,13 @@
         <v>910015</v>
       </c>
       <c r="R96" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="S96" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="U96" s="15" t="s">
         <v>53</v>
@@ -11166,7 +11160,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>235</v>
@@ -11232,7 +11226,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>236</v>
@@ -11298,7 +11292,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>237</v>
@@ -11409,13 +11403,13 @@
         <v>910016</v>
       </c>
       <c r="R100" s="17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="S100" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U100" s="15" t="s">
         <v>53</v>
@@ -11475,13 +11469,13 @@
         <v>910016</v>
       </c>
       <c r="R101" s="17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="S101" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U101" s="15" t="s">
         <v>53</v>
@@ -11541,13 +11535,13 @@
         <v>910016</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="S102" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U102" s="15" t="s">
         <v>53</v>
@@ -11607,13 +11601,13 @@
         <v>910017</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="S103" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U103" s="15" t="s">
         <v>53</v>
@@ -11673,13 +11667,13 @@
         <v>910017</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U104" s="15" t="s">
         <v>53</v>
@@ -11739,13 +11733,13 @@
         <v>910017</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="S105" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U105" s="15" t="s">
         <v>53</v>
@@ -11805,13 +11799,13 @@
         <v>910018</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="S106" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T106" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="U106" s="15" t="s">
         <v>53</v>
@@ -11871,13 +11865,13 @@
         <v>910018</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="S107" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T107" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U107" s="15" t="s">
         <v>53</v>
@@ -11937,13 +11931,13 @@
         <v>910018</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="S108" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="U108" s="15" t="s">
         <v>53</v>
@@ -12003,13 +11997,13 @@
         <v>910019</v>
       </c>
       <c r="R109" s="17" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="S109" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T109" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="U109" s="15" t="s">
         <v>53</v>
@@ -12069,13 +12063,13 @@
         <v>910019</v>
       </c>
       <c r="R110" s="17" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="S110" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T110" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="U110" s="15" t="s">
         <v>53</v>
@@ -12135,13 +12129,13 @@
         <v>910019</v>
       </c>
       <c r="R111" s="17" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="S111" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T111" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="U111" s="17" t="s">
         <v>53</v>
@@ -12201,19 +12195,19 @@
         <v>910020</v>
       </c>
       <c r="R112" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="S112" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="U112" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V112" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="W112" s="17"/>
     </row>
@@ -12267,19 +12261,19 @@
         <v>910020</v>
       </c>
       <c r="R113" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="S113" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U113" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V113" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="W113" s="17"/>
     </row>
@@ -12333,19 +12327,19 @@
         <v>910020</v>
       </c>
       <c r="R114" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U114" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V114" s="17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="W114" s="17"/>
     </row>
@@ -12399,13 +12393,13 @@
         <v>910021</v>
       </c>
       <c r="R115" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="S115" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="U115" s="17" t="s">
         <v>53</v>
@@ -12465,13 +12459,13 @@
         <v>910021</v>
       </c>
       <c r="R116" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="S116" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U116" s="17" t="s">
         <v>53</v>
@@ -12531,13 +12525,13 @@
         <v>910021</v>
       </c>
       <c r="R117" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="S117" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U117" s="17" t="s">
         <v>53</v>
@@ -12597,13 +12591,13 @@
         <v>910022</v>
       </c>
       <c r="R118" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="S118" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U118" s="17" t="s">
         <v>53</v>
@@ -12663,13 +12657,13 @@
         <v>910022</v>
       </c>
       <c r="R119" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="S119" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U119" s="17" t="s">
         <v>53</v>
@@ -12729,13 +12723,13 @@
         <v>910022</v>
       </c>
       <c r="R120" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="S120" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U120" s="17" t="s">
         <v>53</v>
@@ -12795,13 +12789,13 @@
         <v>910024</v>
       </c>
       <c r="R121" s="17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="S121" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U121" s="17" t="s">
         <v>53</v>
@@ -12861,13 +12855,13 @@
         <v>910024</v>
       </c>
       <c r="R122" s="17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="S122" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U122" s="17" t="s">
         <v>53</v>
@@ -12927,13 +12921,13 @@
         <v>910024</v>
       </c>
       <c r="R123" s="17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="S123" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U123" s="17" t="s">
         <v>53</v>
@@ -12993,19 +12987,19 @@
         <v>910025</v>
       </c>
       <c r="R124" s="17" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="S124" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U124" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V124" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="W124" s="17"/>
     </row>
@@ -13059,19 +13053,19 @@
         <v>910025</v>
       </c>
       <c r="R125" s="17" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="S125" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U125" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V125" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="W125" s="17"/>
     </row>
@@ -13125,19 +13119,19 @@
         <v>910025</v>
       </c>
       <c r="R126" s="17" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="S126" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U126" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V126" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="W126" s="17"/>
     </row>
@@ -13191,13 +13185,13 @@
         <v>910026</v>
       </c>
       <c r="R127" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="S127" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="U127" s="15" t="s">
         <v>53</v>
@@ -13257,13 +13251,13 @@
         <v>910026</v>
       </c>
       <c r="R128" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="S128" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U128" s="15" t="s">
         <v>53</v>
@@ -13323,13 +13317,13 @@
         <v>910026</v>
       </c>
       <c r="R129" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="S129" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U129" s="15" t="s">
         <v>53</v>
@@ -13389,19 +13383,19 @@
         <v>910027</v>
       </c>
       <c r="R130" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="S130" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="U130" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V130" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="W130" s="17"/>
     </row>
@@ -13410,7 +13404,7 @@
         <v>126</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>300</v>
@@ -13476,7 +13470,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>301</v>
@@ -13542,7 +13536,7 @@
         <v>128</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>302</v>
@@ -13608,7 +13602,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>303</v>
@@ -13719,19 +13713,19 @@
         <v>910027</v>
       </c>
       <c r="R135" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="S135" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U135" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V135" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="W135" s="17"/>
     </row>
@@ -13740,7 +13734,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>306</v>
@@ -13806,7 +13800,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>307</v>
@@ -13872,7 +13866,7 @@
         <v>133</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>308</v>
@@ -13938,7 +13932,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>309</v>
@@ -14049,19 +14043,19 @@
         <v>910027</v>
       </c>
       <c r="R140" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="S140" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U140" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V140" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="W140" s="17"/>
     </row>
@@ -14070,7 +14064,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>312</v>
@@ -14136,7 +14130,7 @@
         <v>137</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>313</v>
@@ -14202,7 +14196,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>314</v>
@@ -14268,7 +14262,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>315</v>
@@ -14379,13 +14373,13 @@
         <v>910023</v>
       </c>
       <c r="R145" s="17" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="S145" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="U145" s="15" t="s">
         <v>53</v>
@@ -14400,7 +14394,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>318</v>
@@ -14466,7 +14460,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>319</v>
@@ -14577,13 +14571,13 @@
         <v>910023</v>
       </c>
       <c r="R148" s="17" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="S148" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T148" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="U148" s="15" t="s">
         <v>53</v>
@@ -14598,7 +14592,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>322</v>
@@ -14664,7 +14658,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>323</v>
@@ -14775,13 +14769,13 @@
         <v>910023</v>
       </c>
       <c r="R151" s="17" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="S151" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U151" s="15" t="s">
         <v>53</v>
@@ -14796,7 +14790,7 @@
         <v>147</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>326</v>
@@ -14862,7 +14856,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>327</v>
@@ -15525,6 +15519,12 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15534,12 +15534,6 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15724,26 +15718,26 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" customWidth="1"/>
+    <col min="10" max="10" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
@@ -15759,36 +15753,36 @@
       <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>355</v>
+      <c r="G2" s="56"/>
+      <c r="H2" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>775</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>352</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L2" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="N2" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="M2" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>366</v>
+      <c r="O2" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>363</v>
       </c>
       <c r="Q2" s="51" t="s">
         <v>33</v>
@@ -15805,15 +15799,15 @@
       <c r="G3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="M3" s="34"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="52"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="2:17">
@@ -15836,31 +15830,31 @@
         <v>350</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>352</v>
+        <v>772</v>
       </c>
       <c r="I4" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>356</v>
-      </c>
       <c r="K4" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="N4" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>363</v>
-      </c>
       <c r="O4" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>34</v>
@@ -15889,7 +15883,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>21</v>
@@ -15924,7 +15918,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E6" s="15">
         <v>310001</v>
@@ -15972,7 +15966,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E7" s="15">
         <v>310002</v>
@@ -16020,7 +16014,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E8" s="15">
         <v>310003</v>
@@ -16068,7 +16062,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E9" s="15">
         <v>310004</v>
@@ -16116,7 +16110,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E10" s="15">
         <v>310005</v>
@@ -16155,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -16166,7 +16160,7 @@
         <v>116</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E11" s="15">
         <v>310006</v>
@@ -16205,7 +16199,7 @@
         <v>300024</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -16216,7 +16210,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E12" s="15">
         <v>310007</v>
@@ -16255,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -16263,10 +16257,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E13" s="15">
         <v>310008</v>
@@ -16311,10 +16305,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E14" s="15">
         <v>310009</v>
@@ -16359,10 +16353,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E15" s="15">
         <v>310010</v>
@@ -16407,10 +16401,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E16" s="15">
         <v>310011</v>
@@ -16455,10 +16449,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E17" s="15">
         <v>310012</v>
@@ -16503,10 +16497,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E18" s="15">
         <v>310013</v>
@@ -16551,10 +16545,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E19" s="15">
         <v>310014</v>
@@ -16599,10 +16593,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E20" s="15">
         <v>310015</v>
@@ -16647,10 +16641,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E21" s="15">
         <v>310016</v>
@@ -16695,10 +16689,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E22" s="15">
         <v>310017</v>
@@ -16743,10 +16737,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E23" s="15">
         <v>310018</v>
@@ -16791,10 +16785,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E24" s="15">
         <v>310019</v>
@@ -16839,10 +16833,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E25" s="15">
         <v>310020</v>
@@ -16887,10 +16881,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E26" s="15">
         <v>310021</v>
@@ -16935,10 +16929,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E27" s="15">
         <v>310022</v>
@@ -16983,10 +16977,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E28" s="15">
         <v>310023</v>
@@ -17031,10 +17025,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E29" s="15">
         <v>310024</v>
@@ -17079,10 +17073,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E30" s="15">
         <v>310025</v>
@@ -17127,10 +17121,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E31" s="15">
         <v>310026</v>
@@ -17175,10 +17169,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E32" s="15">
         <v>310027</v>
@@ -17223,10 +17217,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E33" s="15">
         <v>310028</v>
@@ -17271,10 +17265,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E34" s="15">
         <v>310029</v>
@@ -17319,10 +17313,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E35" s="15">
         <v>310030</v>
@@ -17367,10 +17361,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E36" s="15">
         <v>310031</v>
@@ -17415,10 +17409,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E37" s="15">
         <v>310032</v>
@@ -17463,10 +17457,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E38" s="15">
         <v>310033</v>
@@ -17511,10 +17505,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E39" s="15">
         <v>310034</v>
@@ -17559,10 +17553,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E40" s="15">
         <v>310035</v>
@@ -17607,10 +17601,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E41" s="15">
         <v>310036</v>
@@ -17655,10 +17649,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E42" s="15">
         <v>310037</v>
@@ -17703,10 +17697,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E43" s="15">
         <v>310038</v>
@@ -17751,10 +17745,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E44" s="15">
         <v>310039</v>
@@ -17799,10 +17793,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E45" s="15">
         <v>310040</v>
@@ -17847,10 +17841,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E46" s="15">
         <v>310041</v>
@@ -17895,10 +17889,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E47" s="15">
         <v>310042</v>
@@ -17943,10 +17937,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E48" s="15">
         <v>310043</v>
@@ -17991,10 +17985,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E49" s="15">
         <v>310044</v>
@@ -18039,10 +18033,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E50" s="15">
         <v>310045</v>
@@ -18087,10 +18081,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E51" s="15">
         <v>310046</v>
@@ -18135,10 +18129,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E52" s="15">
         <v>310047</v>
@@ -18183,10 +18177,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E53" s="15">
         <v>310048</v>
@@ -18231,10 +18225,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E54" s="15">
         <v>310049</v>
@@ -18279,10 +18273,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E55" s="15">
         <v>310050</v>
@@ -18327,10 +18321,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E56" s="15">
         <v>310051</v>
@@ -18375,10 +18369,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E57" s="15">
         <v>310052</v>
@@ -18423,10 +18417,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E58" s="15">
         <v>310053</v>
@@ -18471,10 +18465,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E59" s="15">
         <v>310054</v>
@@ -18519,10 +18513,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E60" s="15">
         <v>310055</v>
@@ -18567,10 +18561,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E61" s="15">
         <v>310056</v>
@@ -18615,10 +18609,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E62" s="15">
         <v>310057</v>
@@ -18663,10 +18657,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E63" s="15">
         <v>310058</v>
@@ -18711,10 +18705,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E64" s="15">
         <v>310059</v>
@@ -18759,10 +18753,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E65" s="15">
         <v>310060</v>
@@ -18807,10 +18801,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E66" s="15">
         <v>310061</v>
@@ -18855,10 +18849,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E67" s="15">
         <v>310062</v>
@@ -18903,10 +18897,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E68" s="15">
         <v>310063</v>
@@ -18951,10 +18945,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E69" s="15">
         <v>310064</v>
@@ -18999,10 +18993,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E70" s="15">
         <v>310065</v>
@@ -19047,10 +19041,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E71" s="15">
         <v>310066</v>
@@ -19097,10 +19091,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E72" s="15">
         <v>310067</v>
@@ -19147,10 +19141,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E73" s="15">
         <v>310068</v>
@@ -19197,10 +19191,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E74" s="15">
         <v>310069</v>
@@ -19245,10 +19239,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E75" s="15">
         <v>310070</v>
@@ -19293,10 +19287,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E76" s="15">
         <v>310071</v>
@@ -19341,10 +19335,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E77" s="15">
         <v>310072</v>
@@ -19389,10 +19383,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E78" s="15">
         <v>310073</v>
@@ -19437,10 +19431,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E79" s="15">
         <v>310074</v>
@@ -19485,10 +19479,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E80" s="15">
         <v>310075</v>
@@ -19533,10 +19527,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E81" s="15">
         <v>310076</v>
@@ -19581,10 +19575,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E82" s="15">
         <v>310077</v>
@@ -19629,10 +19623,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E83" s="15">
         <v>310078</v>
@@ -19677,10 +19671,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E84" s="15">
         <v>310079</v>
@@ -19725,10 +19719,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E85" s="15">
         <v>310080</v>
@@ -19773,10 +19767,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E86" s="15">
         <v>310081</v>
@@ -19821,10 +19815,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E87" s="15">
         <v>310082</v>
@@ -19869,10 +19863,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E88" s="15">
         <v>310083</v>
@@ -19917,10 +19911,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E89" s="15">
         <v>310084</v>
@@ -19965,10 +19959,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E90" s="15">
         <v>310085</v>
@@ -20013,10 +20007,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E91" s="15">
         <v>310086</v>
@@ -20061,10 +20055,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E92" s="15">
         <v>310087</v>
@@ -20109,10 +20103,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E93" s="15">
         <v>310088</v>
@@ -20157,10 +20151,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E94" s="15">
         <v>310089</v>
@@ -20205,10 +20199,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E95" s="15">
         <v>310090</v>
@@ -20253,10 +20247,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E96" s="15">
         <v>310091</v>
@@ -20301,10 +20295,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E97" s="15">
         <v>310092</v>
@@ -20349,10 +20343,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E98" s="15">
         <v>310093</v>
@@ -20397,10 +20391,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E99" s="15">
         <v>310094</v>
@@ -20445,10 +20439,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E100" s="15">
         <v>310095</v>
@@ -20493,10 +20487,10 @@
         <v>96</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E101" s="15">
         <v>310096</v>
@@ -20541,10 +20535,10 @@
         <v>97</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E102" s="15">
         <v>310097</v>
@@ -20589,10 +20583,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E103" s="15">
         <v>310098</v>
@@ -20637,10 +20631,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E104" s="15">
         <v>310099</v>
@@ -20685,10 +20679,10 @@
         <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E105" s="15">
         <v>310100</v>
@@ -20733,10 +20727,10 @@
         <v>101</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E106" s="15">
         <v>310101</v>
@@ -20781,10 +20775,10 @@
         <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E107" s="15">
         <v>310102</v>
@@ -20829,10 +20823,10 @@
         <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E108" s="15">
         <v>310103</v>
@@ -20877,10 +20871,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E109" s="15">
         <v>310104</v>
@@ -20925,10 +20919,10 @@
         <v>105</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E110" s="15">
         <v>310105</v>
@@ -20973,10 +20967,10 @@
         <v>106</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E111" s="15">
         <v>310106</v>
@@ -21021,10 +21015,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E112" s="15">
         <v>310107</v>
@@ -21069,10 +21063,10 @@
         <v>108</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E113" s="15">
         <v>310108</v>
@@ -21117,10 +21111,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E114" s="15">
         <v>310109</v>
@@ -21165,10 +21159,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E115" s="15">
         <v>310110</v>
@@ -21213,10 +21207,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E116" s="15">
         <v>310111</v>
@@ -21261,10 +21255,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E117" s="15">
         <v>310112</v>
@@ -21309,10 +21303,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E118" s="15">
         <v>310113</v>
@@ -21357,10 +21351,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E119" s="15">
         <v>310114</v>
@@ -21405,10 +21399,10 @@
         <v>115</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E120" s="15">
         <v>310115</v>
@@ -21453,10 +21447,10 @@
         <v>116</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E121" s="15">
         <v>310116</v>
@@ -21501,10 +21495,10 @@
         <v>117</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E122" s="15">
         <v>310117</v>
@@ -21549,10 +21543,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E123" s="15">
         <v>310118</v>
@@ -21597,10 +21591,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E124" s="15">
         <v>310119</v>
@@ -21645,10 +21639,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E125" s="15">
         <v>310120</v>
@@ -21693,10 +21687,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E126" s="15">
         <v>310121</v>
@@ -21741,10 +21735,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E127" s="15">
         <v>310122</v>
@@ -21789,10 +21783,10 @@
         <v>123</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E128" s="15">
         <v>310123</v>
@@ -21837,10 +21831,10 @@
         <v>124</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E129" s="15">
         <v>310124</v>
@@ -21885,10 +21879,10 @@
         <v>125</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E130" s="15">
         <v>310125</v>
@@ -21933,10 +21927,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E131" s="15">
         <v>310126</v>
@@ -21984,7 +21978,7 @@
         <v>328</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E132" s="15">
         <v>310127</v>
@@ -22032,7 +22026,7 @@
         <v>330</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E133" s="15">
         <v>310128</v>
@@ -22080,7 +22074,7 @@
         <v>332</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E134" s="15">
         <v>310129</v>
@@ -22128,7 +22122,7 @@
         <v>334</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E135" s="15">
         <v>310130</v>
@@ -22176,7 +22170,7 @@
         <v>336</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E136" s="15">
         <v>310131</v>
@@ -22224,7 +22218,7 @@
         <v>338</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E137" s="15">
         <v>310132</v>
@@ -22272,7 +22266,7 @@
         <v>340</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E138" s="15">
         <v>310133</v>
@@ -22320,7 +22314,7 @@
         <v>342</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E139" s="15">
         <v>310134</v>
@@ -22368,7 +22362,7 @@
         <v>344</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E140" s="15">
         <v>310135</v>
@@ -22429,6 +22423,12 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22438,12 +22438,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0FE738-5134-40A1-8378-7F1D5EF194C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3933C-BCA2-4CF0-8686-66870CECAB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$140</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4326,11 +4326,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4338,14 +4338,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4371,26 +4380,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4399,6 +4393,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4818,29 +4818,29 @@
       <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="113.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="113.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="53.59765625" customWidth="1"/>
+    <col min="23" max="23" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -4853,46 +4853,46 @@
       <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="T2" s="41"/>
+      <c r="U2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="34"/>
+      <c r="V2" s="41"/>
       <c r="W2" s="35" t="s">
         <v>33</v>
       </c>
@@ -4908,9 +4908,9 @@
       <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="46"/>
+      <c r="Q3" s="49"/>
       <c r="R3" s="36"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
@@ -5149,7 +5149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="27.6">
+    <row r="7" spans="2:23" ht="25.5">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -15519,12 +15519,6 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15534,6 +15528,12 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15718,26 +15718,26 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" customWidth="1"/>
-    <col min="9" max="9" width="11.8984375" customWidth="1"/>
-    <col min="10" max="10" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.09765625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
@@ -15753,17 +15753,17 @@
       <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="33" t="s">
         <v>774</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="55" t="s">
         <v>775</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="33" t="s">
         <v>352</v>
       </c>
       <c r="K2" s="51" t="s">
@@ -15772,16 +15772,16 @@
       <c r="L2" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="57" t="s">
         <v>432</v>
       </c>
       <c r="N2" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="33" t="s">
         <v>363</v>
       </c>
       <c r="Q2" s="51" t="s">
@@ -15799,15 +15799,15 @@
       <c r="G3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="M3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="52"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="2:17">
@@ -15936,7 +15936,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K6" s="29">
         <v>10</v>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="15">
         <v>1</v>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7" s="29">
         <v>10</v>
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="15">
         <v>1</v>
@@ -16032,7 +16032,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K8" s="29">
         <v>10</v>
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="15">
         <v>1</v>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K9" s="29">
         <v>10</v>
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="15">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="29">
         <v>10</v>
@@ -16137,7 +16137,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N10" s="15">
         <v>1</v>
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="29">
         <v>10</v>
@@ -16187,7 +16187,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="15">
         <v>1</v>
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="29">
         <v>10</v>
@@ -16287,7 +16287,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N13" s="15">
         <v>1</v>
@@ -16335,7 +16335,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="15">
         <v>1</v>
@@ -16527,7 +16527,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="15">
         <v>1</v>
@@ -16623,7 +16623,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N20" s="15">
         <v>1</v>
@@ -16719,7 +16719,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="15">
         <v>1</v>
@@ -16815,7 +16815,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N24" s="15">
         <v>1</v>
@@ -16863,7 +16863,7 @@
         <v>100</v>
       </c>
       <c r="M25" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N25" s="15">
         <v>1</v>
@@ -16911,7 +16911,7 @@
         <v>100</v>
       </c>
       <c r="M26" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N26" s="15">
         <v>1</v>
@@ -17103,7 +17103,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N30" s="15">
         <v>1</v>
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N31" s="15">
         <v>1</v>
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N32" s="15">
         <v>1</v>
@@ -17391,7 +17391,7 @@
         <v>100</v>
       </c>
       <c r="M36" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N36" s="15">
         <v>1</v>
@@ -17439,7 +17439,7 @@
         <v>100</v>
       </c>
       <c r="M37" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N37" s="15">
         <v>1</v>
@@ -17487,7 +17487,7 @@
         <v>100</v>
       </c>
       <c r="M38" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N38" s="15">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N42" s="15">
         <v>1</v>
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N43" s="15">
         <v>1</v>
@@ -17775,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N44" s="15">
         <v>1</v>
@@ -18111,7 +18111,7 @@
         <v>100</v>
       </c>
       <c r="M51" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N51" s="15">
         <v>1</v>
@@ -18159,7 +18159,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N52" s="15">
         <v>1</v>
@@ -18207,7 +18207,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N53" s="15">
         <v>1</v>
@@ -18255,7 +18255,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N54" s="15">
         <v>1</v>
@@ -18351,7 +18351,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N56" s="15">
         <v>1</v>
@@ -18447,7 +18447,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N58" s="15">
         <v>1</v>
@@ -18831,7 +18831,7 @@
         <v>1</v>
       </c>
       <c r="M66" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N66" s="15">
         <v>1</v>
@@ -18879,7 +18879,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N67" s="15">
         <v>1</v>
@@ -18927,7 +18927,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N68" s="15">
         <v>1</v>
@@ -18975,7 +18975,7 @@
         <v>1</v>
       </c>
       <c r="M69" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N69" s="15">
         <v>1</v>
@@ -19023,7 +19023,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N70" s="15">
         <v>1</v>
@@ -19071,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="M71" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N71" s="15">
         <v>1</v>
@@ -19121,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N72" s="15">
         <v>1</v>
@@ -19171,7 +19171,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N73" s="15">
         <v>1</v>
@@ -19221,7 +19221,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N74" s="15">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N75" s="15">
         <v>1</v>
@@ -19317,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N76" s="15">
         <v>1</v>
@@ -19365,7 +19365,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N77" s="15">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N93" s="15">
         <v>1</v>
@@ -20181,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N94" s="15">
         <v>1</v>
@@ -20229,7 +20229,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N95" s="15">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         <v>5</v>
       </c>
       <c r="M96" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N96" s="15">
         <v>1</v>
@@ -20325,7 +20325,7 @@
         <v>5</v>
       </c>
       <c r="M97" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N97" s="15">
         <v>1</v>
@@ -20373,7 +20373,7 @@
         <v>5</v>
       </c>
       <c r="M98" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N98" s="15">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         <v>100</v>
       </c>
       <c r="M105" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N105" s="15">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>100</v>
       </c>
       <c r="M106" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N106" s="15">
         <v>1</v>
@@ -20805,7 +20805,7 @@
         <v>100</v>
       </c>
       <c r="M107" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N107" s="15">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         <v>10</v>
       </c>
       <c r="M132" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N132" s="15">
         <v>1</v>
@@ -22053,7 +22053,7 @@
         <v>10</v>
       </c>
       <c r="M133" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N133" s="15">
         <v>1</v>
@@ -22101,7 +22101,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N134" s="15">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         <v>1</v>
       </c>
       <c r="M135" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N135" s="15">
         <v>1</v>
@@ -22197,7 +22197,7 @@
         <v>1</v>
       </c>
       <c r="M136" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N136" s="15">
         <v>1</v>
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="M137" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N137" s="15">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         <v>1</v>
       </c>
       <c r="M138" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N138" s="15">
         <v>1</v>
@@ -22341,7 +22341,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N139" s="15">
         <v>1</v>
@@ -22389,7 +22389,7 @@
         <v>1</v>
       </c>
       <c r="M140" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="N140" s="15">
         <v>1</v>
@@ -22423,12 +22423,6 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22438,6 +22432,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3933C-BCA2-4CF0-8686-66870CECAB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AFE926-F078-4546-AF64-89F6E7D31C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="17490" yWindow="4830" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$140</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -737,137 +737,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1DE4683D-C750-421D-8603-8DE00CA54DC7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대상의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>팀</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">구분
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 = </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자신</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G3" authorId="0" shapeId="0" xr:uid="{F7F92137-EDB8-4055-BB89-9E286CCF59A1}">
       <text>
         <r>
@@ -1393,7 +1262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="775">
   <si>
     <t>번호</t>
   </si>
@@ -1501,9 +1370,6 @@
   </si>
   <si>
     <t>Component</t>
-  </si>
-  <si>
-    <t>타겟 정보</t>
   </si>
   <si>
     <t>스킬 사용
@@ -4005,7 +3871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4220,13 +4086,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4329,8 +4206,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4338,23 +4218,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4380,16 +4251,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4399,6 +4270,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4815,7 +4701,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4826,7 +4712,7 @@
     <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="8.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
@@ -4844,73 +4730,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="J2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="K2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48" t="s">
+      <c r="R2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="35"/>
+      <c r="U2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4929,21 +4813,21 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="36"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="37"/>
       <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="36"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="4" t="s">
@@ -4959,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -4998,16 +4882,16 @@
         <v>32</v>
       </c>
       <c r="S4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>34</v>
@@ -5078,7 +4962,7 @@
         <v>6</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:23">
@@ -5086,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="E6" s="13">
         <v>300001</v>
@@ -5131,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="25.5">
@@ -5154,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="E7" s="13">
         <v>300002</v>
@@ -5199,22 +5083,22 @@
         <v>0</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -5222,10 +5106,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="E8" s="13">
         <v>300003</v>
@@ -5267,22 +5151,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:23">
@@ -5290,10 +5174,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="13">
         <v>300004</v>
@@ -5335,22 +5219,22 @@
         <v>0</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:23">
@@ -5358,10 +5242,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="13">
         <v>300005</v>
@@ -5403,22 +5287,22 @@
         <v>0</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:23">
@@ -5426,10 +5310,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="13">
         <v>300006</v>
@@ -5471,22 +5355,22 @@
         <v>0</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:23">
@@ -5494,10 +5378,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="E12" s="13">
         <v>300007</v>
@@ -5539,22 +5423,22 @@
         <v>0</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:23">
@@ -5562,10 +5446,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="13">
         <v>300008</v>
@@ -5607,22 +5491,22 @@
         <v>0</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:23">
@@ -5630,10 +5514,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="13">
         <v>300009</v>
@@ -5675,22 +5559,22 @@
         <v>0</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:23">
@@ -5698,10 +5582,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="E15" s="13">
         <v>300010</v>
@@ -5743,22 +5627,22 @@
         <v>0</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -5766,10 +5650,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E16" s="13">
         <v>300011</v>
@@ -5811,22 +5695,22 @@
         <v>0</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:23">
@@ -5834,10 +5718,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="E17" s="13">
         <v>300012</v>
@@ -5879,22 +5763,22 @@
         <v>0</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:23">
@@ -5902,10 +5786,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="13">
         <v>300013</v>
@@ -5947,22 +5831,22 @@
         <v>0</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -5970,10 +5854,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="E19" s="13">
         <v>300014</v>
@@ -6015,22 +5899,22 @@
         <v>0</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:23">
@@ -6038,10 +5922,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="E20" s="13">
         <v>300015</v>
@@ -6083,22 +5967,22 @@
         <v>0</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:23">
@@ -6106,10 +5990,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E21" s="13">
         <v>300016</v>
@@ -6151,22 +6035,22 @@
         <v>0</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:23">
@@ -6174,10 +6058,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="E22" s="13">
         <v>300017</v>
@@ -6219,22 +6103,22 @@
         <v>0</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:23">
@@ -6242,10 +6126,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="E23" s="13">
         <v>300018</v>
@@ -6287,22 +6171,22 @@
         <v>0</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:23">
@@ -6310,10 +6194,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="E24" s="13">
         <v>300019</v>
@@ -6355,22 +6239,22 @@
         <v>0</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:23">
@@ -6378,10 +6262,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="E25" s="13">
         <v>300020</v>
@@ -6423,22 +6307,22 @@
         <v>0</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:23">
@@ -6446,10 +6330,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="E26" s="13">
         <v>300021</v>
@@ -6491,22 +6375,22 @@
         <v>0</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:23">
@@ -6514,10 +6398,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="E27" s="13">
         <v>300022</v>
@@ -6559,22 +6443,22 @@
         <v>0</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:23">
@@ -6582,10 +6466,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="E28" s="13">
         <v>300023</v>
@@ -6627,22 +6511,22 @@
         <v>0</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:23">
@@ -6650,10 +6534,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="E29" s="13">
         <v>300024</v>
@@ -6695,22 +6579,22 @@
         <v>0</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:23">
@@ -6718,10 +6602,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="E30" s="13">
         <v>300025</v>
@@ -6769,16 +6653,16 @@
 증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W30" s="17"/>
     </row>
@@ -6787,10 +6671,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="E31" s="13">
         <v>300026</v>
@@ -6838,16 +6722,16 @@
 증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다.</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W31" s="17"/>
     </row>
@@ -6856,10 +6740,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="E32" s="13">
         <v>300027</v>
@@ -6907,19 +6791,19 @@
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
       <c r="S32" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W32" s="16" t="s">
         <v>690</v>
-      </c>
-      <c r="T32" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="33" spans="2:23">
@@ -6927,10 +6811,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="E33" s="13">
         <v>300028</v>
@@ -6972,19 +6856,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V33" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W33" s="17"/>
     </row>
@@ -6993,10 +6877,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="E34" s="13">
         <v>300029</v>
@@ -7044,16 +6928,16 @@
 지옥의 군주 체력이 50%이하라면, 피해량의 10%만큼 체력을 회복합니다.</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W34" s="17"/>
     </row>
@@ -7062,10 +6946,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="E35" s="13">
         <v>300030</v>
@@ -7113,16 +6997,16 @@
 프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="W35" s="17"/>
     </row>
@@ -7131,10 +7015,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="E36" s="13">
         <v>300031</v>
@@ -7176,19 +7060,19 @@
         <v>0</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W36" s="19"/>
     </row>
@@ -7197,10 +7081,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="13">
         <v>300032</v>
@@ -7248,16 +7132,16 @@
 프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다.</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W37" s="19"/>
     </row>
@@ -7266,10 +7150,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E38" s="13">
         <v>300033</v>
@@ -7311,19 +7195,19 @@
         <v>0</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W38" s="15"/>
     </row>
@@ -7332,10 +7216,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" s="13">
         <v>300034</v>
@@ -7377,19 +7261,19 @@
         <v>910001</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W39" s="17"/>
     </row>
@@ -7398,10 +7282,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="13">
         <v>300035</v>
@@ -7443,19 +7327,19 @@
         <v>0</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W40" s="15"/>
     </row>
@@ -7464,10 +7348,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="13">
         <v>300036</v>
@@ -7509,19 +7393,19 @@
         <v>910001</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W41" s="19"/>
     </row>
@@ -7530,10 +7414,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="13">
         <v>300037</v>
@@ -7575,19 +7459,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W42" s="19"/>
     </row>
@@ -7596,10 +7480,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="13">
         <v>300038</v>
@@ -7641,19 +7525,19 @@
         <v>910001</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W43" s="17"/>
     </row>
@@ -7662,10 +7546,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" s="13">
         <v>300039</v>
@@ -7707,19 +7591,19 @@
         <v>0</v>
       </c>
       <c r="R44" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W44" s="15"/>
     </row>
@@ -7728,10 +7612,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="13">
         <v>300040</v>
@@ -7773,19 +7657,19 @@
         <v>910002</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W45" s="17"/>
     </row>
@@ -7794,10 +7678,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="13">
         <v>300041</v>
@@ -7839,19 +7723,19 @@
         <v>910002</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W46" s="17"/>
     </row>
@@ -7860,10 +7744,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="13">
         <v>300042</v>
@@ -7905,19 +7789,19 @@
         <v>910002</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W47" s="17"/>
     </row>
@@ -7926,10 +7810,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="13">
         <v>300043</v>
@@ -7971,19 +7855,19 @@
         <v>910003</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W48" s="17"/>
     </row>
@@ -7992,10 +7876,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="E49" s="13">
         <v>300044</v>
@@ -8037,19 +7921,19 @@
         <v>910003</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W49" s="17"/>
     </row>
@@ -8058,10 +7942,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="E50" s="13">
         <v>300045</v>
@@ -8103,19 +7987,19 @@
         <v>910003</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W50" s="17"/>
     </row>
@@ -8124,10 +8008,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="E51" s="13">
         <v>300046</v>
@@ -8169,19 +8053,19 @@
         <v>910004</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W51" s="17"/>
     </row>
@@ -8190,10 +8074,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="E52" s="13">
         <v>300047</v>
@@ -8235,19 +8119,19 @@
         <v>910004</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W52" s="17"/>
     </row>
@@ -8256,10 +8140,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="E53" s="13">
         <v>300048</v>
@@ -8301,19 +8185,19 @@
         <v>910004</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W53" s="17"/>
     </row>
@@ -8322,10 +8206,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="E54" s="13">
         <v>300049</v>
@@ -8367,19 +8251,19 @@
         <v>910005</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U54" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V54" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W54" s="17"/>
     </row>
@@ -8388,10 +8272,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="E55" s="13">
         <v>300050</v>
@@ -8433,19 +8317,19 @@
         <v>910005</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U55" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V55" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W55" s="17"/>
     </row>
@@ -8454,10 +8338,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="E56" s="13">
         <v>300051</v>
@@ -8499,19 +8383,19 @@
         <v>910005</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U56" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W56" s="17"/>
     </row>
@@ -8520,10 +8404,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="E57" s="13">
         <v>300052</v>
@@ -8565,19 +8449,19 @@
         <v>910006</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U57" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V57" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W57" s="17"/>
     </row>
@@ -8586,10 +8470,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="E58" s="13">
         <v>300053</v>
@@ -8631,19 +8515,19 @@
         <v>910006</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U58" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V58" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W58" s="19"/>
     </row>
@@ -8652,10 +8536,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="E59" s="13">
         <v>300054</v>
@@ -8697,19 +8581,19 @@
         <v>910006</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V59" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W59" s="19"/>
     </row>
@@ -8718,10 +8602,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="E60" s="13">
         <v>300055</v>
@@ -8763,19 +8647,19 @@
         <v>910007</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V60" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W60" s="17"/>
     </row>
@@ -8784,10 +8668,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="E61" s="13">
         <v>300056</v>
@@ -8829,19 +8713,19 @@
         <v>910007</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W61" s="17"/>
     </row>
@@ -8850,10 +8734,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="E62" s="13">
         <v>300057</v>
@@ -8895,19 +8779,19 @@
         <v>910007</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U62" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W62" s="17"/>
     </row>
@@ -8916,10 +8800,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="E63" s="13">
         <v>300058</v>
@@ -8961,19 +8845,19 @@
         <v>910008</v>
       </c>
       <c r="R63" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S63" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U63" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V63" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W63" s="17"/>
     </row>
@@ -8982,10 +8866,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="E64" s="13">
         <v>300059</v>
@@ -9027,19 +8911,19 @@
         <v>910008</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U64" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V64" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W64" s="17"/>
     </row>
@@ -9048,10 +8932,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="E65" s="13">
         <v>300060</v>
@@ -9093,19 +8977,19 @@
         <v>910008</v>
       </c>
       <c r="R65" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S65" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U65" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V65" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W65" s="17"/>
     </row>
@@ -9114,10 +8998,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="E66" s="13">
         <v>300061</v>
@@ -9159,19 +9043,19 @@
         <v>910009</v>
       </c>
       <c r="R66" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S66" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T66" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="U66" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="V66" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="U66" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="V66" s="17" t="s">
-        <v>391</v>
       </c>
       <c r="W66" s="19"/>
     </row>
@@ -9180,10 +9064,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="E67" s="13">
         <v>300062</v>
@@ -9225,19 +9109,19 @@
         <v>910009</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T67" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="U67" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="V67" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="U67" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="V67" s="17" t="s">
-        <v>393</v>
       </c>
       <c r="W67" s="19"/>
     </row>
@@ -9246,10 +9130,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="E68" s="13">
         <v>300063</v>
@@ -9291,19 +9175,19 @@
         <v>910009</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T68" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="U68" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="V68" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="U68" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="V68" s="17" t="s">
-        <v>395</v>
       </c>
       <c r="W68" s="17"/>
     </row>
@@ -9312,10 +9196,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="E69" s="13">
         <v>300064</v>
@@ -9357,19 +9241,19 @@
         <v>910010</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V69" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W69" s="17"/>
     </row>
@@ -9378,10 +9262,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="E70" s="13">
         <v>300065</v>
@@ -9423,19 +9307,19 @@
         <v>910010</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V70" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W70" s="17"/>
     </row>
@@ -9444,10 +9328,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="E71" s="13">
         <v>300066</v>
@@ -9489,19 +9373,19 @@
         <v>910010</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V71" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W71" s="17"/>
     </row>
@@ -9510,10 +9394,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="E72" s="13">
         <v>300067</v>
@@ -9555,19 +9439,19 @@
         <v>910011</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T72" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="U72" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="V72" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="U72" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="V72" s="17" t="s">
-        <v>400</v>
       </c>
       <c r="W72" s="17"/>
     </row>
@@ -9576,10 +9460,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="E73" s="13">
         <v>300068</v>
@@ -9621,19 +9505,19 @@
         <v>910011</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T73" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="U73" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="V73" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="U73" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="V73" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="W73" s="17"/>
     </row>
@@ -9642,10 +9526,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="E74" s="13">
         <v>300069</v>
@@ -9687,19 +9571,19 @@
         <v>910011</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T74" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="U74" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="V74" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="U74" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="V74" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="W74" s="17"/>
     </row>
@@ -9708,10 +9592,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="E75" s="13">
         <v>300070</v>
@@ -9753,19 +9637,19 @@
         <v>910012</v>
       </c>
       <c r="R75" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S75" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U75" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V75" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W75" s="17"/>
     </row>
@@ -9774,10 +9658,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="13">
         <v>300071</v>
@@ -9819,19 +9703,19 @@
         <v>0</v>
       </c>
       <c r="R76" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S76" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T76" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V76" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W76" s="15"/>
     </row>
@@ -9840,10 +9724,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E77" s="13">
         <v>300072</v>
@@ -9885,19 +9769,19 @@
         <v>910012</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V77" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W77" s="17"/>
     </row>
@@ -9906,10 +9790,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E78" s="13">
         <v>300073</v>
@@ -9951,19 +9835,19 @@
         <v>0</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S78" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T78" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V78" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W78" s="15"/>
     </row>
@@ -9972,10 +9856,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="E79" s="13">
         <v>300074</v>
@@ -10017,19 +9901,19 @@
         <v>910012</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V79" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W79" s="17"/>
     </row>
@@ -10038,10 +9922,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E80" s="13">
         <v>300075</v>
@@ -10083,19 +9967,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S80" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T80" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W80" s="19"/>
     </row>
@@ -10104,10 +9988,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="E81" s="13">
         <v>300076</v>
@@ -10149,19 +10033,19 @@
         <v>910013</v>
       </c>
       <c r="R81" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U81" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V81" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W81" s="19"/>
     </row>
@@ -10170,10 +10054,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="E82" s="13">
         <v>300077</v>
@@ -10215,19 +10099,19 @@
         <v>910013</v>
       </c>
       <c r="R82" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U82" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V82" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W82" s="17"/>
     </row>
@@ -10236,10 +10120,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="E83" s="13">
         <v>300078</v>
@@ -10281,19 +10165,19 @@
         <v>910013</v>
       </c>
       <c r="R83" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S83" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V83" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W83" s="17"/>
     </row>
@@ -10302,10 +10186,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="13">
         <v>300079</v>
@@ -10347,19 +10231,19 @@
         <v>0</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S84" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T84" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U84" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V84" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W84" s="15"/>
     </row>
@@ -10368,10 +10252,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="E85" s="13">
         <v>300080</v>
@@ -10413,19 +10297,19 @@
         <v>910014</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V85" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W85" s="15"/>
     </row>
@@ -10434,10 +10318,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="E86" s="13">
         <v>300081</v>
@@ -10479,19 +10363,19 @@
         <v>910014</v>
       </c>
       <c r="R86" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S86" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U86" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V86" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W86" s="15"/>
     </row>
@@ -10500,10 +10384,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="E87" s="13">
         <v>300082</v>
@@ -10545,19 +10429,19 @@
         <v>910014</v>
       </c>
       <c r="R87" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S87" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U87" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V87" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W87" s="15"/>
     </row>
@@ -10566,10 +10450,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="E88" s="13">
         <v>300083</v>
@@ -10611,19 +10495,19 @@
         <v>910015</v>
       </c>
       <c r="R88" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S88" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U88" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V88" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W88" s="15"/>
     </row>
@@ -10632,10 +10516,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E89" s="13">
         <v>300084</v>
@@ -10677,19 +10561,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S89" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T89" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U89" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V89" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W89" s="15"/>
     </row>
@@ -10698,10 +10582,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E90" s="13">
         <v>300085</v>
@@ -10743,19 +10627,19 @@
         <v>0</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S90" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T90" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U90" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V90" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W90" s="19"/>
     </row>
@@ -10764,10 +10648,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E91" s="13">
         <v>300086</v>
@@ -10809,19 +10693,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S91" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T91" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U91" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V91" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W91" s="19"/>
     </row>
@@ -10830,10 +10714,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="E92" s="13">
         <v>300087</v>
@@ -10875,19 +10759,19 @@
         <v>910015</v>
       </c>
       <c r="R92" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S92" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U92" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V92" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W92" s="15"/>
     </row>
@@ -10896,10 +10780,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E93" s="13">
         <v>300088</v>
@@ -10941,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="R93" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S93" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T93" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U93" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V93" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W93" s="15"/>
     </row>
@@ -10962,10 +10846,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E94" s="13">
         <v>300089</v>
@@ -11007,19 +10891,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S94" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T94" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U94" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V94" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W94" s="15"/>
     </row>
@@ -11028,10 +10912,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E95" s="13">
         <v>300090</v>
@@ -11073,19 +10957,19 @@
         <v>0</v>
       </c>
       <c r="R95" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S95" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T95" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V95" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W95" s="15"/>
     </row>
@@ -11094,10 +10978,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="E96" s="13">
         <v>300091</v>
@@ -11139,19 +11023,19 @@
         <v>910015</v>
       </c>
       <c r="R96" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S96" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U96" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V96" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W96" s="15"/>
     </row>
@@ -11160,10 +11044,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E97" s="13">
         <v>300092</v>
@@ -11205,19 +11089,19 @@
         <v>0</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T97" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U97" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V97" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W97" s="15"/>
     </row>
@@ -11226,10 +11110,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E98" s="13">
         <v>300093</v>
@@ -11271,19 +11155,19 @@
         <v>0</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T98" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U98" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V98" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W98" s="15"/>
     </row>
@@ -11292,10 +11176,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99" s="13">
         <v>300094</v>
@@ -11337,19 +11221,19 @@
         <v>0</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T99" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V99" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W99" s="15"/>
     </row>
@@ -11358,10 +11242,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="E100" s="13">
         <v>300095</v>
@@ -11403,19 +11287,19 @@
         <v>910016</v>
       </c>
       <c r="R100" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S100" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U100" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V100" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W100" s="15"/>
     </row>
@@ -11424,10 +11308,10 @@
         <v>96</v>
       </c>
       <c r="C101" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="E101" s="13">
         <v>300096</v>
@@ -11469,19 +11353,19 @@
         <v>910016</v>
       </c>
       <c r="R101" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S101" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U101" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V101" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W101" s="15"/>
     </row>
@@ -11490,10 +11374,10 @@
         <v>97</v>
       </c>
       <c r="C102" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="E102" s="13">
         <v>300097</v>
@@ -11535,19 +11419,19 @@
         <v>910016</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S102" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V102" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W102" s="15"/>
     </row>
@@ -11556,10 +11440,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="E103" s="13">
         <v>300098</v>
@@ -11601,19 +11485,19 @@
         <v>910017</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S103" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U103" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V103" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W103" s="17"/>
     </row>
@@ -11622,10 +11506,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="E104" s="13">
         <v>300099</v>
@@ -11667,19 +11551,19 @@
         <v>910017</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U104" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V104" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W104" s="17"/>
     </row>
@@ -11688,10 +11572,10 @@
         <v>100</v>
       </c>
       <c r="C105" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="E105" s="13">
         <v>300100</v>
@@ -11733,19 +11617,19 @@
         <v>910017</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S105" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U105" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V105" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W105" s="17"/>
     </row>
@@ -11754,10 +11638,10 @@
         <v>101</v>
       </c>
       <c r="C106" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="E106" s="13">
         <v>300101</v>
@@ -11799,19 +11683,19 @@
         <v>910018</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S106" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T106" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U106" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V106" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W106" s="17"/>
     </row>
@@ -11820,10 +11704,10 @@
         <v>102</v>
       </c>
       <c r="C107" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D107" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="E107" s="13">
         <v>300102</v>
@@ -11865,19 +11749,19 @@
         <v>910018</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S107" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T107" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U107" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V107" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W107" s="17"/>
     </row>
@@ -11886,10 +11770,10 @@
         <v>103</v>
       </c>
       <c r="C108" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="E108" s="13">
         <v>300103</v>
@@ -11931,19 +11815,19 @@
         <v>910018</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S108" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U108" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V108" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W108" s="17"/>
     </row>
@@ -11952,10 +11836,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="E109" s="13">
         <v>300104</v>
@@ -11997,19 +11881,19 @@
         <v>910019</v>
       </c>
       <c r="R109" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S109" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T109" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U109" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V109" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W109" s="17"/>
     </row>
@@ -12018,10 +11902,10 @@
         <v>105</v>
       </c>
       <c r="C110" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D110" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="E110" s="13">
         <v>300105</v>
@@ -12063,19 +11947,19 @@
         <v>910019</v>
       </c>
       <c r="R110" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S110" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T110" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U110" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V110" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W110" s="17"/>
     </row>
@@ -12084,10 +11968,10 @@
         <v>106</v>
       </c>
       <c r="C111" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="E111" s="13">
         <v>300106</v>
@@ -12129,19 +12013,19 @@
         <v>910019</v>
       </c>
       <c r="R111" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S111" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T111" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U111" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V111" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W111" s="17"/>
     </row>
@@ -12150,10 +12034,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="E112" s="13">
         <v>300107</v>
@@ -12195,19 +12079,19 @@
         <v>910020</v>
       </c>
       <c r="R112" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S112" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U112" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V112" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W112" s="17"/>
     </row>
@@ -12216,10 +12100,10 @@
         <v>108</v>
       </c>
       <c r="C113" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="E113" s="13">
         <v>300108</v>
@@ -12261,19 +12145,19 @@
         <v>910020</v>
       </c>
       <c r="R113" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S113" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U113" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V113" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W113" s="17"/>
     </row>
@@ -12282,10 +12166,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="E114" s="13">
         <v>300109</v>
@@ -12327,19 +12211,19 @@
         <v>910020</v>
       </c>
       <c r="R114" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U114" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V114" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W114" s="17"/>
     </row>
@@ -12348,10 +12232,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D115" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="E115" s="13">
         <v>300110</v>
@@ -12393,19 +12277,19 @@
         <v>910021</v>
       </c>
       <c r="R115" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S115" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U115" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V115" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W115" s="17"/>
     </row>
@@ -12414,10 +12298,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="E116" s="13">
         <v>300111</v>
@@ -12459,19 +12343,19 @@
         <v>910021</v>
       </c>
       <c r="R116" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S116" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U116" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V116" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W116" s="17"/>
     </row>
@@ -12480,10 +12364,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="E117" s="13">
         <v>300112</v>
@@ -12525,19 +12409,19 @@
         <v>910021</v>
       </c>
       <c r="R117" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S117" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U117" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V117" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W117" s="17"/>
     </row>
@@ -12546,10 +12430,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D118" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="E118" s="13">
         <v>300113</v>
@@ -12591,19 +12475,19 @@
         <v>910022</v>
       </c>
       <c r="R118" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S118" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U118" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V118" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W118" s="17"/>
     </row>
@@ -12612,10 +12496,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="E119" s="13">
         <v>300114</v>
@@ -12657,19 +12541,19 @@
         <v>910022</v>
       </c>
       <c r="R119" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S119" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U119" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V119" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W119" s="17"/>
     </row>
@@ -12678,10 +12562,10 @@
         <v>115</v>
       </c>
       <c r="C120" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="E120" s="13">
         <v>300115</v>
@@ -12723,19 +12607,19 @@
         <v>910022</v>
       </c>
       <c r="R120" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S120" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U120" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V120" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W120" s="17"/>
     </row>
@@ -12744,10 +12628,10 @@
         <v>116</v>
       </c>
       <c r="C121" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="E121" s="13">
         <v>300116</v>
@@ -12789,19 +12673,19 @@
         <v>910024</v>
       </c>
       <c r="R121" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S121" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U121" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V121" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W121" s="19"/>
     </row>
@@ -12810,10 +12694,10 @@
         <v>117</v>
       </c>
       <c r="C122" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>283</v>
       </c>
       <c r="E122" s="13">
         <v>300117</v>
@@ -12855,19 +12739,19 @@
         <v>910024</v>
       </c>
       <c r="R122" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S122" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U122" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V122" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W122" s="19"/>
     </row>
@@ -12876,10 +12760,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="E123" s="13">
         <v>300118</v>
@@ -12921,19 +12805,19 @@
         <v>910024</v>
       </c>
       <c r="R123" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S123" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U123" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V123" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W123" s="17"/>
     </row>
@@ -12942,10 +12826,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="E124" s="13">
         <v>300119</v>
@@ -12987,19 +12871,19 @@
         <v>910025</v>
       </c>
       <c r="R124" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S124" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U124" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V124" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W124" s="17"/>
     </row>
@@ -13008,10 +12892,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="E125" s="13">
         <v>300120</v>
@@ -13053,19 +12937,19 @@
         <v>910025</v>
       </c>
       <c r="R125" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S125" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U125" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V125" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W125" s="17"/>
     </row>
@@ -13074,10 +12958,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>291</v>
       </c>
       <c r="E126" s="13">
         <v>300121</v>
@@ -13119,19 +13003,19 @@
         <v>910025</v>
       </c>
       <c r="R126" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S126" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U126" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V126" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W126" s="17"/>
     </row>
@@ -13140,10 +13024,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="E127" s="13">
         <v>300122</v>
@@ -13185,19 +13069,19 @@
         <v>910026</v>
       </c>
       <c r="R127" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S127" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U127" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V127" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W127" s="15"/>
     </row>
@@ -13206,10 +13090,10 @@
         <v>123</v>
       </c>
       <c r="C128" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="E128" s="13">
         <v>300123</v>
@@ -13251,19 +13135,19 @@
         <v>910026</v>
       </c>
       <c r="R128" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S128" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U128" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V128" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W128" s="15"/>
     </row>
@@ -13272,10 +13156,10 @@
         <v>124</v>
       </c>
       <c r="C129" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="E129" s="13">
         <v>300124</v>
@@ -13317,19 +13201,19 @@
         <v>910026</v>
       </c>
       <c r="R129" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S129" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U129" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V129" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W129" s="15"/>
     </row>
@@ -13338,10 +13222,10 @@
         <v>125</v>
       </c>
       <c r="C130" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D130" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="E130" s="13">
         <v>300125</v>
@@ -13383,19 +13267,19 @@
         <v>910027</v>
       </c>
       <c r="R130" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S130" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U130" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V130" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W130" s="17"/>
     </row>
@@ -13404,10 +13288,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E131" s="13">
         <v>300126</v>
@@ -13449,19 +13333,19 @@
         <v>0</v>
       </c>
       <c r="R131" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S131" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T131" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U131" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V131" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W131" s="15"/>
     </row>
@@ -13470,10 +13354,10 @@
         <v>127</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E132" s="13">
         <v>300127</v>
@@ -13515,19 +13399,19 @@
         <v>0</v>
       </c>
       <c r="R132" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S132" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T132" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U132" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V132" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W132" s="15"/>
     </row>
@@ -13536,10 +13420,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E133" s="13">
         <v>300128</v>
@@ -13581,19 +13465,19 @@
         <v>0</v>
       </c>
       <c r="R133" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S133" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T133" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U133" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V133" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W133" s="15"/>
     </row>
@@ -13602,10 +13486,10 @@
         <v>129</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E134" s="13">
         <v>300129</v>
@@ -13647,19 +13531,19 @@
         <v>0</v>
       </c>
       <c r="R134" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S134" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T134" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U134" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V134" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W134" s="15"/>
     </row>
@@ -13668,10 +13552,10 @@
         <v>130</v>
       </c>
       <c r="C135" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D135" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="E135" s="13">
         <v>300130</v>
@@ -13713,19 +13597,19 @@
         <v>910027</v>
       </c>
       <c r="R135" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S135" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U135" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V135" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W135" s="17"/>
     </row>
@@ -13734,10 +13618,10 @@
         <v>131</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E136" s="13">
         <v>300131</v>
@@ -13779,19 +13663,19 @@
         <v>0</v>
       </c>
       <c r="R136" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S136" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T136" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U136" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V136" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W136" s="15"/>
     </row>
@@ -13800,10 +13684,10 @@
         <v>132</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E137" s="13">
         <v>300132</v>
@@ -13845,19 +13729,19 @@
         <v>0</v>
       </c>
       <c r="R137" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S137" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T137" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U137" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V137" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W137" s="15"/>
     </row>
@@ -13866,10 +13750,10 @@
         <v>133</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E138" s="13">
         <v>300133</v>
@@ -13911,19 +13795,19 @@
         <v>0</v>
       </c>
       <c r="R138" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S138" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T138" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U138" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V138" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W138" s="15"/>
     </row>
@@ -13932,10 +13816,10 @@
         <v>134</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E139" s="13">
         <v>300134</v>
@@ -13977,19 +13861,19 @@
         <v>0</v>
       </c>
       <c r="R139" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S139" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T139" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U139" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V139" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W139" s="15"/>
     </row>
@@ -13998,10 +13882,10 @@
         <v>135</v>
       </c>
       <c r="C140" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="E140" s="13">
         <v>300135</v>
@@ -14043,19 +13927,19 @@
         <v>910027</v>
       </c>
       <c r="R140" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S140" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U140" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V140" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W140" s="17"/>
     </row>
@@ -14064,10 +13948,10 @@
         <v>136</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E141" s="13">
         <v>300136</v>
@@ -14109,19 +13993,19 @@
         <v>0</v>
       </c>
       <c r="R141" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S141" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T141" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U141" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V141" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W141" s="15"/>
     </row>
@@ -14130,10 +14014,10 @@
         <v>137</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E142" s="13">
         <v>300137</v>
@@ -14175,19 +14059,19 @@
         <v>0</v>
       </c>
       <c r="R142" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S142" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T142" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U142" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V142" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W142" s="15"/>
     </row>
@@ -14196,10 +14080,10 @@
         <v>138</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E143" s="13">
         <v>300138</v>
@@ -14241,19 +14125,19 @@
         <v>0</v>
       </c>
       <c r="R143" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S143" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T143" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U143" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V143" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W143" s="15"/>
     </row>
@@ -14262,10 +14146,10 @@
         <v>139</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E144" s="13">
         <v>300139</v>
@@ -14307,19 +14191,19 @@
         <v>0</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S144" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T144" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U144" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V144" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W144" s="15"/>
     </row>
@@ -14328,10 +14212,10 @@
         <v>140</v>
       </c>
       <c r="C145" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="E145" s="13">
         <v>300140</v>
@@ -14373,19 +14257,19 @@
         <v>910023</v>
       </c>
       <c r="R145" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S145" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U145" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V145" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W145" s="15"/>
     </row>
@@ -14394,10 +14278,10 @@
         <v>141</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E146" s="13">
         <v>300141</v>
@@ -14439,19 +14323,19 @@
         <v>0</v>
       </c>
       <c r="R146" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S146" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T146" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U146" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V146" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W146" s="15"/>
     </row>
@@ -14460,10 +14344,10 @@
         <v>142</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E147" s="13">
         <v>300142</v>
@@ -14505,19 +14389,19 @@
         <v>0</v>
       </c>
       <c r="R147" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S147" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T147" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U147" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V147" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W147" s="15"/>
     </row>
@@ -14526,10 +14410,10 @@
         <v>143</v>
       </c>
       <c r="C148" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="E148" s="13">
         <v>300143</v>
@@ -14571,19 +14455,19 @@
         <v>910023</v>
       </c>
       <c r="R148" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S148" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T148" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U148" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V148" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W148" s="15"/>
     </row>
@@ -14592,10 +14476,10 @@
         <v>144</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E149" s="13">
         <v>300144</v>
@@ -14637,19 +14521,19 @@
         <v>0</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S149" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T149" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U149" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V149" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W149" s="15"/>
     </row>
@@ -14658,10 +14542,10 @@
         <v>145</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E150" s="13">
         <v>300145</v>
@@ -14703,19 +14587,19 @@
         <v>0</v>
       </c>
       <c r="R150" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S150" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T150" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U150" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V150" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W150" s="15"/>
     </row>
@@ -14724,10 +14608,10 @@
         <v>146</v>
       </c>
       <c r="C151" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D151" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="E151" s="13">
         <v>300146</v>
@@ -14769,19 +14653,19 @@
         <v>910023</v>
       </c>
       <c r="R151" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S151" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U151" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V151" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W151" s="15"/>
     </row>
@@ -14790,10 +14674,10 @@
         <v>147</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E152" s="13">
         <v>300147</v>
@@ -14835,19 +14719,19 @@
         <v>0</v>
       </c>
       <c r="R152" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S152" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T152" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U152" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V152" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W152" s="12"/>
     </row>
@@ -14856,10 +14740,10 @@
         <v>148</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E153" s="13">
         <v>300148</v>
@@ -14901,19 +14785,19 @@
         <v>0</v>
       </c>
       <c r="R153" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S153" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T153" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U153" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V153" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W153" s="12"/>
     </row>
@@ -14922,10 +14806,10 @@
         <v>149</v>
       </c>
       <c r="C154" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D154" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="E154" s="13">
         <v>300149</v>
@@ -14967,19 +14851,19 @@
         <v>0</v>
       </c>
       <c r="R154" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S154" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T154" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U154" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V154" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W154" s="12"/>
     </row>
@@ -14988,10 +14872,10 @@
         <v>150</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D155" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="E155" s="13">
         <v>300150</v>
@@ -15033,19 +14917,19 @@
         <v>0</v>
       </c>
       <c r="R155" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S155" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T155" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U155" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V155" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W155" s="12"/>
     </row>
@@ -15054,10 +14938,10 @@
         <v>151</v>
       </c>
       <c r="C156" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D156" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="E156" s="13">
         <v>300151</v>
@@ -15099,19 +14983,19 @@
         <v>0</v>
       </c>
       <c r="R156" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S156" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T156" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U156" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V156" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W156" s="12"/>
     </row>
@@ -15120,10 +15004,10 @@
         <v>152</v>
       </c>
       <c r="C157" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D157" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="E157" s="13">
         <v>300152</v>
@@ -15165,19 +15049,19 @@
         <v>0</v>
       </c>
       <c r="R157" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S157" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T157" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U157" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V157" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W157" s="12"/>
     </row>
@@ -15186,10 +15070,10 @@
         <v>153</v>
       </c>
       <c r="C158" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D158" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="E158" s="13">
         <v>300153</v>
@@ -15231,19 +15115,19 @@
         <v>0</v>
       </c>
       <c r="R158" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S158" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T158" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U158" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V158" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W158" s="12"/>
     </row>
@@ -15252,10 +15136,10 @@
         <v>154</v>
       </c>
       <c r="C159" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D159" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="E159" s="13">
         <v>300154</v>
@@ -15297,19 +15181,19 @@
         <v>0</v>
       </c>
       <c r="R159" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S159" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T159" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U159" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V159" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W159" s="12"/>
     </row>
@@ -15318,10 +15202,10 @@
         <v>155</v>
       </c>
       <c r="C160" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D160" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>341</v>
       </c>
       <c r="E160" s="13">
         <v>300155</v>
@@ -15363,19 +15247,19 @@
         <v>0</v>
       </c>
       <c r="R160" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S160" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T160" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U160" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V160" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W160" s="12"/>
     </row>
@@ -15384,10 +15268,10 @@
         <v>156</v>
       </c>
       <c r="C161" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>343</v>
       </c>
       <c r="E161" s="13">
         <v>300156</v>
@@ -15429,19 +15313,19 @@
         <v>0</v>
       </c>
       <c r="R161" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S161" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T161" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U161" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V161" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W161" s="12"/>
     </row>
@@ -15450,10 +15334,10 @@
         <v>157</v>
       </c>
       <c r="C162" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D162" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>345</v>
       </c>
       <c r="E162" s="13">
         <v>300157</v>
@@ -15495,19 +15379,19 @@
         <v>0</v>
       </c>
       <c r="R162" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S162" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T162" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U162" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V162" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W162" s="12"/>
     </row>
@@ -15519,6 +15403,12 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15528,12 +15418,6 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15714,11 +15598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15753,36 +15637,36 @@
       <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>774</v>
       </c>
-      <c r="I2" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>352</v>
+      <c r="J2" s="49" t="s">
+        <v>351</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>432</v>
+        <v>355</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>431</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>362</v>
       </c>
       <c r="Q2" s="51" t="s">
         <v>33</v>
@@ -15794,20 +15678,20 @@
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="34"/>
+        <v>348</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
-      <c r="M3" s="34"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="52"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="2:17">
@@ -15824,37 +15708,37 @@
         <v>9</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H4" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>773</v>
-      </c>
       <c r="J4" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L4" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>358</v>
-      </c>
       <c r="N4" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>34</v>
@@ -15883,7 +15767,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>21</v>
@@ -15907,7 +15791,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -15915,10 +15799,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="15">
         <v>310001</v>
@@ -15963,10 +15847,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E7" s="15">
         <v>310002</v>
@@ -16011,10 +15895,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E8" s="15">
         <v>310003</v>
@@ -16059,10 +15943,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E9" s="15">
         <v>310004</v>
@@ -16107,10 +15991,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E10" s="15">
         <v>310005</v>
@@ -16149,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -16157,10 +16041,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E11" s="15">
         <v>310006</v>
@@ -16199,7 +16083,7 @@
         <v>300024</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -16207,10 +16091,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E12" s="15">
         <v>310007</v>
@@ -16249,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -16257,10 +16141,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>441</v>
       </c>
       <c r="E13" s="15">
         <v>310008</v>
@@ -16305,10 +16189,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>443</v>
       </c>
       <c r="E14" s="15">
         <v>310009</v>
@@ -16353,10 +16237,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>444</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>445</v>
       </c>
       <c r="E15" s="15">
         <v>310010</v>
@@ -16401,10 +16285,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>446</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>447</v>
       </c>
       <c r="E16" s="15">
         <v>310011</v>
@@ -16449,10 +16333,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>448</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>449</v>
       </c>
       <c r="E17" s="15">
         <v>310012</v>
@@ -16497,10 +16381,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>450</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>451</v>
       </c>
       <c r="E18" s="15">
         <v>310013</v>
@@ -16545,10 +16429,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>453</v>
       </c>
       <c r="E19" s="15">
         <v>310014</v>
@@ -16593,10 +16477,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>454</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>455</v>
       </c>
       <c r="E20" s="15">
         <v>310015</v>
@@ -16641,10 +16525,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>456</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>457</v>
       </c>
       <c r="E21" s="15">
         <v>310016</v>
@@ -16689,10 +16573,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>458</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>459</v>
       </c>
       <c r="E22" s="15">
         <v>310017</v>
@@ -16737,10 +16621,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>460</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>461</v>
       </c>
       <c r="E23" s="15">
         <v>310018</v>
@@ -16785,10 +16669,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>462</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>463</v>
       </c>
       <c r="E24" s="15">
         <v>310019</v>
@@ -16833,10 +16717,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>464</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>465</v>
       </c>
       <c r="E25" s="15">
         <v>310020</v>
@@ -16881,10 +16765,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>467</v>
       </c>
       <c r="E26" s="15">
         <v>310021</v>
@@ -16929,10 +16813,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>468</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>469</v>
       </c>
       <c r="E27" s="15">
         <v>310022</v>
@@ -16977,10 +16861,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>470</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>471</v>
       </c>
       <c r="E28" s="15">
         <v>310023</v>
@@ -17025,10 +16909,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>472</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>473</v>
       </c>
       <c r="E29" s="15">
         <v>310024</v>
@@ -17073,10 +16957,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="E30" s="15">
         <v>310025</v>
@@ -17121,10 +17005,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>476</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>477</v>
       </c>
       <c r="E31" s="15">
         <v>310026</v>
@@ -17169,10 +17053,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>479</v>
       </c>
       <c r="E32" s="15">
         <v>310027</v>
@@ -17217,10 +17101,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>481</v>
       </c>
       <c r="E33" s="15">
         <v>310028</v>
@@ -17265,10 +17149,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>482</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>483</v>
       </c>
       <c r="E34" s="15">
         <v>310029</v>
@@ -17313,10 +17197,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>484</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>485</v>
       </c>
       <c r="E35" s="15">
         <v>310030</v>
@@ -17361,10 +17245,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>487</v>
       </c>
       <c r="E36" s="15">
         <v>310031</v>
@@ -17409,10 +17293,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>488</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>489</v>
       </c>
       <c r="E37" s="15">
         <v>310032</v>
@@ -17457,10 +17341,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>491</v>
       </c>
       <c r="E38" s="15">
         <v>310033</v>
@@ -17505,10 +17389,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>493</v>
       </c>
       <c r="E39" s="15">
         <v>310034</v>
@@ -17553,10 +17437,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>494</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>495</v>
       </c>
       <c r="E40" s="15">
         <v>310035</v>
@@ -17601,10 +17485,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>497</v>
       </c>
       <c r="E41" s="15">
         <v>310036</v>
@@ -17649,10 +17533,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>499</v>
       </c>
       <c r="E42" s="15">
         <v>310037</v>
@@ -17697,10 +17581,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>500</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>501</v>
       </c>
       <c r="E43" s="15">
         <v>310038</v>
@@ -17745,10 +17629,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>502</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>503</v>
       </c>
       <c r="E44" s="15">
         <v>310039</v>
@@ -17793,10 +17677,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>504</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>505</v>
       </c>
       <c r="E45" s="15">
         <v>310040</v>
@@ -17841,10 +17725,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>507</v>
       </c>
       <c r="E46" s="15">
         <v>310041</v>
@@ -17889,10 +17773,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>508</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>509</v>
       </c>
       <c r="E47" s="15">
         <v>310042</v>
@@ -17937,10 +17821,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>510</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>511</v>
       </c>
       <c r="E48" s="15">
         <v>310043</v>
@@ -17985,10 +17869,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>512</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>513</v>
       </c>
       <c r="E49" s="15">
         <v>310044</v>
@@ -18033,10 +17917,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>514</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>515</v>
       </c>
       <c r="E50" s="15">
         <v>310045</v>
@@ -18081,10 +17965,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>516</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>517</v>
       </c>
       <c r="E51" s="15">
         <v>310046</v>
@@ -18129,10 +18013,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>518</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>519</v>
       </c>
       <c r="E52" s="15">
         <v>310047</v>
@@ -18177,10 +18061,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>520</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>521</v>
       </c>
       <c r="E53" s="15">
         <v>310048</v>
@@ -18225,10 +18109,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>522</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>523</v>
       </c>
       <c r="E54" s="15">
         <v>310049</v>
@@ -18273,10 +18157,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>524</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>525</v>
       </c>
       <c r="E55" s="15">
         <v>310050</v>
@@ -18321,10 +18205,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>526</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>527</v>
       </c>
       <c r="E56" s="15">
         <v>310051</v>
@@ -18369,10 +18253,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>528</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>529</v>
       </c>
       <c r="E57" s="15">
         <v>310052</v>
@@ -18417,10 +18301,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>530</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>531</v>
       </c>
       <c r="E58" s="15">
         <v>310053</v>
@@ -18465,10 +18349,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="E59" s="15">
         <v>310054</v>
@@ -18513,10 +18397,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>535</v>
       </c>
       <c r="E60" s="15">
         <v>310055</v>
@@ -18561,10 +18445,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="E61" s="15">
         <v>310056</v>
@@ -18609,10 +18493,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>538</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>539</v>
       </c>
       <c r="E62" s="15">
         <v>310057</v>
@@ -18657,10 +18541,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>540</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>541</v>
       </c>
       <c r="E63" s="15">
         <v>310058</v>
@@ -18705,10 +18589,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>543</v>
       </c>
       <c r="E64" s="15">
         <v>310059</v>
@@ -18753,10 +18637,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="E65" s="15">
         <v>310060</v>
@@ -18801,10 +18685,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>547</v>
       </c>
       <c r="E66" s="15">
         <v>310061</v>
@@ -18849,10 +18733,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>548</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>549</v>
       </c>
       <c r="E67" s="15">
         <v>310062</v>
@@ -18897,10 +18781,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>551</v>
       </c>
       <c r="E68" s="15">
         <v>310063</v>
@@ -18945,10 +18829,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="E69" s="15">
         <v>310064</v>
@@ -18993,10 +18877,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="E70" s="15">
         <v>310065</v>
@@ -19041,10 +18925,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="E71" s="15">
         <v>310066</v>
@@ -19091,10 +18975,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="E72" s="15">
         <v>310067</v>
@@ -19141,10 +19025,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>560</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>561</v>
       </c>
       <c r="E73" s="15">
         <v>310068</v>
@@ -19191,10 +19075,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>562</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>563</v>
       </c>
       <c r="E74" s="15">
         <v>310069</v>
@@ -19239,10 +19123,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>565</v>
       </c>
       <c r="E75" s="15">
         <v>310070</v>
@@ -19287,10 +19171,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>566</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="E76" s="15">
         <v>310071</v>
@@ -19335,10 +19219,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>568</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>569</v>
       </c>
       <c r="E77" s="15">
         <v>310072</v>
@@ -19383,10 +19267,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>570</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>571</v>
       </c>
       <c r="E78" s="15">
         <v>310073</v>
@@ -19431,10 +19315,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>572</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>573</v>
       </c>
       <c r="E79" s="15">
         <v>310074</v>
@@ -19479,10 +19363,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>574</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>575</v>
       </c>
       <c r="E80" s="15">
         <v>310075</v>
@@ -19527,10 +19411,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>576</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>577</v>
       </c>
       <c r="E81" s="15">
         <v>310076</v>
@@ -19575,10 +19459,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>578</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>579</v>
       </c>
       <c r="E82" s="15">
         <v>310077</v>
@@ -19623,10 +19507,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D83" s="15" t="s">
         <v>580</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>581</v>
       </c>
       <c r="E83" s="15">
         <v>310078</v>
@@ -19671,10 +19555,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>582</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>583</v>
       </c>
       <c r="E84" s="15">
         <v>310079</v>
@@ -19719,10 +19603,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="D85" s="15" t="s">
         <v>584</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>585</v>
       </c>
       <c r="E85" s="15">
         <v>310080</v>
@@ -19767,10 +19651,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>587</v>
       </c>
       <c r="E86" s="15">
         <v>310081</v>
@@ -19815,10 +19699,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>588</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>589</v>
       </c>
       <c r="E87" s="15">
         <v>310082</v>
@@ -19863,10 +19747,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="D88" s="15" t="s">
         <v>590</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>591</v>
       </c>
       <c r="E88" s="15">
         <v>310083</v>
@@ -19911,10 +19795,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D89" s="15" t="s">
         <v>592</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>593</v>
       </c>
       <c r="E89" s="15">
         <v>310084</v>
@@ -19959,10 +19843,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>594</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>595</v>
       </c>
       <c r="E90" s="15">
         <v>310085</v>
@@ -20007,10 +19891,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>596</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="E91" s="15">
         <v>310086</v>
@@ -20055,10 +19939,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>598</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>599</v>
       </c>
       <c r="E92" s="15">
         <v>310087</v>
@@ -20103,10 +19987,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D93" s="15" t="s">
         <v>600</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>601</v>
       </c>
       <c r="E93" s="15">
         <v>310088</v>
@@ -20151,10 +20035,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D94" s="15" t="s">
         <v>602</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>603</v>
       </c>
       <c r="E94" s="15">
         <v>310089</v>
@@ -20199,10 +20083,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>604</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>605</v>
       </c>
       <c r="E95" s="15">
         <v>310090</v>
@@ -20247,10 +20131,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>606</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>607</v>
       </c>
       <c r="E96" s="15">
         <v>310091</v>
@@ -20295,10 +20179,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="E97" s="15">
         <v>310092</v>
@@ -20343,10 +20227,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="D98" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="E98" s="15">
         <v>310093</v>
@@ -20391,10 +20275,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>612</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>613</v>
       </c>
       <c r="E99" s="15">
         <v>310094</v>
@@ -20439,10 +20323,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="D100" s="15" t="s">
         <v>614</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="E100" s="15">
         <v>310095</v>
@@ -20487,10 +20371,10 @@
         <v>96</v>
       </c>
       <c r="C101" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="D101" s="15" t="s">
         <v>616</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>617</v>
       </c>
       <c r="E101" s="15">
         <v>310096</v>
@@ -20535,10 +20419,10 @@
         <v>97</v>
       </c>
       <c r="C102" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D102" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>619</v>
       </c>
       <c r="E102" s="15">
         <v>310097</v>
@@ -20583,10 +20467,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="D103" s="15" t="s">
         <v>620</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>621</v>
       </c>
       <c r="E103" s="15">
         <v>310098</v>
@@ -20631,10 +20515,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D104" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>623</v>
       </c>
       <c r="E104" s="15">
         <v>310099</v>
@@ -20679,10 +20563,10 @@
         <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>624</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>625</v>
       </c>
       <c r="E105" s="15">
         <v>310100</v>
@@ -20727,10 +20611,10 @@
         <v>101</v>
       </c>
       <c r="C106" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>626</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>627</v>
       </c>
       <c r="E106" s="15">
         <v>310101</v>
@@ -20775,10 +20659,10 @@
         <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>629</v>
       </c>
       <c r="E107" s="15">
         <v>310102</v>
@@ -20823,10 +20707,10 @@
         <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>631</v>
       </c>
       <c r="E108" s="15">
         <v>310103</v>
@@ -20871,10 +20755,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>632</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>633</v>
       </c>
       <c r="E109" s="15">
         <v>310104</v>
@@ -20919,10 +20803,10 @@
         <v>105</v>
       </c>
       <c r="C110" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="E110" s="15">
         <v>310105</v>
@@ -20967,10 +20851,10 @@
         <v>106</v>
       </c>
       <c r="C111" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="D111" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>637</v>
       </c>
       <c r="E111" s="15">
         <v>310106</v>
@@ -21015,10 +20899,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="D112" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>639</v>
       </c>
       <c r="E112" s="15">
         <v>310107</v>
@@ -21063,10 +20947,10 @@
         <v>108</v>
       </c>
       <c r="C113" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="D113" s="15" t="s">
         <v>640</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>641</v>
       </c>
       <c r="E113" s="15">
         <v>310108</v>
@@ -21111,10 +20995,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>642</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>643</v>
       </c>
       <c r="E114" s="15">
         <v>310109</v>
@@ -21159,10 +21043,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>644</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>645</v>
       </c>
       <c r="E115" s="15">
         <v>310110</v>
@@ -21207,10 +21091,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>646</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>647</v>
       </c>
       <c r="E116" s="15">
         <v>310111</v>
@@ -21255,10 +21139,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="D117" s="15" t="s">
         <v>648</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>649</v>
       </c>
       <c r="E117" s="15">
         <v>310112</v>
@@ -21303,10 +21187,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D118" s="15" t="s">
         <v>650</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>651</v>
       </c>
       <c r="E118" s="15">
         <v>310113</v>
@@ -21351,10 +21235,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="D119" s="15" t="s">
         <v>652</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>653</v>
       </c>
       <c r="E119" s="15">
         <v>310114</v>
@@ -21399,10 +21283,10 @@
         <v>115</v>
       </c>
       <c r="C120" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="D120" s="15" t="s">
         <v>654</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>655</v>
       </c>
       <c r="E120" s="15">
         <v>310115</v>
@@ -21447,10 +21331,10 @@
         <v>116</v>
       </c>
       <c r="C121" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>656</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>657</v>
       </c>
       <c r="E121" s="15">
         <v>310116</v>
@@ -21495,10 +21379,10 @@
         <v>117</v>
       </c>
       <c r="C122" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="D122" s="15" t="s">
         <v>658</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>659</v>
       </c>
       <c r="E122" s="15">
         <v>310117</v>
@@ -21543,10 +21427,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="D123" s="15" t="s">
         <v>660</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>661</v>
       </c>
       <c r="E123" s="15">
         <v>310118</v>
@@ -21591,10 +21475,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="D124" s="15" t="s">
         <v>662</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>663</v>
       </c>
       <c r="E124" s="15">
         <v>310119</v>
@@ -21639,10 +21523,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="D125" s="15" t="s">
         <v>664</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>665</v>
       </c>
       <c r="E125" s="15">
         <v>310120</v>
@@ -21687,10 +21571,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>667</v>
       </c>
       <c r="E126" s="15">
         <v>310121</v>
@@ -21735,10 +21619,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>669</v>
       </c>
       <c r="E127" s="15">
         <v>310122</v>
@@ -21783,10 +21667,10 @@
         <v>123</v>
       </c>
       <c r="C128" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="D128" s="15" t="s">
         <v>670</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>671</v>
       </c>
       <c r="E128" s="15">
         <v>310123</v>
@@ -21831,10 +21715,10 @@
         <v>124</v>
       </c>
       <c r="C129" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="D129" s="15" t="s">
         <v>672</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>673</v>
       </c>
       <c r="E129" s="15">
         <v>310124</v>
@@ -21879,10 +21763,10 @@
         <v>125</v>
       </c>
       <c r="C130" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="D130" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>675</v>
       </c>
       <c r="E130" s="15">
         <v>310125</v>
@@ -21927,10 +21811,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="D131" s="15" t="s">
         <v>676</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>677</v>
       </c>
       <c r="E131" s="15">
         <v>310126</v>
@@ -21975,10 +21859,10 @@
         <v>127</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E132" s="15">
         <v>310127</v>
@@ -22023,10 +21907,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E133" s="15">
         <v>310128</v>
@@ -22071,10 +21955,10 @@
         <v>129</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E134" s="15">
         <v>310129</v>
@@ -22119,10 +22003,10 @@
         <v>130</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E135" s="15">
         <v>310130</v>
@@ -22167,10 +22051,10 @@
         <v>131</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E136" s="15">
         <v>310131</v>
@@ -22215,10 +22099,10 @@
         <v>132</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E137" s="15">
         <v>310132</v>
@@ -22263,10 +22147,10 @@
         <v>133</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E138" s="15">
         <v>310133</v>
@@ -22311,10 +22195,10 @@
         <v>134</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E139" s="15">
         <v>310134</v>
@@ -22359,10 +22243,10 @@
         <v>135</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E140" s="15">
         <v>310135</v>
@@ -22423,6 +22307,12 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22432,12 +22322,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AFE926-F078-4546-AF64-89F6E7D31C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DA67A-F774-4D9B-8695-746599B82C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17490" yWindow="4830" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$140</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4206,11 +4206,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4218,11 +4221,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4251,16 +4266,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4270,21 +4285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4730,71 +4730,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34" t="s">
+      <c r="T2" s="43"/>
+      <c r="U2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4813,8 +4813,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="37"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="3" t="s">
         <v>43</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="V3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="37"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="4" t="s">
@@ -15403,12 +15403,6 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15418,6 +15412,12 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15602,7 +15602,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15618,81 +15618,81 @@
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>345</v>
       </c>
       <c r="G2" s="57"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="35" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="60" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="22" t="s">
         <v>346</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="52"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="23" t="s">
@@ -15829,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="15">
         <v>1</v>
@@ -15877,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="15">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="15">
         <v>1</v>
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="15">
         <v>1</v>
@@ -16021,7 +16021,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="15">
         <v>1</v>
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N11" s="15">
         <v>1</v>
@@ -16121,7 +16121,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="15">
         <v>10</v>
@@ -16171,7 +16171,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N13" s="15">
         <v>1</v>
@@ -16219,7 +16219,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N14" s="15">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="15">
         <v>1</v>
@@ -16459,7 +16459,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" s="15">
         <v>1</v>
@@ -16507,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N20" s="15">
         <v>1</v>
@@ -16555,7 +16555,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="15">
         <v>1</v>
@@ -16603,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="15">
         <v>1</v>
@@ -16651,7 +16651,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="15">
         <v>1</v>
@@ -16699,7 +16699,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N24" s="15">
         <v>1</v>
@@ -16747,7 +16747,7 @@
         <v>100</v>
       </c>
       <c r="M25" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N25" s="15">
         <v>1</v>
@@ -16795,7 +16795,7 @@
         <v>100</v>
       </c>
       <c r="M26" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N26" s="15">
         <v>1</v>
@@ -16843,7 +16843,7 @@
         <v>100</v>
       </c>
       <c r="M27" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N27" s="15">
         <v>1</v>
@@ -16891,7 +16891,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N28" s="15">
         <v>1</v>
@@ -16939,7 +16939,7 @@
         <v>100</v>
       </c>
       <c r="M29" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N29" s="15">
         <v>1</v>
@@ -16987,7 +16987,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="15">
         <v>1</v>
@@ -17035,7 +17035,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N31" s="15">
         <v>1</v>
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N32" s="15">
         <v>1</v>
@@ -17131,7 +17131,7 @@
         <v>100</v>
       </c>
       <c r="M33" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N33" s="15">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N34" s="15">
         <v>1</v>
@@ -17227,7 +17227,7 @@
         <v>100</v>
       </c>
       <c r="M35" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N35" s="15">
         <v>1</v>
@@ -17275,7 +17275,7 @@
         <v>100</v>
       </c>
       <c r="M36" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N36" s="15">
         <v>1</v>
@@ -17323,7 +17323,7 @@
         <v>100</v>
       </c>
       <c r="M37" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N37" s="15">
         <v>1</v>
@@ -17371,7 +17371,7 @@
         <v>100</v>
       </c>
       <c r="M38" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N38" s="15">
         <v>1</v>
@@ -17419,7 +17419,7 @@
         <v>100</v>
       </c>
       <c r="M39" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N39" s="15">
         <v>1</v>
@@ -17467,7 +17467,7 @@
         <v>100</v>
       </c>
       <c r="M40" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N40" s="15">
         <v>1</v>
@@ -17515,7 +17515,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N41" s="15">
         <v>1</v>
@@ -17563,7 +17563,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N42" s="15">
         <v>1</v>
@@ -17611,7 +17611,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N43" s="15">
         <v>1</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N44" s="15">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="15">
         <v>1</v>
@@ -17755,7 +17755,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46" s="15">
         <v>1</v>
@@ -17803,7 +17803,7 @@
         <v>100</v>
       </c>
       <c r="M47" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" s="15">
         <v>1</v>
@@ -17851,7 +17851,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N48" s="15">
         <v>1</v>
@@ -17899,7 +17899,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N49" s="15">
         <v>1</v>
@@ -17947,7 +17947,7 @@
         <v>100</v>
       </c>
       <c r="M50" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N50" s="15">
         <v>1</v>
@@ -17995,7 +17995,7 @@
         <v>100</v>
       </c>
       <c r="M51" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N51" s="15">
         <v>1</v>
@@ -18043,7 +18043,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N52" s="15">
         <v>1</v>
@@ -18091,7 +18091,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N53" s="15">
         <v>1</v>
@@ -18139,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N54" s="15">
         <v>1</v>
@@ -18187,7 +18187,7 @@
         <v>100</v>
       </c>
       <c r="M55" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N55" s="15">
         <v>1</v>
@@ -18235,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N56" s="15">
         <v>1</v>
@@ -18283,7 +18283,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N57" s="15">
         <v>1</v>
@@ -18331,7 +18331,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="15">
         <v>1</v>
@@ -18379,7 +18379,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N59" s="15">
         <v>1</v>
@@ -18427,7 +18427,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N60" s="15">
         <v>1</v>
@@ -18475,7 +18475,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N61" s="15">
         <v>1</v>
@@ -18523,7 +18523,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N62" s="15">
         <v>1</v>
@@ -18571,7 +18571,7 @@
         <v>100</v>
       </c>
       <c r="M63" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N63" s="15">
         <v>1</v>
@@ -18619,7 +18619,7 @@
         <v>100</v>
       </c>
       <c r="M64" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N64" s="15">
         <v>1</v>
@@ -18667,7 +18667,7 @@
         <v>100</v>
       </c>
       <c r="M65" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N65" s="15">
         <v>1</v>
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="M66" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N66" s="15">
         <v>1</v>
@@ -18763,7 +18763,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N67" s="15">
         <v>1</v>
@@ -18811,7 +18811,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N68" s="15">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>1</v>
       </c>
       <c r="M69" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N69" s="15">
         <v>1</v>
@@ -18907,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N70" s="15">
         <v>1</v>
@@ -18955,7 +18955,7 @@
         <v>1</v>
       </c>
       <c r="M71" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N71" s="15">
         <v>1</v>
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N72" s="15">
         <v>1</v>
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N73" s="15">
         <v>1</v>
@@ -19105,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N74" s="15">
         <v>1</v>
@@ -19153,7 +19153,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N75" s="15">
         <v>1</v>
@@ -19201,7 +19201,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N76" s="15">
         <v>1</v>
@@ -19249,7 +19249,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N77" s="15">
         <v>1</v>
@@ -19297,7 +19297,7 @@
         <v>100</v>
       </c>
       <c r="M78" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N78" s="15">
         <v>1</v>
@@ -19345,7 +19345,7 @@
         <v>100</v>
       </c>
       <c r="M79" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N79" s="15">
         <v>1</v>
@@ -19393,7 +19393,7 @@
         <v>100</v>
       </c>
       <c r="M80" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N80" s="15">
         <v>1</v>
@@ -19441,7 +19441,7 @@
         <v>100</v>
       </c>
       <c r="M81" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N81" s="15">
         <v>1</v>
@@ -19489,7 +19489,7 @@
         <v>100</v>
       </c>
       <c r="M82" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N82" s="15">
         <v>1</v>
@@ -19537,7 +19537,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N83" s="15">
         <v>1</v>
@@ -19585,7 +19585,7 @@
         <v>100</v>
       </c>
       <c r="M84" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N84" s="15">
         <v>3</v>
@@ -19633,7 +19633,7 @@
         <v>100</v>
       </c>
       <c r="M85" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N85" s="15">
         <v>3</v>
@@ -19681,7 +19681,7 @@
         <v>100</v>
       </c>
       <c r="M86" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N86" s="15">
         <v>3</v>
@@ -19729,7 +19729,7 @@
         <v>100</v>
       </c>
       <c r="M87" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N87" s="15">
         <v>1</v>
@@ -19777,7 +19777,7 @@
         <v>100</v>
       </c>
       <c r="M88" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N88" s="15">
         <v>1</v>
@@ -19825,7 +19825,7 @@
         <v>100</v>
       </c>
       <c r="M89" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N89" s="15">
         <v>1</v>
@@ -19873,7 +19873,7 @@
         <v>100</v>
       </c>
       <c r="M90" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90" s="15">
         <v>2</v>
@@ -19921,7 +19921,7 @@
         <v>100</v>
       </c>
       <c r="M91" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91" s="15">
         <v>2</v>
@@ -19969,7 +19969,7 @@
         <v>100</v>
       </c>
       <c r="M92" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92" s="15">
         <v>2</v>
@@ -20017,7 +20017,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N93" s="15">
         <v>1</v>
@@ -20065,7 +20065,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N94" s="15">
         <v>1</v>
@@ -20113,7 +20113,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N95" s="15">
         <v>1</v>
@@ -20161,7 +20161,7 @@
         <v>5</v>
       </c>
       <c r="M96" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N96" s="15">
         <v>1</v>
@@ -20209,7 +20209,7 @@
         <v>5</v>
       </c>
       <c r="M97" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N97" s="15">
         <v>1</v>
@@ -20257,7 +20257,7 @@
         <v>5</v>
       </c>
       <c r="M98" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N98" s="15">
         <v>1</v>
@@ -20305,7 +20305,7 @@
         <v>100</v>
       </c>
       <c r="M99" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N99" s="15">
         <v>1</v>
@@ -20353,7 +20353,7 @@
         <v>100</v>
       </c>
       <c r="M100" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N100" s="15">
         <v>1</v>
@@ -20401,7 +20401,7 @@
         <v>100</v>
       </c>
       <c r="M101" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N101" s="15">
         <v>1</v>
@@ -20449,7 +20449,7 @@
         <v>100</v>
       </c>
       <c r="M102" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N102" s="15">
         <v>2</v>
@@ -20497,7 +20497,7 @@
         <v>100</v>
       </c>
       <c r="M103" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N103" s="15">
         <v>2</v>
@@ -20545,7 +20545,7 @@
         <v>100</v>
       </c>
       <c r="M104" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N104" s="15">
         <v>2</v>
@@ -20593,7 +20593,7 @@
         <v>100</v>
       </c>
       <c r="M105" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N105" s="15">
         <v>1</v>
@@ -20641,7 +20641,7 @@
         <v>100</v>
       </c>
       <c r="M106" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N106" s="15">
         <v>1</v>
@@ -20689,7 +20689,7 @@
         <v>100</v>
       </c>
       <c r="M107" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N107" s="15">
         <v>1</v>
@@ -20737,7 +20737,7 @@
         <v>100</v>
       </c>
       <c r="M108" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N108" s="15">
         <v>1</v>
@@ -20785,7 +20785,7 @@
         <v>100</v>
       </c>
       <c r="M109" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N109" s="15">
         <v>1</v>
@@ -20833,7 +20833,7 @@
         <v>100</v>
       </c>
       <c r="M110" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N110" s="15">
         <v>1</v>
@@ -20881,7 +20881,7 @@
         <v>100</v>
       </c>
       <c r="M111" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N111" s="15">
         <v>1</v>
@@ -20929,7 +20929,7 @@
         <v>100</v>
       </c>
       <c r="M112" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N112" s="15">
         <v>1</v>
@@ -20977,7 +20977,7 @@
         <v>100</v>
       </c>
       <c r="M113" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N113" s="15">
         <v>1</v>
@@ -21025,7 +21025,7 @@
         <v>100</v>
       </c>
       <c r="M114" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N114" s="15">
         <v>1</v>
@@ -21073,7 +21073,7 @@
         <v>100</v>
       </c>
       <c r="M115" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N115" s="15">
         <v>1</v>
@@ -21121,7 +21121,7 @@
         <v>100</v>
       </c>
       <c r="M116" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N116" s="15">
         <v>1</v>
@@ -21169,7 +21169,7 @@
         <v>100</v>
       </c>
       <c r="M117" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N117" s="15">
         <v>1</v>
@@ -21217,7 +21217,7 @@
         <v>100</v>
       </c>
       <c r="M118" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N118" s="15">
         <v>1</v>
@@ -21265,7 +21265,7 @@
         <v>100</v>
       </c>
       <c r="M119" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N119" s="15">
         <v>1</v>
@@ -21313,7 +21313,7 @@
         <v>100</v>
       </c>
       <c r="M120" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N120" s="15">
         <v>1</v>
@@ -21361,7 +21361,7 @@
         <v>100</v>
       </c>
       <c r="M121" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N121" s="15">
         <v>1</v>
@@ -21409,7 +21409,7 @@
         <v>100</v>
       </c>
       <c r="M122" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N122" s="15">
         <v>1</v>
@@ -21457,7 +21457,7 @@
         <v>100</v>
       </c>
       <c r="M123" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N123" s="15">
         <v>3</v>
@@ -21505,7 +21505,7 @@
         <v>100</v>
       </c>
       <c r="M124" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N124" s="15">
         <v>3</v>
@@ -21553,7 +21553,7 @@
         <v>100</v>
       </c>
       <c r="M125" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N125" s="15">
         <v>3</v>
@@ -21601,7 +21601,7 @@
         <v>100</v>
       </c>
       <c r="M126" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N126" s="15">
         <v>3</v>
@@ -21649,7 +21649,7 @@
         <v>100</v>
       </c>
       <c r="M127" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N127" s="15">
         <v>3</v>
@@ -21697,7 +21697,7 @@
         <v>100</v>
       </c>
       <c r="M128" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N128" s="15">
         <v>3</v>
@@ -21745,7 +21745,7 @@
         <v>100</v>
       </c>
       <c r="M129" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N129" s="15">
         <v>3</v>
@@ -21793,7 +21793,7 @@
         <v>100</v>
       </c>
       <c r="M130" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N130" s="15">
         <v>3</v>
@@ -21841,7 +21841,7 @@
         <v>100</v>
       </c>
       <c r="M131" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N131" s="15">
         <v>3</v>
@@ -21889,7 +21889,7 @@
         <v>10</v>
       </c>
       <c r="M132" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N132" s="15">
         <v>1</v>
@@ -21937,7 +21937,7 @@
         <v>10</v>
       </c>
       <c r="M133" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N133" s="15">
         <v>1</v>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N134" s="15">
         <v>1</v>
@@ -22033,7 +22033,7 @@
         <v>1</v>
       </c>
       <c r="M135" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N135" s="15">
         <v>1</v>
@@ -22081,7 +22081,7 @@
         <v>1</v>
       </c>
       <c r="M136" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N136" s="15">
         <v>1</v>
@@ -22129,7 +22129,7 @@
         <v>1</v>
       </c>
       <c r="M137" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N137" s="15">
         <v>1</v>
@@ -22177,7 +22177,7 @@
         <v>1</v>
       </c>
       <c r="M138" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N138" s="15">
         <v>1</v>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N139" s="15">
         <v>1</v>
@@ -22273,7 +22273,7 @@
         <v>1</v>
       </c>
       <c r="M140" s="29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="N140" s="15">
         <v>1</v>
@@ -22307,12 +22307,6 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22322,6 +22316,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DA67A-F774-4D9B-8695-746599B82C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA2CF3C-9509-4DE5-8D40-3392672AE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$140</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4209,11 +4209,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4221,23 +4221,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4266,16 +4254,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4286,6 +4280,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4697,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:W163"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
@@ -4739,46 +4739,46 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="52" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="43"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="37" t="s">
         <v>33</v>
       </c>
@@ -4788,13 +4788,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="41"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="52"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="38"/>
       <c r="S3" s="3" t="s">
         <v>43</v>
@@ -15403,6 +15403,12 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15412,12 +15418,6 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15598,11 +15598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M139" sqref="M139"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15637,17 +15637,17 @@
       <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="56" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="50" t="s">
         <v>351</v>
       </c>
       <c r="K2" s="54" t="s">
@@ -15656,16 +15656,16 @@
       <c r="L2" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="58" t="s">
         <v>431</v>
       </c>
       <c r="N2" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="50" t="s">
         <v>362</v>
       </c>
       <c r="Q2" s="54" t="s">
@@ -15683,15 +15683,15 @@
       <c r="G3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
-      <c r="M3" s="36"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="2:17">
@@ -16056,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="29">
         <v>0</v>
@@ -16121,7 +16121,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" s="15">
         <v>10</v>
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="29">
         <v>0</v>
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" s="29">
         <v>10</v>
@@ -16444,13 +16444,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" s="29">
         <v>0</v>
       </c>
       <c r="J19" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" s="29">
         <v>10</v>
@@ -16489,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H20" s="29">
         <v>0</v>
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" s="29">
         <v>10</v>
@@ -16540,13 +16540,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="29">
         <v>0</v>
       </c>
       <c r="J21" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" s="29">
         <v>10</v>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" s="29">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22" s="29">
         <v>10</v>
@@ -16636,13 +16636,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="29">
         <v>0</v>
       </c>
       <c r="J23" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" s="29">
         <v>10</v>
@@ -16681,7 +16681,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H24" s="29">
         <v>0</v>
@@ -16729,7 +16729,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H25" s="29">
         <v>0</v>
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H26" s="29">
         <v>0</v>
@@ -16825,16 +16825,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H27" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I27" s="29">
         <v>0</v>
       </c>
       <c r="J27" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K27" s="29">
         <v>10</v>
@@ -16873,16 +16873,16 @@
         <v>1</v>
       </c>
       <c r="G28" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H28" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="29">
         <v>0</v>
       </c>
       <c r="J28" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K28" s="29">
         <v>10</v>
@@ -16921,16 +16921,16 @@
         <v>1</v>
       </c>
       <c r="G29" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H29" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="29">
         <v>0</v>
       </c>
       <c r="J29" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K29" s="29">
         <v>10</v>
@@ -16969,16 +16969,16 @@
         <v>1</v>
       </c>
       <c r="G30" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H30" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I30" s="29">
         <v>0</v>
       </c>
       <c r="J30" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="29">
         <v>10</v>
@@ -17017,7 +17017,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H31" s="29">
         <v>2</v>
@@ -17026,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K31" s="29">
         <v>10</v>
@@ -17065,16 +17065,16 @@
         <v>1</v>
       </c>
       <c r="G32" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H32" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="29">
         <v>0</v>
       </c>
       <c r="J32" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32" s="29">
         <v>10</v>
@@ -17113,10 +17113,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H33" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I33" s="29">
         <v>0</v>
@@ -17161,10 +17161,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H34" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="29">
         <v>0</v>
@@ -17209,10 +17209,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H35" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="29">
         <v>0</v>
@@ -17401,10 +17401,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H39" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I39" s="29">
         <v>0</v>
@@ -17449,10 +17449,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H40" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="29">
         <v>0</v>
@@ -17497,10 +17497,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H41" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="29">
         <v>0</v>
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K42" s="29">
         <v>10</v>
@@ -17596,13 +17596,13 @@
         <v>20</v>
       </c>
       <c r="H43" s="29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I43" s="29">
         <v>0</v>
       </c>
       <c r="J43" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K43" s="29">
         <v>10</v>
@@ -17644,13 +17644,13 @@
         <v>20</v>
       </c>
       <c r="H44" s="29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I44" s="29">
         <v>0</v>
       </c>
       <c r="J44" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K44" s="29">
         <v>10</v>
@@ -17689,16 +17689,16 @@
         <v>1</v>
       </c>
       <c r="G45" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H45" s="29">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I45" s="29">
         <v>0</v>
       </c>
       <c r="J45" s="29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K45" s="29">
         <v>10</v>
@@ -17737,16 +17737,16 @@
         <v>1</v>
       </c>
       <c r="G46" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H46" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I46" s="29">
         <v>0</v>
       </c>
       <c r="J46" s="29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K46" s="29">
         <v>10</v>
@@ -17785,16 +17785,16 @@
         <v>1</v>
       </c>
       <c r="G47" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H47" s="29">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
       </c>
       <c r="J47" s="29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K47" s="29">
         <v>10</v>
@@ -17977,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H51" s="29">
         <v>0</v>
@@ -18025,7 +18025,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H52" s="29">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H53" s="29">
         <v>0</v>
@@ -18121,16 +18121,16 @@
         <v>1</v>
       </c>
       <c r="G54" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H54" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I54" s="29">
         <v>0</v>
       </c>
       <c r="J54" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K54" s="29">
         <v>10</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K55" s="29">
         <v>10</v>
@@ -18217,16 +18217,16 @@
         <v>1</v>
       </c>
       <c r="G56" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H56" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" s="29">
         <v>0</v>
       </c>
       <c r="J56" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K56" s="29">
         <v>10</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K57" s="29">
         <v>10</v>
@@ -18313,16 +18313,16 @@
         <v>1</v>
       </c>
       <c r="G58" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H58" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
       </c>
       <c r="J58" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K58" s="29">
         <v>10</v>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K59" s="29">
         <v>10</v>
@@ -18409,16 +18409,16 @@
         <v>1</v>
       </c>
       <c r="G60" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H60" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
       </c>
       <c r="J60" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K60" s="29">
         <v>10</v>
@@ -18457,16 +18457,16 @@
         <v>1</v>
       </c>
       <c r="G61" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H61" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="29">
         <v>0</v>
       </c>
       <c r="J61" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K61" s="29">
         <v>10</v>
@@ -18505,16 +18505,16 @@
         <v>1</v>
       </c>
       <c r="G62" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H62" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62" s="29">
         <v>0</v>
       </c>
       <c r="J62" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K62" s="29">
         <v>10</v>
@@ -18553,16 +18553,16 @@
         <v>1</v>
       </c>
       <c r="G63" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H63" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
       </c>
       <c r="J63" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K63" s="29">
         <v>10</v>
@@ -18601,16 +18601,16 @@
         <v>1</v>
       </c>
       <c r="G64" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H64" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="29">
         <v>0</v>
       </c>
       <c r="J64" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K64" s="29">
         <v>10</v>
@@ -18649,16 +18649,16 @@
         <v>1</v>
       </c>
       <c r="G65" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H65" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="29">
         <v>0</v>
       </c>
       <c r="J65" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K65" s="29">
         <v>10</v>
@@ -18697,16 +18697,16 @@
         <v>1</v>
       </c>
       <c r="G66" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H66" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I66" s="29">
         <v>0</v>
       </c>
       <c r="J66" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K66" s="29">
         <v>10</v>
@@ -18748,13 +18748,13 @@
         <v>0</v>
       </c>
       <c r="H67" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I67" s="29">
         <v>0</v>
       </c>
       <c r="J67" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K67" s="29">
         <v>10</v>
@@ -18796,13 +18796,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I68" s="29">
         <v>0</v>
       </c>
       <c r="J68" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K68" s="29">
         <v>10</v>
@@ -18844,13 +18844,13 @@
         <v>0</v>
       </c>
       <c r="H69" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
       </c>
       <c r="J69" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K69" s="29">
         <v>10</v>
@@ -18889,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H70" s="29">
         <v>2</v>
@@ -18898,7 +18898,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K70" s="29">
         <v>10</v>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K71" s="29">
         <v>10</v>
@@ -18996,7 +18996,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K72" s="29">
         <v>10</v>
@@ -19046,7 +19046,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K73" s="29">
         <v>10</v>
@@ -19087,16 +19087,16 @@
         <v>1</v>
       </c>
       <c r="G74" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H74" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
       </c>
       <c r="J74" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K74" s="29">
         <v>10</v>
@@ -19138,13 +19138,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" s="29">
         <v>0</v>
       </c>
       <c r="J75" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K75" s="29">
         <v>10</v>
@@ -19186,13 +19186,13 @@
         <v>0</v>
       </c>
       <c r="H76" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" s="29">
         <v>0</v>
       </c>
       <c r="J76" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K76" s="29">
         <v>10</v>
@@ -19234,13 +19234,13 @@
         <v>0</v>
       </c>
       <c r="H77" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" s="29">
         <v>0</v>
       </c>
       <c r="J77" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K77" s="29">
         <v>10</v>
@@ -19279,16 +19279,16 @@
         <v>1</v>
       </c>
       <c r="G78" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H78" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I78" s="29">
         <v>0</v>
       </c>
       <c r="J78" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K78" s="29">
         <v>10</v>
@@ -19327,16 +19327,16 @@
         <v>1</v>
       </c>
       <c r="G79" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H79" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="29">
         <v>0</v>
       </c>
       <c r="J79" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K79" s="29">
         <v>10</v>
@@ -19375,16 +19375,16 @@
         <v>1</v>
       </c>
       <c r="G80" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H80" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" s="29">
         <v>0</v>
       </c>
       <c r="J80" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K80" s="29">
         <v>10</v>
@@ -19423,16 +19423,16 @@
         <v>1</v>
       </c>
       <c r="G81" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H81" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
       </c>
       <c r="J81" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K81" s="29">
         <v>10</v>
@@ -19471,16 +19471,16 @@
         <v>1</v>
       </c>
       <c r="G82" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H82" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
       <c r="J82" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K82" s="29">
         <v>10</v>
@@ -19519,16 +19519,16 @@
         <v>1</v>
       </c>
       <c r="G83" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H83" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
       </c>
       <c r="J83" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K83" s="29">
         <v>10</v>
@@ -19567,7 +19567,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H84" s="29">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K84" s="29">
         <v>10</v>
@@ -19615,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H85" s="29">
         <v>0</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K85" s="29">
         <v>10</v>
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H86" s="29">
         <v>0</v>
@@ -19672,7 +19672,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K86" s="29">
         <v>10</v>
@@ -19711,7 +19711,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H87" s="29">
         <v>0</v>
@@ -19720,7 +19720,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K87" s="29">
         <v>10</v>
@@ -19759,7 +19759,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H88" s="29">
         <v>0</v>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K88" s="29">
         <v>10</v>
@@ -19807,7 +19807,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H89" s="29">
         <v>0</v>
@@ -19816,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K89" s="29">
         <v>10</v>
@@ -19855,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H90" s="29">
         <v>1.5</v>
@@ -19864,7 +19864,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K90" s="29">
         <v>10</v>
@@ -19903,16 +19903,16 @@
         <v>1</v>
       </c>
       <c r="G91" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H91" s="29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I91" s="29">
         <v>0</v>
       </c>
       <c r="J91" s="29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K91" s="29">
         <v>10</v>
@@ -19951,16 +19951,16 @@
         <v>1</v>
       </c>
       <c r="G92" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H92" s="29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I92" s="29">
         <v>0</v>
       </c>
       <c r="J92" s="29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K92" s="29">
         <v>10</v>
@@ -19999,7 +19999,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H93" s="29">
         <v>1.5</v>
@@ -20008,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K93" s="29">
         <v>10</v>
@@ -20047,16 +20047,16 @@
         <v>1</v>
       </c>
       <c r="G94" s="15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H94" s="29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I94" s="29">
         <v>0</v>
       </c>
       <c r="J94" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K94" s="29">
         <v>10</v>
@@ -20095,16 +20095,16 @@
         <v>1</v>
       </c>
       <c r="G95" s="15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H95" s="29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I95" s="29">
         <v>0</v>
       </c>
       <c r="J95" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K95" s="29">
         <v>10</v>
@@ -20143,22 +20143,22 @@
         <v>1</v>
       </c>
       <c r="G96" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H96" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I96" s="29">
         <v>0</v>
       </c>
       <c r="J96" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K96" s="29">
         <v>10</v>
       </c>
       <c r="L96" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M96" s="29">
         <v>0.5</v>
@@ -20191,22 +20191,22 @@
         <v>1</v>
       </c>
       <c r="G97" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H97" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="29">
         <v>0</v>
       </c>
       <c r="J97" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K97" s="29">
         <v>10</v>
       </c>
       <c r="L97" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M97" s="29">
         <v>0.5</v>
@@ -20239,22 +20239,22 @@
         <v>1</v>
       </c>
       <c r="G98" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H98" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="29">
         <v>0</v>
       </c>
       <c r="J98" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K98" s="29">
         <v>10</v>
       </c>
       <c r="L98" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M98" s="29">
         <v>0.5</v>
@@ -20287,16 +20287,16 @@
         <v>1</v>
       </c>
       <c r="G99" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H99" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I99" s="29">
         <v>0</v>
       </c>
       <c r="J99" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K99" s="29">
         <v>10</v>
@@ -20335,16 +20335,16 @@
         <v>1</v>
       </c>
       <c r="G100" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H100" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="29">
         <v>0</v>
       </c>
       <c r="J100" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K100" s="29">
         <v>10</v>
@@ -20383,16 +20383,16 @@
         <v>1</v>
       </c>
       <c r="G101" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H101" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101" s="29">
         <v>0</v>
       </c>
       <c r="J101" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K101" s="29">
         <v>10</v>
@@ -20431,16 +20431,16 @@
         <v>1</v>
       </c>
       <c r="G102" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H102" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I102" s="29">
         <v>0</v>
       </c>
       <c r="J102" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K102" s="29">
         <v>10</v>
@@ -20479,16 +20479,16 @@
         <v>1</v>
       </c>
       <c r="G103" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H103" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" s="29">
         <v>0</v>
       </c>
       <c r="J103" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K103" s="29">
         <v>10</v>
@@ -20527,16 +20527,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H104" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104" s="29">
         <v>0</v>
       </c>
       <c r="J104" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K104" s="29">
         <v>10</v>
@@ -20575,7 +20575,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H105" s="29">
         <v>0</v>
@@ -20623,7 +20623,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H106" s="29">
         <v>0</v>
@@ -20671,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H107" s="29">
         <v>0</v>
@@ -20719,16 +20719,16 @@
         <v>1</v>
       </c>
       <c r="G108" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H108" s="29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I108" s="29">
         <v>0</v>
       </c>
       <c r="J108" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K108" s="29">
         <v>10</v>
@@ -20770,13 +20770,13 @@
         <v>0</v>
       </c>
       <c r="H109" s="29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I109" s="29">
         <v>0</v>
       </c>
       <c r="J109" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K109" s="29">
         <v>10</v>
@@ -20818,13 +20818,13 @@
         <v>0</v>
       </c>
       <c r="H110" s="29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I110" s="29">
         <v>0</v>
       </c>
       <c r="J110" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K110" s="29">
         <v>10</v>
@@ -20866,13 +20866,13 @@
         <v>0</v>
       </c>
       <c r="H111" s="29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I111" s="29">
         <v>0</v>
       </c>
       <c r="J111" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K111" s="29">
         <v>10</v>
@@ -20914,13 +20914,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I112" s="29">
         <v>0</v>
       </c>
       <c r="J112" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K112" s="29">
         <v>10</v>
@@ -20959,16 +20959,16 @@
         <v>1</v>
       </c>
       <c r="G113" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H113" s="29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I113" s="29">
         <v>0</v>
       </c>
       <c r="J113" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K113" s="29">
         <v>10</v>
@@ -21010,13 +21010,13 @@
         <v>0</v>
       </c>
       <c r="H114" s="29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I114" s="29">
         <v>0</v>
       </c>
       <c r="J114" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K114" s="29">
         <v>10</v>
@@ -21058,13 +21058,13 @@
         <v>0</v>
       </c>
       <c r="H115" s="29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I115" s="29">
         <v>0</v>
       </c>
       <c r="J115" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K115" s="29">
         <v>10</v>
@@ -21106,13 +21106,13 @@
         <v>0</v>
       </c>
       <c r="H116" s="29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I116" s="29">
         <v>0</v>
       </c>
       <c r="J116" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K116" s="29">
         <v>10</v>
@@ -21154,13 +21154,13 @@
         <v>0</v>
       </c>
       <c r="H117" s="29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I117" s="29">
         <v>0</v>
       </c>
       <c r="J117" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K117" s="29">
         <v>10</v>
@@ -21199,16 +21199,16 @@
         <v>1</v>
       </c>
       <c r="G118" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H118" s="29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I118" s="29">
         <v>0</v>
       </c>
       <c r="J118" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K118" s="29">
         <v>10</v>
@@ -21250,13 +21250,13 @@
         <v>0</v>
       </c>
       <c r="H119" s="29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I119" s="29">
         <v>0</v>
       </c>
       <c r="J119" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K119" s="29">
         <v>10</v>
@@ -21298,13 +21298,13 @@
         <v>0</v>
       </c>
       <c r="H120" s="29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I120" s="29">
         <v>0</v>
       </c>
       <c r="J120" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K120" s="29">
         <v>10</v>
@@ -21346,13 +21346,13 @@
         <v>0</v>
       </c>
       <c r="H121" s="29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I121" s="29">
         <v>0</v>
       </c>
       <c r="J121" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K121" s="29">
         <v>10</v>
@@ -21394,13 +21394,13 @@
         <v>0</v>
       </c>
       <c r="H122" s="29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I122" s="29">
         <v>0</v>
       </c>
       <c r="J122" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K122" s="29">
         <v>10</v>
@@ -21439,7 +21439,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H123" s="29">
         <v>0.4</v>
@@ -21448,7 +21448,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K123" s="29">
         <v>10</v>
@@ -21496,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K124" s="29">
         <v>10</v>
@@ -21544,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K125" s="29">
         <v>10</v>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H126" s="29">
         <v>0.4</v>
@@ -21592,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K126" s="29">
         <v>10</v>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K127" s="29">
         <v>10</v>
@@ -21688,7 +21688,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K128" s="29">
         <v>10</v>
@@ -21727,7 +21727,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H129" s="29">
         <v>0.4</v>
@@ -21736,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K129" s="29">
         <v>10</v>
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K130" s="29">
         <v>10</v>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="29">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K131" s="29">
         <v>10</v>
@@ -22307,6 +22307,12 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22316,12 +22322,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA2CF3C-9509-4DE5-8D40-3392672AE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169EF24-E067-4A36-8FE7-4F885C62DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -4209,11 +4209,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4221,11 +4221,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4254,22 +4266,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,12 +4286,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4697,7 +4697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:W163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -4739,46 +4739,46 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="40" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="34"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="35" t="s">
+      <c r="T2" s="43"/>
+      <c r="U2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="36"/>
+      <c r="V2" s="43"/>
       <c r="W2" s="37" t="s">
         <v>33</v>
       </c>
@@ -4788,13 +4788,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="53"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="48"/>
+      <c r="Q3" s="52"/>
       <c r="R3" s="38"/>
       <c r="S3" s="3" t="s">
         <v>43</v>
@@ -15403,12 +15403,6 @@
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15418,6 +15412,12 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15598,11 +15598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q141"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15637,17 +15637,17 @@
       <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="35" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="58" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="35" t="s">
         <v>351</v>
       </c>
       <c r="K2" s="54" t="s">
@@ -15656,16 +15656,16 @@
       <c r="L2" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="60" t="s">
         <v>431</v>
       </c>
       <c r="N2" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="35" t="s">
         <v>362</v>
       </c>
       <c r="Q2" s="54" t="s">
@@ -15683,15 +15683,15 @@
       <c r="G3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
-      <c r="M3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="2:17">
@@ -16056,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="29">
         <v>0</v>
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="29">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="29">
         <v>0</v>
@@ -16348,7 +16348,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="29">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="29">
         <v>0</v>
@@ -16396,7 +16396,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="29">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="29">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="29">
         <v>0</v>
@@ -18124,7 +18124,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I54" s="29">
         <v>0</v>
@@ -18172,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I55" s="29">
         <v>0</v>
@@ -18220,7 +18220,7 @@
         <v>20</v>
       </c>
       <c r="H56" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="29">
         <v>0</v>
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" s="29">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I67" s="29">
         <v>0</v>
@@ -18796,7 +18796,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I68" s="29">
         <v>0</v>
@@ -18844,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="29">
         <v>0</v>
@@ -19040,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="29">
         <v>0</v>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="29">
         <v>0</v>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="29">
         <v>0</v>
@@ -19234,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" s="29">
         <v>0</v>
@@ -20722,7 +20722,7 @@
         <v>20</v>
       </c>
       <c r="H108" s="29">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="I108" s="29">
         <v>0</v>
@@ -20770,7 +20770,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I109" s="29">
         <v>0</v>
@@ -20818,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I110" s="29">
         <v>0</v>
@@ -20866,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I111" s="29">
         <v>0</v>
@@ -20914,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I112" s="29">
         <v>0</v>
@@ -20962,7 +20962,7 @@
         <v>20</v>
       </c>
       <c r="H113" s="29">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="I113" s="29">
         <v>0</v>
@@ -21010,7 +21010,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I114" s="29">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I115" s="29">
         <v>0</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I116" s="29">
         <v>0</v>
@@ -21154,7 +21154,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I117" s="29">
         <v>0</v>
@@ -21202,7 +21202,7 @@
         <v>20</v>
       </c>
       <c r="H118" s="29">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="I118" s="29">
         <v>0</v>
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I119" s="29">
         <v>0</v>
@@ -21298,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I120" s="29">
         <v>0</v>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I121" s="29">
         <v>0</v>
@@ -21394,7 +21394,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I122" s="29">
         <v>0</v>
@@ -21442,7 +21442,7 @@
         <v>20</v>
       </c>
       <c r="H123" s="29">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="I123" s="29">
         <v>0</v>
@@ -21490,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I124" s="29">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I125" s="29">
         <v>0</v>
@@ -21586,7 +21586,7 @@
         <v>20</v>
       </c>
       <c r="H126" s="29">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="I126" s="29">
         <v>0</v>
@@ -21634,7 +21634,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I127" s="29">
         <v>0</v>
@@ -21682,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I128" s="29">
         <v>0</v>
@@ -21730,7 +21730,7 @@
         <v>20</v>
       </c>
       <c r="H129" s="29">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="I129" s="29">
         <v>0</v>
@@ -21778,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I130" s="29">
         <v>0</v>
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I131" s="29">
         <v>0</v>
@@ -22307,12 +22307,6 @@
   </sheetData>
   <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22322,6 +22316,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169EF24-E067-4A36-8FE7-4F885C62DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6D0370-E5C6-4578-A40C-409A67566565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
     <sheet name="SkillStat_Table" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$141</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SkillCondition_Table!$A$1:$W$163</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">SkillStat_Table!$A$1:$Q$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1262,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="777">
   <si>
     <t>번호</t>
   </si>
@@ -3652,6 +3654,13 @@
     <t>대미지 합연산</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>지옥의 군주(마왕) 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStat136</t>
+  </si>
 </sst>
 </file>
 
@@ -3661,7 +3670,7 @@
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3838,6 +3847,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3871,7 +3887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4032,15 +4048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
@@ -4103,7 +4110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4137,37 +4144,37 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4179,28 +4186,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4209,11 +4210,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4221,23 +4222,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4251,13 +4240,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4266,16 +4255,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4285,6 +4280,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4697,11 +4701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:W163"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4730,71 +4734,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="37" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="33" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4813,8 +4817,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="3" t="s">
         <v>43</v>
       </c>
@@ -4827,7 +4831,7 @@
       <c r="V3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="38"/>
+      <c r="W3" s="36"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="4" t="s">
@@ -5067,8 +5071,8 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="12">
-        <v>310001</v>
+      <c r="M7" s="15">
+        <v>310136</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -15401,8 +15405,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:W5" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
+  <autoFilter ref="B5:W163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:W3"/>
@@ -15412,12 +15422,6 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
@@ -15584,7 +15588,7 @@
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="162" max="16383" man="1"/>
+    <brk id="162" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>
@@ -15596,13 +15600,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="M131" sqref="M21:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15625,74 +15630,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="48" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="22" t="s">
         <v>346</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="55"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="23" t="s">
@@ -15745,57 +15750,57 @@
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="28">
+      <c r="Q5" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" hidden="1">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -15813,22 +15818,22 @@
       <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-      <c r="J6" s="29">
+      <c r="H6" s="27">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
         <v>3.5</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>10</v>
       </c>
       <c r="L6" s="15">
         <v>1</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="27">
         <v>0.5</v>
       </c>
       <c r="N6" s="15">
@@ -15842,8 +15847,8 @@
       </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="28">
+    <row r="7" spans="2:17" hidden="1">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -15861,22 +15866,22 @@
       <c r="G7" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="29">
-        <v>1</v>
-      </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29">
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
         <v>6</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>10</v>
       </c>
       <c r="L7" s="15">
         <v>1</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <v>0.5</v>
       </c>
       <c r="N7" s="15">
@@ -15890,8 +15895,8 @@
       </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="28">
+    <row r="8" spans="2:17" hidden="1">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -15909,22 +15914,22 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="27">
         <v>0.5</v>
       </c>
-      <c r="I8" s="29">
-        <v>0</v>
-      </c>
-      <c r="J8" s="29">
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
         <v>3.5</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <v>10</v>
       </c>
       <c r="L8" s="15">
         <v>1</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <v>0.5</v>
       </c>
       <c r="N8" s="15">
@@ -15933,13 +15938,13 @@
       <c r="O8" s="15">
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="28">
         <v>300020</v>
       </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="28">
+    <row r="9" spans="2:17" hidden="1">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -15957,22 +15962,22 @@
       <c r="G9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>0.5</v>
       </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
         <v>3.5</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>10</v>
       </c>
       <c r="L9" s="15">
         <v>1</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <v>0.5</v>
       </c>
       <c r="N9" s="15">
@@ -15981,13 +15986,13 @@
       <c r="O9" s="15">
         <v>0</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="28">
         <v>300022</v>
       </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="28">
+    <row r="10" spans="2:17" hidden="1">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -16005,22 +16010,22 @@
       <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>0.5</v>
       </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
         <v>6</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <v>10</v>
       </c>
       <c r="L10" s="15">
         <v>1</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <v>0.5</v>
       </c>
       <c r="N10" s="15">
@@ -16032,12 +16037,12 @@
       <c r="P10" s="15">
         <v>0</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="29" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="28">
+    <row r="11" spans="2:17" hidden="1">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -16055,22 +16060,22 @@
       <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="29">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29">
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
         <v>6</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <v>10</v>
       </c>
       <c r="L11" s="15">
         <v>1</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <v>0.5</v>
       </c>
       <c r="N11" s="15">
@@ -16079,7 +16084,7 @@
       <c r="O11" s="15">
         <v>0</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="28">
         <v>300024</v>
       </c>
       <c r="Q11" s="17" t="s">
@@ -16087,7 +16092,7 @@
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>7</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -16105,26 +16110,26 @@
       <c r="G12" s="15">
         <v>0</v>
       </c>
-      <c r="H12" s="29">
-        <v>2</v>
-      </c>
-      <c r="I12" s="29">
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="H12" s="27">
+        <v>2</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
         <v>6</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="27">
         <v>10</v>
       </c>
       <c r="L12" s="15">
         <v>100</v>
       </c>
-      <c r="M12" s="29">
-        <v>10</v>
+      <c r="M12" s="27">
+        <v>3</v>
       </c>
       <c r="N12" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O12" s="15">
         <v>0</v>
@@ -16136,8 +16141,8 @@
         <v>764</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="28">
+    <row r="13" spans="2:17" hidden="1">
+      <c r="B13" s="26">
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -16155,22 +16160,22 @@
       <c r="G13" s="15">
         <v>15</v>
       </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
         <v>100</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <v>0</v>
       </c>
       <c r="L13" s="15">
         <v>100</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <v>0.5</v>
       </c>
       <c r="N13" s="15">
@@ -16184,8 +16189,8 @@
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="28">
+    <row r="14" spans="2:17" hidden="1">
+      <c r="B14" s="26">
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -16203,22 +16208,22 @@
       <c r="G14" s="15">
         <v>30</v>
       </c>
-      <c r="H14" s="29">
-        <v>0</v>
-      </c>
-      <c r="I14" s="29">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
         <v>100</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <v>0</v>
       </c>
       <c r="L14" s="15">
         <v>100</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <v>0.5</v>
       </c>
       <c r="N14" s="15">
@@ -16233,7 +16238,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="28">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -16251,22 +16256,22 @@
       <c r="G15" s="15">
         <v>10</v>
       </c>
-      <c r="H15" s="29">
-        <v>2</v>
-      </c>
-      <c r="I15" s="29">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="H15" s="27">
+        <v>2</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
         <v>100</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <v>0</v>
       </c>
       <c r="L15" s="15">
         <v>100</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <v>5</v>
       </c>
       <c r="N15" s="15">
@@ -16275,13 +16280,13 @@
       <c r="O15" s="15">
         <v>0</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="28">
         <v>300028</v>
       </c>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="28">
+    <row r="16" spans="2:17" hidden="1">
+      <c r="B16" s="26">
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -16299,22 +16304,22 @@
       <c r="G16" s="15">
         <v>15</v>
       </c>
-      <c r="H16" s="29">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
         <v>100</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <v>0</v>
       </c>
       <c r="L16" s="15">
         <v>100</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <v>6</v>
       </c>
       <c r="N16" s="15">
@@ -16323,13 +16328,13 @@
       <c r="O16" s="15">
         <v>320028</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="28">
         <v>300031</v>
       </c>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="28">
+    <row r="17" spans="2:17" hidden="1">
+      <c r="B17" s="26">
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -16347,22 +16352,22 @@
       <c r="G17" s="15">
         <v>45</v>
       </c>
-      <c r="H17" s="29">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
+      <c r="H17" s="27">
+        <v>1</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
         <v>100</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <v>0</v>
       </c>
       <c r="L17" s="15">
         <v>100</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <v>3</v>
       </c>
       <c r="N17" s="15">
@@ -16371,13 +16376,13 @@
       <c r="O17" s="15">
         <v>320029</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="28">
         <v>300033</v>
       </c>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="28">
+    <row r="18" spans="2:17" hidden="1">
+      <c r="B18" s="26">
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -16395,22 +16400,22 @@
       <c r="G18" s="15">
         <v>20</v>
       </c>
-      <c r="H18" s="29">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="H18" s="27">
+        <v>1</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
         <v>6</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <v>10</v>
       </c>
       <c r="L18" s="15">
         <v>1</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <v>0.5</v>
       </c>
       <c r="N18" s="15">
@@ -16419,13 +16424,13 @@
       <c r="O18" s="15">
         <v>0</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="28">
         <v>300035</v>
       </c>
       <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -16443,22 +16448,22 @@
       <c r="G19" s="15">
         <v>0</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="27">
         <v>1.5</v>
       </c>
-      <c r="I19" s="29">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
         <v>6</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <v>10</v>
       </c>
       <c r="L19" s="15">
         <v>100</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <v>3</v>
       </c>
       <c r="N19" s="15">
@@ -16472,8 +16477,8 @@
       </c>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="28">
+    <row r="20" spans="2:17" hidden="1">
+      <c r="B20" s="26">
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -16491,22 +16496,22 @@
       <c r="G20" s="15">
         <v>20</v>
       </c>
-      <c r="H20" s="29">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="H20" s="27">
+        <v>1</v>
+      </c>
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+      <c r="J20" s="27">
         <v>6</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <v>10</v>
       </c>
       <c r="L20" s="15">
         <v>1</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <v>0.5</v>
       </c>
       <c r="N20" s="15">
@@ -16515,13 +16520,13 @@
       <c r="O20" s="15">
         <v>0</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="28">
         <v>300037</v>
       </c>
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -16539,22 +16544,22 @@
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="29">
-        <v>2</v>
-      </c>
-      <c r="I21" s="29">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="H21" s="27">
+        <v>2</v>
+      </c>
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27">
         <v>6</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <v>10</v>
       </c>
       <c r="L21" s="15">
         <v>100</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>3</v>
       </c>
       <c r="N21" s="15">
@@ -16568,8 +16573,8 @@
       </c>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="28">
+    <row r="22" spans="2:17" hidden="1">
+      <c r="B22" s="26">
         <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -16587,22 +16592,22 @@
       <c r="G22" s="15">
         <v>20</v>
       </c>
-      <c r="H22" s="29">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29">
+      <c r="H22" s="27">
+        <v>1</v>
+      </c>
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+      <c r="J22" s="27">
         <v>6</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <v>10</v>
       </c>
       <c r="L22" s="15">
         <v>1</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <v>0.5</v>
       </c>
       <c r="N22" s="15">
@@ -16611,13 +16616,13 @@
       <c r="O22" s="15">
         <v>0</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="28">
         <v>300039</v>
       </c>
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="28">
+      <c r="B23" s="26">
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -16635,22 +16640,22 @@
       <c r="G23" s="15">
         <v>0</v>
       </c>
-      <c r="H23" s="29">
-        <v>3</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
+      <c r="H23" s="27">
+        <v>3</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
         <v>6</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="27">
         <v>10</v>
       </c>
       <c r="L23" s="15">
         <v>100</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>3</v>
       </c>
       <c r="N23" s="15">
@@ -16664,8 +16669,8 @@
       </c>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="28">
+    <row r="24" spans="2:17" hidden="1">
+      <c r="B24" s="26">
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -16683,22 +16688,22 @@
       <c r="G24" s="15">
         <v>25</v>
       </c>
-      <c r="H24" s="29">
-        <v>0</v>
-      </c>
-      <c r="I24" s="29">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29">
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
         <v>100</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="27">
         <v>10</v>
       </c>
       <c r="L24" s="15">
         <v>100</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <v>0.5</v>
       </c>
       <c r="N24" s="15">
@@ -16712,8 +16717,8 @@
       </c>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="28">
+    <row r="25" spans="2:17" hidden="1">
+      <c r="B25" s="26">
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -16731,22 +16736,22 @@
       <c r="G25" s="15">
         <v>25</v>
       </c>
-      <c r="H25" s="29">
-        <v>0</v>
-      </c>
-      <c r="I25" s="29">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="27">
         <v>100</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="27">
         <v>10</v>
       </c>
       <c r="L25" s="15">
         <v>100</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <v>0.5</v>
       </c>
       <c r="N25" s="15">
@@ -16760,8 +16765,8 @@
       </c>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="28">
+    <row r="26" spans="2:17" hidden="1">
+      <c r="B26" s="26">
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -16779,22 +16784,22 @@
       <c r="G26" s="15">
         <v>25</v>
       </c>
-      <c r="H26" s="29">
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29">
+      <c r="H26" s="27">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="27">
         <v>100</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="27">
         <v>10</v>
       </c>
       <c r="L26" s="15">
         <v>100</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <v>0.5</v>
       </c>
       <c r="N26" s="15">
@@ -16809,7 +16814,7 @@
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="28">
+      <c r="B27" s="26">
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -16827,23 +16832,23 @@
       <c r="G27" s="15">
         <v>20</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="27">
         <v>1.5</v>
       </c>
-      <c r="I27" s="29">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29">
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
         <v>3.5</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="27">
         <v>10</v>
       </c>
       <c r="L27" s="15">
         <v>100</v>
       </c>
-      <c r="M27" s="29">
-        <v>8</v>
+      <c r="M27" s="27">
+        <v>3</v>
       </c>
       <c r="N27" s="15">
         <v>1</v>
@@ -16857,7 +16862,7 @@
       <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="28">
+      <c r="B28" s="26">
         <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -16875,23 +16880,23 @@
       <c r="G28" s="15">
         <v>20</v>
       </c>
-      <c r="H28" s="29">
-        <v>2</v>
-      </c>
-      <c r="I28" s="29">
-        <v>0</v>
-      </c>
-      <c r="J28" s="29">
+      <c r="H28" s="27">
+        <v>2</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
         <v>3.5</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="27">
         <v>10</v>
       </c>
       <c r="L28" s="15">
         <v>100</v>
       </c>
-      <c r="M28" s="29">
-        <v>8</v>
+      <c r="M28" s="27">
+        <v>3</v>
       </c>
       <c r="N28" s="15">
         <v>1</v>
@@ -16905,7 +16910,7 @@
       <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="28">
+      <c r="B29" s="26">
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -16923,23 +16928,23 @@
       <c r="G29" s="15">
         <v>20</v>
       </c>
-      <c r="H29" s="29">
-        <v>3</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="29">
+      <c r="H29" s="27">
+        <v>3</v>
+      </c>
+      <c r="I29" s="27">
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
         <v>3.5</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="27">
         <v>10</v>
       </c>
       <c r="L29" s="15">
         <v>100</v>
       </c>
-      <c r="M29" s="29">
-        <v>8</v>
+      <c r="M29" s="27">
+        <v>3</v>
       </c>
       <c r="N29" s="15">
         <v>1</v>
@@ -16952,8 +16957,8 @@
       </c>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17">
-      <c r="B30" s="28">
+    <row r="30" spans="2:17" hidden="1">
+      <c r="B30" s="26">
         <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -16971,22 +16976,22 @@
       <c r="G30" s="15">
         <v>20</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="27">
         <v>1.5</v>
       </c>
-      <c r="I30" s="29">
-        <v>0</v>
-      </c>
-      <c r="J30" s="29">
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
         <v>6</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <v>10</v>
       </c>
       <c r="L30" s="15">
         <v>1</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <v>0.5</v>
       </c>
       <c r="N30" s="15">
@@ -17000,8 +17005,8 @@
       </c>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="28">
+    <row r="31" spans="2:17" hidden="1">
+      <c r="B31" s="26">
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -17019,22 +17024,22 @@
       <c r="G31" s="15">
         <v>20</v>
       </c>
-      <c r="H31" s="29">
-        <v>2</v>
-      </c>
-      <c r="I31" s="29">
-        <v>0</v>
-      </c>
-      <c r="J31" s="29">
+      <c r="H31" s="27">
+        <v>2</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
         <v>6</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="27">
         <v>10</v>
       </c>
       <c r="L31" s="15">
         <v>1</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="27">
         <v>0.5</v>
       </c>
       <c r="N31" s="15">
@@ -17048,8 +17053,8 @@
       </c>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="28">
+    <row r="32" spans="2:17" hidden="1">
+      <c r="B32" s="26">
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -17067,22 +17072,22 @@
       <c r="G32" s="15">
         <v>20</v>
       </c>
-      <c r="H32" s="29">
-        <v>3</v>
-      </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-      <c r="J32" s="29">
+      <c r="H32" s="27">
+        <v>3</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0</v>
+      </c>
+      <c r="J32" s="27">
         <v>6</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="27">
         <v>10</v>
       </c>
       <c r="L32" s="15">
         <v>1</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="27">
         <v>0.5</v>
       </c>
       <c r="N32" s="15">
@@ -17097,7 +17102,7 @@
       <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="28">
+      <c r="B33" s="26">
         <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -17115,23 +17120,23 @@
       <c r="G33" s="15">
         <v>20</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="27">
         <v>1.5</v>
       </c>
-      <c r="I33" s="29">
-        <v>0</v>
-      </c>
-      <c r="J33" s="29">
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
+      <c r="I33" s="27">
+        <v>0</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0</v>
+      </c>
+      <c r="K33" s="27">
         <v>10</v>
       </c>
       <c r="L33" s="15">
         <v>100</v>
       </c>
-      <c r="M33" s="29">
-        <v>8</v>
+      <c r="M33" s="27">
+        <v>3</v>
       </c>
       <c r="N33" s="15">
         <v>1</v>
@@ -17145,7 +17150,7 @@
       <c r="Q33" s="15"/>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="28">
+      <c r="B34" s="26">
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -17163,23 +17168,23 @@
       <c r="G34" s="15">
         <v>20</v>
       </c>
-      <c r="H34" s="29">
-        <v>2</v>
-      </c>
-      <c r="I34" s="29">
-        <v>0</v>
-      </c>
-      <c r="J34" s="29">
-        <v>0</v>
-      </c>
-      <c r="K34" s="29">
+      <c r="H34" s="27">
+        <v>2</v>
+      </c>
+      <c r="I34" s="27">
+        <v>0</v>
+      </c>
+      <c r="J34" s="27">
+        <v>0</v>
+      </c>
+      <c r="K34" s="27">
         <v>10</v>
       </c>
       <c r="L34" s="15">
         <v>100</v>
       </c>
-      <c r="M34" s="29">
-        <v>8</v>
+      <c r="M34" s="27">
+        <v>3</v>
       </c>
       <c r="N34" s="15">
         <v>1</v>
@@ -17193,7 +17198,7 @@
       <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="28">
+      <c r="B35" s="26">
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -17211,23 +17216,23 @@
       <c r="G35" s="15">
         <v>20</v>
       </c>
-      <c r="H35" s="29">
-        <v>3</v>
-      </c>
-      <c r="I35" s="29">
-        <v>0</v>
-      </c>
-      <c r="J35" s="29">
-        <v>0</v>
-      </c>
-      <c r="K35" s="29">
+      <c r="H35" s="27">
+        <v>3</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0</v>
+      </c>
+      <c r="K35" s="27">
         <v>10</v>
       </c>
       <c r="L35" s="15">
         <v>100</v>
       </c>
-      <c r="M35" s="29">
-        <v>8</v>
+      <c r="M35" s="27">
+        <v>3</v>
       </c>
       <c r="N35" s="15">
         <v>1</v>
@@ -17240,8 +17245,8 @@
       </c>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="28">
+    <row r="36" spans="2:17" hidden="1">
+      <c r="B36" s="26">
         <v>31</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -17259,22 +17264,22 @@
       <c r="G36" s="15">
         <v>30</v>
       </c>
-      <c r="H36" s="29">
-        <v>0</v>
-      </c>
-      <c r="I36" s="29">
-        <v>0</v>
-      </c>
-      <c r="J36" s="29">
+      <c r="H36" s="27">
+        <v>0</v>
+      </c>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
+      <c r="J36" s="27">
         <v>100</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="27">
         <v>10</v>
       </c>
       <c r="L36" s="15">
         <v>100</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="27">
         <v>0.5</v>
       </c>
       <c r="N36" s="15">
@@ -17288,8 +17293,8 @@
       </c>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="28">
+    <row r="37" spans="2:17" hidden="1">
+      <c r="B37" s="26">
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -17307,22 +17312,22 @@
       <c r="G37" s="15">
         <v>30</v>
       </c>
-      <c r="H37" s="29">
-        <v>0</v>
-      </c>
-      <c r="I37" s="29">
-        <v>0</v>
-      </c>
-      <c r="J37" s="29">
+      <c r="H37" s="27">
+        <v>0</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0</v>
+      </c>
+      <c r="J37" s="27">
         <v>100</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="27">
         <v>10</v>
       </c>
       <c r="L37" s="15">
         <v>100</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="27">
         <v>0.5</v>
       </c>
       <c r="N37" s="15">
@@ -17336,8 +17341,8 @@
       </c>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="28">
+    <row r="38" spans="2:17" hidden="1">
+      <c r="B38" s="26">
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -17355,22 +17360,22 @@
       <c r="G38" s="15">
         <v>30</v>
       </c>
-      <c r="H38" s="29">
-        <v>0</v>
-      </c>
-      <c r="I38" s="29">
-        <v>0</v>
-      </c>
-      <c r="J38" s="29">
+      <c r="H38" s="27">
+        <v>0</v>
+      </c>
+      <c r="I38" s="27">
+        <v>0</v>
+      </c>
+      <c r="J38" s="27">
         <v>100</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="27">
         <v>10</v>
       </c>
       <c r="L38" s="15">
         <v>100</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="27">
         <v>0.5</v>
       </c>
       <c r="N38" s="15">
@@ -17384,8 +17389,8 @@
       </c>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="28">
+    <row r="39" spans="2:17" hidden="1">
+      <c r="B39" s="26">
         <v>34</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -17403,22 +17408,22 @@
       <c r="G39" s="15">
         <v>20</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="27">
         <v>1.5</v>
       </c>
-      <c r="I39" s="29">
-        <v>0</v>
-      </c>
-      <c r="J39" s="29">
-        <v>0</v>
-      </c>
-      <c r="K39" s="29">
+      <c r="I39" s="27">
+        <v>0</v>
+      </c>
+      <c r="J39" s="27">
+        <v>0</v>
+      </c>
+      <c r="K39" s="27">
         <v>10</v>
       </c>
       <c r="L39" s="15">
         <v>100</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="27">
         <v>8</v>
       </c>
       <c r="N39" s="15">
@@ -17432,8 +17437,8 @@
       </c>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="28">
+    <row r="40" spans="2:17" hidden="1">
+      <c r="B40" s="26">
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -17451,22 +17456,22 @@
       <c r="G40" s="15">
         <v>20</v>
       </c>
-      <c r="H40" s="29">
-        <v>2</v>
-      </c>
-      <c r="I40" s="29">
-        <v>0</v>
-      </c>
-      <c r="J40" s="29">
-        <v>0</v>
-      </c>
-      <c r="K40" s="29">
+      <c r="H40" s="27">
+        <v>2</v>
+      </c>
+      <c r="I40" s="27">
+        <v>0</v>
+      </c>
+      <c r="J40" s="27">
+        <v>0</v>
+      </c>
+      <c r="K40" s="27">
         <v>10</v>
       </c>
       <c r="L40" s="15">
         <v>100</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="27">
         <v>8</v>
       </c>
       <c r="N40" s="15">
@@ -17480,8 +17485,8 @@
       </c>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17">
-      <c r="B41" s="28">
+    <row r="41" spans="2:17" hidden="1">
+      <c r="B41" s="26">
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -17499,22 +17504,22 @@
       <c r="G41" s="15">
         <v>20</v>
       </c>
-      <c r="H41" s="29">
-        <v>3</v>
-      </c>
-      <c r="I41" s="29">
-        <v>0</v>
-      </c>
-      <c r="J41" s="29">
-        <v>0</v>
-      </c>
-      <c r="K41" s="29">
+      <c r="H41" s="27">
+        <v>3</v>
+      </c>
+      <c r="I41" s="27">
+        <v>0</v>
+      </c>
+      <c r="J41" s="27">
+        <v>0</v>
+      </c>
+      <c r="K41" s="27">
         <v>10</v>
       </c>
       <c r="L41" s="15">
         <v>100</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="27">
         <v>8</v>
       </c>
       <c r="N41" s="15">
@@ -17528,8 +17533,8 @@
       </c>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="28">
+    <row r="42" spans="2:17" hidden="1">
+      <c r="B42" s="26">
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -17547,22 +17552,22 @@
       <c r="G42" s="15">
         <v>20</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="27">
         <v>1.5</v>
       </c>
-      <c r="I42" s="29">
-        <v>0</v>
-      </c>
-      <c r="J42" s="29">
+      <c r="I42" s="27">
+        <v>0</v>
+      </c>
+      <c r="J42" s="27">
         <v>3.5</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="27">
         <v>10</v>
       </c>
       <c r="L42" s="15">
         <v>1</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="27">
         <v>0.5</v>
       </c>
       <c r="N42" s="15">
@@ -17576,8 +17581,8 @@
       </c>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="28">
+    <row r="43" spans="2:17" hidden="1">
+      <c r="B43" s="26">
         <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -17595,22 +17600,22 @@
       <c r="G43" s="15">
         <v>20</v>
       </c>
-      <c r="H43" s="29">
-        <v>2</v>
-      </c>
-      <c r="I43" s="29">
-        <v>0</v>
-      </c>
-      <c r="J43" s="29">
+      <c r="H43" s="27">
+        <v>2</v>
+      </c>
+      <c r="I43" s="27">
+        <v>0</v>
+      </c>
+      <c r="J43" s="27">
         <v>3.5</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="27">
         <v>10</v>
       </c>
       <c r="L43" s="15">
         <v>1</v>
       </c>
-      <c r="M43" s="29">
+      <c r="M43" s="27">
         <v>0.5</v>
       </c>
       <c r="N43" s="15">
@@ -17624,8 +17629,8 @@
       </c>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="28">
+    <row r="44" spans="2:17" hidden="1">
+      <c r="B44" s="26">
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -17643,22 +17648,22 @@
       <c r="G44" s="15">
         <v>20</v>
       </c>
-      <c r="H44" s="29">
-        <v>3</v>
-      </c>
-      <c r="I44" s="29">
-        <v>0</v>
-      </c>
-      <c r="J44" s="29">
+      <c r="H44" s="27">
+        <v>3</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0</v>
+      </c>
+      <c r="J44" s="27">
         <v>3.5</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="27">
         <v>10</v>
       </c>
       <c r="L44" s="15">
         <v>1</v>
       </c>
-      <c r="M44" s="29">
+      <c r="M44" s="27">
         <v>0.5</v>
       </c>
       <c r="N44" s="15">
@@ -17672,8 +17677,8 @@
       </c>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="28">
+    <row r="45" spans="2:17" hidden="1">
+      <c r="B45" s="26">
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -17691,22 +17696,22 @@
       <c r="G45" s="15">
         <v>20</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="27">
         <v>1.5</v>
       </c>
-      <c r="I45" s="29">
-        <v>0</v>
-      </c>
-      <c r="J45" s="29">
+      <c r="I45" s="27">
+        <v>0</v>
+      </c>
+      <c r="J45" s="27">
         <v>3.5</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="27">
         <v>10</v>
       </c>
       <c r="L45" s="15">
         <v>100</v>
       </c>
-      <c r="M45" s="29">
+      <c r="M45" s="27">
         <v>3</v>
       </c>
       <c r="N45" s="15">
@@ -17720,8 +17725,8 @@
       </c>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="28">
+    <row r="46" spans="2:17" hidden="1">
+      <c r="B46" s="26">
         <v>41</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -17739,22 +17744,22 @@
       <c r="G46" s="15">
         <v>20</v>
       </c>
-      <c r="H46" s="29">
-        <v>2</v>
-      </c>
-      <c r="I46" s="29">
-        <v>0</v>
-      </c>
-      <c r="J46" s="29">
+      <c r="H46" s="27">
+        <v>2</v>
+      </c>
+      <c r="I46" s="27">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27">
         <v>3.5</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="27">
         <v>10</v>
       </c>
       <c r="L46" s="15">
         <v>100</v>
       </c>
-      <c r="M46" s="29">
+      <c r="M46" s="27">
         <v>3</v>
       </c>
       <c r="N46" s="15">
@@ -17768,8 +17773,8 @@
       </c>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17">
-      <c r="B47" s="28">
+    <row r="47" spans="2:17" hidden="1">
+      <c r="B47" s="26">
         <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -17787,22 +17792,22 @@
       <c r="G47" s="15">
         <v>20</v>
       </c>
-      <c r="H47" s="29">
-        <v>3</v>
-      </c>
-      <c r="I47" s="29">
-        <v>0</v>
-      </c>
-      <c r="J47" s="29">
+      <c r="H47" s="27">
+        <v>3</v>
+      </c>
+      <c r="I47" s="27">
+        <v>0</v>
+      </c>
+      <c r="J47" s="27">
         <v>3.5</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="27">
         <v>10</v>
       </c>
       <c r="L47" s="15">
         <v>100</v>
       </c>
-      <c r="M47" s="29">
+      <c r="M47" s="27">
         <v>3</v>
       </c>
       <c r="N47" s="15">
@@ -17816,8 +17821,8 @@
       </c>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="28">
+    <row r="48" spans="2:17" hidden="1">
+      <c r="B48" s="26">
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -17835,22 +17840,22 @@
       <c r="G48" s="15">
         <v>20</v>
       </c>
-      <c r="H48" s="29">
-        <v>0</v>
-      </c>
-      <c r="I48" s="29">
-        <v>0</v>
-      </c>
-      <c r="J48" s="29">
-        <v>0</v>
-      </c>
-      <c r="K48" s="29">
+      <c r="H48" s="27">
+        <v>0</v>
+      </c>
+      <c r="I48" s="27">
+        <v>0</v>
+      </c>
+      <c r="J48" s="27">
+        <v>0</v>
+      </c>
+      <c r="K48" s="27">
         <v>10</v>
       </c>
       <c r="L48" s="15">
         <v>100</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M48" s="27">
         <v>6</v>
       </c>
       <c r="N48" s="15">
@@ -17864,8 +17869,8 @@
       </c>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17">
-      <c r="B49" s="28">
+    <row r="49" spans="2:17" hidden="1">
+      <c r="B49" s="26">
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -17883,22 +17888,22 @@
       <c r="G49" s="15">
         <v>20</v>
       </c>
-      <c r="H49" s="29">
-        <v>0</v>
-      </c>
-      <c r="I49" s="29">
-        <v>0</v>
-      </c>
-      <c r="J49" s="29">
-        <v>0</v>
-      </c>
-      <c r="K49" s="29">
+      <c r="H49" s="27">
+        <v>0</v>
+      </c>
+      <c r="I49" s="27">
+        <v>0</v>
+      </c>
+      <c r="J49" s="27">
+        <v>0</v>
+      </c>
+      <c r="K49" s="27">
         <v>10</v>
       </c>
       <c r="L49" s="15">
         <v>100</v>
       </c>
-      <c r="M49" s="29">
+      <c r="M49" s="27">
         <v>6</v>
       </c>
       <c r="N49" s="15">
@@ -17912,8 +17917,8 @@
       </c>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="28">
+    <row r="50" spans="2:17" hidden="1">
+      <c r="B50" s="26">
         <v>45</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -17931,22 +17936,22 @@
       <c r="G50" s="15">
         <v>20</v>
       </c>
-      <c r="H50" s="29">
-        <v>0</v>
-      </c>
-      <c r="I50" s="29">
-        <v>0</v>
-      </c>
-      <c r="J50" s="29">
-        <v>0</v>
-      </c>
-      <c r="K50" s="29">
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
+      <c r="I50" s="27">
+        <v>0</v>
+      </c>
+      <c r="J50" s="27">
+        <v>0</v>
+      </c>
+      <c r="K50" s="27">
         <v>10</v>
       </c>
       <c r="L50" s="15">
         <v>100</v>
       </c>
-      <c r="M50" s="29">
+      <c r="M50" s="27">
         <v>6</v>
       </c>
       <c r="N50" s="15">
@@ -17960,8 +17965,8 @@
       </c>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17">
-      <c r="B51" s="28">
+    <row r="51" spans="2:17" hidden="1">
+      <c r="B51" s="26">
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -17979,22 +17984,22 @@
       <c r="G51" s="15">
         <v>20</v>
       </c>
-      <c r="H51" s="29">
-        <v>0</v>
-      </c>
-      <c r="I51" s="29">
-        <v>0</v>
-      </c>
-      <c r="J51" s="29">
+      <c r="H51" s="27">
+        <v>0</v>
+      </c>
+      <c r="I51" s="27">
+        <v>0</v>
+      </c>
+      <c r="J51" s="27">
         <v>100</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="27">
         <v>10</v>
       </c>
       <c r="L51" s="15">
         <v>100</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="27">
         <v>0.5</v>
       </c>
       <c r="N51" s="15">
@@ -18008,8 +18013,8 @@
       </c>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="28">
+    <row r="52" spans="2:17" hidden="1">
+      <c r="B52" s="26">
         <v>47</v>
       </c>
       <c r="C52" s="15" t="s">
@@ -18027,22 +18032,22 @@
       <c r="G52" s="15">
         <v>20</v>
       </c>
-      <c r="H52" s="29">
-        <v>0</v>
-      </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-      <c r="J52" s="29">
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="27">
+        <v>0</v>
+      </c>
+      <c r="J52" s="27">
         <v>100</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="27">
         <v>10</v>
       </c>
       <c r="L52" s="15">
         <v>100</v>
       </c>
-      <c r="M52" s="29">
+      <c r="M52" s="27">
         <v>0.5</v>
       </c>
       <c r="N52" s="15">
@@ -18056,8 +18061,8 @@
       </c>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="28">
+    <row r="53" spans="2:17" hidden="1">
+      <c r="B53" s="26">
         <v>48</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -18075,22 +18080,22 @@
       <c r="G53" s="15">
         <v>20</v>
       </c>
-      <c r="H53" s="29">
-        <v>0</v>
-      </c>
-      <c r="I53" s="29">
-        <v>0</v>
-      </c>
-      <c r="J53" s="29">
+      <c r="H53" s="27">
+        <v>0</v>
+      </c>
+      <c r="I53" s="27">
+        <v>0</v>
+      </c>
+      <c r="J53" s="27">
         <v>100</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="27">
         <v>10</v>
       </c>
       <c r="L53" s="15">
         <v>100</v>
       </c>
-      <c r="M53" s="29">
+      <c r="M53" s="27">
         <v>0.5</v>
       </c>
       <c r="N53" s="15">
@@ -18104,8 +18109,8 @@
       </c>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17">
-      <c r="B54" s="28">
+    <row r="54" spans="2:17" hidden="1">
+      <c r="B54" s="26">
         <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -18123,22 +18128,22 @@
       <c r="G54" s="15">
         <v>20</v>
       </c>
-      <c r="H54" s="29">
-        <v>1</v>
-      </c>
-      <c r="I54" s="29">
-        <v>0</v>
-      </c>
-      <c r="J54" s="29">
+      <c r="H54" s="27">
+        <v>1</v>
+      </c>
+      <c r="I54" s="27">
+        <v>0</v>
+      </c>
+      <c r="J54" s="27">
         <v>3.5</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="27">
         <v>10</v>
       </c>
       <c r="L54" s="15">
         <v>1</v>
       </c>
-      <c r="M54" s="29">
+      <c r="M54" s="27">
         <v>0.5</v>
       </c>
       <c r="N54" s="15">
@@ -18147,13 +18152,13 @@
       <c r="O54" s="15">
         <v>320037</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="28">
         <v>300071</v>
       </c>
       <c r="Q54" s="15"/>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="28">
+      <c r="B55" s="26">
         <v>50</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -18171,23 +18176,23 @@
       <c r="G55" s="15">
         <v>0</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="27">
         <v>1.5</v>
       </c>
-      <c r="I55" s="29">
-        <v>0</v>
-      </c>
-      <c r="J55" s="29">
+      <c r="I55" s="27">
+        <v>0</v>
+      </c>
+      <c r="J55" s="27">
         <v>3.5</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="27">
         <v>10</v>
       </c>
       <c r="L55" s="15">
         <v>100</v>
       </c>
-      <c r="M55" s="29">
-        <v>8</v>
+      <c r="M55" s="27">
+        <v>3</v>
       </c>
       <c r="N55" s="15">
         <v>1</v>
@@ -18200,8 +18205,8 @@
       </c>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="28">
+    <row r="56" spans="2:17" hidden="1">
+      <c r="B56" s="26">
         <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -18219,22 +18224,22 @@
       <c r="G56" s="15">
         <v>20</v>
       </c>
-      <c r="H56" s="29">
-        <v>1</v>
-      </c>
-      <c r="I56" s="29">
-        <v>0</v>
-      </c>
-      <c r="J56" s="29">
+      <c r="H56" s="27">
+        <v>1</v>
+      </c>
+      <c r="I56" s="27">
+        <v>0</v>
+      </c>
+      <c r="J56" s="27">
         <v>3.5</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="27">
         <v>10</v>
       </c>
       <c r="L56" s="15">
         <v>1</v>
       </c>
-      <c r="M56" s="29">
+      <c r="M56" s="27">
         <v>0.5</v>
       </c>
       <c r="N56" s="15">
@@ -18243,13 +18248,13 @@
       <c r="O56" s="15">
         <v>320054</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="28">
         <v>300073</v>
       </c>
       <c r="Q56" s="15"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="28">
+      <c r="B57" s="26">
         <v>52</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -18267,23 +18272,23 @@
       <c r="G57" s="15">
         <v>0</v>
       </c>
-      <c r="H57" s="29">
-        <v>2</v>
-      </c>
-      <c r="I57" s="29">
-        <v>0</v>
-      </c>
-      <c r="J57" s="29">
+      <c r="H57" s="27">
+        <v>2</v>
+      </c>
+      <c r="I57" s="27">
+        <v>0</v>
+      </c>
+      <c r="J57" s="27">
         <v>3.5</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="27">
         <v>10</v>
       </c>
       <c r="L57" s="15">
         <v>100</v>
       </c>
-      <c r="M57" s="29">
-        <v>8</v>
+      <c r="M57" s="27">
+        <v>3</v>
       </c>
       <c r="N57" s="15">
         <v>1</v>
@@ -18296,8 +18301,8 @@
       </c>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17">
-      <c r="B58" s="28">
+    <row r="58" spans="2:17" hidden="1">
+      <c r="B58" s="26">
         <v>53</v>
       </c>
       <c r="C58" s="15" t="s">
@@ -18315,22 +18320,22 @@
       <c r="G58" s="15">
         <v>20</v>
       </c>
-      <c r="H58" s="29">
-        <v>1</v>
-      </c>
-      <c r="I58" s="29">
-        <v>0</v>
-      </c>
-      <c r="J58" s="29">
+      <c r="H58" s="27">
+        <v>1</v>
+      </c>
+      <c r="I58" s="27">
+        <v>0</v>
+      </c>
+      <c r="J58" s="27">
         <v>3.5</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="27">
         <v>10</v>
       </c>
       <c r="L58" s="15">
         <v>1</v>
       </c>
-      <c r="M58" s="29">
+      <c r="M58" s="27">
         <v>0.5</v>
       </c>
       <c r="N58" s="15">
@@ -18339,13 +18344,13 @@
       <c r="O58" s="15">
         <v>320071</v>
       </c>
-      <c r="P58" s="30">
+      <c r="P58" s="28">
         <v>300075</v>
       </c>
       <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="28">
+      <c r="B59" s="26">
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
@@ -18363,23 +18368,23 @@
       <c r="G59" s="15">
         <v>0</v>
       </c>
-      <c r="H59" s="29">
-        <v>3</v>
-      </c>
-      <c r="I59" s="29">
-        <v>0</v>
-      </c>
-      <c r="J59" s="29">
+      <c r="H59" s="27">
+        <v>3</v>
+      </c>
+      <c r="I59" s="27">
+        <v>0</v>
+      </c>
+      <c r="J59" s="27">
         <v>3.5</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="27">
         <v>10</v>
       </c>
       <c r="L59" s="15">
         <v>100</v>
       </c>
-      <c r="M59" s="29">
-        <v>8</v>
+      <c r="M59" s="27">
+        <v>3</v>
       </c>
       <c r="N59" s="15">
         <v>1</v>
@@ -18392,8 +18397,8 @@
       </c>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" s="28">
+    <row r="60" spans="2:17" hidden="1">
+      <c r="B60" s="26">
         <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -18411,22 +18416,22 @@
       <c r="G60" s="15">
         <v>20</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="27">
         <v>1.5</v>
       </c>
-      <c r="I60" s="29">
-        <v>0</v>
-      </c>
-      <c r="J60" s="29">
+      <c r="I60" s="27">
+        <v>0</v>
+      </c>
+      <c r="J60" s="27">
         <v>6</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="27">
         <v>10</v>
       </c>
       <c r="L60" s="15">
         <v>100</v>
       </c>
-      <c r="M60" s="29">
+      <c r="M60" s="27">
         <v>8</v>
       </c>
       <c r="N60" s="15">
@@ -18435,13 +18440,13 @@
       <c r="O60" s="15">
         <v>320038</v>
       </c>
-      <c r="P60" s="30">
+      <c r="P60" s="28">
         <v>300079</v>
       </c>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17">
-      <c r="B61" s="28">
+    <row r="61" spans="2:17" hidden="1">
+      <c r="B61" s="26">
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -18459,22 +18464,22 @@
       <c r="G61" s="15">
         <v>20</v>
       </c>
-      <c r="H61" s="29">
-        <v>2</v>
-      </c>
-      <c r="I61" s="29">
-        <v>0</v>
-      </c>
-      <c r="J61" s="29">
+      <c r="H61" s="27">
+        <v>2</v>
+      </c>
+      <c r="I61" s="27">
+        <v>0</v>
+      </c>
+      <c r="J61" s="27">
         <v>6</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="27">
         <v>10</v>
       </c>
       <c r="L61" s="15">
         <v>100</v>
       </c>
-      <c r="M61" s="29">
+      <c r="M61" s="27">
         <v>8</v>
       </c>
       <c r="N61" s="15">
@@ -18483,13 +18488,13 @@
       <c r="O61" s="15">
         <v>320055</v>
       </c>
-      <c r="P61" s="30">
+      <c r="P61" s="28">
         <v>300079</v>
       </c>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17">
-      <c r="B62" s="28">
+    <row r="62" spans="2:17" hidden="1">
+      <c r="B62" s="26">
         <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -18507,22 +18512,22 @@
       <c r="G62" s="15">
         <v>20</v>
       </c>
-      <c r="H62" s="29">
-        <v>3</v>
-      </c>
-      <c r="I62" s="29">
-        <v>0</v>
-      </c>
-      <c r="J62" s="29">
+      <c r="H62" s="27">
+        <v>3</v>
+      </c>
+      <c r="I62" s="27">
+        <v>0</v>
+      </c>
+      <c r="J62" s="27">
         <v>6</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="27">
         <v>10</v>
       </c>
       <c r="L62" s="15">
         <v>100</v>
       </c>
-      <c r="M62" s="29">
+      <c r="M62" s="27">
         <v>8</v>
       </c>
       <c r="N62" s="15">
@@ -18531,13 +18536,13 @@
       <c r="O62" s="15">
         <v>320072</v>
       </c>
-      <c r="P62" s="30">
+      <c r="P62" s="28">
         <v>300079</v>
       </c>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="28">
+      <c r="B63" s="26">
         <v>58</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -18555,23 +18560,23 @@
       <c r="G63" s="15">
         <v>20</v>
       </c>
-      <c r="H63" s="29">
+      <c r="H63" s="27">
         <v>1.5</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-      <c r="J63" s="29">
+      <c r="I63" s="27">
+        <v>0</v>
+      </c>
+      <c r="J63" s="27">
         <v>3.5</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="27">
         <v>10</v>
       </c>
       <c r="L63" s="15">
         <v>100</v>
       </c>
-      <c r="M63" s="29">
-        <v>10</v>
+      <c r="M63" s="27">
+        <v>3</v>
       </c>
       <c r="N63" s="15">
         <v>1</v>
@@ -18585,7 +18590,7 @@
       <c r="Q63" s="15"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="28">
+      <c r="B64" s="26">
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -18603,23 +18608,23 @@
       <c r="G64" s="15">
         <v>20</v>
       </c>
-      <c r="H64" s="29">
-        <v>2</v>
-      </c>
-      <c r="I64" s="29">
-        <v>0</v>
-      </c>
-      <c r="J64" s="29">
+      <c r="H64" s="27">
+        <v>2</v>
+      </c>
+      <c r="I64" s="27">
+        <v>0</v>
+      </c>
+      <c r="J64" s="27">
         <v>3.5</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K64" s="27">
         <v>10</v>
       </c>
       <c r="L64" s="15">
         <v>100</v>
       </c>
-      <c r="M64" s="29">
-        <v>10</v>
+      <c r="M64" s="27">
+        <v>3</v>
       </c>
       <c r="N64" s="15">
         <v>1</v>
@@ -18633,7 +18638,7 @@
       <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="28">
+      <c r="B65" s="26">
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -18651,23 +18656,23 @@
       <c r="G65" s="15">
         <v>20</v>
       </c>
-      <c r="H65" s="29">
-        <v>3</v>
-      </c>
-      <c r="I65" s="29">
-        <v>0</v>
-      </c>
-      <c r="J65" s="29">
+      <c r="H65" s="27">
+        <v>3</v>
+      </c>
+      <c r="I65" s="27">
+        <v>0</v>
+      </c>
+      <c r="J65" s="27">
         <v>3.5</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="27">
         <v>10</v>
       </c>
       <c r="L65" s="15">
         <v>100</v>
       </c>
-      <c r="M65" s="29">
-        <v>10</v>
+      <c r="M65" s="27">
+        <v>3</v>
       </c>
       <c r="N65" s="15">
         <v>1</v>
@@ -18680,8 +18685,8 @@
       </c>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17">
-      <c r="B66" s="28">
+    <row r="66" spans="2:17" hidden="1">
+      <c r="B66" s="26">
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -18699,22 +18704,22 @@
       <c r="G66" s="15">
         <v>20</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="27">
         <v>1.5</v>
       </c>
-      <c r="I66" s="29">
-        <v>0</v>
-      </c>
-      <c r="J66" s="29">
+      <c r="I66" s="27">
+        <v>0</v>
+      </c>
+      <c r="J66" s="27">
         <v>3.5</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="27">
         <v>10</v>
       </c>
       <c r="L66" s="15">
         <v>1</v>
       </c>
-      <c r="M66" s="29">
+      <c r="M66" s="27">
         <v>0.5</v>
       </c>
       <c r="N66" s="15">
@@ -18723,13 +18728,13 @@
       <c r="O66" s="15">
         <v>0</v>
       </c>
-      <c r="P66" s="30">
+      <c r="P66" s="28">
         <v>300084</v>
       </c>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17">
-      <c r="B67" s="28">
+    <row r="67" spans="2:17" hidden="1">
+      <c r="B67" s="26">
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -18747,22 +18752,22 @@
       <c r="G67" s="15">
         <v>0</v>
       </c>
-      <c r="H67" s="29">
-        <v>1</v>
-      </c>
-      <c r="I67" s="29">
-        <v>0</v>
-      </c>
-      <c r="J67" s="29">
+      <c r="H67" s="27">
+        <v>1</v>
+      </c>
+      <c r="I67" s="27">
+        <v>0</v>
+      </c>
+      <c r="J67" s="27">
         <v>3.5</v>
       </c>
-      <c r="K67" s="29">
+      <c r="K67" s="27">
         <v>10</v>
       </c>
       <c r="L67" s="15">
         <v>1</v>
       </c>
-      <c r="M67" s="29">
+      <c r="M67" s="27">
         <v>0.5</v>
       </c>
       <c r="N67" s="15">
@@ -18771,13 +18776,13 @@
       <c r="O67" s="15">
         <v>0</v>
       </c>
-      <c r="P67" s="30">
+      <c r="P67" s="28">
         <v>300085</v>
       </c>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17">
-      <c r="B68" s="28">
+    <row r="68" spans="2:17" hidden="1">
+      <c r="B68" s="26">
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -18795,22 +18800,22 @@
       <c r="G68" s="15">
         <v>0</v>
       </c>
-      <c r="H68" s="29">
-        <v>1</v>
-      </c>
-      <c r="I68" s="29">
-        <v>0</v>
-      </c>
-      <c r="J68" s="29">
+      <c r="H68" s="27">
+        <v>1</v>
+      </c>
+      <c r="I68" s="27">
+        <v>0</v>
+      </c>
+      <c r="J68" s="27">
         <v>3.5</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="27">
         <v>10</v>
       </c>
       <c r="L68" s="15">
         <v>1</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M68" s="27">
         <v>0.5</v>
       </c>
       <c r="N68" s="15">
@@ -18819,13 +18824,13 @@
       <c r="O68" s="15">
         <v>0</v>
       </c>
-      <c r="P68" s="30">
+      <c r="P68" s="28">
         <v>300086</v>
       </c>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17">
-      <c r="B69" s="28">
+    <row r="69" spans="2:17" hidden="1">
+      <c r="B69" s="26">
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -18843,25 +18848,25 @@
       <c r="G69" s="15">
         <v>0</v>
       </c>
-      <c r="H69" s="29">
-        <v>1</v>
-      </c>
-      <c r="I69" s="29">
-        <v>0</v>
-      </c>
-      <c r="J69" s="29">
+      <c r="H69" s="27">
+        <v>1</v>
+      </c>
+      <c r="I69" s="27">
+        <v>0</v>
+      </c>
+      <c r="J69" s="27">
         <v>3.5</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="27">
         <v>10</v>
       </c>
       <c r="L69" s="15">
         <v>1</v>
       </c>
-      <c r="M69" s="29">
+      <c r="M69" s="27">
         <v>0.5</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N69" s="59">
         <v>1</v>
       </c>
       <c r="O69" s="15">
@@ -18872,8 +18877,8 @@
       </c>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17">
-      <c r="B70" s="28">
+    <row r="70" spans="2:17" hidden="1">
+      <c r="B70" s="26">
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -18891,22 +18896,22 @@
       <c r="G70" s="15">
         <v>20</v>
       </c>
-      <c r="H70" s="29">
-        <v>2</v>
-      </c>
-      <c r="I70" s="29">
-        <v>0</v>
-      </c>
-      <c r="J70" s="29">
+      <c r="H70" s="27">
+        <v>2</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0</v>
+      </c>
+      <c r="J70" s="27">
         <v>3.5</v>
       </c>
-      <c r="K70" s="29">
+      <c r="K70" s="27">
         <v>10</v>
       </c>
       <c r="L70" s="15">
         <v>1</v>
       </c>
-      <c r="M70" s="29">
+      <c r="M70" s="27">
         <v>0.5</v>
       </c>
       <c r="N70" s="15">
@@ -18915,13 +18920,13 @@
       <c r="O70" s="15">
         <v>0</v>
       </c>
-      <c r="P70" s="30">
+      <c r="P70" s="28">
         <v>300088</v>
       </c>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17">
-      <c r="B71" s="28">
+    <row r="71" spans="2:17" hidden="1">
+      <c r="B71" s="26">
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -18939,22 +18944,22 @@
       <c r="G71" s="15">
         <v>0</v>
       </c>
-      <c r="H71" s="29">
-        <v>1</v>
-      </c>
-      <c r="I71" s="29">
-        <v>0</v>
-      </c>
-      <c r="J71" s="29">
+      <c r="H71" s="27">
+        <v>1</v>
+      </c>
+      <c r="I71" s="27">
+        <v>0</v>
+      </c>
+      <c r="J71" s="27">
         <v>3.5</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K71" s="27">
         <v>10</v>
       </c>
       <c r="L71" s="15">
         <v>1</v>
       </c>
-      <c r="M71" s="29">
+      <c r="M71" s="27">
         <v>0.5</v>
       </c>
       <c r="N71" s="15">
@@ -18963,15 +18968,15 @@
       <c r="O71" s="15">
         <v>0</v>
       </c>
-      <c r="P71" s="30">
+      <c r="P71" s="28">
         <v>300089</v>
       </c>
       <c r="Q71" s="15">
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="2:17">
-      <c r="B72" s="28">
+    <row r="72" spans="2:17" hidden="1">
+      <c r="B72" s="26">
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -18989,22 +18994,22 @@
       <c r="G72" s="15">
         <v>0</v>
       </c>
-      <c r="H72" s="29">
-        <v>1</v>
-      </c>
-      <c r="I72" s="29">
-        <v>0</v>
-      </c>
-      <c r="J72" s="29">
+      <c r="H72" s="27">
+        <v>1</v>
+      </c>
+      <c r="I72" s="27">
+        <v>0</v>
+      </c>
+      <c r="J72" s="27">
         <v>3.5</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="27">
         <v>10</v>
       </c>
       <c r="L72" s="15">
         <v>1</v>
       </c>
-      <c r="M72" s="29">
+      <c r="M72" s="27">
         <v>0.5</v>
       </c>
       <c r="N72" s="15">
@@ -19013,15 +19018,15 @@
       <c r="O72" s="15">
         <v>0</v>
       </c>
-      <c r="P72" s="30">
+      <c r="P72" s="28">
         <v>300090</v>
       </c>
       <c r="Q72" s="15">
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="2:17">
-      <c r="B73" s="28">
+    <row r="73" spans="2:17" hidden="1">
+      <c r="B73" s="26">
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -19039,22 +19044,22 @@
       <c r="G73" s="15">
         <v>0</v>
       </c>
-      <c r="H73" s="29">
-        <v>1</v>
-      </c>
-      <c r="I73" s="29">
-        <v>0</v>
-      </c>
-      <c r="J73" s="29">
+      <c r="H73" s="27">
+        <v>1</v>
+      </c>
+      <c r="I73" s="27">
+        <v>0</v>
+      </c>
+      <c r="J73" s="27">
         <v>3.5</v>
       </c>
-      <c r="K73" s="29">
+      <c r="K73" s="27">
         <v>10</v>
       </c>
       <c r="L73" s="15">
         <v>1</v>
       </c>
-      <c r="M73" s="29">
+      <c r="M73" s="27">
         <v>0.5</v>
       </c>
       <c r="N73" s="15">
@@ -19070,8 +19075,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="2:17">
-      <c r="B74" s="28">
+    <row r="74" spans="2:17" hidden="1">
+      <c r="B74" s="26">
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -19089,22 +19094,22 @@
       <c r="G74" s="15">
         <v>20</v>
       </c>
-      <c r="H74" s="29">
-        <v>3</v>
-      </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-      <c r="J74" s="29">
+      <c r="H74" s="27">
+        <v>3</v>
+      </c>
+      <c r="I74" s="27">
+        <v>0</v>
+      </c>
+      <c r="J74" s="27">
         <v>3.5</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="27">
         <v>10</v>
       </c>
       <c r="L74" s="15">
         <v>1</v>
       </c>
-      <c r="M74" s="29">
+      <c r="M74" s="27">
         <v>0.5</v>
       </c>
       <c r="N74" s="15">
@@ -19113,13 +19118,13 @@
       <c r="O74" s="15">
         <v>0</v>
       </c>
-      <c r="P74" s="30">
+      <c r="P74" s="28">
         <v>300092</v>
       </c>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17">
-      <c r="B75" s="28">
+    <row r="75" spans="2:17" hidden="1">
+      <c r="B75" s="26">
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -19137,22 +19142,22 @@
       <c r="G75" s="15">
         <v>0</v>
       </c>
-      <c r="H75" s="29">
-        <v>1</v>
-      </c>
-      <c r="I75" s="29">
-        <v>0</v>
-      </c>
-      <c r="J75" s="29">
+      <c r="H75" s="27">
+        <v>1</v>
+      </c>
+      <c r="I75" s="27">
+        <v>0</v>
+      </c>
+      <c r="J75" s="27">
         <v>3.5</v>
       </c>
-      <c r="K75" s="29">
+      <c r="K75" s="27">
         <v>10</v>
       </c>
       <c r="L75" s="15">
         <v>1</v>
       </c>
-      <c r="M75" s="29">
+      <c r="M75" s="27">
         <v>0.5</v>
       </c>
       <c r="N75" s="15">
@@ -19161,13 +19166,13 @@
       <c r="O75" s="15">
         <v>0</v>
       </c>
-      <c r="P75" s="30">
+      <c r="P75" s="28">
         <v>300093</v>
       </c>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17">
-      <c r="B76" s="28">
+    <row r="76" spans="2:17" hidden="1">
+      <c r="B76" s="26">
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -19185,22 +19190,22 @@
       <c r="G76" s="15">
         <v>0</v>
       </c>
-      <c r="H76" s="29">
-        <v>1</v>
-      </c>
-      <c r="I76" s="29">
-        <v>0</v>
-      </c>
-      <c r="J76" s="29">
+      <c r="H76" s="27">
+        <v>1</v>
+      </c>
+      <c r="I76" s="27">
+        <v>0</v>
+      </c>
+      <c r="J76" s="27">
         <v>3.5</v>
       </c>
-      <c r="K76" s="29">
+      <c r="K76" s="27">
         <v>10</v>
       </c>
       <c r="L76" s="15">
         <v>1</v>
       </c>
-      <c r="M76" s="29">
+      <c r="M76" s="27">
         <v>0.5</v>
       </c>
       <c r="N76" s="15">
@@ -19209,13 +19214,13 @@
       <c r="O76" s="15">
         <v>0</v>
       </c>
-      <c r="P76" s="30">
+      <c r="P76" s="28">
         <v>300094</v>
       </c>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17">
-      <c r="B77" s="28">
+    <row r="77" spans="2:17" hidden="1">
+      <c r="B77" s="26">
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -19233,22 +19238,22 @@
       <c r="G77" s="15">
         <v>0</v>
       </c>
-      <c r="H77" s="29">
-        <v>1</v>
-      </c>
-      <c r="I77" s="29">
-        <v>0</v>
-      </c>
-      <c r="J77" s="29">
+      <c r="H77" s="27">
+        <v>1</v>
+      </c>
+      <c r="I77" s="27">
+        <v>0</v>
+      </c>
+      <c r="J77" s="27">
         <v>3.5</v>
       </c>
-      <c r="K77" s="29">
+      <c r="K77" s="27">
         <v>10</v>
       </c>
       <c r="L77" s="15">
         <v>1</v>
       </c>
-      <c r="M77" s="29">
+      <c r="M77" s="27">
         <v>0.5</v>
       </c>
       <c r="N77" s="15">
@@ -19263,7 +19268,7 @@
       <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="2:17">
-      <c r="B78" s="28">
+      <c r="B78" s="26">
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
@@ -19281,22 +19286,22 @@
       <c r="G78" s="15">
         <v>20</v>
       </c>
-      <c r="H78" s="29">
+      <c r="H78" s="27">
         <v>1.5</v>
       </c>
-      <c r="I78" s="29">
-        <v>0</v>
-      </c>
-      <c r="J78" s="29">
+      <c r="I78" s="27">
+        <v>0</v>
+      </c>
+      <c r="J78" s="27">
         <v>6</v>
       </c>
-      <c r="K78" s="29">
+      <c r="K78" s="27">
         <v>10</v>
       </c>
       <c r="L78" s="15">
         <v>100</v>
       </c>
-      <c r="M78" s="29">
+      <c r="M78" s="27">
         <v>3</v>
       </c>
       <c r="N78" s="15">
@@ -19311,7 +19316,7 @@
       <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="2:17">
-      <c r="B79" s="28">
+      <c r="B79" s="26">
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
@@ -19329,22 +19334,22 @@
       <c r="G79" s="15">
         <v>20</v>
       </c>
-      <c r="H79" s="29">
-        <v>2</v>
-      </c>
-      <c r="I79" s="29">
-        <v>0</v>
-      </c>
-      <c r="J79" s="29">
+      <c r="H79" s="27">
+        <v>2</v>
+      </c>
+      <c r="I79" s="27">
+        <v>0</v>
+      </c>
+      <c r="J79" s="27">
         <v>6</v>
       </c>
-      <c r="K79" s="29">
+      <c r="K79" s="27">
         <v>10</v>
       </c>
       <c r="L79" s="15">
         <v>100</v>
       </c>
-      <c r="M79" s="29">
+      <c r="M79" s="27">
         <v>3</v>
       </c>
       <c r="N79" s="15">
@@ -19359,7 +19364,7 @@
       <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="2:17">
-      <c r="B80" s="28">
+      <c r="B80" s="26">
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
@@ -19377,22 +19382,22 @@
       <c r="G80" s="15">
         <v>20</v>
       </c>
-      <c r="H80" s="29">
-        <v>3</v>
-      </c>
-      <c r="I80" s="29">
-        <v>0</v>
-      </c>
-      <c r="J80" s="29">
+      <c r="H80" s="27">
+        <v>3</v>
+      </c>
+      <c r="I80" s="27">
+        <v>0</v>
+      </c>
+      <c r="J80" s="27">
         <v>6</v>
       </c>
-      <c r="K80" s="29">
+      <c r="K80" s="27">
         <v>10</v>
       </c>
       <c r="L80" s="15">
         <v>100</v>
       </c>
-      <c r="M80" s="29">
+      <c r="M80" s="27">
         <v>3</v>
       </c>
       <c r="N80" s="15">
@@ -19406,8 +19411,8 @@
       </c>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17">
-      <c r="B81" s="28">
+    <row r="81" spans="2:17" hidden="1">
+      <c r="B81" s="26">
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -19425,22 +19430,22 @@
       <c r="G81" s="15">
         <v>20</v>
       </c>
-      <c r="H81" s="29">
+      <c r="H81" s="27">
         <v>1.5</v>
       </c>
-      <c r="I81" s="29">
-        <v>0</v>
-      </c>
-      <c r="J81" s="29">
+      <c r="I81" s="27">
+        <v>0</v>
+      </c>
+      <c r="J81" s="27">
         <v>3.5</v>
       </c>
-      <c r="K81" s="29">
+      <c r="K81" s="27">
         <v>10</v>
       </c>
       <c r="L81" s="15">
         <v>100</v>
       </c>
-      <c r="M81" s="29">
+      <c r="M81" s="27">
         <v>8</v>
       </c>
       <c r="N81" s="15">
@@ -19454,8 +19459,8 @@
       </c>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17">
-      <c r="B82" s="28">
+    <row r="82" spans="2:17" hidden="1">
+      <c r="B82" s="26">
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -19473,22 +19478,22 @@
       <c r="G82" s="15">
         <v>20</v>
       </c>
-      <c r="H82" s="29">
-        <v>2</v>
-      </c>
-      <c r="I82" s="29">
-        <v>0</v>
-      </c>
-      <c r="J82" s="29">
+      <c r="H82" s="27">
+        <v>2</v>
+      </c>
+      <c r="I82" s="27">
+        <v>0</v>
+      </c>
+      <c r="J82" s="27">
         <v>3.5</v>
       </c>
-      <c r="K82" s="29">
+      <c r="K82" s="27">
         <v>10</v>
       </c>
       <c r="L82" s="15">
         <v>100</v>
       </c>
-      <c r="M82" s="29">
+      <c r="M82" s="27">
         <v>8</v>
       </c>
       <c r="N82" s="15">
@@ -19502,8 +19507,8 @@
       </c>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="2:17">
-      <c r="B83" s="28">
+    <row r="83" spans="2:17" hidden="1">
+      <c r="B83" s="26">
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -19521,22 +19526,22 @@
       <c r="G83" s="15">
         <v>20</v>
       </c>
-      <c r="H83" s="29">
-        <v>3</v>
-      </c>
-      <c r="I83" s="29">
-        <v>0</v>
-      </c>
-      <c r="J83" s="29">
+      <c r="H83" s="27">
+        <v>3</v>
+      </c>
+      <c r="I83" s="27">
+        <v>0</v>
+      </c>
+      <c r="J83" s="27">
         <v>3.5</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K83" s="27">
         <v>10</v>
       </c>
       <c r="L83" s="15">
         <v>100</v>
       </c>
-      <c r="M83" s="29">
+      <c r="M83" s="27">
         <v>8</v>
       </c>
       <c r="N83" s="15">
@@ -19550,8 +19555,8 @@
       </c>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="2:17">
-      <c r="B84" s="28">
+    <row r="84" spans="2:17" hidden="1">
+      <c r="B84" s="26">
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
@@ -19569,22 +19574,22 @@
       <c r="G84" s="15">
         <v>20</v>
       </c>
-      <c r="H84" s="29">
-        <v>0</v>
-      </c>
-      <c r="I84" s="29">
-        <v>0</v>
-      </c>
-      <c r="J84" s="29">
+      <c r="H84" s="27">
+        <v>0</v>
+      </c>
+      <c r="I84" s="27">
+        <v>0</v>
+      </c>
+      <c r="J84" s="27">
         <v>3.5</v>
       </c>
-      <c r="K84" s="29">
+      <c r="K84" s="27">
         <v>10</v>
       </c>
       <c r="L84" s="15">
         <v>100</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="27">
         <v>8</v>
       </c>
       <c r="N84" s="15">
@@ -19598,8 +19603,8 @@
       </c>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="2:17">
-      <c r="B85" s="28">
+    <row r="85" spans="2:17" hidden="1">
+      <c r="B85" s="26">
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -19617,22 +19622,22 @@
       <c r="G85" s="15">
         <v>20</v>
       </c>
-      <c r="H85" s="29">
-        <v>0</v>
-      </c>
-      <c r="I85" s="29">
-        <v>0</v>
-      </c>
-      <c r="J85" s="29">
+      <c r="H85" s="27">
+        <v>0</v>
+      </c>
+      <c r="I85" s="27">
+        <v>0</v>
+      </c>
+      <c r="J85" s="27">
         <v>3.5</v>
       </c>
-      <c r="K85" s="29">
+      <c r="K85" s="27">
         <v>10</v>
       </c>
       <c r="L85" s="15">
         <v>100</v>
       </c>
-      <c r="M85" s="29">
+      <c r="M85" s="27">
         <v>8</v>
       </c>
       <c r="N85" s="15">
@@ -19646,8 +19651,8 @@
       </c>
       <c r="Q85" s="15"/>
     </row>
-    <row r="86" spans="2:17">
-      <c r="B86" s="28">
+    <row r="86" spans="2:17" hidden="1">
+      <c r="B86" s="26">
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
@@ -19665,22 +19670,22 @@
       <c r="G86" s="15">
         <v>20</v>
       </c>
-      <c r="H86" s="29">
-        <v>0</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-      <c r="J86" s="29">
+      <c r="H86" s="27">
+        <v>0</v>
+      </c>
+      <c r="I86" s="27">
+        <v>0</v>
+      </c>
+      <c r="J86" s="27">
         <v>3.5</v>
       </c>
-      <c r="K86" s="29">
+      <c r="K86" s="27">
         <v>10</v>
       </c>
       <c r="L86" s="15">
         <v>100</v>
       </c>
-      <c r="M86" s="29">
+      <c r="M86" s="27">
         <v>8</v>
       </c>
       <c r="N86" s="15">
@@ -19694,8 +19699,8 @@
       </c>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="2:17">
-      <c r="B87" s="28">
+    <row r="87" spans="2:17" hidden="1">
+      <c r="B87" s="26">
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
@@ -19713,22 +19718,22 @@
       <c r="G87" s="15">
         <v>20</v>
       </c>
-      <c r="H87" s="29">
-        <v>0</v>
-      </c>
-      <c r="I87" s="29">
-        <v>0</v>
-      </c>
-      <c r="J87" s="29">
+      <c r="H87" s="27">
+        <v>0</v>
+      </c>
+      <c r="I87" s="27">
+        <v>0</v>
+      </c>
+      <c r="J87" s="27">
         <v>3.5</v>
       </c>
-      <c r="K87" s="29">
+      <c r="K87" s="27">
         <v>10</v>
       </c>
       <c r="L87" s="15">
         <v>100</v>
       </c>
-      <c r="M87" s="29">
+      <c r="M87" s="27">
         <v>8</v>
       </c>
       <c r="N87" s="15">
@@ -19742,8 +19747,8 @@
       </c>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="2:17">
-      <c r="B88" s="28">
+    <row r="88" spans="2:17" hidden="1">
+      <c r="B88" s="26">
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -19761,22 +19766,22 @@
       <c r="G88" s="15">
         <v>20</v>
       </c>
-      <c r="H88" s="29">
-        <v>0</v>
-      </c>
-      <c r="I88" s="29">
-        <v>0</v>
-      </c>
-      <c r="J88" s="29">
+      <c r="H88" s="27">
+        <v>0</v>
+      </c>
+      <c r="I88" s="27">
+        <v>0</v>
+      </c>
+      <c r="J88" s="27">
         <v>3.5</v>
       </c>
-      <c r="K88" s="29">
+      <c r="K88" s="27">
         <v>10</v>
       </c>
       <c r="L88" s="15">
         <v>100</v>
       </c>
-      <c r="M88" s="29">
+      <c r="M88" s="27">
         <v>8</v>
       </c>
       <c r="N88" s="15">
@@ -19790,8 +19795,8 @@
       </c>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="2:17">
-      <c r="B89" s="28">
+    <row r="89" spans="2:17" hidden="1">
+      <c r="B89" s="26">
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -19809,22 +19814,22 @@
       <c r="G89" s="15">
         <v>20</v>
       </c>
-      <c r="H89" s="29">
-        <v>0</v>
-      </c>
-      <c r="I89" s="29">
-        <v>0</v>
-      </c>
-      <c r="J89" s="29">
+      <c r="H89" s="27">
+        <v>0</v>
+      </c>
+      <c r="I89" s="27">
+        <v>0</v>
+      </c>
+      <c r="J89" s="27">
         <v>3.5</v>
       </c>
-      <c r="K89" s="29">
+      <c r="K89" s="27">
         <v>10</v>
       </c>
       <c r="L89" s="15">
         <v>100</v>
       </c>
-      <c r="M89" s="29">
+      <c r="M89" s="27">
         <v>8</v>
       </c>
       <c r="N89" s="15">
@@ -19838,8 +19843,8 @@
       </c>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="2:17">
-      <c r="B90" s="28">
+    <row r="90" spans="2:17" hidden="1">
+      <c r="B90" s="26">
         <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
@@ -19857,22 +19862,22 @@
       <c r="G90" s="15">
         <v>20</v>
       </c>
-      <c r="H90" s="29">
+      <c r="H90" s="27">
         <v>1.5</v>
       </c>
-      <c r="I90" s="29">
-        <v>0</v>
-      </c>
-      <c r="J90" s="29">
+      <c r="I90" s="27">
+        <v>0</v>
+      </c>
+      <c r="J90" s="27">
         <v>3.5</v>
       </c>
-      <c r="K90" s="29">
+      <c r="K90" s="27">
         <v>10</v>
       </c>
       <c r="L90" s="15">
         <v>100</v>
       </c>
-      <c r="M90" s="29">
+      <c r="M90" s="27">
         <v>3</v>
       </c>
       <c r="N90" s="15">
@@ -19886,8 +19891,8 @@
       </c>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="2:17">
-      <c r="B91" s="28">
+    <row r="91" spans="2:17" hidden="1">
+      <c r="B91" s="26">
         <v>86</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -19905,22 +19910,22 @@
       <c r="G91" s="15">
         <v>20</v>
       </c>
-      <c r="H91" s="29">
-        <v>2</v>
-      </c>
-      <c r="I91" s="29">
-        <v>0</v>
-      </c>
-      <c r="J91" s="29">
+      <c r="H91" s="27">
+        <v>2</v>
+      </c>
+      <c r="I91" s="27">
+        <v>0</v>
+      </c>
+      <c r="J91" s="27">
         <v>3.5</v>
       </c>
-      <c r="K91" s="29">
+      <c r="K91" s="27">
         <v>10</v>
       </c>
       <c r="L91" s="15">
         <v>100</v>
       </c>
-      <c r="M91" s="29">
+      <c r="M91" s="27">
         <v>3</v>
       </c>
       <c r="N91" s="15">
@@ -19934,8 +19939,8 @@
       </c>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="2:17">
-      <c r="B92" s="28">
+    <row r="92" spans="2:17" hidden="1">
+      <c r="B92" s="26">
         <v>87</v>
       </c>
       <c r="C92" s="15" t="s">
@@ -19953,22 +19958,22 @@
       <c r="G92" s="15">
         <v>20</v>
       </c>
-      <c r="H92" s="29">
-        <v>3</v>
-      </c>
-      <c r="I92" s="29">
-        <v>0</v>
-      </c>
-      <c r="J92" s="29">
+      <c r="H92" s="27">
+        <v>3</v>
+      </c>
+      <c r="I92" s="27">
+        <v>0</v>
+      </c>
+      <c r="J92" s="27">
         <v>3.5</v>
       </c>
-      <c r="K92" s="29">
+      <c r="K92" s="27">
         <v>10</v>
       </c>
       <c r="L92" s="15">
         <v>100</v>
       </c>
-      <c r="M92" s="29">
+      <c r="M92" s="27">
         <v>3</v>
       </c>
       <c r="N92" s="15">
@@ -19982,8 +19987,8 @@
       </c>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="2:17">
-      <c r="B93" s="28">
+    <row r="93" spans="2:17" hidden="1">
+      <c r="B93" s="26">
         <v>88</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -20001,22 +20006,22 @@
       <c r="G93" s="15">
         <v>20</v>
       </c>
-      <c r="H93" s="29">
+      <c r="H93" s="27">
         <v>1.5</v>
       </c>
-      <c r="I93" s="29">
-        <v>0</v>
-      </c>
-      <c r="J93" s="29">
+      <c r="I93" s="27">
+        <v>0</v>
+      </c>
+      <c r="J93" s="27">
         <v>3.5</v>
       </c>
-      <c r="K93" s="29">
+      <c r="K93" s="27">
         <v>10</v>
       </c>
       <c r="L93" s="15">
         <v>1</v>
       </c>
-      <c r="M93" s="29">
+      <c r="M93" s="27">
         <v>0.5</v>
       </c>
       <c r="N93" s="15">
@@ -20030,8 +20035,8 @@
       </c>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="2:17">
-      <c r="B94" s="28">
+    <row r="94" spans="2:17" hidden="1">
+      <c r="B94" s="26">
         <v>89</v>
       </c>
       <c r="C94" s="15" t="s">
@@ -20049,22 +20054,22 @@
       <c r="G94" s="15">
         <v>20</v>
       </c>
-      <c r="H94" s="29">
-        <v>2</v>
-      </c>
-      <c r="I94" s="29">
-        <v>0</v>
-      </c>
-      <c r="J94" s="29">
+      <c r="H94" s="27">
+        <v>2</v>
+      </c>
+      <c r="I94" s="27">
+        <v>0</v>
+      </c>
+      <c r="J94" s="27">
         <v>3.5</v>
       </c>
-      <c r="K94" s="29">
+      <c r="K94" s="27">
         <v>10</v>
       </c>
       <c r="L94" s="15">
         <v>1</v>
       </c>
-      <c r="M94" s="29">
+      <c r="M94" s="27">
         <v>0.5</v>
       </c>
       <c r="N94" s="15">
@@ -20078,8 +20083,8 @@
       </c>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="2:17">
-      <c r="B95" s="28">
+    <row r="95" spans="2:17" hidden="1">
+      <c r="B95" s="26">
         <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -20097,22 +20102,22 @@
       <c r="G95" s="15">
         <v>20</v>
       </c>
-      <c r="H95" s="29">
-        <v>3</v>
-      </c>
-      <c r="I95" s="29">
-        <v>0</v>
-      </c>
-      <c r="J95" s="29">
+      <c r="H95" s="27">
+        <v>3</v>
+      </c>
+      <c r="I95" s="27">
+        <v>0</v>
+      </c>
+      <c r="J95" s="27">
         <v>3.5</v>
       </c>
-      <c r="K95" s="29">
+      <c r="K95" s="27">
         <v>10</v>
       </c>
       <c r="L95" s="15">
         <v>1</v>
       </c>
-      <c r="M95" s="29">
+      <c r="M95" s="27">
         <v>0.5</v>
       </c>
       <c r="N95" s="15">
@@ -20126,8 +20131,8 @@
       </c>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="2:17">
-      <c r="B96" s="28">
+    <row r="96" spans="2:17" hidden="1">
+      <c r="B96" s="26">
         <v>91</v>
       </c>
       <c r="C96" s="15" t="s">
@@ -20145,22 +20150,22 @@
       <c r="G96" s="15">
         <v>20</v>
       </c>
-      <c r="H96" s="29">
+      <c r="H96" s="27">
         <v>1.5</v>
       </c>
-      <c r="I96" s="29">
-        <v>0</v>
-      </c>
-      <c r="J96" s="29">
+      <c r="I96" s="27">
+        <v>0</v>
+      </c>
+      <c r="J96" s="27">
         <v>6</v>
       </c>
-      <c r="K96" s="29">
+      <c r="K96" s="27">
         <v>10</v>
       </c>
       <c r="L96" s="15">
         <v>3</v>
       </c>
-      <c r="M96" s="29">
+      <c r="M96" s="27">
         <v>0.5</v>
       </c>
       <c r="N96" s="15">
@@ -20174,8 +20179,8 @@
       </c>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="2:17">
-      <c r="B97" s="28">
+    <row r="97" spans="2:17" hidden="1">
+      <c r="B97" s="26">
         <v>92</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -20193,22 +20198,22 @@
       <c r="G97" s="15">
         <v>20</v>
       </c>
-      <c r="H97" s="29">
-        <v>2</v>
-      </c>
-      <c r="I97" s="29">
-        <v>0</v>
-      </c>
-      <c r="J97" s="29">
+      <c r="H97" s="27">
+        <v>2</v>
+      </c>
+      <c r="I97" s="27">
+        <v>0</v>
+      </c>
+      <c r="J97" s="27">
         <v>6</v>
       </c>
-      <c r="K97" s="29">
+      <c r="K97" s="27">
         <v>10</v>
       </c>
       <c r="L97" s="15">
         <v>3</v>
       </c>
-      <c r="M97" s="29">
+      <c r="M97" s="27">
         <v>0.5</v>
       </c>
       <c r="N97" s="15">
@@ -20222,8 +20227,8 @@
       </c>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="2:17">
-      <c r="B98" s="28">
+    <row r="98" spans="2:17" hidden="1">
+      <c r="B98" s="26">
         <v>93</v>
       </c>
       <c r="C98" s="15" t="s">
@@ -20241,22 +20246,22 @@
       <c r="G98" s="15">
         <v>20</v>
       </c>
-      <c r="H98" s="29">
-        <v>3</v>
-      </c>
-      <c r="I98" s="29">
-        <v>0</v>
-      </c>
-      <c r="J98" s="29">
+      <c r="H98" s="27">
+        <v>3</v>
+      </c>
+      <c r="I98" s="27">
+        <v>0</v>
+      </c>
+      <c r="J98" s="27">
         <v>6</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="27">
         <v>10</v>
       </c>
       <c r="L98" s="15">
         <v>3</v>
       </c>
-      <c r="M98" s="29">
+      <c r="M98" s="27">
         <v>0.5</v>
       </c>
       <c r="N98" s="15">
@@ -20270,8 +20275,8 @@
       </c>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="28">
+    <row r="99" spans="2:17" hidden="1">
+      <c r="B99" s="26">
         <v>94</v>
       </c>
       <c r="C99" s="15" t="s">
@@ -20289,22 +20294,22 @@
       <c r="G99" s="15">
         <v>20</v>
       </c>
-      <c r="H99" s="29">
+      <c r="H99" s="27">
         <v>1.5</v>
       </c>
-      <c r="I99" s="29">
-        <v>0</v>
-      </c>
-      <c r="J99" s="29">
+      <c r="I99" s="27">
+        <v>0</v>
+      </c>
+      <c r="J99" s="27">
         <v>3.5</v>
       </c>
-      <c r="K99" s="29">
+      <c r="K99" s="27">
         <v>10</v>
       </c>
       <c r="L99" s="15">
         <v>100</v>
       </c>
-      <c r="M99" s="29">
+      <c r="M99" s="27">
         <v>8</v>
       </c>
       <c r="N99" s="15">
@@ -20318,8 +20323,8 @@
       </c>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="28">
+    <row r="100" spans="2:17" hidden="1">
+      <c r="B100" s="26">
         <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
@@ -20337,22 +20342,22 @@
       <c r="G100" s="15">
         <v>20</v>
       </c>
-      <c r="H100" s="29">
-        <v>2</v>
-      </c>
-      <c r="I100" s="29">
-        <v>0</v>
-      </c>
-      <c r="J100" s="29">
+      <c r="H100" s="27">
+        <v>2</v>
+      </c>
+      <c r="I100" s="27">
+        <v>0</v>
+      </c>
+      <c r="J100" s="27">
         <v>3.5</v>
       </c>
-      <c r="K100" s="29">
+      <c r="K100" s="27">
         <v>10</v>
       </c>
       <c r="L100" s="15">
         <v>100</v>
       </c>
-      <c r="M100" s="29">
+      <c r="M100" s="27">
         <v>8</v>
       </c>
       <c r="N100" s="15">
@@ -20366,8 +20371,8 @@
       </c>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17">
-      <c r="B101" s="28">
+    <row r="101" spans="2:17" hidden="1">
+      <c r="B101" s="26">
         <v>96</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -20385,22 +20390,22 @@
       <c r="G101" s="15">
         <v>20</v>
       </c>
-      <c r="H101" s="29">
-        <v>3</v>
-      </c>
-      <c r="I101" s="29">
-        <v>0</v>
-      </c>
-      <c r="J101" s="29">
+      <c r="H101" s="27">
+        <v>3</v>
+      </c>
+      <c r="I101" s="27">
+        <v>0</v>
+      </c>
+      <c r="J101" s="27">
         <v>3.5</v>
       </c>
-      <c r="K101" s="29">
+      <c r="K101" s="27">
         <v>10</v>
       </c>
       <c r="L101" s="15">
         <v>100</v>
       </c>
-      <c r="M101" s="29">
+      <c r="M101" s="27">
         <v>8</v>
       </c>
       <c r="N101" s="15">
@@ -20414,8 +20419,8 @@
       </c>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="2:17">
-      <c r="B102" s="28">
+    <row r="102" spans="2:17" hidden="1">
+      <c r="B102" s="26">
         <v>97</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -20433,22 +20438,22 @@
       <c r="G102" s="15">
         <v>20</v>
       </c>
-      <c r="H102" s="29">
+      <c r="H102" s="27">
         <v>1.5</v>
       </c>
-      <c r="I102" s="29">
-        <v>0</v>
-      </c>
-      <c r="J102" s="29">
+      <c r="I102" s="27">
+        <v>0</v>
+      </c>
+      <c r="J102" s="27">
         <v>6</v>
       </c>
-      <c r="K102" s="29">
+      <c r="K102" s="27">
         <v>10</v>
       </c>
       <c r="L102" s="15">
         <v>100</v>
       </c>
-      <c r="M102" s="29">
+      <c r="M102" s="27">
         <v>3</v>
       </c>
       <c r="N102" s="15">
@@ -20462,8 +20467,8 @@
       </c>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="2:17">
-      <c r="B103" s="28">
+    <row r="103" spans="2:17" hidden="1">
+      <c r="B103" s="26">
         <v>98</v>
       </c>
       <c r="C103" s="15" t="s">
@@ -20481,22 +20486,22 @@
       <c r="G103" s="15">
         <v>20</v>
       </c>
-      <c r="H103" s="29">
-        <v>2</v>
-      </c>
-      <c r="I103" s="29">
-        <v>0</v>
-      </c>
-      <c r="J103" s="29">
+      <c r="H103" s="27">
+        <v>2</v>
+      </c>
+      <c r="I103" s="27">
+        <v>0</v>
+      </c>
+      <c r="J103" s="27">
         <v>6</v>
       </c>
-      <c r="K103" s="29">
+      <c r="K103" s="27">
         <v>10</v>
       </c>
       <c r="L103" s="15">
         <v>100</v>
       </c>
-      <c r="M103" s="29">
+      <c r="M103" s="27">
         <v>3</v>
       </c>
       <c r="N103" s="15">
@@ -20510,8 +20515,8 @@
       </c>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="2:17">
-      <c r="B104" s="28">
+    <row r="104" spans="2:17" hidden="1">
+      <c r="B104" s="26">
         <v>99</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -20529,22 +20534,22 @@
       <c r="G104" s="15">
         <v>20</v>
       </c>
-      <c r="H104" s="29">
-        <v>3</v>
-      </c>
-      <c r="I104" s="29">
-        <v>0</v>
-      </c>
-      <c r="J104" s="29">
+      <c r="H104" s="27">
+        <v>3</v>
+      </c>
+      <c r="I104" s="27">
+        <v>0</v>
+      </c>
+      <c r="J104" s="27">
         <v>6</v>
       </c>
-      <c r="K104" s="29">
+      <c r="K104" s="27">
         <v>10</v>
       </c>
       <c r="L104" s="15">
         <v>100</v>
       </c>
-      <c r="M104" s="29">
+      <c r="M104" s="27">
         <v>3</v>
       </c>
       <c r="N104" s="15">
@@ -20558,8 +20563,8 @@
       </c>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" spans="2:17">
-      <c r="B105" s="28">
+    <row r="105" spans="2:17" hidden="1">
+      <c r="B105" s="26">
         <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -20577,22 +20582,22 @@
       <c r="G105" s="15">
         <v>20</v>
       </c>
-      <c r="H105" s="29">
-        <v>0</v>
-      </c>
-      <c r="I105" s="29">
-        <v>0</v>
-      </c>
-      <c r="J105" s="29">
+      <c r="H105" s="27">
+        <v>0</v>
+      </c>
+      <c r="I105" s="27">
+        <v>0</v>
+      </c>
+      <c r="J105" s="27">
         <v>100</v>
       </c>
-      <c r="K105" s="29">
+      <c r="K105" s="27">
         <v>10</v>
       </c>
       <c r="L105" s="15">
         <v>100</v>
       </c>
-      <c r="M105" s="29">
+      <c r="M105" s="27">
         <v>0.5</v>
       </c>
       <c r="N105" s="15">
@@ -20606,8 +20611,8 @@
       </c>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="2:17">
-      <c r="B106" s="28">
+    <row r="106" spans="2:17" hidden="1">
+      <c r="B106" s="26">
         <v>101</v>
       </c>
       <c r="C106" s="15" t="s">
@@ -20625,22 +20630,22 @@
       <c r="G106" s="15">
         <v>20</v>
       </c>
-      <c r="H106" s="29">
-        <v>0</v>
-      </c>
-      <c r="I106" s="29">
-        <v>0</v>
-      </c>
-      <c r="J106" s="29">
+      <c r="H106" s="27">
+        <v>0</v>
+      </c>
+      <c r="I106" s="27">
+        <v>0</v>
+      </c>
+      <c r="J106" s="27">
         <v>100</v>
       </c>
-      <c r="K106" s="29">
+      <c r="K106" s="27">
         <v>10</v>
       </c>
       <c r="L106" s="15">
         <v>100</v>
       </c>
-      <c r="M106" s="29">
+      <c r="M106" s="27">
         <v>0.5</v>
       </c>
       <c r="N106" s="15">
@@ -20652,10 +20657,10 @@
       <c r="P106" s="15">
         <v>0</v>
       </c>
-      <c r="Q106" s="32"/>
-    </row>
-    <row r="107" spans="2:17">
-      <c r="B107" s="28">
+      <c r="Q106" s="30"/>
+    </row>
+    <row r="107" spans="2:17" hidden="1">
+      <c r="B107" s="26">
         <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
@@ -20673,22 +20678,22 @@
       <c r="G107" s="15">
         <v>20</v>
       </c>
-      <c r="H107" s="29">
-        <v>0</v>
-      </c>
-      <c r="I107" s="29">
-        <v>0</v>
-      </c>
-      <c r="J107" s="29">
+      <c r="H107" s="27">
+        <v>0</v>
+      </c>
+      <c r="I107" s="27">
+        <v>0</v>
+      </c>
+      <c r="J107" s="27">
         <v>100</v>
       </c>
-      <c r="K107" s="29">
+      <c r="K107" s="27">
         <v>10</v>
       </c>
       <c r="L107" s="15">
         <v>100</v>
       </c>
-      <c r="M107" s="29">
+      <c r="M107" s="27">
         <v>0.5</v>
       </c>
       <c r="N107" s="15">
@@ -20700,10 +20705,10 @@
       <c r="P107" s="15">
         <v>0</v>
       </c>
-      <c r="Q107" s="32"/>
-    </row>
-    <row r="108" spans="2:17">
-      <c r="B108" s="28">
+      <c r="Q107" s="30"/>
+    </row>
+    <row r="108" spans="2:17" hidden="1">
+      <c r="B108" s="26">
         <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
@@ -20721,22 +20726,22 @@
       <c r="G108" s="15">
         <v>20</v>
       </c>
-      <c r="H108" s="29">
+      <c r="H108" s="27">
         <v>1.5</v>
       </c>
-      <c r="I108" s="29">
-        <v>0</v>
-      </c>
-      <c r="J108" s="29">
+      <c r="I108" s="27">
+        <v>0</v>
+      </c>
+      <c r="J108" s="27">
         <v>3.5</v>
       </c>
-      <c r="K108" s="29">
+      <c r="K108" s="27">
         <v>10</v>
       </c>
       <c r="L108" s="15">
         <v>100</v>
       </c>
-      <c r="M108" s="29">
+      <c r="M108" s="27">
         <v>8</v>
       </c>
       <c r="N108" s="15">
@@ -20745,13 +20750,13 @@
       <c r="O108" s="15">
         <v>320046</v>
       </c>
-      <c r="P108" s="30">
+      <c r="P108" s="28">
         <v>300126</v>
       </c>
-      <c r="Q108" s="32"/>
-    </row>
-    <row r="109" spans="2:17">
-      <c r="B109" s="28">
+      <c r="Q108" s="30"/>
+    </row>
+    <row r="109" spans="2:17" hidden="1">
+      <c r="B109" s="26">
         <v>104</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -20769,22 +20774,22 @@
       <c r="G109" s="15">
         <v>0</v>
       </c>
-      <c r="H109" s="29">
-        <v>1</v>
-      </c>
-      <c r="I109" s="29">
-        <v>0</v>
-      </c>
-      <c r="J109" s="29">
+      <c r="H109" s="27">
+        <v>1</v>
+      </c>
+      <c r="I109" s="27">
+        <v>0</v>
+      </c>
+      <c r="J109" s="27">
         <v>3.5</v>
       </c>
-      <c r="K109" s="29">
+      <c r="K109" s="27">
         <v>10</v>
       </c>
       <c r="L109" s="15">
         <v>100</v>
       </c>
-      <c r="M109" s="29">
+      <c r="M109" s="27">
         <v>8</v>
       </c>
       <c r="N109" s="15">
@@ -20793,13 +20798,13 @@
       <c r="O109" s="15">
         <v>320046</v>
       </c>
-      <c r="P109" s="30">
+      <c r="P109" s="28">
         <v>300127</v>
       </c>
-      <c r="Q109" s="32"/>
-    </row>
-    <row r="110" spans="2:17">
-      <c r="B110" s="28">
+      <c r="Q109" s="30"/>
+    </row>
+    <row r="110" spans="2:17" hidden="1">
+      <c r="B110" s="26">
         <v>105</v>
       </c>
       <c r="C110" s="15" t="s">
@@ -20817,22 +20822,22 @@
       <c r="G110" s="15">
         <v>0</v>
       </c>
-      <c r="H110" s="29">
-        <v>1</v>
-      </c>
-      <c r="I110" s="29">
-        <v>0</v>
-      </c>
-      <c r="J110" s="29">
+      <c r="H110" s="27">
+        <v>1</v>
+      </c>
+      <c r="I110" s="27">
+        <v>0</v>
+      </c>
+      <c r="J110" s="27">
         <v>3.5</v>
       </c>
-      <c r="K110" s="29">
+      <c r="K110" s="27">
         <v>10</v>
       </c>
       <c r="L110" s="15">
         <v>100</v>
       </c>
-      <c r="M110" s="29">
+      <c r="M110" s="27">
         <v>8</v>
       </c>
       <c r="N110" s="15">
@@ -20841,13 +20846,13 @@
       <c r="O110" s="15">
         <v>320046</v>
       </c>
-      <c r="P110" s="30">
+      <c r="P110" s="28">
         <v>300128</v>
       </c>
-      <c r="Q110" s="32"/>
-    </row>
-    <row r="111" spans="2:17">
-      <c r="B111" s="28">
+      <c r="Q110" s="30"/>
+    </row>
+    <row r="111" spans="2:17" hidden="1">
+      <c r="B111" s="26">
         <v>106</v>
       </c>
       <c r="C111" s="15" t="s">
@@ -20865,22 +20870,22 @@
       <c r="G111" s="15">
         <v>0</v>
       </c>
-      <c r="H111" s="29">
-        <v>1</v>
-      </c>
-      <c r="I111" s="29">
-        <v>0</v>
-      </c>
-      <c r="J111" s="29">
+      <c r="H111" s="27">
+        <v>1</v>
+      </c>
+      <c r="I111" s="27">
+        <v>0</v>
+      </c>
+      <c r="J111" s="27">
         <v>3.5</v>
       </c>
-      <c r="K111" s="29">
+      <c r="K111" s="27">
         <v>10</v>
       </c>
       <c r="L111" s="15">
         <v>100</v>
       </c>
-      <c r="M111" s="29">
+      <c r="M111" s="27">
         <v>8</v>
       </c>
       <c r="N111" s="15">
@@ -20889,13 +20894,13 @@
       <c r="O111" s="15">
         <v>320046</v>
       </c>
-      <c r="P111" s="30">
+      <c r="P111" s="28">
         <v>300129</v>
       </c>
-      <c r="Q111" s="32"/>
-    </row>
-    <row r="112" spans="2:17">
-      <c r="B112" s="28">
+      <c r="Q111" s="30"/>
+    </row>
+    <row r="112" spans="2:17" hidden="1">
+      <c r="B112" s="26">
         <v>107</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -20913,22 +20918,22 @@
       <c r="G112" s="15">
         <v>0</v>
       </c>
-      <c r="H112" s="29">
-        <v>1</v>
-      </c>
-      <c r="I112" s="29">
-        <v>0</v>
-      </c>
-      <c r="J112" s="29">
+      <c r="H112" s="27">
+        <v>1</v>
+      </c>
+      <c r="I112" s="27">
+        <v>0</v>
+      </c>
+      <c r="J112" s="27">
         <v>3.5</v>
       </c>
-      <c r="K112" s="29">
+      <c r="K112" s="27">
         <v>10</v>
       </c>
       <c r="L112" s="15">
         <v>100</v>
       </c>
-      <c r="M112" s="29">
+      <c r="M112" s="27">
         <v>8</v>
       </c>
       <c r="N112" s="15">
@@ -20940,10 +20945,10 @@
       <c r="P112" s="15">
         <v>0</v>
       </c>
-      <c r="Q112" s="32"/>
-    </row>
-    <row r="113" spans="2:17">
-      <c r="B113" s="28">
+      <c r="Q112" s="30"/>
+    </row>
+    <row r="113" spans="2:17" hidden="1">
+      <c r="B113" s="26">
         <v>108</v>
       </c>
       <c r="C113" s="15" t="s">
@@ -20961,22 +20966,22 @@
       <c r="G113" s="15">
         <v>20</v>
       </c>
-      <c r="H113" s="29">
-        <v>2</v>
-      </c>
-      <c r="I113" s="29">
-        <v>0</v>
-      </c>
-      <c r="J113" s="29">
+      <c r="H113" s="27">
+        <v>2</v>
+      </c>
+      <c r="I113" s="27">
+        <v>0</v>
+      </c>
+      <c r="J113" s="27">
         <v>3.5</v>
       </c>
-      <c r="K113" s="29">
+      <c r="K113" s="27">
         <v>10</v>
       </c>
       <c r="L113" s="15">
         <v>100</v>
       </c>
-      <c r="M113" s="29">
+      <c r="M113" s="27">
         <v>8</v>
       </c>
       <c r="N113" s="15">
@@ -20985,13 +20990,13 @@
       <c r="O113" s="15">
         <v>320063</v>
       </c>
-      <c r="P113" s="30">
+      <c r="P113" s="28">
         <v>300131</v>
       </c>
-      <c r="Q113" s="32"/>
-    </row>
-    <row r="114" spans="2:17">
-      <c r="B114" s="28">
+      <c r="Q113" s="30"/>
+    </row>
+    <row r="114" spans="2:17" hidden="1">
+      <c r="B114" s="26">
         <v>109</v>
       </c>
       <c r="C114" s="15" t="s">
@@ -21009,22 +21014,22 @@
       <c r="G114" s="15">
         <v>0</v>
       </c>
-      <c r="H114" s="29">
-        <v>1</v>
-      </c>
-      <c r="I114" s="29">
-        <v>0</v>
-      </c>
-      <c r="J114" s="29">
+      <c r="H114" s="27">
+        <v>1</v>
+      </c>
+      <c r="I114" s="27">
+        <v>0</v>
+      </c>
+      <c r="J114" s="27">
         <v>3.5</v>
       </c>
-      <c r="K114" s="29">
+      <c r="K114" s="27">
         <v>10</v>
       </c>
       <c r="L114" s="15">
         <v>100</v>
       </c>
-      <c r="M114" s="29">
+      <c r="M114" s="27">
         <v>8</v>
       </c>
       <c r="N114" s="15">
@@ -21033,13 +21038,13 @@
       <c r="O114" s="15">
         <v>320063</v>
       </c>
-      <c r="P114" s="30">
+      <c r="P114" s="28">
         <v>300132</v>
       </c>
-      <c r="Q114" s="32"/>
-    </row>
-    <row r="115" spans="2:17">
-      <c r="B115" s="28">
+      <c r="Q114" s="30"/>
+    </row>
+    <row r="115" spans="2:17" hidden="1">
+      <c r="B115" s="26">
         <v>110</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -21057,22 +21062,22 @@
       <c r="G115" s="15">
         <v>0</v>
       </c>
-      <c r="H115" s="29">
-        <v>1</v>
-      </c>
-      <c r="I115" s="29">
-        <v>0</v>
-      </c>
-      <c r="J115" s="29">
+      <c r="H115" s="27">
+        <v>1</v>
+      </c>
+      <c r="I115" s="27">
+        <v>0</v>
+      </c>
+      <c r="J115" s="27">
         <v>3.5</v>
       </c>
-      <c r="K115" s="29">
+      <c r="K115" s="27">
         <v>10</v>
       </c>
       <c r="L115" s="15">
         <v>100</v>
       </c>
-      <c r="M115" s="29">
+      <c r="M115" s="27">
         <v>8</v>
       </c>
       <c r="N115" s="15">
@@ -21081,13 +21086,13 @@
       <c r="O115" s="15">
         <v>320063</v>
       </c>
-      <c r="P115" s="30">
+      <c r="P115" s="28">
         <v>300133</v>
       </c>
-      <c r="Q115" s="32"/>
-    </row>
-    <row r="116" spans="2:17">
-      <c r="B116" s="28">
+      <c r="Q115" s="30"/>
+    </row>
+    <row r="116" spans="2:17" hidden="1">
+      <c r="B116" s="26">
         <v>111</v>
       </c>
       <c r="C116" s="15" t="s">
@@ -21105,22 +21110,22 @@
       <c r="G116" s="15">
         <v>0</v>
       </c>
-      <c r="H116" s="29">
-        <v>1</v>
-      </c>
-      <c r="I116" s="29">
-        <v>0</v>
-      </c>
-      <c r="J116" s="29">
+      <c r="H116" s="27">
+        <v>1</v>
+      </c>
+      <c r="I116" s="27">
+        <v>0</v>
+      </c>
+      <c r="J116" s="27">
         <v>3.5</v>
       </c>
-      <c r="K116" s="29">
+      <c r="K116" s="27">
         <v>10</v>
       </c>
       <c r="L116" s="15">
         <v>100</v>
       </c>
-      <c r="M116" s="29">
+      <c r="M116" s="27">
         <v>8</v>
       </c>
       <c r="N116" s="15">
@@ -21129,13 +21134,13 @@
       <c r="O116" s="15">
         <v>320063</v>
       </c>
-      <c r="P116" s="30">
+      <c r="P116" s="28">
         <v>300134</v>
       </c>
-      <c r="Q116" s="32"/>
-    </row>
-    <row r="117" spans="2:17">
-      <c r="B117" s="28">
+      <c r="Q116" s="30"/>
+    </row>
+    <row r="117" spans="2:17" hidden="1">
+      <c r="B117" s="26">
         <v>112</v>
       </c>
       <c r="C117" s="15" t="s">
@@ -21153,22 +21158,22 @@
       <c r="G117" s="15">
         <v>0</v>
       </c>
-      <c r="H117" s="29">
-        <v>1</v>
-      </c>
-      <c r="I117" s="29">
-        <v>0</v>
-      </c>
-      <c r="J117" s="29">
+      <c r="H117" s="27">
+        <v>1</v>
+      </c>
+      <c r="I117" s="27">
+        <v>0</v>
+      </c>
+      <c r="J117" s="27">
         <v>3.5</v>
       </c>
-      <c r="K117" s="29">
+      <c r="K117" s="27">
         <v>10</v>
       </c>
       <c r="L117" s="15">
         <v>100</v>
       </c>
-      <c r="M117" s="29">
+      <c r="M117" s="27">
         <v>8</v>
       </c>
       <c r="N117" s="15">
@@ -21180,10 +21185,10 @@
       <c r="P117" s="15">
         <v>0</v>
       </c>
-      <c r="Q117" s="32"/>
-    </row>
-    <row r="118" spans="2:17">
-      <c r="B118" s="28">
+      <c r="Q117" s="30"/>
+    </row>
+    <row r="118" spans="2:17" hidden="1">
+      <c r="B118" s="26">
         <v>113</v>
       </c>
       <c r="C118" s="15" t="s">
@@ -21201,22 +21206,22 @@
       <c r="G118" s="15">
         <v>20</v>
       </c>
-      <c r="H118" s="29">
-        <v>3</v>
-      </c>
-      <c r="I118" s="29">
-        <v>0</v>
-      </c>
-      <c r="J118" s="29">
+      <c r="H118" s="27">
+        <v>3</v>
+      </c>
+      <c r="I118" s="27">
+        <v>0</v>
+      </c>
+      <c r="J118" s="27">
         <v>3.5</v>
       </c>
-      <c r="K118" s="29">
+      <c r="K118" s="27">
         <v>10</v>
       </c>
       <c r="L118" s="15">
         <v>100</v>
       </c>
-      <c r="M118" s="29">
+      <c r="M118" s="27">
         <v>8</v>
       </c>
       <c r="N118" s="15">
@@ -21225,13 +21230,13 @@
       <c r="O118" s="15">
         <v>320080</v>
       </c>
-      <c r="P118" s="30">
+      <c r="P118" s="28">
         <v>300136</v>
       </c>
-      <c r="Q118" s="32"/>
-    </row>
-    <row r="119" spans="2:17">
-      <c r="B119" s="28">
+      <c r="Q118" s="30"/>
+    </row>
+    <row r="119" spans="2:17" hidden="1">
+      <c r="B119" s="26">
         <v>114</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -21249,22 +21254,22 @@
       <c r="G119" s="15">
         <v>0</v>
       </c>
-      <c r="H119" s="29">
-        <v>1</v>
-      </c>
-      <c r="I119" s="29">
-        <v>0</v>
-      </c>
-      <c r="J119" s="29">
+      <c r="H119" s="27">
+        <v>1</v>
+      </c>
+      <c r="I119" s="27">
+        <v>0</v>
+      </c>
+      <c r="J119" s="27">
         <v>3.5</v>
       </c>
-      <c r="K119" s="29">
+      <c r="K119" s="27">
         <v>10</v>
       </c>
       <c r="L119" s="15">
         <v>100</v>
       </c>
-      <c r="M119" s="29">
+      <c r="M119" s="27">
         <v>8</v>
       </c>
       <c r="N119" s="15">
@@ -21273,13 +21278,13 @@
       <c r="O119" s="15">
         <v>320080</v>
       </c>
-      <c r="P119" s="30">
+      <c r="P119" s="28">
         <v>300137</v>
       </c>
-      <c r="Q119" s="32"/>
-    </row>
-    <row r="120" spans="2:17">
-      <c r="B120" s="28">
+      <c r="Q119" s="30"/>
+    </row>
+    <row r="120" spans="2:17" hidden="1">
+      <c r="B120" s="26">
         <v>115</v>
       </c>
       <c r="C120" s="15" t="s">
@@ -21297,22 +21302,22 @@
       <c r="G120" s="15">
         <v>0</v>
       </c>
-      <c r="H120" s="29">
-        <v>1</v>
-      </c>
-      <c r="I120" s="29">
-        <v>0</v>
-      </c>
-      <c r="J120" s="29">
+      <c r="H120" s="27">
+        <v>1</v>
+      </c>
+      <c r="I120" s="27">
+        <v>0</v>
+      </c>
+      <c r="J120" s="27">
         <v>3.5</v>
       </c>
-      <c r="K120" s="29">
+      <c r="K120" s="27">
         <v>10</v>
       </c>
       <c r="L120" s="15">
         <v>100</v>
       </c>
-      <c r="M120" s="29">
+      <c r="M120" s="27">
         <v>8</v>
       </c>
       <c r="N120" s="15">
@@ -21321,13 +21326,13 @@
       <c r="O120" s="15">
         <v>320080</v>
       </c>
-      <c r="P120" s="30">
+      <c r="P120" s="28">
         <v>300138</v>
       </c>
-      <c r="Q120" s="32"/>
-    </row>
-    <row r="121" spans="2:17">
-      <c r="B121" s="28">
+      <c r="Q120" s="30"/>
+    </row>
+    <row r="121" spans="2:17" hidden="1">
+      <c r="B121" s="26">
         <v>116</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -21345,22 +21350,22 @@
       <c r="G121" s="15">
         <v>0</v>
       </c>
-      <c r="H121" s="29">
-        <v>1</v>
-      </c>
-      <c r="I121" s="29">
-        <v>0</v>
-      </c>
-      <c r="J121" s="29">
+      <c r="H121" s="27">
+        <v>1</v>
+      </c>
+      <c r="I121" s="27">
+        <v>0</v>
+      </c>
+      <c r="J121" s="27">
         <v>3.5</v>
       </c>
-      <c r="K121" s="29">
+      <c r="K121" s="27">
         <v>10</v>
       </c>
       <c r="L121" s="15">
         <v>100</v>
       </c>
-      <c r="M121" s="29">
+      <c r="M121" s="27">
         <v>8</v>
       </c>
       <c r="N121" s="15">
@@ -21369,13 +21374,13 @@
       <c r="O121" s="15">
         <v>320080</v>
       </c>
-      <c r="P121" s="30">
+      <c r="P121" s="28">
         <v>300139</v>
       </c>
-      <c r="Q121" s="32"/>
-    </row>
-    <row r="122" spans="2:17">
-      <c r="B122" s="28">
+      <c r="Q121" s="30"/>
+    </row>
+    <row r="122" spans="2:17" hidden="1">
+      <c r="B122" s="26">
         <v>117</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -21393,22 +21398,22 @@
       <c r="G122" s="15">
         <v>0</v>
       </c>
-      <c r="H122" s="29">
-        <v>1</v>
-      </c>
-      <c r="I122" s="29">
-        <v>0</v>
-      </c>
-      <c r="J122" s="29">
+      <c r="H122" s="27">
+        <v>1</v>
+      </c>
+      <c r="I122" s="27">
+        <v>0</v>
+      </c>
+      <c r="J122" s="27">
         <v>3.5</v>
       </c>
-      <c r="K122" s="29">
+      <c r="K122" s="27">
         <v>10</v>
       </c>
       <c r="L122" s="15">
         <v>100</v>
       </c>
-      <c r="M122" s="29">
+      <c r="M122" s="27">
         <v>8</v>
       </c>
       <c r="N122" s="15">
@@ -21420,10 +21425,10 @@
       <c r="P122" s="15">
         <v>0</v>
       </c>
-      <c r="Q122" s="32"/>
+      <c r="Q122" s="30"/>
     </row>
     <row r="123" spans="2:17">
-      <c r="B123" s="28">
+      <c r="B123" s="26">
         <v>118</v>
       </c>
       <c r="C123" s="15" t="s">
@@ -21441,23 +21446,23 @@
       <c r="G123" s="15">
         <v>20</v>
       </c>
-      <c r="H123" s="29">
+      <c r="H123" s="27">
         <v>1.5</v>
       </c>
-      <c r="I123" s="29">
-        <v>0</v>
-      </c>
-      <c r="J123" s="29">
+      <c r="I123" s="27">
+        <v>0</v>
+      </c>
+      <c r="J123" s="27">
         <v>3.5</v>
       </c>
-      <c r="K123" s="29">
+      <c r="K123" s="27">
         <v>10</v>
       </c>
       <c r="L123" s="15">
         <v>100</v>
       </c>
-      <c r="M123" s="29">
-        <v>12</v>
+      <c r="M123" s="27">
+        <v>3</v>
       </c>
       <c r="N123" s="15">
         <v>3</v>
@@ -21465,13 +21470,13 @@
       <c r="O123" s="15">
         <v>0</v>
       </c>
-      <c r="P123" s="30">
+      <c r="P123" s="28">
         <v>300141</v>
       </c>
-      <c r="Q123" s="32"/>
+      <c r="Q123" s="30"/>
     </row>
     <row r="124" spans="2:17">
-      <c r="B124" s="28">
+      <c r="B124" s="26">
         <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
@@ -21489,23 +21494,23 @@
       <c r="G124" s="15">
         <v>0</v>
       </c>
-      <c r="H124" s="29">
-        <v>1</v>
-      </c>
-      <c r="I124" s="29">
-        <v>0</v>
-      </c>
-      <c r="J124" s="29">
+      <c r="H124" s="27">
+        <v>1</v>
+      </c>
+      <c r="I124" s="27">
+        <v>0</v>
+      </c>
+      <c r="J124" s="27">
         <v>3.5</v>
       </c>
-      <c r="K124" s="29">
+      <c r="K124" s="27">
         <v>10</v>
       </c>
       <c r="L124" s="15">
         <v>100</v>
       </c>
-      <c r="M124" s="29">
-        <v>12</v>
+      <c r="M124" s="27">
+        <v>3</v>
       </c>
       <c r="N124" s="15">
         <v>3</v>
@@ -21513,13 +21518,13 @@
       <c r="O124" s="15">
         <v>0</v>
       </c>
-      <c r="P124" s="30">
+      <c r="P124" s="28">
         <v>300142</v>
       </c>
-      <c r="Q124" s="32"/>
+      <c r="Q124" s="30"/>
     </row>
     <row r="125" spans="2:17">
-      <c r="B125" s="28">
+      <c r="B125" s="26">
         <v>120</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -21537,23 +21542,23 @@
       <c r="G125" s="15">
         <v>0</v>
       </c>
-      <c r="H125" s="29">
-        <v>1</v>
-      </c>
-      <c r="I125" s="29">
-        <v>0</v>
-      </c>
-      <c r="J125" s="29">
+      <c r="H125" s="27">
+        <v>1</v>
+      </c>
+      <c r="I125" s="27">
+        <v>0</v>
+      </c>
+      <c r="J125" s="27">
         <v>3.5</v>
       </c>
-      <c r="K125" s="29">
+      <c r="K125" s="27">
         <v>10</v>
       </c>
       <c r="L125" s="15">
         <v>100</v>
       </c>
-      <c r="M125" s="29">
-        <v>12</v>
+      <c r="M125" s="27">
+        <v>3</v>
       </c>
       <c r="N125" s="15">
         <v>3</v>
@@ -21564,10 +21569,10 @@
       <c r="P125" s="15">
         <v>0</v>
       </c>
-      <c r="Q125" s="32"/>
+      <c r="Q125" s="30"/>
     </row>
     <row r="126" spans="2:17">
-      <c r="B126" s="28">
+      <c r="B126" s="26">
         <v>121</v>
       </c>
       <c r="C126" s="15" t="s">
@@ -21585,23 +21590,23 @@
       <c r="G126" s="15">
         <v>20</v>
       </c>
-      <c r="H126" s="29">
-        <v>2</v>
-      </c>
-      <c r="I126" s="29">
-        <v>0</v>
-      </c>
-      <c r="J126" s="29">
+      <c r="H126" s="27">
+        <v>2</v>
+      </c>
+      <c r="I126" s="27">
+        <v>0</v>
+      </c>
+      <c r="J126" s="27">
         <v>3.5</v>
       </c>
-      <c r="K126" s="29">
+      <c r="K126" s="27">
         <v>10</v>
       </c>
       <c r="L126" s="15">
         <v>100</v>
       </c>
-      <c r="M126" s="29">
-        <v>12</v>
+      <c r="M126" s="27">
+        <v>3</v>
       </c>
       <c r="N126" s="15">
         <v>3</v>
@@ -21609,13 +21614,13 @@
       <c r="O126" s="15">
         <v>0</v>
       </c>
-      <c r="P126" s="30">
+      <c r="P126" s="28">
         <v>300144</v>
       </c>
-      <c r="Q126" s="32"/>
+      <c r="Q126" s="30"/>
     </row>
     <row r="127" spans="2:17">
-      <c r="B127" s="28">
+      <c r="B127" s="26">
         <v>122</v>
       </c>
       <c r="C127" s="15" t="s">
@@ -21633,23 +21638,23 @@
       <c r="G127" s="15">
         <v>0</v>
       </c>
-      <c r="H127" s="29">
-        <v>1</v>
-      </c>
-      <c r="I127" s="29">
-        <v>0</v>
-      </c>
-      <c r="J127" s="29">
+      <c r="H127" s="27">
+        <v>1</v>
+      </c>
+      <c r="I127" s="27">
+        <v>0</v>
+      </c>
+      <c r="J127" s="27">
         <v>3.5</v>
       </c>
-      <c r="K127" s="29">
+      <c r="K127" s="27">
         <v>10</v>
       </c>
       <c r="L127" s="15">
         <v>100</v>
       </c>
-      <c r="M127" s="29">
-        <v>12</v>
+      <c r="M127" s="27">
+        <v>3</v>
       </c>
       <c r="N127" s="15">
         <v>3</v>
@@ -21657,13 +21662,13 @@
       <c r="O127" s="15">
         <v>0</v>
       </c>
-      <c r="P127" s="30">
+      <c r="P127" s="28">
         <v>300145</v>
       </c>
-      <c r="Q127" s="32"/>
+      <c r="Q127" s="30"/>
     </row>
     <row r="128" spans="2:17">
-      <c r="B128" s="28">
+      <c r="B128" s="26">
         <v>123</v>
       </c>
       <c r="C128" s="15" t="s">
@@ -21681,23 +21686,23 @@
       <c r="G128" s="15">
         <v>0</v>
       </c>
-      <c r="H128" s="29">
-        <v>1</v>
-      </c>
-      <c r="I128" s="29">
-        <v>0</v>
-      </c>
-      <c r="J128" s="29">
+      <c r="H128" s="27">
+        <v>1</v>
+      </c>
+      <c r="I128" s="27">
+        <v>0</v>
+      </c>
+      <c r="J128" s="27">
         <v>3.5</v>
       </c>
-      <c r="K128" s="29">
+      <c r="K128" s="27">
         <v>10</v>
       </c>
       <c r="L128" s="15">
         <v>100</v>
       </c>
-      <c r="M128" s="29">
-        <v>12</v>
+      <c r="M128" s="27">
+        <v>3</v>
       </c>
       <c r="N128" s="15">
         <v>3</v>
@@ -21708,10 +21713,10 @@
       <c r="P128" s="15">
         <v>0</v>
       </c>
-      <c r="Q128" s="32"/>
+      <c r="Q128" s="30"/>
     </row>
     <row r="129" spans="2:17">
-      <c r="B129" s="28">
+      <c r="B129" s="26">
         <v>124</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -21729,23 +21734,23 @@
       <c r="G129" s="15">
         <v>20</v>
       </c>
-      <c r="H129" s="29">
-        <v>3</v>
-      </c>
-      <c r="I129" s="29">
-        <v>0</v>
-      </c>
-      <c r="J129" s="29">
+      <c r="H129" s="27">
+        <v>3</v>
+      </c>
+      <c r="I129" s="27">
+        <v>0</v>
+      </c>
+      <c r="J129" s="27">
         <v>3.5</v>
       </c>
-      <c r="K129" s="29">
+      <c r="K129" s="27">
         <v>10</v>
       </c>
       <c r="L129" s="15">
         <v>100</v>
       </c>
-      <c r="M129" s="29">
-        <v>12</v>
+      <c r="M129" s="27">
+        <v>3</v>
       </c>
       <c r="N129" s="15">
         <v>3</v>
@@ -21753,13 +21758,13 @@
       <c r="O129" s="15">
         <v>0</v>
       </c>
-      <c r="P129" s="30">
+      <c r="P129" s="28">
         <v>300147</v>
       </c>
-      <c r="Q129" s="32"/>
+      <c r="Q129" s="30"/>
     </row>
     <row r="130" spans="2:17">
-      <c r="B130" s="28">
+      <c r="B130" s="26">
         <v>125</v>
       </c>
       <c r="C130" s="15" t="s">
@@ -21777,23 +21782,23 @@
       <c r="G130" s="15">
         <v>0</v>
       </c>
-      <c r="H130" s="29">
-        <v>1</v>
-      </c>
-      <c r="I130" s="29">
-        <v>0</v>
-      </c>
-      <c r="J130" s="29">
+      <c r="H130" s="27">
+        <v>1</v>
+      </c>
+      <c r="I130" s="27">
+        <v>0</v>
+      </c>
+      <c r="J130" s="27">
         <v>3.5</v>
       </c>
-      <c r="K130" s="29">
+      <c r="K130" s="27">
         <v>10</v>
       </c>
       <c r="L130" s="15">
         <v>100</v>
       </c>
-      <c r="M130" s="29">
-        <v>12</v>
+      <c r="M130" s="27">
+        <v>3</v>
       </c>
       <c r="N130" s="15">
         <v>3</v>
@@ -21801,13 +21806,13 @@
       <c r="O130" s="15">
         <v>0</v>
       </c>
-      <c r="P130" s="30">
+      <c r="P130" s="28">
         <v>300148</v>
       </c>
-      <c r="Q130" s="32"/>
+      <c r="Q130" s="30"/>
     </row>
     <row r="131" spans="2:17">
-      <c r="B131" s="28">
+      <c r="B131" s="26">
         <v>126</v>
       </c>
       <c r="C131" s="15" t="s">
@@ -21825,23 +21830,23 @@
       <c r="G131" s="15">
         <v>0</v>
       </c>
-      <c r="H131" s="29">
-        <v>1</v>
-      </c>
-      <c r="I131" s="29">
-        <v>0</v>
-      </c>
-      <c r="J131" s="29">
+      <c r="H131" s="27">
+        <v>1</v>
+      </c>
+      <c r="I131" s="27">
+        <v>0</v>
+      </c>
+      <c r="J131" s="27">
         <v>3.5</v>
       </c>
-      <c r="K131" s="29">
+      <c r="K131" s="27">
         <v>10</v>
       </c>
       <c r="L131" s="15">
         <v>100</v>
       </c>
-      <c r="M131" s="29">
-        <v>12</v>
+      <c r="M131" s="27">
+        <v>3</v>
       </c>
       <c r="N131" s="15">
         <v>3</v>
@@ -21852,10 +21857,10 @@
       <c r="P131" s="15">
         <v>0</v>
       </c>
-      <c r="Q131" s="32"/>
-    </row>
-    <row r="132" spans="2:17">
-      <c r="B132" s="28">
+      <c r="Q131" s="30"/>
+    </row>
+    <row r="132" spans="2:17" hidden="1">
+      <c r="B132" s="26">
         <v>127</v>
       </c>
       <c r="C132" s="15" t="s">
@@ -21873,22 +21878,22 @@
       <c r="G132" s="15">
         <v>15</v>
       </c>
-      <c r="H132" s="29">
-        <v>0</v>
-      </c>
-      <c r="I132" s="29">
-        <v>0</v>
-      </c>
-      <c r="J132" s="29">
-        <v>3</v>
-      </c>
-      <c r="K132" s="29">
+      <c r="H132" s="27">
+        <v>0</v>
+      </c>
+      <c r="I132" s="27">
+        <v>0</v>
+      </c>
+      <c r="J132" s="27">
+        <v>3</v>
+      </c>
+      <c r="K132" s="27">
         <v>10</v>
       </c>
       <c r="L132" s="15">
         <v>10</v>
       </c>
-      <c r="M132" s="29">
+      <c r="M132" s="27">
         <v>0.5</v>
       </c>
       <c r="N132" s="15">
@@ -21900,10 +21905,10 @@
       <c r="P132" s="15">
         <v>0</v>
       </c>
-      <c r="Q132" s="32"/>
-    </row>
-    <row r="133" spans="2:17">
-      <c r="B133" s="28">
+      <c r="Q132" s="30"/>
+    </row>
+    <row r="133" spans="2:17" hidden="1">
+      <c r="B133" s="26">
         <v>128</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -21921,22 +21926,22 @@
       <c r="G133" s="15">
         <v>15</v>
       </c>
-      <c r="H133" s="29">
-        <v>0</v>
-      </c>
-      <c r="I133" s="29">
-        <v>0</v>
-      </c>
-      <c r="J133" s="29">
-        <v>3</v>
-      </c>
-      <c r="K133" s="29">
+      <c r="H133" s="27">
+        <v>0</v>
+      </c>
+      <c r="I133" s="27">
+        <v>0</v>
+      </c>
+      <c r="J133" s="27">
+        <v>3</v>
+      </c>
+      <c r="K133" s="27">
         <v>10</v>
       </c>
       <c r="L133" s="15">
         <v>10</v>
       </c>
-      <c r="M133" s="29">
+      <c r="M133" s="27">
         <v>0.5</v>
       </c>
       <c r="N133" s="15">
@@ -21948,10 +21953,10 @@
       <c r="P133" s="15">
         <v>0</v>
       </c>
-      <c r="Q133" s="32"/>
-    </row>
-    <row r="134" spans="2:17">
-      <c r="B134" s="28">
+      <c r="Q133" s="30"/>
+    </row>
+    <row r="134" spans="2:17" hidden="1">
+      <c r="B134" s="26">
         <v>129</v>
       </c>
       <c r="C134" s="15" t="s">
@@ -21969,22 +21974,22 @@
       <c r="G134" s="15">
         <v>0</v>
       </c>
-      <c r="H134" s="29">
+      <c r="H134" s="27">
         <v>99999</v>
       </c>
-      <c r="I134" s="29">
-        <v>0</v>
-      </c>
-      <c r="J134" s="29">
+      <c r="I134" s="27">
+        <v>0</v>
+      </c>
+      <c r="J134" s="27">
         <v>0.5</v>
       </c>
-      <c r="K134" s="29">
+      <c r="K134" s="27">
         <v>10</v>
       </c>
       <c r="L134" s="15">
         <v>1</v>
       </c>
-      <c r="M134" s="29">
+      <c r="M134" s="27">
         <v>0.5</v>
       </c>
       <c r="N134" s="15">
@@ -21996,10 +22001,10 @@
       <c r="P134" s="15">
         <v>0</v>
       </c>
-      <c r="Q134" s="32"/>
-    </row>
-    <row r="135" spans="2:17">
-      <c r="B135" s="28">
+      <c r="Q134" s="30"/>
+    </row>
+    <row r="135" spans="2:17" hidden="1">
+      <c r="B135" s="26">
         <v>130</v>
       </c>
       <c r="C135" s="15" t="s">
@@ -22017,22 +22022,22 @@
       <c r="G135" s="15">
         <v>0</v>
       </c>
-      <c r="H135" s="29">
+      <c r="H135" s="27">
         <v>99999</v>
       </c>
-      <c r="I135" s="29">
-        <v>0</v>
-      </c>
-      <c r="J135" s="29">
+      <c r="I135" s="27">
+        <v>0</v>
+      </c>
+      <c r="J135" s="27">
         <v>0.5</v>
       </c>
-      <c r="K135" s="29">
+      <c r="K135" s="27">
         <v>10</v>
       </c>
       <c r="L135" s="15">
         <v>1</v>
       </c>
-      <c r="M135" s="29">
+      <c r="M135" s="27">
         <v>0.5</v>
       </c>
       <c r="N135" s="15">
@@ -22041,13 +22046,13 @@
       <c r="O135" s="15">
         <v>0</v>
       </c>
-      <c r="P135" s="30">
+      <c r="P135" s="28">
         <v>300153</v>
       </c>
-      <c r="Q135" s="32"/>
-    </row>
-    <row r="136" spans="2:17">
-      <c r="B136" s="28">
+      <c r="Q135" s="30"/>
+    </row>
+    <row r="136" spans="2:17" hidden="1">
+      <c r="B136" s="26">
         <v>131</v>
       </c>
       <c r="C136" s="15" t="s">
@@ -22065,22 +22070,22 @@
       <c r="G136" s="15">
         <v>0</v>
       </c>
-      <c r="H136" s="29">
+      <c r="H136" s="27">
         <v>150</v>
       </c>
-      <c r="I136" s="29">
-        <v>0</v>
-      </c>
-      <c r="J136" s="29">
-        <v>1</v>
-      </c>
-      <c r="K136" s="29">
+      <c r="I136" s="27">
+        <v>0</v>
+      </c>
+      <c r="J136" s="27">
+        <v>1</v>
+      </c>
+      <c r="K136" s="27">
         <v>10</v>
       </c>
       <c r="L136" s="15">
         <v>1</v>
       </c>
-      <c r="M136" s="29">
+      <c r="M136" s="27">
         <v>0.5</v>
       </c>
       <c r="N136" s="15">
@@ -22092,10 +22097,10 @@
       <c r="P136" s="15">
         <v>0</v>
       </c>
-      <c r="Q136" s="32"/>
-    </row>
-    <row r="137" spans="2:17">
-      <c r="B137" s="28">
+      <c r="Q136" s="30"/>
+    </row>
+    <row r="137" spans="2:17" hidden="1">
+      <c r="B137" s="26">
         <v>132</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -22113,22 +22118,22 @@
       <c r="G137" s="15">
         <v>0</v>
       </c>
-      <c r="H137" s="29">
-        <v>0</v>
-      </c>
-      <c r="I137" s="29">
-        <v>0</v>
-      </c>
-      <c r="J137" s="29">
-        <v>0</v>
-      </c>
-      <c r="K137" s="29">
+      <c r="H137" s="27">
+        <v>0</v>
+      </c>
+      <c r="I137" s="27">
+        <v>0</v>
+      </c>
+      <c r="J137" s="27">
+        <v>0</v>
+      </c>
+      <c r="K137" s="27">
         <v>10</v>
       </c>
       <c r="L137" s="15">
         <v>1</v>
       </c>
-      <c r="M137" s="29">
+      <c r="M137" s="27">
         <v>0.5</v>
       </c>
       <c r="N137" s="15">
@@ -22140,10 +22145,10 @@
       <c r="P137" s="15">
         <v>0</v>
       </c>
-      <c r="Q137" s="32"/>
-    </row>
-    <row r="138" spans="2:17">
-      <c r="B138" s="28">
+      <c r="Q137" s="30"/>
+    </row>
+    <row r="138" spans="2:17" hidden="1">
+      <c r="B138" s="26">
         <v>133</v>
       </c>
       <c r="C138" s="15" t="s">
@@ -22161,22 +22166,22 @@
       <c r="G138" s="15">
         <v>0</v>
       </c>
-      <c r="H138" s="29">
-        <v>0</v>
-      </c>
-      <c r="I138" s="29">
-        <v>0</v>
-      </c>
-      <c r="J138" s="29">
-        <v>1</v>
-      </c>
-      <c r="K138" s="29">
+      <c r="H138" s="27">
+        <v>0</v>
+      </c>
+      <c r="I138" s="27">
+        <v>0</v>
+      </c>
+      <c r="J138" s="27">
+        <v>1</v>
+      </c>
+      <c r="K138" s="27">
         <v>10</v>
       </c>
       <c r="L138" s="15">
         <v>1</v>
       </c>
-      <c r="M138" s="29">
+      <c r="M138" s="27">
         <v>0.5</v>
       </c>
       <c r="N138" s="15">
@@ -22188,10 +22193,10 @@
       <c r="P138" s="15">
         <v>0</v>
       </c>
-      <c r="Q138" s="32"/>
-    </row>
-    <row r="139" spans="2:17">
-      <c r="B139" s="28">
+      <c r="Q138" s="30"/>
+    </row>
+    <row r="139" spans="2:17" hidden="1">
+      <c r="B139" s="26">
         <v>134</v>
       </c>
       <c r="C139" s="15" t="s">
@@ -22209,22 +22214,22 @@
       <c r="G139" s="15">
         <v>0</v>
       </c>
-      <c r="H139" s="29">
-        <v>0</v>
-      </c>
-      <c r="I139" s="29">
-        <v>0</v>
-      </c>
-      <c r="J139" s="29">
-        <v>1</v>
-      </c>
-      <c r="K139" s="29">
+      <c r="H139" s="27">
+        <v>0</v>
+      </c>
+      <c r="I139" s="27">
+        <v>0</v>
+      </c>
+      <c r="J139" s="27">
+        <v>1</v>
+      </c>
+      <c r="K139" s="27">
         <v>5</v>
       </c>
       <c r="L139" s="15">
         <v>1</v>
       </c>
-      <c r="M139" s="29">
+      <c r="M139" s="27">
         <v>0.5</v>
       </c>
       <c r="N139" s="15">
@@ -22236,10 +22241,10 @@
       <c r="P139" s="15">
         <v>0</v>
       </c>
-      <c r="Q139" s="32"/>
-    </row>
-    <row r="140" spans="2:17">
-      <c r="B140" s="28">
+      <c r="Q139" s="30"/>
+    </row>
+    <row r="140" spans="2:17" hidden="1">
+      <c r="B140" s="26">
         <v>135</v>
       </c>
       <c r="C140" s="15" t="s">
@@ -22257,22 +22262,22 @@
       <c r="G140" s="15">
         <v>0</v>
       </c>
-      <c r="H140" s="29">
-        <v>0</v>
-      </c>
-      <c r="I140" s="29">
-        <v>0</v>
-      </c>
-      <c r="J140" s="29">
-        <v>1</v>
-      </c>
-      <c r="K140" s="29">
+      <c r="H140" s="27">
+        <v>0</v>
+      </c>
+      <c r="I140" s="27">
+        <v>0</v>
+      </c>
+      <c r="J140" s="27">
+        <v>1</v>
+      </c>
+      <c r="K140" s="27">
         <v>5</v>
       </c>
       <c r="L140" s="15">
         <v>1</v>
       </c>
-      <c r="M140" s="29">
+      <c r="M140" s="27">
         <v>0.5</v>
       </c>
       <c r="N140" s="15">
@@ -22284,29 +22289,76 @@
       <c r="P140" s="15">
         <v>0</v>
       </c>
-      <c r="Q140" s="32"/>
-    </row>
-    <row r="141" spans="2:17">
-      <c r="B141" s="27"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="25"/>
-      <c r="N141" s="24"/>
-      <c r="O141" s="24"/>
-      <c r="P141" s="24"/>
+      <c r="Q140" s="30"/>
+    </row>
+    <row r="141" spans="2:17" hidden="1">
+      <c r="B141" s="26">
+        <v>136</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="E141" s="15">
+        <v>310136</v>
+      </c>
+      <c r="F141" s="15">
+        <v>1</v>
+      </c>
+      <c r="G141" s="15">
+        <v>0</v>
+      </c>
+      <c r="H141" s="27">
+        <v>1</v>
+      </c>
+      <c r="I141" s="27">
+        <v>0</v>
+      </c>
+      <c r="J141" s="27">
+        <v>4</v>
+      </c>
+      <c r="K141" s="27">
+        <v>10</v>
+      </c>
+      <c r="L141" s="15">
+        <v>1</v>
+      </c>
+      <c r="M141" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="N141" s="15">
+        <v>1</v>
+      </c>
+      <c r="O141" s="15">
+        <v>0</v>
+      </c>
+      <c r="P141" s="15">
+        <v>0</v>
+      </c>
       <c r="Q141" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:Q140" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
+  <autoFilter ref="B5:Q141" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="100"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22316,23 +22368,17 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="140" max="16383" man="1"/>
+    <brk id="141" max="16" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>
-    <brk id="16" max="140" man="1"/>
+    <brk id="16" max="141" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6D0370-E5C6-4578-A40C-409A67566565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB9503-CACF-4D43-9C7B-38C352430C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="SkillStat_Table" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$W$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$X$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$141</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SkillCondition_Table!$A$1:$W$163</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SkillCondition_Table!$A$1:$X$163</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">SkillStat_Table!$A$1:$Q$142</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,6 +43,7 @@
   <authors>
     <author/>
     <author>강민수</author>
+    <author>PC-07</author>
   </authors>
   <commentList>
     <comment ref="H2" authorId="0" shapeId="0" xr:uid="{BBD680FA-166E-4906-BA8A-8A84E9547D47}">
@@ -725,7 +726,155 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{A7AF7852-89C8-4C56-8BA9-F793680055BE}">
+    <comment ref="Q2" authorId="2" shapeId="0" xr:uid="{9251B3CB-77CA-4183-955B-DE35E88BC79A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PC-07:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이펙트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>음향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리팹</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{A7AF7852-89C8-4C56-8BA9-F793680055BE}">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="780">
   <si>
     <t>번호</t>
   </si>
@@ -3661,6 +3810,18 @@
   <si>
     <t>SkillStat136</t>
   </si>
+  <si>
+    <t>피격음향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3670,7 +3831,7 @@
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3853,6 +4014,26 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4110,7 +4291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4210,11 +4391,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4222,11 +4406,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4255,22 +4451,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4282,13 +4472,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4699,13 +4883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
-  <dimension ref="B2:W163"/>
+  <dimension ref="B2:X163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4725,80 +4909,84 @@
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="113.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="53.625" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="113.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
-      <c r="B2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="35" t="s">
+    <row r="2" spans="2:24">
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="39" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="60" t="s">
+        <v>777</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="S2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="42"/>
+      <c r="V2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="51"/>
+    <row r="3" spans="2:24">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4817,23 +5005,24 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="3" t="s">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="36"/>
-    </row>
-    <row r="4" spans="2:23">
+      <c r="X3" s="37"/>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4880,28 +5069,31 @@
         <v>29</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:24">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -4948,15 +5140,15 @@
         <v>4</v>
       </c>
       <c r="Q5" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="U5" s="10" t="s">
@@ -4965,11 +5157,14 @@
       <c r="V5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23">
+      <c r="W5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -5018,8 +5213,8 @@
       <c r="Q6" s="12">
         <v>0</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>52</v>
+      <c r="R6" s="12">
+        <v>0</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>52</v>
@@ -5033,11 +5228,14 @@
       <c r="V6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="25.5">
+    <row r="7" spans="2:24" ht="25.5">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -5086,8 +5284,8 @@
       <c r="Q7" s="12">
         <v>0</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>52</v>
+      <c r="R7" s="12">
+        <v>0</v>
       </c>
       <c r="S7" s="15" t="s">
         <v>52</v>
@@ -5101,11 +5299,14 @@
       <c r="V7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="16" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:24">
       <c r="B8" s="11">
         <v>3</v>
       </c>
@@ -5154,8 +5355,8 @@
       <c r="Q8" s="12">
         <v>0</v>
       </c>
-      <c r="R8" s="15" t="s">
-        <v>52</v>
+      <c r="R8" s="12">
+        <v>0</v>
       </c>
       <c r="S8" s="15" t="s">
         <v>52</v>
@@ -5169,11 +5370,14 @@
       <c r="V8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:24">
       <c r="B9" s="11">
         <v>4</v>
       </c>
@@ -5222,8 +5426,8 @@
       <c r="Q9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>52</v>
+      <c r="R9" s="12">
+        <v>0</v>
       </c>
       <c r="S9" s="15" t="s">
         <v>52</v>
@@ -5237,11 +5441,14 @@
       <c r="V9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:24">
       <c r="B10" s="11">
         <v>5</v>
       </c>
@@ -5290,8 +5497,8 @@
       <c r="Q10" s="12">
         <v>0</v>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>52</v>
+      <c r="R10" s="12">
+        <v>0</v>
       </c>
       <c r="S10" s="15" t="s">
         <v>52</v>
@@ -5305,11 +5512,14 @@
       <c r="V10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:24">
       <c r="B11" s="11">
         <v>6</v>
       </c>
@@ -5358,8 +5568,8 @@
       <c r="Q11" s="12">
         <v>0</v>
       </c>
-      <c r="R11" s="15" t="s">
-        <v>52</v>
+      <c r="R11" s="12">
+        <v>0</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>52</v>
@@ -5373,11 +5583,14 @@
       <c r="V11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="W11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:24">
       <c r="B12" s="11">
         <v>7</v>
       </c>
@@ -5426,8 +5639,8 @@
       <c r="Q12" s="12">
         <v>0</v>
       </c>
-      <c r="R12" s="15" t="s">
-        <v>52</v>
+      <c r="R12" s="12">
+        <v>0</v>
       </c>
       <c r="S12" s="15" t="s">
         <v>52</v>
@@ -5441,11 +5654,14 @@
       <c r="V12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="W12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:24">
       <c r="B13" s="11">
         <v>8</v>
       </c>
@@ -5494,8 +5710,8 @@
       <c r="Q13" s="12">
         <v>0</v>
       </c>
-      <c r="R13" s="15" t="s">
-        <v>52</v>
+      <c r="R13" s="12">
+        <v>0</v>
       </c>
       <c r="S13" s="15" t="s">
         <v>52</v>
@@ -5509,11 +5725,14 @@
       <c r="V13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:24">
       <c r="B14" s="11">
         <v>9</v>
       </c>
@@ -5562,8 +5781,8 @@
       <c r="Q14" s="12">
         <v>0</v>
       </c>
-      <c r="R14" s="15" t="s">
-        <v>52</v>
+      <c r="R14" s="12">
+        <v>0</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>52</v>
@@ -5577,11 +5796,14 @@
       <c r="V14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W14" s="12" t="s">
+      <c r="W14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:24">
       <c r="B15" s="11">
         <v>10</v>
       </c>
@@ -5630,8 +5852,8 @@
       <c r="Q15" s="12">
         <v>0</v>
       </c>
-      <c r="R15" s="15" t="s">
-        <v>52</v>
+      <c r="R15" s="12">
+        <v>0</v>
       </c>
       <c r="S15" s="15" t="s">
         <v>52</v>
@@ -5645,11 +5867,14 @@
       <c r="V15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="W15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="12" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:24">
       <c r="B16" s="11">
         <v>11</v>
       </c>
@@ -5698,8 +5923,8 @@
       <c r="Q16" s="12">
         <v>0</v>
       </c>
-      <c r="R16" s="15" t="s">
-        <v>52</v>
+      <c r="R16" s="12">
+        <v>0</v>
       </c>
       <c r="S16" s="15" t="s">
         <v>52</v>
@@ -5713,11 +5938,14 @@
       <c r="V16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W16" s="12" t="s">
+      <c r="W16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:24">
       <c r="B17" s="11">
         <v>12</v>
       </c>
@@ -5766,8 +5994,8 @@
       <c r="Q17" s="12">
         <v>0</v>
       </c>
-      <c r="R17" s="15" t="s">
-        <v>52</v>
+      <c r="R17" s="12">
+        <v>0</v>
       </c>
       <c r="S17" s="15" t="s">
         <v>52</v>
@@ -5781,11 +6009,14 @@
       <c r="V17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="12" t="s">
+      <c r="W17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:24">
       <c r="B18" s="11">
         <v>13</v>
       </c>
@@ -5834,8 +6065,8 @@
       <c r="Q18" s="12">
         <v>0</v>
       </c>
-      <c r="R18" s="15" t="s">
-        <v>52</v>
+      <c r="R18" s="12">
+        <v>0</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>52</v>
@@ -5849,11 +6080,14 @@
       <c r="V18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W18" s="12" t="s">
+      <c r="W18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:24">
       <c r="B19" s="11">
         <v>14</v>
       </c>
@@ -5902,8 +6136,8 @@
       <c r="Q19" s="12">
         <v>0</v>
       </c>
-      <c r="R19" s="15" t="s">
-        <v>52</v>
+      <c r="R19" s="12">
+        <v>0</v>
       </c>
       <c r="S19" s="15" t="s">
         <v>52</v>
@@ -5917,11 +6151,14 @@
       <c r="V19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W19" s="12" t="s">
+      <c r="W19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:24">
       <c r="B20" s="11">
         <v>15</v>
       </c>
@@ -5970,8 +6207,8 @@
       <c r="Q20" s="12">
         <v>0</v>
       </c>
-      <c r="R20" s="15" t="s">
-        <v>52</v>
+      <c r="R20" s="12">
+        <v>0</v>
       </c>
       <c r="S20" s="15" t="s">
         <v>52</v>
@@ -5985,11 +6222,14 @@
       <c r="V20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="W20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:24">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -6038,8 +6278,8 @@
       <c r="Q21" s="12">
         <v>0</v>
       </c>
-      <c r="R21" s="15" t="s">
-        <v>52</v>
+      <c r="R21" s="12">
+        <v>0</v>
       </c>
       <c r="S21" s="15" t="s">
         <v>52</v>
@@ -6053,11 +6293,14 @@
       <c r="V21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="12" t="s">
+      <c r="W21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:24">
       <c r="B22" s="11">
         <v>17</v>
       </c>
@@ -6106,8 +6349,8 @@
       <c r="Q22" s="12">
         <v>0</v>
       </c>
-      <c r="R22" s="15" t="s">
-        <v>52</v>
+      <c r="R22" s="12">
+        <v>0</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>52</v>
@@ -6121,11 +6364,14 @@
       <c r="V22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:24">
       <c r="B23" s="11">
         <v>18</v>
       </c>
@@ -6174,8 +6420,8 @@
       <c r="Q23" s="12">
         <v>0</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>52</v>
+      <c r="R23" s="12">
+        <v>0</v>
       </c>
       <c r="S23" s="15" t="s">
         <v>52</v>
@@ -6189,11 +6435,14 @@
       <c r="V23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W23" s="12" t="s">
+      <c r="W23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:24">
       <c r="B24" s="11">
         <v>19</v>
       </c>
@@ -6242,8 +6491,8 @@
       <c r="Q24" s="12">
         <v>0</v>
       </c>
-      <c r="R24" s="15" t="s">
-        <v>52</v>
+      <c r="R24" s="12">
+        <v>0</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>52</v>
@@ -6257,11 +6506,14 @@
       <c r="V24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W24" s="12" t="s">
+      <c r="W24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:24">
       <c r="B25" s="11">
         <v>20</v>
       </c>
@@ -6310,8 +6562,8 @@
       <c r="Q25" s="12">
         <v>0</v>
       </c>
-      <c r="R25" s="15" t="s">
-        <v>52</v>
+      <c r="R25" s="12">
+        <v>0</v>
       </c>
       <c r="S25" s="15" t="s">
         <v>52</v>
@@ -6325,11 +6577,14 @@
       <c r="V25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W25" s="12" t="s">
+      <c r="W25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:24">
       <c r="B26" s="11">
         <v>21</v>
       </c>
@@ -6378,8 +6633,8 @@
       <c r="Q26" s="12">
         <v>0</v>
       </c>
-      <c r="R26" s="15" t="s">
-        <v>52</v>
+      <c r="R26" s="12">
+        <v>0</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>52</v>
@@ -6393,11 +6648,14 @@
       <c r="V26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W26" s="12" t="s">
+      <c r="W26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:24">
       <c r="B27" s="11">
         <v>22</v>
       </c>
@@ -6446,8 +6704,8 @@
       <c r="Q27" s="12">
         <v>0</v>
       </c>
-      <c r="R27" s="15" t="s">
-        <v>52</v>
+      <c r="R27" s="12">
+        <v>0</v>
       </c>
       <c r="S27" s="15" t="s">
         <v>52</v>
@@ -6461,11 +6719,14 @@
       <c r="V27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W27" s="12" t="s">
+      <c r="W27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:24">
       <c r="B28" s="11">
         <v>23</v>
       </c>
@@ -6514,8 +6775,8 @@
       <c r="Q28" s="12">
         <v>0</v>
       </c>
-      <c r="R28" s="15" t="s">
-        <v>52</v>
+      <c r="R28" s="12">
+        <v>0</v>
       </c>
       <c r="S28" s="15" t="s">
         <v>52</v>
@@ -6529,11 +6790,14 @@
       <c r="V28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W28" s="12" t="s">
+      <c r="W28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:24">
       <c r="B29" s="11">
         <v>24</v>
       </c>
@@ -6582,8 +6846,8 @@
       <c r="Q29" s="12">
         <v>0</v>
       </c>
-      <c r="R29" s="15" t="s">
-        <v>52</v>
+      <c r="R29" s="12">
+        <v>0</v>
       </c>
       <c r="S29" s="15" t="s">
         <v>52</v>
@@ -6597,11 +6861,14 @@
       <c r="V29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W29" s="12" t="s">
+      <c r="W29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X29" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:24">
       <c r="B30" s="11">
         <v>25</v>
       </c>
@@ -6648,29 +6915,32 @@
         <v>900104</v>
       </c>
       <c r="Q30" s="12">
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
         <v>910028</v>
       </c>
-      <c r="R30" s="17" t="str">
+      <c r="S30" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C30&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G13&amp;"초]"&amp;"
 증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다."</f>
         <v>&lt;b&gt;증오의 씨앗&lt;/b&gt; [액티브 / 쿨타임: 15초]
 증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="T30" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="U30" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="U30" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W30" s="17"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="W30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30" s="17"/>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31" s="11">
         <v>26</v>
       </c>
@@ -6717,29 +6987,32 @@
         <v>900106</v>
       </c>
       <c r="Q31" s="12">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
         <v>910029</v>
       </c>
-      <c r="R31" s="17" t="str">
+      <c r="S31" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C31&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G14&amp;"초]"&amp;"
 증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다."</f>
         <v>&lt;b&gt;증오의 권능&lt;/b&gt; [액티브 / 쿨타임: 30초]
 증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다.</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="T31" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T31" s="17" t="s">
+      <c r="U31" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="U31" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="17"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="W31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="17"/>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -6786,31 +7059,34 @@
         <v>900110</v>
       </c>
       <c r="Q32" s="12">
+        <v>0</v>
+      </c>
+      <c r="R32" s="12">
         <v>910030</v>
       </c>
-      <c r="R32" s="17" t="str">
+      <c r="S32" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C32&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G15&amp;"초]"&amp;"
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다."</f>
         <v>&lt;b&gt;불구덩이&lt;/b&gt; [액티브 / 쿨타임: 10초]
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
-      <c r="S32" s="17" t="s">
+      <c r="T32" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T32" s="17" t="s">
+      <c r="U32" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="U32" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W32" s="16" t="s">
+      <c r="W32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" s="16" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="2:23">
+    <row r="33" spans="2:24">
       <c r="B33" s="11">
         <v>28</v>
       </c>
@@ -6859,10 +7135,10 @@
       <c r="Q33" s="12">
         <v>0</v>
       </c>
-      <c r="R33" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33" s="15" t="s">
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
+      <c r="S33" s="17" t="s">
         <v>52</v>
       </c>
       <c r="T33" s="15" t="s">
@@ -6874,9 +7150,12 @@
       <c r="V33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W33" s="17"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="W33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X33" s="17"/>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34" s="11">
         <v>29</v>
       </c>
@@ -6923,17 +7202,17 @@
         <v>0</v>
       </c>
       <c r="Q34" s="12">
+        <v>0</v>
+      </c>
+      <c r="R34" s="12">
         <v>910031</v>
       </c>
-      <c r="R34" s="17" t="str">
+      <c r="S34" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C34&amp;"&lt;/b&gt;"&amp;" [패시브]"&amp;"
 지옥의 군주 체력이 50%이하라면, 피해량의 10%만큼 체력을 회복합니다."</f>
         <v>&lt;b&gt;피의 권능&lt;/b&gt; [패시브]
 지옥의 군주 체력이 50%이하라면, 피해량의 10%만큼 체력을 회복합니다.</v>
       </c>
-      <c r="S34" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T34" s="15" t="s">
         <v>52</v>
       </c>
@@ -6943,9 +7222,12 @@
       <c r="V34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W34" s="17"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="W34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34" s="17"/>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="11">
         <v>30</v>
       </c>
@@ -6992,29 +7274,32 @@
         <v>0</v>
       </c>
       <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
         <v>910032</v>
       </c>
-      <c r="R35" s="17" t="str">
+      <c r="S35" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C35&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G16&amp;"초]"&amp;"
 프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다."</f>
         <v>&lt;b&gt;영구동토&lt;/b&gt; [액티브 / 쿨타임: 15초]
 프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="T35" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="T35" s="17" t="s">
+      <c r="U35" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="U35" s="17" t="s">
+      <c r="V35" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V35" s="17" t="s">
+      <c r="W35" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="W35" s="17"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="17"/>
+    </row>
+    <row r="36" spans="2:24">
       <c r="B36" s="11">
         <v>31</v>
       </c>
@@ -7063,8 +7348,8 @@
       <c r="Q36" s="12">
         <v>0</v>
       </c>
-      <c r="R36" s="15" t="s">
-        <v>52</v>
+      <c r="R36" s="12">
+        <v>0</v>
       </c>
       <c r="S36" s="15" t="s">
         <v>52</v>
@@ -7078,9 +7363,12 @@
       <c r="V36" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W36" s="19"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="W36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X36" s="19"/>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37" s="11">
         <v>32</v>
       </c>
@@ -7127,29 +7415,32 @@
         <v>0</v>
       </c>
       <c r="Q37" s="12">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12">
         <v>910033</v>
       </c>
-      <c r="R37" s="17" t="str">
+      <c r="S37" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C37&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G17&amp;"초]"&amp;"
 프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다."</f>
         <v>&lt;b&gt;얼음왕의 검&lt;/b&gt; [액티브 / 쿨타임: 45초]
 프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다.</v>
       </c>
-      <c r="S37" s="17" t="s">
+      <c r="T37" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T37" s="17" t="s">
+      <c r="U37" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="U37" s="17" t="s">
+      <c r="V37" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V37" s="17" t="s">
+      <c r="W37" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="W37" s="19"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="19"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38" s="11">
         <v>33</v>
       </c>
@@ -7198,8 +7489,8 @@
       <c r="Q38" s="12">
         <v>0</v>
       </c>
-      <c r="R38" s="15" t="s">
-        <v>52</v>
+      <c r="R38" s="12">
+        <v>0</v>
       </c>
       <c r="S38" s="15" t="s">
         <v>52</v>
@@ -7207,15 +7498,18 @@
       <c r="T38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U38" s="17" t="s">
+      <c r="U38" s="15" t="s">
         <v>52</v>
       </c>
       <c r="V38" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W38" s="15"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="W38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38" s="15"/>
+    </row>
+    <row r="39" spans="2:24">
       <c r="B39" s="11">
         <v>34</v>
       </c>
@@ -7262,26 +7556,29 @@
         <v>0</v>
       </c>
       <c r="Q39" s="12">
+        <v>0</v>
+      </c>
+      <c r="R39" s="12">
         <v>910001</v>
       </c>
-      <c r="R39" s="17" t="s">
+      <c r="S39" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="S39" s="17" t="s">
+      <c r="T39" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T39" s="17" t="s">
+      <c r="U39" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U39" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V39" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W39" s="17"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="W39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X39" s="17"/>
+    </row>
+    <row r="40" spans="2:24">
       <c r="B40" s="11">
         <v>35</v>
       </c>
@@ -7330,10 +7627,10 @@
       <c r="Q40" s="12">
         <v>0</v>
       </c>
-      <c r="R40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S40" s="17" t="s">
+      <c r="R40" s="12">
+        <v>0</v>
+      </c>
+      <c r="S40" s="15" t="s">
         <v>52</v>
       </c>
       <c r="T40" s="17" t="s">
@@ -7345,9 +7642,12 @@
       <c r="V40" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W40" s="15"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="W40" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X40" s="15"/>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41" s="11">
         <v>36</v>
       </c>
@@ -7394,26 +7694,29 @@
         <v>0</v>
       </c>
       <c r="Q41" s="12">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12">
         <v>910001</v>
       </c>
-      <c r="R41" s="17" t="s">
+      <c r="S41" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="S41" s="17" t="s">
+      <c r="T41" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T41" s="17" t="s">
+      <c r="U41" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="U41" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V41" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W41" s="19"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="W41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X41" s="19"/>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42" s="11">
         <v>37</v>
       </c>
@@ -7462,10 +7765,10 @@
       <c r="Q42" s="12">
         <v>0</v>
       </c>
-      <c r="R42" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S42" s="17" t="s">
+      <c r="R42" s="12">
+        <v>0</v>
+      </c>
+      <c r="S42" s="15" t="s">
         <v>52</v>
       </c>
       <c r="T42" s="17" t="s">
@@ -7477,9 +7780,12 @@
       <c r="V42" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W42" s="19"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="W42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X42" s="19"/>
+    </row>
+    <row r="43" spans="2:24">
       <c r="B43" s="11">
         <v>38</v>
       </c>
@@ -7526,26 +7832,29 @@
         <v>0</v>
       </c>
       <c r="Q43" s="12">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12">
         <v>910001</v>
       </c>
-      <c r="R43" s="17" t="s">
+      <c r="S43" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="S43" s="17" t="s">
+      <c r="T43" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T43" s="17" t="s">
+      <c r="U43" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U43" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V43" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W43" s="17"/>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="W43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X43" s="17"/>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44" s="11">
         <v>39</v>
       </c>
@@ -7594,10 +7903,10 @@
       <c r="Q44" s="12">
         <v>0</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S44" s="17" t="s">
+      <c r="R44" s="12">
+        <v>0</v>
+      </c>
+      <c r="S44" s="15" t="s">
         <v>52</v>
       </c>
       <c r="T44" s="17" t="s">
@@ -7609,9 +7918,12 @@
       <c r="V44" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W44" s="15"/>
-    </row>
-    <row r="45" spans="2:23">
+      <c r="W44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X44" s="15"/>
+    </row>
+    <row r="45" spans="2:24">
       <c r="B45" s="11">
         <v>40</v>
       </c>
@@ -7658,26 +7970,29 @@
         <v>0</v>
       </c>
       <c r="Q45" s="12">
+        <v>0</v>
+      </c>
+      <c r="R45" s="12">
         <v>910002</v>
       </c>
-      <c r="R45" s="17" t="s">
+      <c r="S45" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="S45" s="17" t="s">
+      <c r="T45" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T45" s="17" t="s">
+      <c r="U45" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="U45" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V45" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="17"/>
-    </row>
-    <row r="46" spans="2:23">
+      <c r="W45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X45" s="17"/>
+    </row>
+    <row r="46" spans="2:24">
       <c r="B46" s="11">
         <v>41</v>
       </c>
@@ -7724,26 +8039,29 @@
         <v>0</v>
       </c>
       <c r="Q46" s="12">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12">
         <v>910002</v>
       </c>
-      <c r="R46" s="17" t="s">
+      <c r="S46" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="S46" s="17" t="s">
+      <c r="T46" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T46" s="17" t="s">
+      <c r="U46" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="U46" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V46" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W46" s="17"/>
-    </row>
-    <row r="47" spans="2:23">
+      <c r="W46" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46" s="17"/>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47" s="11">
         <v>42</v>
       </c>
@@ -7790,26 +8108,29 @@
         <v>0</v>
       </c>
       <c r="Q47" s="12">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12">
         <v>910002</v>
       </c>
-      <c r="R47" s="17" t="s">
+      <c r="S47" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="S47" s="17" t="s">
+      <c r="T47" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T47" s="17" t="s">
+      <c r="U47" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="U47" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V47" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W47" s="17"/>
-    </row>
-    <row r="48" spans="2:23">
+      <c r="W47" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X47" s="17"/>
+    </row>
+    <row r="48" spans="2:24">
       <c r="B48" s="11">
         <v>43</v>
       </c>
@@ -7856,26 +8177,29 @@
         <v>0</v>
       </c>
       <c r="Q48" s="12">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12">
         <v>910003</v>
       </c>
-      <c r="R48" s="17" t="s">
+      <c r="S48" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="S48" s="17" t="s">
+      <c r="T48" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="U48" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U48" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W48" s="17"/>
-    </row>
-    <row r="49" spans="2:23">
+      <c r="W48" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X48" s="17"/>
+    </row>
+    <row r="49" spans="2:24">
       <c r="B49" s="11">
         <v>44</v>
       </c>
@@ -7922,26 +8246,29 @@
         <v>0</v>
       </c>
       <c r="Q49" s="12">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12">
         <v>910003</v>
       </c>
-      <c r="R49" s="17" t="s">
+      <c r="S49" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="S49" s="17" t="s">
+      <c r="T49" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="U49" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U49" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V49" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W49" s="17"/>
-    </row>
-    <row r="50" spans="2:23">
+      <c r="W49" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X49" s="17"/>
+    </row>
+    <row r="50" spans="2:24">
       <c r="B50" s="11">
         <v>45</v>
       </c>
@@ -7988,26 +8315,29 @@
         <v>0</v>
       </c>
       <c r="Q50" s="12">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12">
         <v>910003</v>
       </c>
-      <c r="R50" s="17" t="s">
+      <c r="S50" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="S50" s="17" t="s">
+      <c r="T50" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="U50" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U50" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W50" s="17"/>
-    </row>
-    <row r="51" spans="2:23">
+      <c r="W50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X50" s="17"/>
+    </row>
+    <row r="51" spans="2:24">
       <c r="B51" s="11">
         <v>46</v>
       </c>
@@ -8054,26 +8384,29 @@
         <v>900131</v>
       </c>
       <c r="Q51" s="12">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12">
         <v>910004</v>
       </c>
-      <c r="R51" s="17" t="s">
+      <c r="S51" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="S51" s="17" t="s">
+      <c r="T51" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T51" s="17" t="s">
+      <c r="U51" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="U51" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V51" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W51" s="17"/>
-    </row>
-    <row r="52" spans="2:23">
+      <c r="W51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X51" s="17"/>
+    </row>
+    <row r="52" spans="2:24">
       <c r="B52" s="11">
         <v>47</v>
       </c>
@@ -8120,26 +8453,29 @@
         <v>900131</v>
       </c>
       <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12">
         <v>910004</v>
       </c>
-      <c r="R52" s="17" t="s">
+      <c r="S52" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="S52" s="17" t="s">
+      <c r="T52" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T52" s="17" t="s">
+      <c r="U52" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="U52" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V52" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W52" s="17"/>
-    </row>
-    <row r="53" spans="2:23">
+      <c r="W52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X52" s="17"/>
+    </row>
+    <row r="53" spans="2:24">
       <c r="B53" s="11">
         <v>48</v>
       </c>
@@ -8186,26 +8522,29 @@
         <v>900131</v>
       </c>
       <c r="Q53" s="12">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12">
         <v>910004</v>
       </c>
-      <c r="R53" s="17" t="s">
+      <c r="S53" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="S53" s="17" t="s">
+      <c r="T53" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T53" s="17" t="s">
+      <c r="U53" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="U53" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V53" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W53" s="17"/>
-    </row>
-    <row r="54" spans="2:23">
+      <c r="W53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X53" s="17"/>
+    </row>
+    <row r="54" spans="2:24">
       <c r="B54" s="11">
         <v>49</v>
       </c>
@@ -8252,26 +8591,29 @@
         <v>0</v>
       </c>
       <c r="Q54" s="12">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12">
         <v>910005</v>
       </c>
-      <c r="R54" s="17" t="s">
+      <c r="S54" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="S54" s="17" t="s">
+      <c r="T54" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T54" s="17" t="s">
+      <c r="U54" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U54" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V54" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W54" s="17"/>
-    </row>
-    <row r="55" spans="2:23">
+      <c r="W54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X54" s="17"/>
+    </row>
+    <row r="55" spans="2:24">
       <c r="B55" s="11">
         <v>50</v>
       </c>
@@ -8318,26 +8660,29 @@
         <v>0</v>
       </c>
       <c r="Q55" s="12">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12">
         <v>910005</v>
       </c>
-      <c r="R55" s="17" t="s">
+      <c r="S55" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="S55" s="17" t="s">
+      <c r="T55" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T55" s="17" t="s">
+      <c r="U55" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U55" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V55" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W55" s="17"/>
-    </row>
-    <row r="56" spans="2:23">
+      <c r="W55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X55" s="17"/>
+    </row>
+    <row r="56" spans="2:24">
       <c r="B56" s="11">
         <v>51</v>
       </c>
@@ -8384,26 +8729,29 @@
         <v>0</v>
       </c>
       <c r="Q56" s="12">
+        <v>0</v>
+      </c>
+      <c r="R56" s="12">
         <v>910005</v>
       </c>
-      <c r="R56" s="17" t="s">
+      <c r="S56" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="S56" s="17" t="s">
+      <c r="T56" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T56" s="17" t="s">
+      <c r="U56" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="U56" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V56" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W56" s="17"/>
-    </row>
-    <row r="57" spans="2:23">
+      <c r="W56" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X56" s="17"/>
+    </row>
+    <row r="57" spans="2:24">
       <c r="B57" s="11">
         <v>52</v>
       </c>
@@ -8450,26 +8798,29 @@
         <v>900138</v>
       </c>
       <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="12">
         <v>910006</v>
       </c>
-      <c r="R57" s="17" t="s">
+      <c r="S57" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="S57" s="17" t="s">
+      <c r="T57" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T57" s="17" t="s">
+      <c r="U57" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="U57" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V57" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W57" s="17"/>
-    </row>
-    <row r="58" spans="2:23">
+      <c r="W57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X57" s="17"/>
+    </row>
+    <row r="58" spans="2:24">
       <c r="B58" s="11">
         <v>53</v>
       </c>
@@ -8516,26 +8867,29 @@
         <v>900138</v>
       </c>
       <c r="Q58" s="12">
+        <v>0</v>
+      </c>
+      <c r="R58" s="12">
         <v>910006</v>
       </c>
-      <c r="R58" s="17" t="s">
+      <c r="S58" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="S58" s="17" t="s">
+      <c r="T58" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T58" s="17" t="s">
+      <c r="U58" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="U58" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V58" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W58" s="19"/>
-    </row>
-    <row r="59" spans="2:23">
+      <c r="W58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X58" s="19"/>
+    </row>
+    <row r="59" spans="2:24">
       <c r="B59" s="11">
         <v>54</v>
       </c>
@@ -8582,26 +8936,29 @@
         <v>900138</v>
       </c>
       <c r="Q59" s="12">
+        <v>0</v>
+      </c>
+      <c r="R59" s="12">
         <v>910006</v>
       </c>
-      <c r="R59" s="17" t="s">
+      <c r="S59" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="S59" s="17" t="s">
+      <c r="T59" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T59" s="17" t="s">
+      <c r="U59" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="U59" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V59" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W59" s="19"/>
-    </row>
-    <row r="60" spans="2:23">
+      <c r="W59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X59" s="19"/>
+    </row>
+    <row r="60" spans="2:24">
       <c r="B60" s="11">
         <v>55</v>
       </c>
@@ -8648,26 +9005,29 @@
         <v>0</v>
       </c>
       <c r="Q60" s="12">
+        <v>0</v>
+      </c>
+      <c r="R60" s="12">
         <v>910007</v>
       </c>
-      <c r="R60" s="17" t="s">
+      <c r="S60" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="S60" s="17" t="s">
+      <c r="T60" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T60" s="17" t="s">
+      <c r="U60" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U60" s="17" t="s">
+      <c r="V60" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V60" s="17" t="s">
+      <c r="W60" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="W60" s="17"/>
-    </row>
-    <row r="61" spans="2:23">
+      <c r="X60" s="17"/>
+    </row>
+    <row r="61" spans="2:24">
       <c r="B61" s="11">
         <v>56</v>
       </c>
@@ -8714,26 +9074,29 @@
         <v>0</v>
       </c>
       <c r="Q61" s="12">
+        <v>0</v>
+      </c>
+      <c r="R61" s="12">
         <v>910007</v>
       </c>
-      <c r="R61" s="17" t="s">
+      <c r="S61" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="S61" s="17" t="s">
+      <c r="T61" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T61" s="17" t="s">
+      <c r="U61" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U61" s="17" t="s">
+      <c r="V61" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V61" s="17" t="s">
+      <c r="W61" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="W61" s="17"/>
-    </row>
-    <row r="62" spans="2:23">
+      <c r="X61" s="17"/>
+    </row>
+    <row r="62" spans="2:24">
       <c r="B62" s="11">
         <v>57</v>
       </c>
@@ -8780,26 +9143,29 @@
         <v>0</v>
       </c>
       <c r="Q62" s="12">
+        <v>0</v>
+      </c>
+      <c r="R62" s="12">
         <v>910007</v>
       </c>
-      <c r="R62" s="17" t="s">
+      <c r="S62" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="S62" s="17" t="s">
+      <c r="T62" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T62" s="17" t="s">
+      <c r="U62" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U62" s="17" t="s">
+      <c r="V62" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V62" s="17" t="s">
+      <c r="W62" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="W62" s="17"/>
-    </row>
-    <row r="63" spans="2:23">
+      <c r="X62" s="17"/>
+    </row>
+    <row r="63" spans="2:24">
       <c r="B63" s="11">
         <v>58</v>
       </c>
@@ -8846,26 +9212,29 @@
         <v>900144</v>
       </c>
       <c r="Q63" s="12">
+        <v>0</v>
+      </c>
+      <c r="R63" s="12">
         <v>910008</v>
       </c>
-      <c r="R63" s="17" t="s">
+      <c r="S63" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="S63" s="17" t="s">
+      <c r="T63" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T63" s="17" t="s">
+      <c r="U63" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="U63" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V63" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W63" s="17"/>
-    </row>
-    <row r="64" spans="2:23">
+      <c r="W63" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X63" s="17"/>
+    </row>
+    <row r="64" spans="2:24">
       <c r="B64" s="11">
         <v>59</v>
       </c>
@@ -8912,26 +9281,29 @@
         <v>900144</v>
       </c>
       <c r="Q64" s="12">
+        <v>0</v>
+      </c>
+      <c r="R64" s="12">
         <v>910008</v>
       </c>
-      <c r="R64" s="17" t="s">
+      <c r="S64" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="S64" s="17" t="s">
+      <c r="T64" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T64" s="17" t="s">
+      <c r="U64" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="U64" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V64" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W64" s="17"/>
-    </row>
-    <row r="65" spans="2:23">
+      <c r="W64" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X64" s="17"/>
+    </row>
+    <row r="65" spans="2:24">
       <c r="B65" s="11">
         <v>60</v>
       </c>
@@ -8978,26 +9350,29 @@
         <v>900144</v>
       </c>
       <c r="Q65" s="12">
+        <v>0</v>
+      </c>
+      <c r="R65" s="12">
         <v>910008</v>
       </c>
-      <c r="R65" s="17" t="s">
+      <c r="S65" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="S65" s="17" t="s">
+      <c r="T65" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T65" s="17" t="s">
+      <c r="U65" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="U65" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V65" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W65" s="17"/>
-    </row>
-    <row r="66" spans="2:23">
+      <c r="W65" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X65" s="17"/>
+    </row>
+    <row r="66" spans="2:24">
       <c r="B66" s="11">
         <v>61</v>
       </c>
@@ -9044,26 +9419,29 @@
         <v>0</v>
       </c>
       <c r="Q66" s="12">
+        <v>0</v>
+      </c>
+      <c r="R66" s="12">
         <v>910009</v>
       </c>
-      <c r="R66" s="17" t="s">
+      <c r="S66" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="S66" s="17" t="s">
+      <c r="T66" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T66" s="17" t="s">
+      <c r="U66" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="U66" s="17" t="s">
+      <c r="V66" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="V66" s="17" t="s">
+      <c r="W66" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="W66" s="19"/>
-    </row>
-    <row r="67" spans="2:23">
+      <c r="X66" s="19"/>
+    </row>
+    <row r="67" spans="2:24">
       <c r="B67" s="11">
         <v>62</v>
       </c>
@@ -9110,26 +9488,29 @@
         <v>0</v>
       </c>
       <c r="Q67" s="12">
+        <v>0</v>
+      </c>
+      <c r="R67" s="12">
         <v>910009</v>
       </c>
-      <c r="R67" s="17" t="s">
+      <c r="S67" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="S67" s="17" t="s">
+      <c r="T67" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T67" s="17" t="s">
+      <c r="U67" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="U67" s="17" t="s">
+      <c r="V67" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="V67" s="17" t="s">
+      <c r="W67" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="W67" s="19"/>
-    </row>
-    <row r="68" spans="2:23">
+      <c r="X67" s="19"/>
+    </row>
+    <row r="68" spans="2:24">
       <c r="B68" s="11">
         <v>63</v>
       </c>
@@ -9176,26 +9557,29 @@
         <v>0</v>
       </c>
       <c r="Q68" s="12">
+        <v>0</v>
+      </c>
+      <c r="R68" s="12">
         <v>910009</v>
       </c>
-      <c r="R68" s="17" t="s">
+      <c r="S68" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="S68" s="17" t="s">
+      <c r="T68" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T68" s="17" t="s">
+      <c r="U68" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="U68" s="17" t="s">
+      <c r="V68" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="V68" s="17" t="s">
+      <c r="W68" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="W68" s="17"/>
-    </row>
-    <row r="69" spans="2:23">
+      <c r="X68" s="17"/>
+    </row>
+    <row r="69" spans="2:24">
       <c r="B69" s="11">
         <v>64</v>
       </c>
@@ -9242,26 +9626,29 @@
         <v>0</v>
       </c>
       <c r="Q69" s="12">
+        <v>0</v>
+      </c>
+      <c r="R69" s="12">
         <v>910010</v>
       </c>
-      <c r="R69" s="17" t="s">
+      <c r="S69" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="S69" s="17" t="s">
+      <c r="T69" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="T69" s="17" t="s">
+      <c r="U69" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="U69" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V69" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W69" s="17"/>
-    </row>
-    <row r="70" spans="2:23">
+      <c r="W69" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X69" s="17"/>
+    </row>
+    <row r="70" spans="2:24">
       <c r="B70" s="11">
         <v>65</v>
       </c>
@@ -9308,26 +9695,29 @@
         <v>0</v>
       </c>
       <c r="Q70" s="12">
+        <v>0</v>
+      </c>
+      <c r="R70" s="12">
         <v>910010</v>
       </c>
-      <c r="R70" s="17" t="s">
+      <c r="S70" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="S70" s="17" t="s">
+      <c r="T70" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="T70" s="17" t="s">
+      <c r="U70" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="U70" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V70" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W70" s="17"/>
-    </row>
-    <row r="71" spans="2:23">
+      <c r="W70" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X70" s="17"/>
+    </row>
+    <row r="71" spans="2:24">
       <c r="B71" s="11">
         <v>66</v>
       </c>
@@ -9374,26 +9764,29 @@
         <v>0</v>
       </c>
       <c r="Q71" s="12">
+        <v>0</v>
+      </c>
+      <c r="R71" s="12">
         <v>910010</v>
       </c>
-      <c r="R71" s="17" t="s">
+      <c r="S71" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="S71" s="17" t="s">
+      <c r="T71" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="T71" s="17" t="s">
+      <c r="U71" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="U71" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V71" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W71" s="17"/>
-    </row>
-    <row r="72" spans="2:23">
+      <c r="W71" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X71" s="17"/>
+    </row>
+    <row r="72" spans="2:24">
       <c r="B72" s="11">
         <v>67</v>
       </c>
@@ -9440,26 +9833,29 @@
         <v>0</v>
       </c>
       <c r="Q72" s="12">
+        <v>0</v>
+      </c>
+      <c r="R72" s="12">
         <v>910011</v>
       </c>
-      <c r="R72" s="17" t="s">
+      <c r="S72" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="S72" s="17" t="s">
+      <c r="T72" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T72" s="17" t="s">
+      <c r="U72" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="U72" s="17" t="s">
+      <c r="V72" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="V72" s="17" t="s">
+      <c r="W72" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="W72" s="17"/>
-    </row>
-    <row r="73" spans="2:23">
+      <c r="X72" s="17"/>
+    </row>
+    <row r="73" spans="2:24">
       <c r="B73" s="11">
         <v>68</v>
       </c>
@@ -9506,26 +9902,29 @@
         <v>0</v>
       </c>
       <c r="Q73" s="12">
+        <v>0</v>
+      </c>
+      <c r="R73" s="12">
         <v>910011</v>
       </c>
-      <c r="R73" s="17" t="s">
+      <c r="S73" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="S73" s="17" t="s">
+      <c r="T73" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T73" s="17" t="s">
+      <c r="U73" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="U73" s="17" t="s">
+      <c r="V73" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="V73" s="17" t="s">
+      <c r="W73" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="W73" s="17"/>
-    </row>
-    <row r="74" spans="2:23">
+      <c r="X73" s="17"/>
+    </row>
+    <row r="74" spans="2:24">
       <c r="B74" s="11">
         <v>69</v>
       </c>
@@ -9572,26 +9971,29 @@
         <v>0</v>
       </c>
       <c r="Q74" s="12">
+        <v>0</v>
+      </c>
+      <c r="R74" s="12">
         <v>910011</v>
       </c>
-      <c r="R74" s="17" t="s">
+      <c r="S74" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="S74" s="17" t="s">
+      <c r="T74" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T74" s="17" t="s">
+      <c r="U74" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="U74" s="17" t="s">
+      <c r="V74" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="V74" s="17" t="s">
+      <c r="W74" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="W74" s="17"/>
-    </row>
-    <row r="75" spans="2:23">
+      <c r="X74" s="17"/>
+    </row>
+    <row r="75" spans="2:24">
       <c r="B75" s="11">
         <v>70</v>
       </c>
@@ -9638,26 +10040,29 @@
         <v>0</v>
       </c>
       <c r="Q75" s="12">
+        <v>0</v>
+      </c>
+      <c r="R75" s="12">
         <v>910012</v>
       </c>
-      <c r="R75" s="17" t="s">
+      <c r="S75" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="S75" s="17" t="s">
+      <c r="T75" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T75" s="17" t="s">
+      <c r="U75" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="U75" s="17" t="s">
+      <c r="V75" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="V75" s="17" t="s">
+      <c r="W75" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="W75" s="17"/>
-    </row>
-    <row r="76" spans="2:23">
+      <c r="X75" s="17"/>
+    </row>
+    <row r="76" spans="2:24">
       <c r="B76" s="11">
         <v>71</v>
       </c>
@@ -9706,8 +10111,8 @@
       <c r="Q76" s="12">
         <v>0</v>
       </c>
-      <c r="R76" s="15" t="s">
-        <v>52</v>
+      <c r="R76" s="12">
+        <v>0</v>
       </c>
       <c r="S76" s="15" t="s">
         <v>52</v>
@@ -9721,9 +10126,12 @@
       <c r="V76" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W76" s="15"/>
-    </row>
-    <row r="77" spans="2:23">
+      <c r="W76" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X76" s="15"/>
+    </row>
+    <row r="77" spans="2:24">
       <c r="B77" s="11">
         <v>72</v>
       </c>
@@ -9770,26 +10178,29 @@
         <v>0</v>
       </c>
       <c r="Q77" s="12">
+        <v>0</v>
+      </c>
+      <c r="R77" s="12">
         <v>910012</v>
       </c>
-      <c r="R77" s="17" t="s">
+      <c r="S77" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="S77" s="17" t="s">
+      <c r="T77" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T77" s="17" t="s">
+      <c r="U77" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="U77" s="17" t="s">
+      <c r="V77" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="V77" s="17" t="s">
+      <c r="W77" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="W77" s="17"/>
-    </row>
-    <row r="78" spans="2:23">
+      <c r="X77" s="17"/>
+    </row>
+    <row r="78" spans="2:24">
       <c r="B78" s="11">
         <v>73</v>
       </c>
@@ -9838,8 +10249,8 @@
       <c r="Q78" s="12">
         <v>0</v>
       </c>
-      <c r="R78" s="15" t="s">
-        <v>52</v>
+      <c r="R78" s="12">
+        <v>0</v>
       </c>
       <c r="S78" s="15" t="s">
         <v>52</v>
@@ -9853,9 +10264,12 @@
       <c r="V78" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W78" s="15"/>
-    </row>
-    <row r="79" spans="2:23">
+      <c r="W78" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X78" s="15"/>
+    </row>
+    <row r="79" spans="2:24">
       <c r="B79" s="11">
         <v>74</v>
       </c>
@@ -9902,26 +10316,29 @@
         <v>0</v>
       </c>
       <c r="Q79" s="12">
+        <v>0</v>
+      </c>
+      <c r="R79" s="12">
         <v>910012</v>
       </c>
-      <c r="R79" s="17" t="s">
+      <c r="S79" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="S79" s="17" t="s">
+      <c r="T79" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T79" s="17" t="s">
+      <c r="U79" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="U79" s="17" t="s">
+      <c r="V79" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="V79" s="17" t="s">
+      <c r="W79" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="W79" s="17"/>
-    </row>
-    <row r="80" spans="2:23">
+      <c r="X79" s="17"/>
+    </row>
+    <row r="80" spans="2:24">
       <c r="B80" s="11">
         <v>75</v>
       </c>
@@ -9970,8 +10387,8 @@
       <c r="Q80" s="12">
         <v>0</v>
       </c>
-      <c r="R80" s="15" t="s">
-        <v>52</v>
+      <c r="R80" s="12">
+        <v>0</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>52</v>
@@ -9985,9 +10402,12 @@
       <c r="V80" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W80" s="19"/>
-    </row>
-    <row r="81" spans="2:23">
+      <c r="W80" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X80" s="19"/>
+    </row>
+    <row r="81" spans="2:24">
       <c r="B81" s="11">
         <v>76</v>
       </c>
@@ -10034,26 +10454,29 @@
         <v>0</v>
       </c>
       <c r="Q81" s="12">
+        <v>0</v>
+      </c>
+      <c r="R81" s="12">
         <v>910013</v>
       </c>
-      <c r="R81" s="17" t="s">
+      <c r="S81" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="S81" s="17" t="s">
+      <c r="T81" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T81" s="17" t="s">
+      <c r="U81" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U81" s="17" t="s">
+      <c r="V81" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V81" s="17" t="s">
+      <c r="W81" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="W81" s="19"/>
-    </row>
-    <row r="82" spans="2:23">
+      <c r="X81" s="19"/>
+    </row>
+    <row r="82" spans="2:24">
       <c r="B82" s="11">
         <v>77</v>
       </c>
@@ -10100,26 +10523,29 @@
         <v>0</v>
       </c>
       <c r="Q82" s="12">
+        <v>0</v>
+      </c>
+      <c r="R82" s="12">
         <v>910013</v>
       </c>
-      <c r="R82" s="17" t="s">
+      <c r="S82" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="S82" s="17" t="s">
+      <c r="T82" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T82" s="17" t="s">
+      <c r="U82" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U82" s="17" t="s">
+      <c r="V82" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V82" s="17" t="s">
+      <c r="W82" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="W82" s="17"/>
-    </row>
-    <row r="83" spans="2:23">
+      <c r="X82" s="17"/>
+    </row>
+    <row r="83" spans="2:24">
       <c r="B83" s="11">
         <v>78</v>
       </c>
@@ -10166,26 +10592,29 @@
         <v>0</v>
       </c>
       <c r="Q83" s="12">
+        <v>0</v>
+      </c>
+      <c r="R83" s="12">
         <v>910013</v>
       </c>
-      <c r="R83" s="17" t="s">
+      <c r="S83" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="S83" s="17" t="s">
+      <c r="T83" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T83" s="17" t="s">
+      <c r="U83" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U83" s="17" t="s">
+      <c r="V83" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V83" s="17" t="s">
+      <c r="W83" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="W83" s="17"/>
-    </row>
-    <row r="84" spans="2:23">
+      <c r="X83" s="17"/>
+    </row>
+    <row r="84" spans="2:24">
       <c r="B84" s="11">
         <v>79</v>
       </c>
@@ -10234,8 +10663,8 @@
       <c r="Q84" s="12">
         <v>0</v>
       </c>
-      <c r="R84" s="15" t="s">
-        <v>52</v>
+      <c r="R84" s="12">
+        <v>0</v>
       </c>
       <c r="S84" s="15" t="s">
         <v>52</v>
@@ -10249,9 +10678,12 @@
       <c r="V84" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W84" s="15"/>
-    </row>
-    <row r="85" spans="2:23">
+      <c r="W84" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X84" s="15"/>
+    </row>
+    <row r="85" spans="2:24">
       <c r="B85" s="11">
         <v>80</v>
       </c>
@@ -10298,26 +10730,29 @@
         <v>0</v>
       </c>
       <c r="Q85" s="12">
+        <v>0</v>
+      </c>
+      <c r="R85" s="12">
         <v>910014</v>
       </c>
-      <c r="R85" s="17" t="s">
+      <c r="S85" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="S85" s="17" t="s">
+      <c r="T85" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T85" s="17" t="s">
+      <c r="U85" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U85" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V85" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W85" s="15"/>
-    </row>
-    <row r="86" spans="2:23">
+      <c r="W85" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X85" s="15"/>
+    </row>
+    <row r="86" spans="2:24">
       <c r="B86" s="11">
         <v>81</v>
       </c>
@@ -10364,26 +10799,29 @@
         <v>0</v>
       </c>
       <c r="Q86" s="12">
+        <v>0</v>
+      </c>
+      <c r="R86" s="12">
         <v>910014</v>
       </c>
-      <c r="R86" s="17" t="s">
+      <c r="S86" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="S86" s="17" t="s">
+      <c r="T86" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T86" s="17" t="s">
+      <c r="U86" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U86" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V86" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W86" s="15"/>
-    </row>
-    <row r="87" spans="2:23">
+      <c r="W86" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X86" s="15"/>
+    </row>
+    <row r="87" spans="2:24">
       <c r="B87" s="11">
         <v>82</v>
       </c>
@@ -10430,26 +10868,29 @@
         <v>0</v>
       </c>
       <c r="Q87" s="12">
+        <v>0</v>
+      </c>
+      <c r="R87" s="12">
         <v>910014</v>
       </c>
-      <c r="R87" s="17" t="s">
+      <c r="S87" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="S87" s="17" t="s">
+      <c r="T87" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T87" s="17" t="s">
+      <c r="U87" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U87" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W87" s="15"/>
-    </row>
-    <row r="88" spans="2:23">
+      <c r="W87" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X87" s="15"/>
+    </row>
+    <row r="88" spans="2:24">
       <c r="B88" s="11">
         <v>83</v>
       </c>
@@ -10496,26 +10937,29 @@
         <v>0</v>
       </c>
       <c r="Q88" s="12">
+        <v>0</v>
+      </c>
+      <c r="R88" s="12">
         <v>910015</v>
       </c>
-      <c r="R88" s="17" t="s">
+      <c r="S88" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="S88" s="17" t="s">
+      <c r="T88" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T88" s="17" t="s">
+      <c r="U88" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="U88" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V88" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W88" s="15"/>
-    </row>
-    <row r="89" spans="2:23">
+      <c r="W88" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X88" s="15"/>
+    </row>
+    <row r="89" spans="2:24">
       <c r="B89" s="11">
         <v>84</v>
       </c>
@@ -10564,8 +11008,8 @@
       <c r="Q89" s="12">
         <v>0</v>
       </c>
-      <c r="R89" s="15" t="s">
-        <v>52</v>
+      <c r="R89" s="12">
+        <v>0</v>
       </c>
       <c r="S89" s="15" t="s">
         <v>52</v>
@@ -10579,9 +11023,12 @@
       <c r="V89" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W89" s="15"/>
-    </row>
-    <row r="90" spans="2:23">
+      <c r="W89" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X89" s="15"/>
+    </row>
+    <row r="90" spans="2:24">
       <c r="B90" s="11">
         <v>85</v>
       </c>
@@ -10630,8 +11077,8 @@
       <c r="Q90" s="12">
         <v>0</v>
       </c>
-      <c r="R90" s="15" t="s">
-        <v>52</v>
+      <c r="R90" s="12">
+        <v>0</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>52</v>
@@ -10645,9 +11092,12 @@
       <c r="V90" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W90" s="19"/>
-    </row>
-    <row r="91" spans="2:23">
+      <c r="W90" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X90" s="19"/>
+    </row>
+    <row r="91" spans="2:24">
       <c r="B91" s="11">
         <v>86</v>
       </c>
@@ -10696,8 +11146,8 @@
       <c r="Q91" s="12">
         <v>0</v>
       </c>
-      <c r="R91" s="15" t="s">
-        <v>52</v>
+      <c r="R91" s="12">
+        <v>0</v>
       </c>
       <c r="S91" s="15" t="s">
         <v>52</v>
@@ -10711,9 +11161,12 @@
       <c r="V91" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W91" s="19"/>
-    </row>
-    <row r="92" spans="2:23">
+      <c r="W91" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X91" s="19"/>
+    </row>
+    <row r="92" spans="2:24">
       <c r="B92" s="11">
         <v>87</v>
       </c>
@@ -10760,26 +11213,29 @@
         <v>0</v>
       </c>
       <c r="Q92" s="12">
+        <v>0</v>
+      </c>
+      <c r="R92" s="12">
         <v>910015</v>
       </c>
-      <c r="R92" s="17" t="s">
+      <c r="S92" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="S92" s="17" t="s">
+      <c r="T92" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T92" s="17" t="s">
+      <c r="U92" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="U92" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V92" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W92" s="15"/>
-    </row>
-    <row r="93" spans="2:23">
+      <c r="W92" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X92" s="15"/>
+    </row>
+    <row r="93" spans="2:24">
       <c r="B93" s="11">
         <v>88</v>
       </c>
@@ -10828,8 +11284,8 @@
       <c r="Q93" s="12">
         <v>0</v>
       </c>
-      <c r="R93" s="15" t="s">
-        <v>52</v>
+      <c r="R93" s="12">
+        <v>0</v>
       </c>
       <c r="S93" s="15" t="s">
         <v>52</v>
@@ -10843,9 +11299,12 @@
       <c r="V93" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W93" s="15"/>
-    </row>
-    <row r="94" spans="2:23">
+      <c r="W93" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X93" s="15"/>
+    </row>
+    <row r="94" spans="2:24">
       <c r="B94" s="11">
         <v>89</v>
       </c>
@@ -10894,8 +11353,8 @@
       <c r="Q94" s="12">
         <v>0</v>
       </c>
-      <c r="R94" s="15" t="s">
-        <v>52</v>
+      <c r="R94" s="12">
+        <v>0</v>
       </c>
       <c r="S94" s="15" t="s">
         <v>52</v>
@@ -10909,9 +11368,12 @@
       <c r="V94" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W94" s="15"/>
-    </row>
-    <row r="95" spans="2:23">
+      <c r="W94" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X94" s="15"/>
+    </row>
+    <row r="95" spans="2:24">
       <c r="B95" s="11">
         <v>90</v>
       </c>
@@ -10960,8 +11422,8 @@
       <c r="Q95" s="12">
         <v>0</v>
       </c>
-      <c r="R95" s="15" t="s">
-        <v>52</v>
+      <c r="R95" s="12">
+        <v>0</v>
       </c>
       <c r="S95" s="15" t="s">
         <v>52</v>
@@ -10975,9 +11437,12 @@
       <c r="V95" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W95" s="15"/>
-    </row>
-    <row r="96" spans="2:23">
+      <c r="W95" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X95" s="15"/>
+    </row>
+    <row r="96" spans="2:24">
       <c r="B96" s="11">
         <v>91</v>
       </c>
@@ -11024,26 +11489,29 @@
         <v>0</v>
       </c>
       <c r="Q96" s="12">
+        <v>0</v>
+      </c>
+      <c r="R96" s="12">
         <v>910015</v>
       </c>
-      <c r="R96" s="17" t="s">
+      <c r="S96" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="S96" s="17" t="s">
+      <c r="T96" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T96" s="17" t="s">
+      <c r="U96" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="U96" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V96" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W96" s="15"/>
-    </row>
-    <row r="97" spans="2:23">
+      <c r="W96" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X96" s="15"/>
+    </row>
+    <row r="97" spans="2:24">
       <c r="B97" s="11">
         <v>92</v>
       </c>
@@ -11092,8 +11560,8 @@
       <c r="Q97" s="12">
         <v>0</v>
       </c>
-      <c r="R97" s="15" t="s">
-        <v>52</v>
+      <c r="R97" s="12">
+        <v>0</v>
       </c>
       <c r="S97" s="15" t="s">
         <v>52</v>
@@ -11107,9 +11575,12 @@
       <c r="V97" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W97" s="15"/>
-    </row>
-    <row r="98" spans="2:23">
+      <c r="W97" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X97" s="15"/>
+    </row>
+    <row r="98" spans="2:24">
       <c r="B98" s="11">
         <v>93</v>
       </c>
@@ -11158,8 +11629,8 @@
       <c r="Q98" s="12">
         <v>0</v>
       </c>
-      <c r="R98" s="15" t="s">
-        <v>52</v>
+      <c r="R98" s="12">
+        <v>0</v>
       </c>
       <c r="S98" s="15" t="s">
         <v>52</v>
@@ -11173,9 +11644,12 @@
       <c r="V98" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W98" s="15"/>
-    </row>
-    <row r="99" spans="2:23">
+      <c r="W98" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X98" s="15"/>
+    </row>
+    <row r="99" spans="2:24">
       <c r="B99" s="11">
         <v>94</v>
       </c>
@@ -11224,8 +11698,8 @@
       <c r="Q99" s="12">
         <v>0</v>
       </c>
-      <c r="R99" s="15" t="s">
-        <v>52</v>
+      <c r="R99" s="12">
+        <v>0</v>
       </c>
       <c r="S99" s="15" t="s">
         <v>52</v>
@@ -11239,9 +11713,12 @@
       <c r="V99" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W99" s="15"/>
-    </row>
-    <row r="100" spans="2:23">
+      <c r="W99" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X99" s="15"/>
+    </row>
+    <row r="100" spans="2:24">
       <c r="B100" s="11">
         <v>95</v>
       </c>
@@ -11288,26 +11765,29 @@
         <v>0</v>
       </c>
       <c r="Q100" s="12">
+        <v>0</v>
+      </c>
+      <c r="R100" s="12">
         <v>910016</v>
       </c>
-      <c r="R100" s="17" t="s">
+      <c r="S100" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="S100" s="17" t="s">
+      <c r="T100" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T100" s="17" t="s">
+      <c r="U100" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U100" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V100" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W100" s="15"/>
-    </row>
-    <row r="101" spans="2:23">
+      <c r="W100" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X100" s="15"/>
+    </row>
+    <row r="101" spans="2:24">
       <c r="B101" s="11">
         <v>96</v>
       </c>
@@ -11354,26 +11834,29 @@
         <v>0</v>
       </c>
       <c r="Q101" s="12">
+        <v>0</v>
+      </c>
+      <c r="R101" s="12">
         <v>910016</v>
       </c>
-      <c r="R101" s="17" t="s">
+      <c r="S101" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="S101" s="17" t="s">
+      <c r="T101" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T101" s="17" t="s">
+      <c r="U101" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U101" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V101" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W101" s="15"/>
-    </row>
-    <row r="102" spans="2:23">
+      <c r="W101" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X101" s="15"/>
+    </row>
+    <row r="102" spans="2:24">
       <c r="B102" s="11">
         <v>97</v>
       </c>
@@ -11420,26 +11903,29 @@
         <v>0</v>
       </c>
       <c r="Q102" s="12">
+        <v>0</v>
+      </c>
+      <c r="R102" s="12">
         <v>910016</v>
       </c>
-      <c r="R102" s="17" t="s">
+      <c r="S102" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="S102" s="17" t="s">
+      <c r="T102" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T102" s="17" t="s">
+      <c r="U102" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U102" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V102" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W102" s="15"/>
-    </row>
-    <row r="103" spans="2:23">
+      <c r="W102" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X102" s="15"/>
+    </row>
+    <row r="103" spans="2:24">
       <c r="B103" s="11">
         <v>98</v>
       </c>
@@ -11486,26 +11972,29 @@
         <v>0</v>
       </c>
       <c r="Q103" s="12">
+        <v>0</v>
+      </c>
+      <c r="R103" s="12">
         <v>910017</v>
       </c>
-      <c r="R103" s="17" t="s">
+      <c r="S103" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="S103" s="17" t="s">
+      <c r="T103" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T103" s="17" t="s">
+      <c r="U103" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U103" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V103" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W103" s="17"/>
-    </row>
-    <row r="104" spans="2:23">
+      <c r="W103" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X103" s="17"/>
+    </row>
+    <row r="104" spans="2:24">
       <c r="B104" s="11">
         <v>99</v>
       </c>
@@ -11552,26 +12041,29 @@
         <v>0</v>
       </c>
       <c r="Q104" s="12">
+        <v>0</v>
+      </c>
+      <c r="R104" s="12">
         <v>910017</v>
       </c>
-      <c r="R104" s="17" t="s">
+      <c r="S104" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="S104" s="17" t="s">
+      <c r="T104" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T104" s="17" t="s">
+      <c r="U104" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U104" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V104" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W104" s="17"/>
-    </row>
-    <row r="105" spans="2:23">
+      <c r="W104" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X104" s="17"/>
+    </row>
+    <row r="105" spans="2:24">
       <c r="B105" s="11">
         <v>100</v>
       </c>
@@ -11618,26 +12110,29 @@
         <v>0</v>
       </c>
       <c r="Q105" s="12">
+        <v>0</v>
+      </c>
+      <c r="R105" s="12">
         <v>910017</v>
       </c>
-      <c r="R105" s="17" t="s">
+      <c r="S105" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="S105" s="17" t="s">
+      <c r="T105" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T105" s="17" t="s">
+      <c r="U105" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U105" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V105" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W105" s="17"/>
-    </row>
-    <row r="106" spans="2:23">
+      <c r="W105" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X105" s="17"/>
+    </row>
+    <row r="106" spans="2:24">
       <c r="B106" s="11">
         <v>101</v>
       </c>
@@ -11684,26 +12179,29 @@
         <v>0</v>
       </c>
       <c r="Q106" s="12">
+        <v>0</v>
+      </c>
+      <c r="R106" s="12">
         <v>910018</v>
       </c>
-      <c r="R106" s="17" t="s">
+      <c r="S106" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="S106" s="17" t="s">
+      <c r="T106" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="T106" s="17" t="s">
+      <c r="U106" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="U106" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V106" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W106" s="17"/>
-    </row>
-    <row r="107" spans="2:23">
+      <c r="W106" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X106" s="17"/>
+    </row>
+    <row r="107" spans="2:24">
       <c r="B107" s="11">
         <v>102</v>
       </c>
@@ -11750,26 +12248,29 @@
         <v>0</v>
       </c>
       <c r="Q107" s="12">
+        <v>0</v>
+      </c>
+      <c r="R107" s="12">
         <v>910018</v>
       </c>
-      <c r="R107" s="17" t="s">
+      <c r="S107" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="S107" s="17" t="s">
+      <c r="T107" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="T107" s="17" t="s">
+      <c r="U107" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="U107" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V107" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W107" s="17"/>
-    </row>
-    <row r="108" spans="2:23">
+      <c r="W107" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X107" s="17"/>
+    </row>
+    <row r="108" spans="2:24">
       <c r="B108" s="11">
         <v>103</v>
       </c>
@@ -11816,26 +12317,29 @@
         <v>0</v>
       </c>
       <c r="Q108" s="12">
+        <v>0</v>
+      </c>
+      <c r="R108" s="12">
         <v>910018</v>
       </c>
-      <c r="R108" s="17" t="s">
+      <c r="S108" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="S108" s="17" t="s">
+      <c r="T108" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="T108" s="17" t="s">
+      <c r="U108" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="U108" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V108" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W108" s="17"/>
-    </row>
-    <row r="109" spans="2:23">
+      <c r="W108" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X108" s="17"/>
+    </row>
+    <row r="109" spans="2:24">
       <c r="B109" s="11">
         <v>104</v>
       </c>
@@ -11882,26 +12386,29 @@
         <v>0</v>
       </c>
       <c r="Q109" s="12">
+        <v>0</v>
+      </c>
+      <c r="R109" s="12">
         <v>910019</v>
       </c>
-      <c r="R109" s="17" t="s">
+      <c r="S109" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="S109" s="17" t="s">
+      <c r="T109" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="T109" s="17" t="s">
+      <c r="U109" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="U109" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V109" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W109" s="17"/>
-    </row>
-    <row r="110" spans="2:23">
+      <c r="W109" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X109" s="17"/>
+    </row>
+    <row r="110" spans="2:24">
       <c r="B110" s="11">
         <v>105</v>
       </c>
@@ -11948,26 +12455,29 @@
         <v>0</v>
       </c>
       <c r="Q110" s="12">
+        <v>0</v>
+      </c>
+      <c r="R110" s="12">
         <v>910019</v>
       </c>
-      <c r="R110" s="17" t="s">
+      <c r="S110" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="S110" s="17" t="s">
+      <c r="T110" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="T110" s="17" t="s">
+      <c r="U110" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="U110" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V110" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W110" s="17"/>
-    </row>
-    <row r="111" spans="2:23">
+      <c r="W110" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X110" s="17"/>
+    </row>
+    <row r="111" spans="2:24">
       <c r="B111" s="11">
         <v>106</v>
       </c>
@@ -12014,26 +12524,29 @@
         <v>0</v>
       </c>
       <c r="Q111" s="12">
+        <v>0</v>
+      </c>
+      <c r="R111" s="12">
         <v>910019</v>
       </c>
-      <c r="R111" s="17" t="s">
+      <c r="S111" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="S111" s="17" t="s">
+      <c r="T111" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="T111" s="17" t="s">
+      <c r="U111" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="U111" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V111" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W111" s="17"/>
-    </row>
-    <row r="112" spans="2:23">
+      <c r="W111" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X111" s="17"/>
+    </row>
+    <row r="112" spans="2:24">
       <c r="B112" s="11">
         <v>107</v>
       </c>
@@ -12080,26 +12593,29 @@
         <v>900172</v>
       </c>
       <c r="Q112" s="12">
+        <v>0</v>
+      </c>
+      <c r="R112" s="12">
         <v>910020</v>
       </c>
-      <c r="R112" s="17" t="s">
+      <c r="S112" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="S112" s="17" t="s">
+      <c r="T112" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T112" s="17" t="s">
+      <c r="U112" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="U112" s="17" t="s">
+      <c r="V112" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V112" s="17" t="s">
+      <c r="W112" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="W112" s="17"/>
-    </row>
-    <row r="113" spans="2:23">
+      <c r="X112" s="17"/>
+    </row>
+    <row r="113" spans="2:24">
       <c r="B113" s="11">
         <v>108</v>
       </c>
@@ -12146,26 +12662,29 @@
         <v>900172</v>
       </c>
       <c r="Q113" s="12">
+        <v>0</v>
+      </c>
+      <c r="R113" s="12">
         <v>910020</v>
       </c>
-      <c r="R113" s="17" t="s">
+      <c r="S113" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="S113" s="17" t="s">
+      <c r="T113" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T113" s="17" t="s">
+      <c r="U113" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="U113" s="17" t="s">
+      <c r="V113" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V113" s="17" t="s">
+      <c r="W113" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="W113" s="17"/>
-    </row>
-    <row r="114" spans="2:23">
+      <c r="X113" s="17"/>
+    </row>
+    <row r="114" spans="2:24">
       <c r="B114" s="11">
         <v>109</v>
       </c>
@@ -12212,26 +12731,29 @@
         <v>900172</v>
       </c>
       <c r="Q114" s="12">
+        <v>0</v>
+      </c>
+      <c r="R114" s="12">
         <v>910020</v>
       </c>
-      <c r="R114" s="17" t="s">
+      <c r="S114" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="S114" s="17" t="s">
+      <c r="T114" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T114" s="17" t="s">
+      <c r="U114" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="U114" s="17" t="s">
+      <c r="V114" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V114" s="17" t="s">
+      <c r="W114" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="W114" s="17"/>
-    </row>
-    <row r="115" spans="2:23">
+      <c r="X114" s="17"/>
+    </row>
+    <row r="115" spans="2:24">
       <c r="B115" s="11">
         <v>110</v>
       </c>
@@ -12278,26 +12800,29 @@
         <v>0</v>
       </c>
       <c r="Q115" s="12">
+        <v>0</v>
+      </c>
+      <c r="R115" s="12">
         <v>910021</v>
       </c>
-      <c r="R115" s="17" t="s">
+      <c r="S115" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="S115" s="17" t="s">
+      <c r="T115" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T115" s="17" t="s">
+      <c r="U115" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="U115" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V115" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W115" s="17"/>
-    </row>
-    <row r="116" spans="2:23">
+      <c r="W115" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X115" s="17"/>
+    </row>
+    <row r="116" spans="2:24">
       <c r="B116" s="11">
         <v>111</v>
       </c>
@@ -12344,26 +12869,29 @@
         <v>0</v>
       </c>
       <c r="Q116" s="12">
+        <v>0</v>
+      </c>
+      <c r="R116" s="12">
         <v>910021</v>
       </c>
-      <c r="R116" s="17" t="s">
+      <c r="S116" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="S116" s="17" t="s">
+      <c r="T116" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T116" s="17" t="s">
+      <c r="U116" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="U116" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V116" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W116" s="17"/>
-    </row>
-    <row r="117" spans="2:23">
+      <c r="W116" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X116" s="17"/>
+    </row>
+    <row r="117" spans="2:24">
       <c r="B117" s="11">
         <v>112</v>
       </c>
@@ -12410,26 +12938,29 @@
         <v>0</v>
       </c>
       <c r="Q117" s="12">
+        <v>0</v>
+      </c>
+      <c r="R117" s="12">
         <v>910021</v>
       </c>
-      <c r="R117" s="17" t="s">
+      <c r="S117" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="S117" s="17" t="s">
+      <c r="T117" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T117" s="17" t="s">
+      <c r="U117" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="U117" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V117" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W117" s="17"/>
-    </row>
-    <row r="118" spans="2:23">
+      <c r="W117" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X117" s="17"/>
+    </row>
+    <row r="118" spans="2:24">
       <c r="B118" s="11">
         <v>113</v>
       </c>
@@ -12476,26 +13007,29 @@
         <v>900180</v>
       </c>
       <c r="Q118" s="12">
+        <v>0</v>
+      </c>
+      <c r="R118" s="12">
         <v>910022</v>
       </c>
-      <c r="R118" s="17" t="s">
+      <c r="S118" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="S118" s="17" t="s">
+      <c r="T118" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T118" s="17" t="s">
+      <c r="U118" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U118" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V118" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W118" s="17"/>
-    </row>
-    <row r="119" spans="2:23">
+      <c r="W118" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X118" s="17"/>
+    </row>
+    <row r="119" spans="2:24">
       <c r="B119" s="11">
         <v>114</v>
       </c>
@@ -12542,26 +13076,29 @@
         <v>900180</v>
       </c>
       <c r="Q119" s="12">
+        <v>0</v>
+      </c>
+      <c r="R119" s="12">
         <v>910022</v>
       </c>
-      <c r="R119" s="17" t="s">
+      <c r="S119" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="S119" s="17" t="s">
+      <c r="T119" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T119" s="17" t="s">
+      <c r="U119" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U119" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V119" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W119" s="17"/>
-    </row>
-    <row r="120" spans="2:23">
+      <c r="W119" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X119" s="17"/>
+    </row>
+    <row r="120" spans="2:24">
       <c r="B120" s="11">
         <v>115</v>
       </c>
@@ -12608,26 +13145,29 @@
         <v>900180</v>
       </c>
       <c r="Q120" s="12">
+        <v>0</v>
+      </c>
+      <c r="R120" s="12">
         <v>910022</v>
       </c>
-      <c r="R120" s="17" t="s">
+      <c r="S120" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="S120" s="17" t="s">
+      <c r="T120" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T120" s="17" t="s">
+      <c r="U120" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U120" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V120" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="17"/>
-    </row>
-    <row r="121" spans="2:23">
+      <c r="W120" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X120" s="17"/>
+    </row>
+    <row r="121" spans="2:24">
       <c r="B121" s="11">
         <v>116</v>
       </c>
@@ -12674,26 +13214,29 @@
         <v>0</v>
       </c>
       <c r="Q121" s="12">
+        <v>0</v>
+      </c>
+      <c r="R121" s="12">
         <v>910024</v>
       </c>
-      <c r="R121" s="17" t="s">
+      <c r="S121" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="S121" s="17" t="s">
+      <c r="T121" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T121" s="17" t="s">
+      <c r="U121" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U121" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V121" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W121" s="19"/>
-    </row>
-    <row r="122" spans="2:23">
+      <c r="W121" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X121" s="19"/>
+    </row>
+    <row r="122" spans="2:24">
       <c r="B122" s="11">
         <v>117</v>
       </c>
@@ -12740,26 +13283,29 @@
         <v>0</v>
       </c>
       <c r="Q122" s="12">
+        <v>0</v>
+      </c>
+      <c r="R122" s="12">
         <v>910024</v>
       </c>
-      <c r="R122" s="17" t="s">
+      <c r="S122" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="S122" s="17" t="s">
+      <c r="T122" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T122" s="17" t="s">
+      <c r="U122" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U122" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V122" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W122" s="19"/>
-    </row>
-    <row r="123" spans="2:23">
+      <c r="W122" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X122" s="19"/>
+    </row>
+    <row r="123" spans="2:24">
       <c r="B123" s="11">
         <v>118</v>
       </c>
@@ -12806,26 +13352,29 @@
         <v>0</v>
       </c>
       <c r="Q123" s="12">
+        <v>0</v>
+      </c>
+      <c r="R123" s="12">
         <v>910024</v>
       </c>
-      <c r="R123" s="17" t="s">
+      <c r="S123" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="S123" s="17" t="s">
+      <c r="T123" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T123" s="17" t="s">
+      <c r="U123" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U123" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="V123" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="W123" s="17"/>
-    </row>
-    <row r="124" spans="2:23">
+      <c r="W123" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X123" s="17"/>
+    </row>
+    <row r="124" spans="2:24">
       <c r="B124" s="11">
         <v>119</v>
       </c>
@@ -12872,26 +13421,29 @@
         <v>0</v>
       </c>
       <c r="Q124" s="12">
+        <v>0</v>
+      </c>
+      <c r="R124" s="12">
         <v>910025</v>
       </c>
-      <c r="R124" s="17" t="s">
+      <c r="S124" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="S124" s="17" t="s">
+      <c r="T124" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T124" s="17" t="s">
+      <c r="U124" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U124" s="17" t="s">
+      <c r="V124" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V124" s="17" t="s">
+      <c r="W124" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="W124" s="17"/>
-    </row>
-    <row r="125" spans="2:23">
+      <c r="X124" s="17"/>
+    </row>
+    <row r="125" spans="2:24">
       <c r="B125" s="11">
         <v>120</v>
       </c>
@@ -12938,26 +13490,29 @@
         <v>0</v>
       </c>
       <c r="Q125" s="12">
+        <v>0</v>
+      </c>
+      <c r="R125" s="12">
         <v>910025</v>
       </c>
-      <c r="R125" s="17" t="s">
+      <c r="S125" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="S125" s="17" t="s">
+      <c r="T125" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T125" s="17" t="s">
+      <c r="U125" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U125" s="17" t="s">
+      <c r="V125" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V125" s="17" t="s">
+      <c r="W125" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="W125" s="17"/>
-    </row>
-    <row r="126" spans="2:23">
+      <c r="X125" s="17"/>
+    </row>
+    <row r="126" spans="2:24">
       <c r="B126" s="11">
         <v>121</v>
       </c>
@@ -13004,26 +13559,29 @@
         <v>0</v>
       </c>
       <c r="Q126" s="12">
+        <v>0</v>
+      </c>
+      <c r="R126" s="12">
         <v>910025</v>
       </c>
-      <c r="R126" s="17" t="s">
+      <c r="S126" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="S126" s="17" t="s">
+      <c r="T126" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T126" s="17" t="s">
+      <c r="U126" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U126" s="17" t="s">
+      <c r="V126" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="V126" s="17" t="s">
+      <c r="W126" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="W126" s="17"/>
-    </row>
-    <row r="127" spans="2:23">
+      <c r="X126" s="17"/>
+    </row>
+    <row r="127" spans="2:24">
       <c r="B127" s="11">
         <v>122</v>
       </c>
@@ -13070,26 +13628,29 @@
         <v>0</v>
       </c>
       <c r="Q127" s="12">
+        <v>0</v>
+      </c>
+      <c r="R127" s="12">
         <v>910026</v>
       </c>
-      <c r="R127" s="17" t="s">
+      <c r="S127" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="S127" s="17" t="s">
+      <c r="T127" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T127" s="17" t="s">
+      <c r="U127" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="U127" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V127" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W127" s="15"/>
-    </row>
-    <row r="128" spans="2:23">
+      <c r="W127" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X127" s="15"/>
+    </row>
+    <row r="128" spans="2:24">
       <c r="B128" s="11">
         <v>123</v>
       </c>
@@ -13136,26 +13697,29 @@
         <v>0</v>
       </c>
       <c r="Q128" s="12">
+        <v>0</v>
+      </c>
+      <c r="R128" s="12">
         <v>910026</v>
       </c>
-      <c r="R128" s="17" t="s">
+      <c r="S128" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="S128" s="17" t="s">
+      <c r="T128" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T128" s="17" t="s">
+      <c r="U128" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="U128" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V128" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W128" s="15"/>
-    </row>
-    <row r="129" spans="2:23">
+      <c r="W128" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X128" s="15"/>
+    </row>
+    <row r="129" spans="2:24">
       <c r="B129" s="11">
         <v>124</v>
       </c>
@@ -13202,26 +13766,29 @@
         <v>0</v>
       </c>
       <c r="Q129" s="12">
+        <v>0</v>
+      </c>
+      <c r="R129" s="12">
         <v>910026</v>
       </c>
-      <c r="R129" s="17" t="s">
+      <c r="S129" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="S129" s="17" t="s">
+      <c r="T129" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="T129" s="17" t="s">
+      <c r="U129" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="U129" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V129" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W129" s="15"/>
-    </row>
-    <row r="130" spans="2:23">
+      <c r="W129" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X129" s="15"/>
+    </row>
+    <row r="130" spans="2:24">
       <c r="B130" s="11">
         <v>125</v>
       </c>
@@ -13268,26 +13835,29 @@
         <v>900195</v>
       </c>
       <c r="Q130" s="12">
+        <v>0</v>
+      </c>
+      <c r="R130" s="12">
         <v>910027</v>
       </c>
-      <c r="R130" s="17" t="s">
+      <c r="S130" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="S130" s="17" t="s">
+      <c r="T130" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T130" s="17" t="s">
+      <c r="U130" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="U130" s="17" t="s">
+      <c r="V130" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="V130" s="17" t="s">
+      <c r="W130" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="W130" s="17"/>
-    </row>
-    <row r="131" spans="2:23">
+      <c r="X130" s="17"/>
+    </row>
+    <row r="131" spans="2:24">
       <c r="B131" s="11">
         <v>126</v>
       </c>
@@ -13336,8 +13906,8 @@
       <c r="Q131" s="12">
         <v>0</v>
       </c>
-      <c r="R131" s="15" t="s">
-        <v>52</v>
+      <c r="R131" s="12">
+        <v>0</v>
       </c>
       <c r="S131" s="15" t="s">
         <v>52</v>
@@ -13351,9 +13921,12 @@
       <c r="V131" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W131" s="15"/>
-    </row>
-    <row r="132" spans="2:23">
+      <c r="W131" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X131" s="15"/>
+    </row>
+    <row r="132" spans="2:24">
       <c r="B132" s="11">
         <v>127</v>
       </c>
@@ -13402,8 +13975,8 @@
       <c r="Q132" s="12">
         <v>0</v>
       </c>
-      <c r="R132" s="15" t="s">
-        <v>52</v>
+      <c r="R132" s="12">
+        <v>0</v>
       </c>
       <c r="S132" s="15" t="s">
         <v>52</v>
@@ -13417,9 +13990,12 @@
       <c r="V132" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W132" s="15"/>
-    </row>
-    <row r="133" spans="2:23">
+      <c r="W132" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X132" s="15"/>
+    </row>
+    <row r="133" spans="2:24">
       <c r="B133" s="11">
         <v>128</v>
       </c>
@@ -13468,8 +14044,8 @@
       <c r="Q133" s="12">
         <v>0</v>
       </c>
-      <c r="R133" s="15" t="s">
-        <v>52</v>
+      <c r="R133" s="12">
+        <v>0</v>
       </c>
       <c r="S133" s="15" t="s">
         <v>52</v>
@@ -13483,9 +14059,12 @@
       <c r="V133" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W133" s="15"/>
-    </row>
-    <row r="134" spans="2:23">
+      <c r="W133" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X133" s="15"/>
+    </row>
+    <row r="134" spans="2:24">
       <c r="B134" s="11">
         <v>129</v>
       </c>
@@ -13534,8 +14113,8 @@
       <c r="Q134" s="12">
         <v>0</v>
       </c>
-      <c r="R134" s="15" t="s">
-        <v>52</v>
+      <c r="R134" s="12">
+        <v>0</v>
       </c>
       <c r="S134" s="15" t="s">
         <v>52</v>
@@ -13549,9 +14128,12 @@
       <c r="V134" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W134" s="15"/>
-    </row>
-    <row r="135" spans="2:23">
+      <c r="W134" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X134" s="15"/>
+    </row>
+    <row r="135" spans="2:24">
       <c r="B135" s="11">
         <v>130</v>
       </c>
@@ -13598,26 +14180,29 @@
         <v>900195</v>
       </c>
       <c r="Q135" s="12">
+        <v>0</v>
+      </c>
+      <c r="R135" s="12">
         <v>910027</v>
       </c>
-      <c r="R135" s="17" t="s">
+      <c r="S135" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="S135" s="17" t="s">
+      <c r="T135" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T135" s="17" t="s">
+      <c r="U135" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="U135" s="17" t="s">
+      <c r="V135" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="V135" s="17" t="s">
+      <c r="W135" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="W135" s="17"/>
-    </row>
-    <row r="136" spans="2:23">
+      <c r="X135" s="17"/>
+    </row>
+    <row r="136" spans="2:24">
       <c r="B136" s="11">
         <v>131</v>
       </c>
@@ -13666,8 +14251,8 @@
       <c r="Q136" s="12">
         <v>0</v>
       </c>
-      <c r="R136" s="15" t="s">
-        <v>52</v>
+      <c r="R136" s="12">
+        <v>0</v>
       </c>
       <c r="S136" s="15" t="s">
         <v>52</v>
@@ -13681,9 +14266,12 @@
       <c r="V136" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W136" s="15"/>
-    </row>
-    <row r="137" spans="2:23">
+      <c r="W136" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X136" s="15"/>
+    </row>
+    <row r="137" spans="2:24">
       <c r="B137" s="11">
         <v>132</v>
       </c>
@@ -13732,8 +14320,8 @@
       <c r="Q137" s="12">
         <v>0</v>
       </c>
-      <c r="R137" s="15" t="s">
-        <v>52</v>
+      <c r="R137" s="12">
+        <v>0</v>
       </c>
       <c r="S137" s="15" t="s">
         <v>52</v>
@@ -13747,9 +14335,12 @@
       <c r="V137" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W137" s="15"/>
-    </row>
-    <row r="138" spans="2:23">
+      <c r="W137" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X137" s="15"/>
+    </row>
+    <row r="138" spans="2:24">
       <c r="B138" s="11">
         <v>133</v>
       </c>
@@ -13798,8 +14389,8 @@
       <c r="Q138" s="12">
         <v>0</v>
       </c>
-      <c r="R138" s="15" t="s">
-        <v>52</v>
+      <c r="R138" s="12">
+        <v>0</v>
       </c>
       <c r="S138" s="15" t="s">
         <v>52</v>
@@ -13813,9 +14404,12 @@
       <c r="V138" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W138" s="15"/>
-    </row>
-    <row r="139" spans="2:23">
+      <c r="W138" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X138" s="15"/>
+    </row>
+    <row r="139" spans="2:24">
       <c r="B139" s="11">
         <v>134</v>
       </c>
@@ -13864,8 +14458,8 @@
       <c r="Q139" s="12">
         <v>0</v>
       </c>
-      <c r="R139" s="15" t="s">
-        <v>52</v>
+      <c r="R139" s="12">
+        <v>0</v>
       </c>
       <c r="S139" s="15" t="s">
         <v>52</v>
@@ -13879,9 +14473,12 @@
       <c r="V139" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W139" s="15"/>
-    </row>
-    <row r="140" spans="2:23">
+      <c r="W139" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X139" s="15"/>
+    </row>
+    <row r="140" spans="2:24">
       <c r="B140" s="11">
         <v>135</v>
       </c>
@@ -13928,26 +14525,29 @@
         <v>900195</v>
       </c>
       <c r="Q140" s="12">
+        <v>0</v>
+      </c>
+      <c r="R140" s="12">
         <v>910027</v>
       </c>
-      <c r="R140" s="17" t="s">
+      <c r="S140" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="S140" s="17" t="s">
+      <c r="T140" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T140" s="17" t="s">
+      <c r="U140" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="U140" s="17" t="s">
+      <c r="V140" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="V140" s="17" t="s">
+      <c r="W140" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="W140" s="17"/>
-    </row>
-    <row r="141" spans="2:23">
+      <c r="X140" s="17"/>
+    </row>
+    <row r="141" spans="2:24">
       <c r="B141" s="11">
         <v>136</v>
       </c>
@@ -13996,8 +14596,8 @@
       <c r="Q141" s="12">
         <v>0</v>
       </c>
-      <c r="R141" s="15" t="s">
-        <v>52</v>
+      <c r="R141" s="12">
+        <v>0</v>
       </c>
       <c r="S141" s="15" t="s">
         <v>52</v>
@@ -14011,9 +14611,12 @@
       <c r="V141" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W141" s="15"/>
-    </row>
-    <row r="142" spans="2:23">
+      <c r="W141" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X141" s="15"/>
+    </row>
+    <row r="142" spans="2:24">
       <c r="B142" s="11">
         <v>137</v>
       </c>
@@ -14062,8 +14665,8 @@
       <c r="Q142" s="12">
         <v>0</v>
       </c>
-      <c r="R142" s="15" t="s">
-        <v>52</v>
+      <c r="R142" s="12">
+        <v>0</v>
       </c>
       <c r="S142" s="15" t="s">
         <v>52</v>
@@ -14077,9 +14680,12 @@
       <c r="V142" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W142" s="15"/>
-    </row>
-    <row r="143" spans="2:23">
+      <c r="W142" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X142" s="15"/>
+    </row>
+    <row r="143" spans="2:24">
       <c r="B143" s="11">
         <v>138</v>
       </c>
@@ -14128,8 +14734,8 @@
       <c r="Q143" s="12">
         <v>0</v>
       </c>
-      <c r="R143" s="15" t="s">
-        <v>52</v>
+      <c r="R143" s="12">
+        <v>0</v>
       </c>
       <c r="S143" s="15" t="s">
         <v>52</v>
@@ -14143,9 +14749,12 @@
       <c r="V143" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W143" s="15"/>
-    </row>
-    <row r="144" spans="2:23">
+      <c r="W143" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X143" s="15"/>
+    </row>
+    <row r="144" spans="2:24">
       <c r="B144" s="11">
         <v>139</v>
       </c>
@@ -14194,8 +14803,8 @@
       <c r="Q144" s="12">
         <v>0</v>
       </c>
-      <c r="R144" s="15" t="s">
-        <v>52</v>
+      <c r="R144" s="12">
+        <v>0</v>
       </c>
       <c r="S144" s="15" t="s">
         <v>52</v>
@@ -14209,9 +14818,12 @@
       <c r="V144" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W144" s="15"/>
-    </row>
-    <row r="145" spans="2:23">
+      <c r="W144" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X144" s="15"/>
+    </row>
+    <row r="145" spans="2:24">
       <c r="B145" s="11">
         <v>140</v>
       </c>
@@ -14258,26 +14870,29 @@
         <v>0</v>
       </c>
       <c r="Q145" s="12">
+        <v>0</v>
+      </c>
+      <c r="R145" s="12">
         <v>910023</v>
       </c>
-      <c r="R145" s="17" t="s">
+      <c r="S145" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="S145" s="17" t="s">
+      <c r="T145" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T145" s="17" t="s">
+      <c r="U145" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="U145" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V145" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W145" s="15"/>
-    </row>
-    <row r="146" spans="2:23">
+      <c r="W145" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X145" s="15"/>
+    </row>
+    <row r="146" spans="2:24">
       <c r="B146" s="11">
         <v>141</v>
       </c>
@@ -14326,8 +14941,8 @@
       <c r="Q146" s="12">
         <v>0</v>
       </c>
-      <c r="R146" s="15" t="s">
-        <v>52</v>
+      <c r="R146" s="12">
+        <v>0</v>
       </c>
       <c r="S146" s="15" t="s">
         <v>52</v>
@@ -14341,9 +14956,12 @@
       <c r="V146" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W146" s="15"/>
-    </row>
-    <row r="147" spans="2:23">
+      <c r="W146" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X146" s="15"/>
+    </row>
+    <row r="147" spans="2:24">
       <c r="B147" s="11">
         <v>142</v>
       </c>
@@ -14392,8 +15010,8 @@
       <c r="Q147" s="12">
         <v>0</v>
       </c>
-      <c r="R147" s="15" t="s">
-        <v>52</v>
+      <c r="R147" s="12">
+        <v>0</v>
       </c>
       <c r="S147" s="15" t="s">
         <v>52</v>
@@ -14407,9 +15025,12 @@
       <c r="V147" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W147" s="15"/>
-    </row>
-    <row r="148" spans="2:23">
+      <c r="W147" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X147" s="15"/>
+    </row>
+    <row r="148" spans="2:24">
       <c r="B148" s="11">
         <v>143</v>
       </c>
@@ -14456,26 +15077,29 @@
         <v>0</v>
       </c>
       <c r="Q148" s="12">
+        <v>0</v>
+      </c>
+      <c r="R148" s="12">
         <v>910023</v>
       </c>
-      <c r="R148" s="17" t="s">
+      <c r="S148" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="S148" s="17" t="s">
+      <c r="T148" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T148" s="17" t="s">
+      <c r="U148" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="U148" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V148" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W148" s="15"/>
-    </row>
-    <row r="149" spans="2:23">
+      <c r="W148" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X148" s="15"/>
+    </row>
+    <row r="149" spans="2:24">
       <c r="B149" s="11">
         <v>144</v>
       </c>
@@ -14524,8 +15148,8 @@
       <c r="Q149" s="12">
         <v>0</v>
       </c>
-      <c r="R149" s="15" t="s">
-        <v>52</v>
+      <c r="R149" s="12">
+        <v>0</v>
       </c>
       <c r="S149" s="15" t="s">
         <v>52</v>
@@ -14539,9 +15163,12 @@
       <c r="V149" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W149" s="15"/>
-    </row>
-    <row r="150" spans="2:23">
+      <c r="W149" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X149" s="15"/>
+    </row>
+    <row r="150" spans="2:24">
       <c r="B150" s="11">
         <v>145</v>
       </c>
@@ -14590,8 +15217,8 @@
       <c r="Q150" s="12">
         <v>0</v>
       </c>
-      <c r="R150" s="15" t="s">
-        <v>52</v>
+      <c r="R150" s="12">
+        <v>0</v>
       </c>
       <c r="S150" s="15" t="s">
         <v>52</v>
@@ -14605,9 +15232,12 @@
       <c r="V150" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W150" s="15"/>
-    </row>
-    <row r="151" spans="2:23">
+      <c r="W150" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X150" s="15"/>
+    </row>
+    <row r="151" spans="2:24">
       <c r="B151" s="11">
         <v>146</v>
       </c>
@@ -14654,26 +15284,29 @@
         <v>0</v>
       </c>
       <c r="Q151" s="12">
+        <v>0</v>
+      </c>
+      <c r="R151" s="12">
         <v>910023</v>
       </c>
-      <c r="R151" s="17" t="s">
+      <c r="S151" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="S151" s="17" t="s">
+      <c r="T151" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="T151" s="17" t="s">
+      <c r="U151" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="U151" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="V151" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W151" s="15"/>
-    </row>
-    <row r="152" spans="2:23">
+      <c r="W151" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X151" s="15"/>
+    </row>
+    <row r="152" spans="2:24">
       <c r="B152" s="11">
         <v>147</v>
       </c>
@@ -14722,8 +15355,8 @@
       <c r="Q152" s="12">
         <v>0</v>
       </c>
-      <c r="R152" s="15" t="s">
-        <v>52</v>
+      <c r="R152" s="12">
+        <v>0</v>
       </c>
       <c r="S152" s="15" t="s">
         <v>52</v>
@@ -14737,9 +15370,12 @@
       <c r="V152" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W152" s="12"/>
-    </row>
-    <row r="153" spans="2:23">
+      <c r="W152" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X152" s="12"/>
+    </row>
+    <row r="153" spans="2:24">
       <c r="B153" s="11">
         <v>148</v>
       </c>
@@ -14788,8 +15424,8 @@
       <c r="Q153" s="12">
         <v>0</v>
       </c>
-      <c r="R153" s="15" t="s">
-        <v>52</v>
+      <c r="R153" s="12">
+        <v>0</v>
       </c>
       <c r="S153" s="15" t="s">
         <v>52</v>
@@ -14803,9 +15439,12 @@
       <c r="V153" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W153" s="12"/>
-    </row>
-    <row r="154" spans="2:23">
+      <c r="W153" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X153" s="12"/>
+    </row>
+    <row r="154" spans="2:24">
       <c r="B154" s="11">
         <v>149</v>
       </c>
@@ -14854,8 +15493,8 @@
       <c r="Q154" s="12">
         <v>0</v>
       </c>
-      <c r="R154" s="15" t="s">
-        <v>52</v>
+      <c r="R154" s="12">
+        <v>0</v>
       </c>
       <c r="S154" s="15" t="s">
         <v>52</v>
@@ -14869,9 +15508,12 @@
       <c r="V154" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W154" s="12"/>
-    </row>
-    <row r="155" spans="2:23">
+      <c r="W154" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X154" s="12"/>
+    </row>
+    <row r="155" spans="2:24">
       <c r="B155" s="11">
         <v>150</v>
       </c>
@@ -14920,8 +15562,8 @@
       <c r="Q155" s="12">
         <v>0</v>
       </c>
-      <c r="R155" s="15" t="s">
-        <v>52</v>
+      <c r="R155" s="12">
+        <v>0</v>
       </c>
       <c r="S155" s="15" t="s">
         <v>52</v>
@@ -14935,9 +15577,12 @@
       <c r="V155" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W155" s="12"/>
-    </row>
-    <row r="156" spans="2:23">
+      <c r="W155" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X155" s="12"/>
+    </row>
+    <row r="156" spans="2:24">
       <c r="B156" s="11">
         <v>151</v>
       </c>
@@ -14986,10 +15631,10 @@
       <c r="Q156" s="12">
         <v>0</v>
       </c>
-      <c r="R156" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="S156" s="15" t="s">
+      <c r="R156" s="12">
+        <v>0</v>
+      </c>
+      <c r="S156" s="21" t="s">
         <v>52</v>
       </c>
       <c r="T156" s="15" t="s">
@@ -15001,9 +15646,12 @@
       <c r="V156" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W156" s="12"/>
-    </row>
-    <row r="157" spans="2:23">
+      <c r="W156" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X156" s="12"/>
+    </row>
+    <row r="157" spans="2:24">
       <c r="B157" s="11">
         <v>152</v>
       </c>
@@ -15052,8 +15700,8 @@
       <c r="Q157" s="12">
         <v>0</v>
       </c>
-      <c r="R157" s="15" t="s">
-        <v>52</v>
+      <c r="R157" s="12">
+        <v>0</v>
       </c>
       <c r="S157" s="15" t="s">
         <v>52</v>
@@ -15067,9 +15715,12 @@
       <c r="V157" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W157" s="12"/>
-    </row>
-    <row r="158" spans="2:23">
+      <c r="W157" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X157" s="12"/>
+    </row>
+    <row r="158" spans="2:24">
       <c r="B158" s="11">
         <v>153</v>
       </c>
@@ -15118,8 +15769,8 @@
       <c r="Q158" s="12">
         <v>0</v>
       </c>
-      <c r="R158" s="15" t="s">
-        <v>52</v>
+      <c r="R158" s="12">
+        <v>0</v>
       </c>
       <c r="S158" s="15" t="s">
         <v>52</v>
@@ -15133,9 +15784,12 @@
       <c r="V158" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W158" s="12"/>
-    </row>
-    <row r="159" spans="2:23">
+      <c r="W158" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X158" s="12"/>
+    </row>
+    <row r="159" spans="2:24">
       <c r="B159" s="11">
         <v>154</v>
       </c>
@@ -15184,8 +15838,8 @@
       <c r="Q159" s="12">
         <v>0</v>
       </c>
-      <c r="R159" s="15" t="s">
-        <v>52</v>
+      <c r="R159" s="12">
+        <v>0</v>
       </c>
       <c r="S159" s="15" t="s">
         <v>52</v>
@@ -15199,9 +15853,12 @@
       <c r="V159" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W159" s="12"/>
-    </row>
-    <row r="160" spans="2:23">
+      <c r="W159" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X159" s="12"/>
+    </row>
+    <row r="160" spans="2:24">
       <c r="B160" s="11">
         <v>155</v>
       </c>
@@ -15250,8 +15907,8 @@
       <c r="Q160" s="12">
         <v>0</v>
       </c>
-      <c r="R160" s="15" t="s">
-        <v>52</v>
+      <c r="R160" s="12">
+        <v>0</v>
       </c>
       <c r="S160" s="15" t="s">
         <v>52</v>
@@ -15265,9 +15922,12 @@
       <c r="V160" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W160" s="12"/>
-    </row>
-    <row r="161" spans="2:23">
+      <c r="W160" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X160" s="12"/>
+    </row>
+    <row r="161" spans="2:24">
       <c r="B161" s="11">
         <v>156</v>
       </c>
@@ -15316,8 +15976,8 @@
       <c r="Q161" s="12">
         <v>0</v>
       </c>
-      <c r="R161" s="15" t="s">
-        <v>52</v>
+      <c r="R161" s="12">
+        <v>0</v>
       </c>
       <c r="S161" s="15" t="s">
         <v>52</v>
@@ -15331,9 +15991,12 @@
       <c r="V161" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W161" s="12"/>
-    </row>
-    <row r="162" spans="2:23">
+      <c r="W161" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X161" s="12"/>
+    </row>
+    <row r="162" spans="2:24">
       <c r="B162" s="11">
         <v>157</v>
       </c>
@@ -15382,8 +16045,8 @@
       <c r="Q162" s="12">
         <v>0</v>
       </c>
-      <c r="R162" s="15" t="s">
-        <v>52</v>
+      <c r="R162" s="12">
+        <v>0</v>
       </c>
       <c r="S162" s="15" t="s">
         <v>52</v>
@@ -15397,186 +16060,190 @@
       <c r="V162" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W162" s="12"/>
-    </row>
-    <row r="163" spans="2:23">
+      <c r="W162" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X162" s="12"/>
+    </row>
+    <row r="163" spans="2:24">
       <c r="B163" s="11">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:W163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
-  <mergeCells count="15">
+  <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
+  <mergeCells count="16">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="S85:S91 T88:T91 T103:T105 S100:S132 V75:V77 V130 U51:V59 S84:T84 S92:T99 U84:V111 S6:V50 U63:V65 U60:U62 U69:V71 U66:U68 U72:U77 T75:T80 S51:S83 U78:V80 U81:U83 U115:V123 U112:U114 U127:V129 U124:U126 T130:U132 S133:V162">
+  <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
     <cfRule type="containsBlanks" dxfId="30" priority="31">
-      <formula>LEN(TRIM(S6))=0</formula>
+      <formula>LEN(TRIM(T6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W39">
+  <conditionalFormatting sqref="X39">
     <cfRule type="containsBlanks" dxfId="29" priority="30">
-      <formula>LEN(TRIM(W39))=0</formula>
+      <formula>LEN(TRIM(X39))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W125">
+  <conditionalFormatting sqref="X125">
     <cfRule type="containsBlanks" dxfId="28" priority="27">
-      <formula>LEN(TRIM(W125))=0</formula>
+      <formula>LEN(TRIM(X125))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T57:T59">
+  <conditionalFormatting sqref="U57:U59">
     <cfRule type="containsBlanks" dxfId="27" priority="25">
-      <formula>LEN(TRIM(T57))=0</formula>
+      <formula>LEN(TRIM(U57))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W126">
+  <conditionalFormatting sqref="X126">
     <cfRule type="containsBlanks" dxfId="26" priority="29">
-      <formula>LEN(TRIM(W126))=0</formula>
+      <formula>LEN(TRIM(X126))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T51:T53">
+  <conditionalFormatting sqref="U51:U53">
     <cfRule type="containsBlanks" dxfId="25" priority="28">
-      <formula>LEN(TRIM(T51))=0</formula>
+      <formula>LEN(TRIM(U51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T69:T71">
+  <conditionalFormatting sqref="U69:U71">
     <cfRule type="containsBlanks" dxfId="24" priority="21">
-      <formula>LEN(TRIM(T69))=0</formula>
+      <formula>LEN(TRIM(U69))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T54:T56">
+  <conditionalFormatting sqref="U54:U56">
     <cfRule type="containsBlanks" dxfId="23" priority="26">
-      <formula>LEN(TRIM(T54))=0</formula>
+      <formula>LEN(TRIM(U54))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60:T62">
+  <conditionalFormatting sqref="U60:U62">
     <cfRule type="containsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(T60))=0</formula>
+      <formula>LEN(TRIM(U60))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T63:T65">
+  <conditionalFormatting sqref="U63:U65">
     <cfRule type="containsBlanks" dxfId="21" priority="23">
-      <formula>LEN(TRIM(T63))=0</formula>
+      <formula>LEN(TRIM(U63))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T66:T68">
+  <conditionalFormatting sqref="U66:U68">
     <cfRule type="containsBlanks" dxfId="20" priority="22">
-      <formula>LEN(TRIM(T66))=0</formula>
+      <formula>LEN(TRIM(U66))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T72:T74">
+  <conditionalFormatting sqref="U72:U74">
     <cfRule type="containsBlanks" dxfId="19" priority="20">
-      <formula>LEN(TRIM(T72))=0</formula>
+      <formula>LEN(TRIM(U72))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T81:T83">
+  <conditionalFormatting sqref="U81:U83">
     <cfRule type="containsBlanks" dxfId="18" priority="19">
-      <formula>LEN(TRIM(T81))=0</formula>
+      <formula>LEN(TRIM(U81))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T85:T87">
+  <conditionalFormatting sqref="U85:U87">
     <cfRule type="containsBlanks" dxfId="17" priority="18">
-      <formula>LEN(TRIM(T85))=0</formula>
+      <formula>LEN(TRIM(U85))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T100:T102">
+  <conditionalFormatting sqref="U100:U102">
     <cfRule type="containsBlanks" dxfId="16" priority="17">
-      <formula>LEN(TRIM(T100))=0</formula>
+      <formula>LEN(TRIM(U100))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T106:T108">
+  <conditionalFormatting sqref="U106:U108">
     <cfRule type="containsBlanks" dxfId="15" priority="16">
-      <formula>LEN(TRIM(T106))=0</formula>
+      <formula>LEN(TRIM(U106))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T109:T111">
+  <conditionalFormatting sqref="U109:U111">
     <cfRule type="containsBlanks" dxfId="14" priority="15">
-      <formula>LEN(TRIM(T109))=0</formula>
+      <formula>LEN(TRIM(U109))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T112:T114">
+  <conditionalFormatting sqref="U112:U114">
     <cfRule type="containsBlanks" dxfId="13" priority="14">
-      <formula>LEN(TRIM(T112))=0</formula>
+      <formula>LEN(TRIM(U112))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T115:T117">
+  <conditionalFormatting sqref="U115:U117">
     <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(T115))=0</formula>
+      <formula>LEN(TRIM(U115))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T118:T120">
+  <conditionalFormatting sqref="U118:U120">
     <cfRule type="containsBlanks" dxfId="11" priority="12">
-      <formula>LEN(TRIM(T118))=0</formula>
+      <formula>LEN(TRIM(U118))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T121:T123">
+  <conditionalFormatting sqref="U121:U123">
     <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(T121))=0</formula>
+      <formula>LEN(TRIM(U121))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T124:T126">
+  <conditionalFormatting sqref="U124:U126">
     <cfRule type="containsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(T124))=0</formula>
+      <formula>LEN(TRIM(U124))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T127:T129">
+  <conditionalFormatting sqref="U127:U129">
     <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(T127))=0</formula>
+      <formula>LEN(TRIM(U127))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V60:V62">
+  <conditionalFormatting sqref="W60:W62">
     <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(V60))=0</formula>
+      <formula>LEN(TRIM(W60))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V66:V68">
+  <conditionalFormatting sqref="W66:W68">
     <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(V66))=0</formula>
+      <formula>LEN(TRIM(W66))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V72:V74">
+  <conditionalFormatting sqref="W72:W74">
     <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(V72))=0</formula>
+      <formula>LEN(TRIM(W72))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V81:V83">
+  <conditionalFormatting sqref="W81:W83">
     <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(V81))=0</formula>
+      <formula>LEN(TRIM(W81))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V112:V114">
+  <conditionalFormatting sqref="W112:W114">
     <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(V112))=0</formula>
+      <formula>LEN(TRIM(W112))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V124:V126">
+  <conditionalFormatting sqref="W124:W126">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(V124))=0</formula>
+      <formula>LEN(TRIM(W124))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V131">
+  <conditionalFormatting sqref="W131">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(V131))=0</formula>
+      <formula>LEN(TRIM(W131))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V132">
+  <conditionalFormatting sqref="W132">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(V132))=0</formula>
+      <formula>LEN(TRIM(W132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -15592,7 +16259,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>
-    <brk id="22" max="1048575" man="1"/>
+    <brk id="23" max="1048575" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -15630,74 +16297,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="48" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="34" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="57" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="22" t="s">
         <v>346</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="53"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="23" t="s">
@@ -18866,7 +19533,7 @@
       <c r="M69" s="27">
         <v>0.5</v>
       </c>
-      <c r="N69" s="59">
+      <c r="N69" s="33">
         <v>1</v>
       </c>
       <c r="O69" s="15">
@@ -22353,12 +23020,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -22368,6 +23029,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB9503-CACF-4D43-9C7B-38C352430C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADCA40-804C-4C84-A5A8-66B7717E3DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">SkillCondition_Table!$A$1:$X$163</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">SkillStat_Table!$A$1:$Q$142</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4394,11 +4394,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4406,23 +4406,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4451,16 +4439,25 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4472,8 +4469,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4886,7 +4886,7 @@
   <dimension ref="B2:X163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="Q2" sqref="Q2:Q3"/>
@@ -4928,49 +4928,49 @@
       <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="52" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="60" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="41" t="s">
+      <c r="U2" s="35"/>
+      <c r="V2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="42"/>
+      <c r="W2" s="35"/>
       <c r="X2" s="36" t="s">
         <v>33</v>
       </c>
@@ -4980,13 +4980,13 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="40"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5005,8 +5005,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="51"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47"/>
       <c r="S3" s="37"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -16073,6 +16073,12 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16083,12 +16089,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16271,10 +16271,10 @@
   <dimension ref="B2:Q141"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M131" sqref="M21:M131"/>
+      <selection pane="bottomRight" activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16297,74 +16297,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>774</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="22" t="s">
         <v>346</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="54"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="23" t="s">
@@ -16466,7 +16466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:17" hidden="1">
+    <row r="6" spans="2:17">
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="2:17" hidden="1">
+    <row r="7" spans="2:17">
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -16562,7 +16562,7 @@
       </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="2:17" hidden="1">
+    <row r="8" spans="2:17">
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="2:17" hidden="1">
+    <row r="9" spans="2:17">
       <c r="B9" s="26">
         <v>4</v>
       </c>
@@ -16658,7 +16658,7 @@
       </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="2:17" hidden="1">
+    <row r="10" spans="2:17">
       <c r="B10" s="26">
         <v>5</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="11" spans="2:17" hidden="1">
+    <row r="11" spans="2:17">
       <c r="B11" s="26">
         <v>6</v>
       </c>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="2:17" hidden="1">
+    <row r="18" spans="2:17">
       <c r="B18" s="26">
         <v>13</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>100</v>
       </c>
       <c r="M19" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="15">
         <v>1</v>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="2:17" hidden="1">
+    <row r="20" spans="2:17">
       <c r="B20" s="26">
         <v>15</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" s="15">
         <v>1</v>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="2:17" hidden="1">
+    <row r="22" spans="2:17">
       <c r="B22" s="26">
         <v>17</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>100</v>
       </c>
       <c r="M23" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="15">
         <v>1</v>
@@ -17515,7 +17515,7 @@
         <v>100</v>
       </c>
       <c r="M27" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" s="15">
         <v>1</v>
@@ -17563,7 +17563,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" s="15">
         <v>1</v>
@@ -17611,7 +17611,7 @@
         <v>100</v>
       </c>
       <c r="M29" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="15">
         <v>1</v>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17" hidden="1">
+    <row r="30" spans="2:17">
       <c r="B30" s="26">
         <v>25</v>
       </c>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" hidden="1">
+    <row r="31" spans="2:17">
       <c r="B31" s="26">
         <v>26</v>
       </c>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" hidden="1">
+    <row r="32" spans="2:17">
       <c r="B32" s="26">
         <v>27</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>100</v>
       </c>
       <c r="M33" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" s="15">
         <v>1</v>
@@ -17851,7 +17851,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" s="15">
         <v>1</v>
@@ -17899,7 +17899,7 @@
         <v>100</v>
       </c>
       <c r="M35" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" s="15">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>100</v>
       </c>
       <c r="M55" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" s="15">
         <v>1</v>
@@ -18955,7 +18955,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" s="15">
         <v>1</v>
@@ -19051,7 +19051,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N59" s="15">
         <v>1</v>
@@ -19243,7 +19243,7 @@
         <v>100</v>
       </c>
       <c r="M63" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" s="15">
         <v>1</v>
@@ -19291,7 +19291,7 @@
         <v>100</v>
       </c>
       <c r="M64" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64" s="15">
         <v>1</v>
@@ -19339,7 +19339,7 @@
         <v>100</v>
       </c>
       <c r="M65" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" s="15">
         <v>1</v>
@@ -19352,7 +19352,7 @@
       </c>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" hidden="1">
+    <row r="66" spans="2:17">
       <c r="B66" s="26">
         <v>61</v>
       </c>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" hidden="1">
+    <row r="67" spans="2:17">
       <c r="B67" s="26">
         <v>62</v>
       </c>
@@ -19448,7 +19448,7 @@
       </c>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" hidden="1">
+    <row r="68" spans="2:17">
       <c r="B68" s="26">
         <v>63</v>
       </c>
@@ -19496,7 +19496,7 @@
       </c>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" hidden="1">
+    <row r="69" spans="2:17">
       <c r="B69" s="26">
         <v>64</v>
       </c>
@@ -19544,7 +19544,7 @@
       </c>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" hidden="1">
+    <row r="70" spans="2:17">
       <c r="B70" s="26">
         <v>65</v>
       </c>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" hidden="1">
+    <row r="71" spans="2:17">
       <c r="B71" s="26">
         <v>66</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="2:17" hidden="1">
+    <row r="72" spans="2:17">
       <c r="B72" s="26">
         <v>67</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" hidden="1">
+    <row r="73" spans="2:17">
       <c r="B73" s="26">
         <v>68</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="2:17" hidden="1">
+    <row r="74" spans="2:17">
       <c r="B74" s="26">
         <v>69</v>
       </c>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" hidden="1">
+    <row r="75" spans="2:17">
       <c r="B75" s="26">
         <v>70</v>
       </c>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" hidden="1">
+    <row r="76" spans="2:17">
       <c r="B76" s="26">
         <v>71</v>
       </c>
@@ -19886,7 +19886,7 @@
       </c>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" hidden="1">
+    <row r="77" spans="2:17">
       <c r="B77" s="26">
         <v>72</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>100</v>
       </c>
       <c r="M78" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N78" s="15">
         <v>1</v>
@@ -20017,7 +20017,7 @@
         <v>100</v>
       </c>
       <c r="M79" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N79" s="15">
         <v>1</v>
@@ -20065,7 +20065,7 @@
         <v>100</v>
       </c>
       <c r="M80" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N80" s="15">
         <v>1</v>
@@ -20654,7 +20654,7 @@
       </c>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="2:17" hidden="1">
+    <row r="93" spans="2:17">
       <c r="B93" s="26">
         <v>88</v>
       </c>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="2:17" hidden="1">
+    <row r="94" spans="2:17">
       <c r="B94" s="26">
         <v>89</v>
       </c>
@@ -20750,7 +20750,7 @@
       </c>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="2:17" hidden="1">
+    <row r="95" spans="2:17">
       <c r="B95" s="26">
         <v>90</v>
       </c>
@@ -20798,7 +20798,7 @@
       </c>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="2:17" hidden="1">
+    <row r="96" spans="2:17">
       <c r="B96" s="26">
         <v>91</v>
       </c>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="2:17" hidden="1">
+    <row r="97" spans="2:17">
       <c r="B97" s="26">
         <v>92</v>
       </c>
@@ -20894,7 +20894,7 @@
       </c>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="2:17" hidden="1">
+    <row r="98" spans="2:17">
       <c r="B98" s="26">
         <v>93</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>100</v>
       </c>
       <c r="M123" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N123" s="15">
         <v>3</v>
@@ -22177,7 +22177,7 @@
         <v>100</v>
       </c>
       <c r="M124" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N124" s="15">
         <v>3</v>
@@ -22225,7 +22225,7 @@
         <v>100</v>
       </c>
       <c r="M125" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N125" s="15">
         <v>3</v>
@@ -22273,7 +22273,7 @@
         <v>100</v>
       </c>
       <c r="M126" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N126" s="15">
         <v>3</v>
@@ -22321,7 +22321,7 @@
         <v>100</v>
       </c>
       <c r="M127" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N127" s="15">
         <v>3</v>
@@ -22369,7 +22369,7 @@
         <v>100</v>
       </c>
       <c r="M128" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N128" s="15">
         <v>3</v>
@@ -22417,7 +22417,7 @@
         <v>100</v>
       </c>
       <c r="M129" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N129" s="15">
         <v>3</v>
@@ -22465,7 +22465,7 @@
         <v>100</v>
       </c>
       <c r="M130" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N130" s="15">
         <v>3</v>
@@ -22513,7 +22513,7 @@
         <v>100</v>
       </c>
       <c r="M131" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N131" s="15">
         <v>3</v>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="Q133" s="30"/>
     </row>
-    <row r="134" spans="2:17" hidden="1">
+    <row r="134" spans="2:17">
       <c r="B134" s="26">
         <v>129</v>
       </c>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="Q134" s="30"/>
     </row>
-    <row r="135" spans="2:17" hidden="1">
+    <row r="135" spans="2:17">
       <c r="B135" s="26">
         <v>130</v>
       </c>
@@ -22718,7 +22718,7 @@
       </c>
       <c r="Q135" s="30"/>
     </row>
-    <row r="136" spans="2:17" hidden="1">
+    <row r="136" spans="2:17">
       <c r="B136" s="26">
         <v>131</v>
       </c>
@@ -22958,7 +22958,7 @@
       </c>
       <c r="Q140" s="30"/>
     </row>
-    <row r="141" spans="2:17" hidden="1">
+    <row r="141" spans="2:17">
       <c r="B141" s="26">
         <v>136</v>
       </c>
@@ -23008,11 +23008,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:Q141" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="100"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="13">
       <filters>
         <filter val="0"/>
@@ -23020,6 +23015,12 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23029,12 +23030,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADCA40-804C-4C84-A5A8-66B7717E3DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80BE2FC-E6FF-481D-8FD0-79512C324D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="726">
   <si>
     <t>번호</t>
   </si>
@@ -1910,231 +1910,123 @@
     <t>Skill043</t>
   </si>
   <si>
-    <t>크게 한 방 2</t>
-  </si>
-  <si>
     <t>Skill044</t>
   </si>
   <si>
-    <t>크게 한 방 3</t>
-  </si>
-  <si>
     <t>Skill045</t>
   </si>
   <si>
-    <t>강화탄 발사 1</t>
-  </si>
-  <si>
     <t>Skill046</t>
   </si>
   <si>
-    <t>강화탄 발사 2</t>
-  </si>
-  <si>
     <t>Skill047</t>
   </si>
   <si>
-    <t>강화탄 발사 3</t>
-  </si>
-  <si>
     <t>Skill048</t>
   </si>
   <si>
-    <t>회오리치기 1</t>
-  </si>
-  <si>
     <t>Skill049</t>
   </si>
   <si>
-    <t>회오리치기 2</t>
-  </si>
-  <si>
     <t>Skill050</t>
   </si>
   <si>
-    <t>회오리치기 3</t>
-  </si>
-  <si>
     <t>Skill051</t>
   </si>
   <si>
-    <t>강령술 1</t>
-  </si>
-  <si>
     <t>Skill052</t>
   </si>
   <si>
-    <t>강령술 2</t>
-  </si>
-  <si>
     <t>Skill053</t>
   </si>
   <si>
-    <t>강령술 3</t>
-  </si>
-  <si>
     <t>Skill054</t>
   </si>
   <si>
-    <t>빛 폭파 1</t>
-  </si>
-  <si>
     <t>Skill055</t>
   </si>
   <si>
-    <t>빛 폭파 2</t>
-  </si>
-  <si>
     <t>Skill056</t>
   </si>
   <si>
-    <t>빛 폭파 3</t>
-  </si>
-  <si>
     <t>Skill057</t>
   </si>
   <si>
-    <t>약점 공격 1</t>
-  </si>
-  <si>
     <t>Skill058</t>
   </si>
   <si>
-    <t>약점 공격 2</t>
-  </si>
-  <si>
     <t>Skill059</t>
   </si>
   <si>
-    <t>약점 공격 3</t>
-  </si>
-  <si>
     <t>Skill060</t>
   </si>
   <si>
-    <t>화염포 1</t>
-  </si>
-  <si>
     <t>Skill061</t>
   </si>
   <si>
-    <t>화염포 2</t>
-  </si>
-  <si>
     <t>Skill062</t>
   </si>
   <si>
-    <t>화염포 3</t>
-  </si>
-  <si>
     <t>Skill063</t>
   </si>
   <si>
-    <t>사자후 1</t>
-  </si>
-  <si>
     <t>Skill064</t>
   </si>
   <si>
-    <t>사자후 2</t>
-  </si>
-  <si>
     <t>Skill065</t>
   </si>
   <si>
-    <t>사자후 3</t>
-  </si>
-  <si>
     <t>Skill066</t>
   </si>
   <si>
-    <t>전장의 지휘자 1</t>
-  </si>
-  <si>
     <t>Skill067</t>
   </si>
   <si>
-    <t>전장의 지휘자 2</t>
-  </si>
-  <si>
     <t>Skill068</t>
   </si>
   <si>
-    <t>전장의 지휘자 3</t>
-  </si>
-  <si>
     <t>Skill069</t>
   </si>
   <si>
-    <t>공포의 망치 1</t>
-  </si>
-  <si>
     <t>Skill070</t>
   </si>
   <si>
     <t>Skill071</t>
   </si>
   <si>
-    <t>공포의 망치 2</t>
-  </si>
-  <si>
     <t>Skill072</t>
   </si>
   <si>
     <t>Skill073</t>
   </si>
   <si>
-    <t>공포의 망치 3</t>
-  </si>
-  <si>
     <t>Skill074</t>
   </si>
   <si>
     <t>Skill075</t>
   </si>
   <si>
-    <t>번개 폭풍 1</t>
-  </si>
-  <si>
     <t>Skill076</t>
   </si>
   <si>
-    <t>번개 폭풍 2</t>
-  </si>
-  <si>
     <t>Skill077</t>
   </si>
   <si>
-    <t>번개 폭풍 3</t>
-  </si>
-  <si>
     <t>Skill078</t>
   </si>
   <si>
     <t>Skill079</t>
   </si>
   <si>
-    <t>심판 1</t>
-  </si>
-  <si>
     <t>Skill080</t>
   </si>
   <si>
-    <t>심판 2</t>
-  </si>
-  <si>
     <t>Skill081</t>
   </si>
   <si>
-    <t>심판 3</t>
-  </si>
-  <si>
     <t>Skill082</t>
   </si>
   <si>
-    <t>연속베기 1</t>
-  </si>
-  <si>
     <t>Skill083</t>
   </si>
   <si>
@@ -2147,9 +2039,6 @@
     <t>Skill086</t>
   </si>
   <si>
-    <t>연속베기 2</t>
-  </si>
-  <si>
     <t>Skill087</t>
   </si>
   <si>
@@ -2162,9 +2051,6 @@
     <t>Skill090</t>
   </si>
   <si>
-    <t>연속베기 3</t>
-  </si>
-  <si>
     <t>Skill091</t>
   </si>
   <si>
@@ -2177,189 +2063,96 @@
     <t>Skill094</t>
   </si>
   <si>
-    <t>그림자관통 1</t>
-  </si>
-  <si>
     <t>Skill095</t>
   </si>
   <si>
-    <t>그림자관통 2</t>
-  </si>
-  <si>
     <t>Skill096</t>
   </si>
   <si>
-    <t>그림자관통 3</t>
-  </si>
-  <si>
     <t>Skill097</t>
   </si>
   <si>
-    <t>지진 1</t>
-  </si>
-  <si>
     <t>Skill098</t>
   </si>
   <si>
-    <t>지진 2</t>
-  </si>
-  <si>
     <t>Skill099</t>
   </si>
   <si>
-    <t>지진 3</t>
-  </si>
-  <si>
     <t>Skill100</t>
   </si>
   <si>
-    <t>화산폭발 1</t>
-  </si>
-  <si>
     <t>Skill101</t>
   </si>
   <si>
-    <t>화산폭발 2</t>
-  </si>
-  <si>
     <t>Skill102</t>
   </si>
   <si>
-    <t>화산폭발 3</t>
-  </si>
-  <si>
     <t>Skill103</t>
   </si>
   <si>
-    <t>초음파 1</t>
-  </si>
-  <si>
     <t>Skill104</t>
   </si>
   <si>
-    <t>초음파 2</t>
-  </si>
-  <si>
     <t>Skill105</t>
   </si>
   <si>
-    <t>초음파 3</t>
-  </si>
-  <si>
     <t>Skill106</t>
   </si>
   <si>
-    <t>몸통박치기 1</t>
-  </si>
-  <si>
     <t>Skill107</t>
   </si>
   <si>
-    <t>몸통박치기 2</t>
-  </si>
-  <si>
     <t>Skill108</t>
   </si>
   <si>
-    <t>몸통박치기 3</t>
-  </si>
-  <si>
     <t>Skill109</t>
   </si>
   <si>
-    <t>승룡권 1</t>
-  </si>
-  <si>
     <t>Skill110</t>
   </si>
   <si>
-    <t>승룡권 2</t>
-  </si>
-  <si>
     <t>Skill111</t>
   </si>
   <si>
-    <t>승룡권 3</t>
-  </si>
-  <si>
     <t>Skill112</t>
   </si>
   <si>
-    <t>암흑 전이 1</t>
-  </si>
-  <si>
     <t>Skill113</t>
   </si>
   <si>
-    <t>암흑 전이 2</t>
-  </si>
-  <si>
     <t>Skill114</t>
   </si>
   <si>
-    <t>암흑 전이 3</t>
-  </si>
-  <si>
     <t>Skill115</t>
   </si>
   <si>
-    <t>에너지 방출 1</t>
-  </si>
-  <si>
     <t>Skill116</t>
   </si>
   <si>
-    <t>에너지 방출 2</t>
-  </si>
-  <si>
     <t>Skill117</t>
   </si>
   <si>
-    <t>에너지 방출 3</t>
-  </si>
-  <si>
     <t>Skill118</t>
   </si>
   <si>
-    <t>드래곤 브레스 1</t>
-  </si>
-  <si>
     <t>Skill119</t>
   </si>
   <si>
-    <t>드래곤 브레스 2</t>
-  </si>
-  <si>
     <t>Skill120</t>
   </si>
   <si>
-    <t>드래곤 브레스 3</t>
-  </si>
-  <si>
     <t>Skill121</t>
   </si>
   <si>
-    <t>강화 주문 1</t>
-  </si>
-  <si>
     <t>Skill122</t>
   </si>
   <si>
-    <t>강화 주문 2</t>
-  </si>
-  <si>
     <t>Skill123</t>
   </si>
   <si>
-    <t>강화 주문 3</t>
-  </si>
-  <si>
     <t>Skill124</t>
   </si>
   <si>
-    <t>칼날 돌풍 1</t>
-  </si>
-  <si>
     <t>Skill125</t>
   </si>
   <si>
@@ -2375,9 +2168,6 @@
     <t>Skill129</t>
   </si>
   <si>
-    <t>칼날 돌풍 2</t>
-  </si>
-  <si>
     <t>Skill130</t>
   </si>
   <si>
@@ -2393,9 +2183,6 @@
     <t>Skill134</t>
   </si>
   <si>
-    <t>칼날 돌풍 3</t>
-  </si>
-  <si>
     <t>Skill135</t>
   </si>
   <si>
@@ -2411,9 +2198,6 @@
     <t>Skill139</t>
   </si>
   <si>
-    <t>소드레인 1</t>
-  </si>
-  <si>
     <t>Skill140</t>
   </si>
   <si>
@@ -2423,9 +2207,6 @@
     <t>Skill142</t>
   </si>
   <si>
-    <t>소드레인 2</t>
-  </si>
-  <si>
     <t>Skill143</t>
   </si>
   <si>
@@ -2433,9 +2214,6 @@
   </si>
   <si>
     <t>Skill145</t>
-  </si>
-  <si>
-    <t>소드레인 3</t>
   </si>
   <si>
     <t>Skill146</t>
@@ -3548,40 +3326,19 @@
     <t>얼음왕의 검</t>
   </si>
   <si>
-    <t>포격 1</t>
-  </si>
-  <si>
     <t>오크거너가 커다란 대포알을 발사해 낙하지점의 적들에게 피해를 줍니다.</t>
   </si>
   <si>
     <t>스킬 오크거너01.2 1</t>
   </si>
   <si>
-    <t>포격 2</t>
-  </si>
-  <si>
     <t>스킬 오크거너01.2 2</t>
   </si>
   <si>
-    <t>포격 3</t>
-  </si>
-  <si>
     <t>스킬 오크거너01.2 3</t>
   </si>
   <si>
-    <t>전투의 함성 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">오크전사의 함성에 아군의 공격속도가 5초간 증가합니다. </t>
-  </si>
-  <si>
-    <t>전투의 함성 2</t>
-  </si>
-  <si>
-    <t>전투의 함성 3</t>
-  </si>
-  <si>
-    <t>크게 한 방 1</t>
   </si>
   <si>
     <t>사이클롭스가 몽둥이로 땅을 강하게 내리쳐 피해를 줍니다.</t>
@@ -3820,6 +3577,497 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화탄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발사</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강령술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭파</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전장의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지휘자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공포의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>망치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭풍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화산폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초음파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸통박치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승룡권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>암흑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에너지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방출</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드래곤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브레스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼날</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌풍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드레인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4291,7 +4539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4394,11 +4642,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4406,11 +4654,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4442,22 +4702,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,11 +4723,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4886,10 +5137,10 @@
   <dimension ref="B2:X163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:Q3"/>
+      <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4928,49 +5179,49 @@
       <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="39" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="R2" s="46" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="34" t="s">
+      <c r="U2" s="42"/>
+      <c r="V2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="35"/>
+      <c r="W2" s="42"/>
       <c r="X2" s="36" t="s">
         <v>33</v>
       </c>
@@ -4980,13 +5231,13 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="53"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5005,8 +5256,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="51"/>
       <c r="S3" s="37"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -5069,7 +5320,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>778</v>
+        <v>697</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>30</v>
@@ -5140,7 +5391,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>779</v>
+        <v>698</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>4</v>
@@ -5303,7 +5554,7 @@
         <v>52</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>686</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="2:24">
@@ -5871,7 +6122,7 @@
         <v>52</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>687</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="2:24">
@@ -6927,10 +7178,10 @@
 증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>765</v>
+        <v>684</v>
       </c>
       <c r="V30" s="15" t="s">
         <v>52</v>
@@ -6999,10 +7250,10 @@
 증오의 여왕이 증오의 권능을 부여해 모든 구역의 타워 공격속도를 5초간 대폭 증가시킵니다.</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>766</v>
+        <v>685</v>
       </c>
       <c r="V31" s="15" t="s">
         <v>52</v>
@@ -7071,10 +7322,10 @@
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>767</v>
+        <v>686</v>
       </c>
       <c r="V32" s="15" t="s">
         <v>52</v>
@@ -7083,7 +7334,7 @@
         <v>52</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>690</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="2:24">
@@ -7286,16 +7537,16 @@
 프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>768</v>
+        <v>687</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>770</v>
+        <v>689</v>
       </c>
       <c r="X35" s="17"/>
     </row>
@@ -7373,7 +7624,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>134</v>
@@ -7427,16 +7678,16 @@
 프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다.</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>769</v>
+        <v>688</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>766</v>
+        <v>685</v>
       </c>
       <c r="X37" s="19"/>
     </row>
@@ -7513,8 +7764,8 @@
       <c r="B39" s="11">
         <v>34</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>693</v>
+      <c r="C39" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>137</v>
@@ -7562,13 +7813,13 @@
         <v>910001</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V39" s="17" t="s">
         <v>52</v>
@@ -7583,7 +7834,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>695</v>
+        <v>620</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>138</v>
@@ -7651,8 +7902,8 @@
       <c r="B41" s="11">
         <v>36</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>696</v>
+      <c r="C41" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>139</v>
@@ -7700,13 +7951,13 @@
         <v>910001</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="V41" s="17" t="s">
         <v>52</v>
@@ -7721,7 +7972,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>697</v>
+        <v>621</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>140</v>
@@ -7789,8 +8040,8 @@
       <c r="B43" s="11">
         <v>38</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>698</v>
+      <c r="C43" s="29" t="s">
+        <v>699</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
@@ -7838,13 +8089,13 @@
         <v>910001</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V43" s="17" t="s">
         <v>52</v>
@@ -7859,7 +8110,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>699</v>
+        <v>622</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>142</v>
@@ -7927,7 +8178,7 @@
       <c r="B45" s="11">
         <v>40</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="61" t="s">
         <v>700</v>
       </c>
       <c r="D45" s="12" t="s">
@@ -7976,13 +8227,13 @@
         <v>910002</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="V45" s="17" t="s">
         <v>52</v>
@@ -7996,8 +8247,8 @@
       <c r="B46" s="11">
         <v>41</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>702</v>
+      <c r="C46" s="61" t="s">
+        <v>700</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>144</v>
@@ -8045,13 +8296,13 @@
         <v>910002</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="V46" s="17" t="s">
         <v>52</v>
@@ -8065,8 +8316,8 @@
       <c r="B47" s="11">
         <v>42</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>703</v>
+      <c r="C47" s="61" t="s">
+        <v>700</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>145</v>
@@ -8117,10 +8368,10 @@
         <v>146</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="V47" s="17" t="s">
         <v>52</v>
@@ -8134,8 +8385,8 @@
       <c r="B48" s="11">
         <v>43</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>704</v>
+      <c r="C48" s="61" t="s">
+        <v>701</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>147</v>
@@ -8183,13 +8434,13 @@
         <v>910003</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V48" s="17" t="s">
         <v>52</v>
@@ -8203,11 +8454,11 @@
       <c r="B49" s="11">
         <v>44</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E49" s="13">
         <v>300044</v>
@@ -8252,13 +8503,13 @@
         <v>910003</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V49" s="17" t="s">
         <v>52</v>
@@ -8272,11 +8523,11 @@
       <c r="B50" s="11">
         <v>45</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>150</v>
+      <c r="C50" s="61" t="s">
+        <v>701</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E50" s="13">
         <v>300045</v>
@@ -8321,13 +8572,13 @@
         <v>910003</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V50" s="17" t="s">
         <v>52</v>
@@ -8341,11 +8592,11 @@
       <c r="B51" s="11">
         <v>46</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>152</v>
+      <c r="C51" s="61" t="s">
+        <v>702</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E51" s="13">
         <v>300046</v>
@@ -8390,13 +8641,13 @@
         <v>910004</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="V51" s="17" t="s">
         <v>52</v>
@@ -8410,11 +8661,11 @@
       <c r="B52" s="11">
         <v>47</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>154</v>
+      <c r="C52" s="61" t="s">
+        <v>702</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E52" s="13">
         <v>300047</v>
@@ -8459,13 +8710,13 @@
         <v>910004</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="V52" s="17" t="s">
         <v>52</v>
@@ -8479,11 +8730,11 @@
       <c r="B53" s="11">
         <v>48</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>156</v>
+      <c r="C53" s="61" t="s">
+        <v>702</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E53" s="13">
         <v>300048</v>
@@ -8528,13 +8779,13 @@
         <v>910004</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="V53" s="17" t="s">
         <v>52</v>
@@ -8548,11 +8799,11 @@
       <c r="B54" s="11">
         <v>49</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>158</v>
+      <c r="C54" s="29" t="s">
+        <v>703</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E54" s="13">
         <v>300049</v>
@@ -8597,13 +8848,13 @@
         <v>910005</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>707</v>
+        <v>626</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U54" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V54" s="17" t="s">
         <v>52</v>
@@ -8617,11 +8868,11 @@
       <c r="B55" s="11">
         <v>50</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>160</v>
+      <c r="C55" s="29" t="s">
+        <v>703</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E55" s="13">
         <v>300050</v>
@@ -8666,13 +8917,13 @@
         <v>910005</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>707</v>
+        <v>626</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U55" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V55" s="17" t="s">
         <v>52</v>
@@ -8686,11 +8937,11 @@
       <c r="B56" s="11">
         <v>51</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>162</v>
+      <c r="C56" s="29" t="s">
+        <v>703</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E56" s="13">
         <v>300051</v>
@@ -8735,13 +8986,13 @@
         <v>910005</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>707</v>
+        <v>626</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U56" s="17" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="V56" s="17" t="s">
         <v>52</v>
@@ -8755,11 +9006,11 @@
       <c r="B57" s="11">
         <v>52</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>164</v>
+      <c r="C57" s="29" t="s">
+        <v>704</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E57" s="13">
         <v>300052</v>
@@ -8804,13 +9055,13 @@
         <v>910006</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>708</v>
+        <v>627</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U57" s="17" t="s">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="V57" s="17" t="s">
         <v>52</v>
@@ -8824,11 +9075,11 @@
       <c r="B58" s="11">
         <v>53</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>166</v>
+      <c r="C58" s="29" t="s">
+        <v>704</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E58" s="13">
         <v>300053</v>
@@ -8873,13 +9124,13 @@
         <v>910006</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>708</v>
+        <v>627</v>
       </c>
       <c r="T58" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U58" s="17" t="s">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="V58" s="17" t="s">
         <v>52</v>
@@ -8893,11 +9144,11 @@
       <c r="B59" s="11">
         <v>54</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>168</v>
+      <c r="C59" s="29" t="s">
+        <v>704</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E59" s="13">
         <v>300054</v>
@@ -8942,13 +9193,13 @@
         <v>910006</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>708</v>
+        <v>627</v>
       </c>
       <c r="T59" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="V59" s="17" t="s">
         <v>52</v>
@@ -8962,11 +9213,11 @@
       <c r="B60" s="11">
         <v>55</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>170</v>
+      <c r="C60" s="61" t="s">
+        <v>705</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E60" s="13">
         <v>300055</v>
@@ -9011,19 +9262,19 @@
         <v>910007</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>709</v>
+        <v>628</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V60" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="X60" s="17"/>
     </row>
@@ -9031,11 +9282,11 @@
       <c r="B61" s="11">
         <v>56</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>172</v>
+      <c r="C61" s="61" t="s">
+        <v>705</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E61" s="13">
         <v>300056</v>
@@ -9080,19 +9331,19 @@
         <v>910007</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>709</v>
+        <v>628</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W61" s="17" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="X61" s="17"/>
     </row>
@@ -9100,11 +9351,11 @@
       <c r="B62" s="11">
         <v>57</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>174</v>
+      <c r="C62" s="61" t="s">
+        <v>705</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E62" s="13">
         <v>300057</v>
@@ -9149,19 +9400,19 @@
         <v>910007</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>709</v>
+        <v>628</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U62" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V62" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
       <c r="X62" s="17"/>
     </row>
@@ -9169,11 +9420,11 @@
       <c r="B63" s="11">
         <v>58</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>176</v>
+      <c r="C63" s="61" t="s">
+        <v>706</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E63" s="13">
         <v>300058</v>
@@ -9218,13 +9469,13 @@
         <v>910008</v>
       </c>
       <c r="S63" s="17" t="s">
-        <v>710</v>
+        <v>629</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U63" s="17" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="V63" s="17" t="s">
         <v>52</v>
@@ -9238,11 +9489,11 @@
       <c r="B64" s="11">
         <v>59</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>178</v>
+      <c r="C64" s="61" t="s">
+        <v>706</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E64" s="13">
         <v>300059</v>
@@ -9287,13 +9538,13 @@
         <v>910008</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>710</v>
+        <v>629</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U64" s="17" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="V64" s="17" t="s">
         <v>52</v>
@@ -9307,11 +9558,11 @@
       <c r="B65" s="11">
         <v>60</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>180</v>
+      <c r="C65" s="61" t="s">
+        <v>706</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E65" s="13">
         <v>300060</v>
@@ -9356,13 +9607,13 @@
         <v>910008</v>
       </c>
       <c r="S65" s="17" t="s">
-        <v>710</v>
+        <v>629</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U65" s="17" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="V65" s="17" t="s">
         <v>52</v>
@@ -9376,11 +9627,11 @@
       <c r="B66" s="11">
         <v>61</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>182</v>
+      <c r="C66" s="29" t="s">
+        <v>707</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E66" s="13">
         <v>300061</v>
@@ -9425,19 +9676,19 @@
         <v>910009</v>
       </c>
       <c r="S66" s="17" t="s">
-        <v>711</v>
+        <v>630</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U66" s="17" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="V66" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="X66" s="19"/>
     </row>
@@ -9445,11 +9696,11 @@
       <c r="B67" s="11">
         <v>62</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>184</v>
+      <c r="C67" s="29" t="s">
+        <v>707</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E67" s="13">
         <v>300062</v>
@@ -9494,19 +9745,19 @@
         <v>910009</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>711</v>
+        <v>630</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="W67" s="17" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="X67" s="19"/>
     </row>
@@ -9514,11 +9765,11 @@
       <c r="B68" s="11">
         <v>63</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>186</v>
+      <c r="C68" s="29" t="s">
+        <v>707</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E68" s="13">
         <v>300063</v>
@@ -9563,19 +9814,19 @@
         <v>910009</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>711</v>
+        <v>630</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="V68" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="X68" s="17"/>
     </row>
@@ -9583,11 +9834,11 @@
       <c r="B69" s="11">
         <v>64</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>188</v>
+      <c r="C69" s="29" t="s">
+        <v>708</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E69" s="13">
         <v>300064</v>
@@ -9632,13 +9883,13 @@
         <v>910010</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>712</v>
+        <v>631</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="V69" s="17" t="s">
         <v>52</v>
@@ -9652,11 +9903,11 @@
       <c r="B70" s="11">
         <v>65</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>190</v>
+      <c r="C70" s="29" t="s">
+        <v>708</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E70" s="13">
         <v>300065</v>
@@ -9701,13 +9952,13 @@
         <v>910010</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>712</v>
+        <v>631</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="V70" s="17" t="s">
         <v>52</v>
@@ -9721,11 +9972,11 @@
       <c r="B71" s="11">
         <v>66</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>192</v>
+      <c r="C71" s="29" t="s">
+        <v>708</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E71" s="13">
         <v>300066</v>
@@ -9770,13 +10021,13 @@
         <v>910010</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>712</v>
+        <v>631</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="V71" s="17" t="s">
         <v>52</v>
@@ -9790,11 +10041,11 @@
       <c r="B72" s="11">
         <v>67</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>194</v>
+      <c r="C72" s="61" t="s">
+        <v>709</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E72" s="13">
         <v>300067</v>
@@ -9839,19 +10090,19 @@
         <v>910011</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>713</v>
+        <v>632</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="V72" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="X72" s="17"/>
     </row>
@@ -9859,11 +10110,11 @@
       <c r="B73" s="11">
         <v>68</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>196</v>
+      <c r="C73" s="61" t="s">
+        <v>709</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E73" s="13">
         <v>300068</v>
@@ -9908,19 +10159,19 @@
         <v>910011</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>713</v>
+        <v>632</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
       <c r="X73" s="17"/>
     </row>
@@ -9928,11 +10179,11 @@
       <c r="B74" s="11">
         <v>69</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>198</v>
+      <c r="C74" s="61" t="s">
+        <v>709</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E74" s="13">
         <v>300069</v>
@@ -9977,19 +10228,19 @@
         <v>910011</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>713</v>
+        <v>632</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="V74" s="17" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="X74" s="17"/>
     </row>
@@ -9997,11 +10248,11 @@
       <c r="B75" s="11">
         <v>70</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>200</v>
+      <c r="C75" s="61" t="s">
+        <v>710</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E75" s="13">
         <v>300070</v>
@@ -10046,19 +10297,19 @@
         <v>910012</v>
       </c>
       <c r="S75" s="17" t="s">
-        <v>714</v>
+        <v>633</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U75" s="17" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="V75" s="17" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="X75" s="17"/>
     </row>
@@ -10067,10 +10318,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>715</v>
+        <v>634</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E76" s="13">
         <v>300071</v>
@@ -10135,11 +10386,11 @@
       <c r="B77" s="11">
         <v>72</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>203</v>
+      <c r="C77" s="61" t="s">
+        <v>710</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="E77" s="13">
         <v>300072</v>
@@ -10184,19 +10435,19 @@
         <v>910012</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>714</v>
+        <v>633</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="V77" s="17" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="X77" s="17"/>
     </row>
@@ -10205,10 +10456,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>716</v>
+        <v>635</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E78" s="13">
         <v>300073</v>
@@ -10273,11 +10524,11 @@
       <c r="B79" s="11">
         <v>74</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>206</v>
+      <c r="C79" s="61" t="s">
+        <v>710</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E79" s="13">
         <v>300074</v>
@@ -10322,19 +10573,19 @@
         <v>910012</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>714</v>
+        <v>633</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="V79" s="17" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="W79" s="17" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="X79" s="17"/>
     </row>
@@ -10343,10 +10594,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>717</v>
+        <v>636</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="E80" s="13">
         <v>300075</v>
@@ -10411,11 +10662,11 @@
       <c r="B81" s="11">
         <v>76</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>209</v>
+      <c r="C81" s="61" t="s">
+        <v>711</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E81" s="13">
         <v>300076</v>
@@ -10460,19 +10711,19 @@
         <v>910013</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U81" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V81" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W81" s="17" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="X81" s="19"/>
     </row>
@@ -10480,11 +10731,11 @@
       <c r="B82" s="11">
         <v>77</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>211</v>
+      <c r="C82" s="61" t="s">
+        <v>711</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="E82" s="13">
         <v>300077</v>
@@ -10529,19 +10780,19 @@
         <v>910013</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U82" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V82" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W82" s="17" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="X82" s="17"/>
     </row>
@@ -10549,11 +10800,11 @@
       <c r="B83" s="11">
         <v>78</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>213</v>
+      <c r="C83" s="61" t="s">
+        <v>711</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E83" s="13">
         <v>300078</v>
@@ -10598,19 +10849,19 @@
         <v>910013</v>
       </c>
       <c r="S83" s="17" t="s">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V83" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W83" s="17" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="X83" s="17"/>
     </row>
@@ -10619,10 +10870,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>719</v>
+        <v>638</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E84" s="13">
         <v>300079</v>
@@ -10687,11 +10938,11 @@
       <c r="B85" s="11">
         <v>80</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>216</v>
+      <c r="C85" s="29" t="s">
+        <v>712</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="E85" s="13">
         <v>300080</v>
@@ -10736,13 +10987,13 @@
         <v>910014</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>720</v>
+        <v>639</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U85" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V85" s="15" t="s">
         <v>52</v>
@@ -10756,11 +11007,11 @@
       <c r="B86" s="11">
         <v>81</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>218</v>
+      <c r="C86" s="29" t="s">
+        <v>712</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E86" s="13">
         <v>300081</v>
@@ -10805,13 +11056,13 @@
         <v>910014</v>
       </c>
       <c r="S86" s="17" t="s">
-        <v>720</v>
+        <v>639</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U86" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V86" s="15" t="s">
         <v>52</v>
@@ -10825,11 +11076,11 @@
       <c r="B87" s="11">
         <v>82</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>220</v>
+      <c r="C87" s="29" t="s">
+        <v>712</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E87" s="13">
         <v>300082</v>
@@ -10874,13 +11125,13 @@
         <v>910014</v>
       </c>
       <c r="S87" s="17" t="s">
-        <v>720</v>
+        <v>639</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U87" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V87" s="15" t="s">
         <v>52</v>
@@ -10894,11 +11145,11 @@
       <c r="B88" s="11">
         <v>83</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>222</v>
+      <c r="C88" s="29" t="s">
+        <v>713</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="E88" s="13">
         <v>300083</v>
@@ -10943,13 +11194,13 @@
         <v>910015</v>
       </c>
       <c r="S88" s="17" t="s">
-        <v>721</v>
+        <v>640</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U88" s="17" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="V88" s="15" t="s">
         <v>52</v>
@@ -10964,10 +11215,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>722</v>
+        <v>641</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E89" s="13">
         <v>300084</v>
@@ -11033,10 +11284,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>723</v>
+        <v>642</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E90" s="13">
         <v>300085</v>
@@ -11102,10 +11353,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>724</v>
+        <v>643</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E91" s="13">
         <v>300086</v>
@@ -11170,11 +11421,11 @@
       <c r="B92" s="11">
         <v>87</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>227</v>
+      <c r="C92" s="29" t="s">
+        <v>713</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E92" s="13">
         <v>300087</v>
@@ -11219,13 +11470,13 @@
         <v>910015</v>
       </c>
       <c r="S92" s="17" t="s">
-        <v>721</v>
+        <v>640</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U92" s="17" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="V92" s="15" t="s">
         <v>52</v>
@@ -11240,10 +11491,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>725</v>
+        <v>644</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="E93" s="13">
         <v>300088</v>
@@ -11309,10 +11560,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>726</v>
+        <v>645</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E94" s="13">
         <v>300089</v>
@@ -11378,10 +11629,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>727</v>
+        <v>646</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="E95" s="13">
         <v>300090</v>
@@ -11446,11 +11697,11 @@
       <c r="B96" s="11">
         <v>91</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>232</v>
+      <c r="C96" s="29" t="s">
+        <v>713</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E96" s="13">
         <v>300091</v>
@@ -11495,13 +11746,13 @@
         <v>910015</v>
       </c>
       <c r="S96" s="17" t="s">
-        <v>721</v>
+        <v>640</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U96" s="17" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="V96" s="15" t="s">
         <v>52</v>
@@ -11516,10 +11767,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>728</v>
+        <v>647</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E97" s="13">
         <v>300092</v>
@@ -11585,10 +11836,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>729</v>
+        <v>648</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E98" s="13">
         <v>300093</v>
@@ -11654,10 +11905,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>730</v>
+        <v>649</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E99" s="13">
         <v>300094</v>
@@ -11722,11 +11973,11 @@
       <c r="B100" s="11">
         <v>95</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>237</v>
+      <c r="C100" s="29" t="s">
+        <v>714</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="E100" s="13">
         <v>300095</v>
@@ -11771,13 +12022,13 @@
         <v>910016</v>
       </c>
       <c r="S100" s="17" t="s">
-        <v>731</v>
+        <v>650</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U100" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>52</v>
@@ -11791,11 +12042,11 @@
       <c r="B101" s="11">
         <v>96</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>239</v>
+      <c r="C101" s="29" t="s">
+        <v>714</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E101" s="13">
         <v>300096</v>
@@ -11840,13 +12091,13 @@
         <v>910016</v>
       </c>
       <c r="S101" s="17" t="s">
-        <v>731</v>
+        <v>650</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U101" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>52</v>
@@ -11860,11 +12111,11 @@
       <c r="B102" s="11">
         <v>97</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>241</v>
+      <c r="C102" s="29" t="s">
+        <v>714</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="E102" s="13">
         <v>300097</v>
@@ -11909,13 +12160,13 @@
         <v>910016</v>
       </c>
       <c r="S102" s="17" t="s">
-        <v>731</v>
+        <v>650</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U102" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V102" s="15" t="s">
         <v>52</v>
@@ -11929,11 +12180,11 @@
       <c r="B103" s="11">
         <v>98</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>243</v>
+      <c r="C103" s="29" t="s">
+        <v>715</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="E103" s="13">
         <v>300098</v>
@@ -11978,13 +12229,13 @@
         <v>910017</v>
       </c>
       <c r="S103" s="17" t="s">
-        <v>732</v>
+        <v>651</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U103" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V103" s="15" t="s">
         <v>52</v>
@@ -11998,11 +12249,11 @@
       <c r="B104" s="11">
         <v>99</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>245</v>
+      <c r="C104" s="29" t="s">
+        <v>715</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="E104" s="13">
         <v>300099</v>
@@ -12047,13 +12298,13 @@
         <v>910017</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>732</v>
+        <v>651</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U104" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V104" s="15" t="s">
         <v>52</v>
@@ -12067,11 +12318,11 @@
       <c r="B105" s="11">
         <v>100</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>247</v>
+      <c r="C105" s="29" t="s">
+        <v>715</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="E105" s="13">
         <v>300100</v>
@@ -12116,13 +12367,13 @@
         <v>910017</v>
       </c>
       <c r="S105" s="17" t="s">
-        <v>732</v>
+        <v>651</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U105" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V105" s="15" t="s">
         <v>52</v>
@@ -12136,11 +12387,11 @@
       <c r="B106" s="11">
         <v>101</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>249</v>
+      <c r="C106" s="29" t="s">
+        <v>716</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E106" s="13">
         <v>300101</v>
@@ -12185,13 +12436,13 @@
         <v>910018</v>
       </c>
       <c r="S106" s="17" t="s">
-        <v>733</v>
+        <v>652</v>
       </c>
       <c r="T106" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="U106" s="17" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
       <c r="V106" s="15" t="s">
         <v>52</v>
@@ -12205,11 +12456,11 @@
       <c r="B107" s="11">
         <v>102</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>251</v>
+      <c r="C107" s="29" t="s">
+        <v>716</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="E107" s="13">
         <v>300102</v>
@@ -12254,13 +12505,13 @@
         <v>910018</v>
       </c>
       <c r="S107" s="17" t="s">
-        <v>733</v>
+        <v>652</v>
       </c>
       <c r="T107" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="U107" s="17" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="V107" s="15" t="s">
         <v>52</v>
@@ -12274,11 +12525,11 @@
       <c r="B108" s="11">
         <v>103</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>253</v>
+      <c r="C108" s="29" t="s">
+        <v>716</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="E108" s="13">
         <v>300103</v>
@@ -12323,13 +12574,13 @@
         <v>910018</v>
       </c>
       <c r="S108" s="17" t="s">
-        <v>734</v>
+        <v>653</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="U108" s="17" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
       <c r="V108" s="15" t="s">
         <v>52</v>
@@ -12343,11 +12594,11 @@
       <c r="B109" s="11">
         <v>104</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>255</v>
+      <c r="C109" s="29" t="s">
+        <v>717</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="E109" s="13">
         <v>300104</v>
@@ -12392,13 +12643,13 @@
         <v>910019</v>
       </c>
       <c r="S109" s="17" t="s">
-        <v>735</v>
+        <v>654</v>
       </c>
       <c r="T109" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="U109" s="17" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>52</v>
@@ -12412,11 +12663,11 @@
       <c r="B110" s="11">
         <v>105</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>257</v>
+      <c r="C110" s="29" t="s">
+        <v>717</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="E110" s="13">
         <v>300105</v>
@@ -12461,13 +12712,13 @@
         <v>910019</v>
       </c>
       <c r="S110" s="17" t="s">
-        <v>735</v>
+        <v>654</v>
       </c>
       <c r="T110" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="U110" s="17" t="s">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="V110" s="15" t="s">
         <v>52</v>
@@ -12481,11 +12732,11 @@
       <c r="B111" s="11">
         <v>106</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>259</v>
+      <c r="C111" s="29" t="s">
+        <v>717</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="E111" s="13">
         <v>300106</v>
@@ -12530,13 +12781,13 @@
         <v>910019</v>
       </c>
       <c r="S111" s="17" t="s">
-        <v>735</v>
+        <v>654</v>
       </c>
       <c r="T111" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="U111" s="17" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="V111" s="17" t="s">
         <v>52</v>
@@ -12550,11 +12801,11 @@
       <c r="B112" s="11">
         <v>107</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>261</v>
+      <c r="C112" s="29" t="s">
+        <v>718</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="E112" s="13">
         <v>300107</v>
@@ -12599,19 +12850,19 @@
         <v>910020</v>
       </c>
       <c r="S112" s="17" t="s">
-        <v>736</v>
+        <v>655</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U112" s="17" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="V112" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W112" s="17" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="X112" s="17"/>
     </row>
@@ -12619,11 +12870,11 @@
       <c r="B113" s="11">
         <v>108</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>263</v>
+      <c r="C113" s="29" t="s">
+        <v>718</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="E113" s="13">
         <v>300108</v>
@@ -12668,19 +12919,19 @@
         <v>910020</v>
       </c>
       <c r="S113" s="17" t="s">
-        <v>736</v>
+        <v>655</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U113" s="17" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="V113" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W113" s="17" t="s">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="X113" s="17"/>
     </row>
@@ -12688,11 +12939,11 @@
       <c r="B114" s="11">
         <v>109</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>265</v>
+      <c r="C114" s="29" t="s">
+        <v>718</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="E114" s="13">
         <v>300109</v>
@@ -12737,19 +12988,19 @@
         <v>910020</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>736</v>
+        <v>655</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U114" s="17" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="V114" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W114" s="17" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="X114" s="17"/>
     </row>
@@ -12757,11 +13008,11 @@
       <c r="B115" s="11">
         <v>110</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>267</v>
+      <c r="C115" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="E115" s="13">
         <v>300110</v>
@@ -12806,13 +13057,13 @@
         <v>910021</v>
       </c>
       <c r="S115" s="17" t="s">
-        <v>737</v>
+        <v>656</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U115" s="17" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="V115" s="17" t="s">
         <v>52</v>
@@ -12826,11 +13077,11 @@
       <c r="B116" s="11">
         <v>111</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>269</v>
+      <c r="C116" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="E116" s="13">
         <v>300111</v>
@@ -12875,13 +13126,13 @@
         <v>910021</v>
       </c>
       <c r="S116" s="17" t="s">
-        <v>737</v>
+        <v>656</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U116" s="17" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="V116" s="17" t="s">
         <v>52</v>
@@ -12895,11 +13146,11 @@
       <c r="B117" s="11">
         <v>112</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>271</v>
+      <c r="C117" s="29" t="s">
+        <v>719</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="E117" s="13">
         <v>300112</v>
@@ -12944,13 +13195,13 @@
         <v>910021</v>
       </c>
       <c r="S117" s="17" t="s">
-        <v>737</v>
+        <v>656</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U117" s="17" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="V117" s="17" t="s">
         <v>52</v>
@@ -12964,11 +13215,11 @@
       <c r="B118" s="11">
         <v>113</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>273</v>
+      <c r="C118" s="61" t="s">
+        <v>720</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="E118" s="13">
         <v>300113</v>
@@ -13013,13 +13264,13 @@
         <v>910022</v>
       </c>
       <c r="S118" s="17" t="s">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U118" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V118" s="17" t="s">
         <v>52</v>
@@ -13033,11 +13284,11 @@
       <c r="B119" s="11">
         <v>114</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>275</v>
+      <c r="C119" s="61" t="s">
+        <v>720</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="E119" s="13">
         <v>300114</v>
@@ -13082,13 +13333,13 @@
         <v>910022</v>
       </c>
       <c r="S119" s="17" t="s">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U119" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V119" s="17" t="s">
         <v>52</v>
@@ -13102,11 +13353,11 @@
       <c r="B120" s="11">
         <v>115</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>277</v>
+      <c r="C120" s="61" t="s">
+        <v>720</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="E120" s="13">
         <v>300115</v>
@@ -13151,13 +13402,13 @@
         <v>910022</v>
       </c>
       <c r="S120" s="17" t="s">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U120" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V120" s="17" t="s">
         <v>52</v>
@@ -13171,11 +13422,11 @@
       <c r="B121" s="11">
         <v>116</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>279</v>
+      <c r="C121" s="61" t="s">
+        <v>721</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E121" s="13">
         <v>300116</v>
@@ -13220,13 +13471,13 @@
         <v>910024</v>
       </c>
       <c r="S121" s="17" t="s">
-        <v>739</v>
+        <v>658</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U121" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V121" s="17" t="s">
         <v>52</v>
@@ -13240,11 +13491,11 @@
       <c r="B122" s="11">
         <v>117</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>281</v>
+      <c r="C122" s="61" t="s">
+        <v>721</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="E122" s="13">
         <v>300117</v>
@@ -13289,13 +13540,13 @@
         <v>910024</v>
       </c>
       <c r="S122" s="17" t="s">
-        <v>739</v>
+        <v>658</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U122" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V122" s="17" t="s">
         <v>52</v>
@@ -13309,11 +13560,11 @@
       <c r="B123" s="11">
         <v>118</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>283</v>
+      <c r="C123" s="61" t="s">
+        <v>721</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="E123" s="13">
         <v>300118</v>
@@ -13358,13 +13609,13 @@
         <v>910024</v>
       </c>
       <c r="S123" s="17" t="s">
-        <v>739</v>
+        <v>658</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U123" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V123" s="17" t="s">
         <v>52</v>
@@ -13378,11 +13629,11 @@
       <c r="B124" s="11">
         <v>119</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>285</v>
+      <c r="C124" s="61" t="s">
+        <v>722</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="E124" s="13">
         <v>300119</v>
@@ -13427,19 +13678,19 @@
         <v>910025</v>
       </c>
       <c r="S124" s="17" t="s">
-        <v>740</v>
+        <v>659</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U124" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V124" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W124" s="17" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="X124" s="17"/>
     </row>
@@ -13447,11 +13698,11 @@
       <c r="B125" s="11">
         <v>120</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>287</v>
+      <c r="C125" s="61" t="s">
+        <v>722</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="E125" s="13">
         <v>300120</v>
@@ -13496,19 +13747,19 @@
         <v>910025</v>
       </c>
       <c r="S125" s="17" t="s">
-        <v>740</v>
+        <v>659</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U125" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V125" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W125" s="17" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="X125" s="17"/>
     </row>
@@ -13516,11 +13767,11 @@
       <c r="B126" s="11">
         <v>121</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>289</v>
+      <c r="C126" s="61" t="s">
+        <v>722</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="E126" s="13">
         <v>300121</v>
@@ -13565,19 +13816,19 @@
         <v>910025</v>
       </c>
       <c r="S126" s="17" t="s">
-        <v>740</v>
+        <v>659</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U126" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V126" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="W126" s="17" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="X126" s="17"/>
     </row>
@@ -13585,11 +13836,11 @@
       <c r="B127" s="11">
         <v>122</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>291</v>
+      <c r="C127" s="61" t="s">
+        <v>723</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="E127" s="13">
         <v>300122</v>
@@ -13634,13 +13885,13 @@
         <v>910026</v>
       </c>
       <c r="S127" s="17" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U127" s="17" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="V127" s="15" t="s">
         <v>52</v>
@@ -13654,11 +13905,11 @@
       <c r="B128" s="11">
         <v>123</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>293</v>
+      <c r="C128" s="61" t="s">
+        <v>723</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="E128" s="13">
         <v>300123</v>
@@ -13703,13 +13954,13 @@
         <v>910026</v>
       </c>
       <c r="S128" s="17" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U128" s="17" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="V128" s="15" t="s">
         <v>52</v>
@@ -13723,11 +13974,11 @@
       <c r="B129" s="11">
         <v>124</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>295</v>
+      <c r="C129" s="61" t="s">
+        <v>723</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="E129" s="13">
         <v>300124</v>
@@ -13772,13 +14023,13 @@
         <v>910026</v>
       </c>
       <c r="S129" s="17" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="U129" s="17" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="V129" s="15" t="s">
         <v>52</v>
@@ -13792,11 +14043,11 @@
       <c r="B130" s="11">
         <v>125</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>297</v>
+      <c r="C130" s="61" t="s">
+        <v>724</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="E130" s="13">
         <v>300125</v>
@@ -13841,19 +14092,19 @@
         <v>910027</v>
       </c>
       <c r="S130" s="17" t="s">
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U130" s="17" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="V130" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="W130" s="17" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="X130" s="17"/>
     </row>
@@ -13862,10 +14113,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>743</v>
+        <v>662</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="E131" s="13">
         <v>300126</v>
@@ -13931,10 +14182,10 @@
         <v>127</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>744</v>
+        <v>663</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="E132" s="13">
         <v>300127</v>
@@ -14000,10 +14251,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>745</v>
+        <v>664</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="E133" s="13">
         <v>300128</v>
@@ -14069,10 +14320,10 @@
         <v>129</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>746</v>
+        <v>665</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="E134" s="13">
         <v>300129</v>
@@ -14137,11 +14388,11 @@
       <c r="B135" s="11">
         <v>130</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>303</v>
+      <c r="C135" s="61" t="s">
+        <v>724</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="E135" s="13">
         <v>300130</v>
@@ -14186,19 +14437,19 @@
         <v>910027</v>
       </c>
       <c r="S135" s="17" t="s">
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U135" s="17" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="V135" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="W135" s="17" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="X135" s="17"/>
     </row>
@@ -14207,10 +14458,10 @@
         <v>131</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>747</v>
+        <v>666</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="E136" s="13">
         <v>300131</v>
@@ -14276,10 +14527,10 @@
         <v>132</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>748</v>
+        <v>667</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="E137" s="13">
         <v>300132</v>
@@ -14345,10 +14596,10 @@
         <v>133</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>749</v>
+        <v>668</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="E138" s="13">
         <v>300133</v>
@@ -14414,10 +14665,10 @@
         <v>134</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>750</v>
+        <v>669</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="E139" s="13">
         <v>300134</v>
@@ -14482,11 +14733,11 @@
       <c r="B140" s="11">
         <v>135</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>309</v>
+      <c r="C140" s="61" t="s">
+        <v>724</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="E140" s="13">
         <v>300135</v>
@@ -14531,19 +14782,19 @@
         <v>910027</v>
       </c>
       <c r="S140" s="17" t="s">
-        <v>742</v>
+        <v>661</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U140" s="17" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="V140" s="17" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="W140" s="17" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="X140" s="17"/>
     </row>
@@ -14552,10 +14803,10 @@
         <v>136</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>751</v>
+        <v>670</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="E141" s="13">
         <v>300136</v>
@@ -14621,10 +14872,10 @@
         <v>137</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>752</v>
+        <v>671</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="E142" s="13">
         <v>300137</v>
@@ -14690,10 +14941,10 @@
         <v>138</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>753</v>
+        <v>672</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="E143" s="13">
         <v>300138</v>
@@ -14759,10 +15010,10 @@
         <v>139</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>754</v>
+        <v>673</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="E144" s="13">
         <v>300139</v>
@@ -14827,11 +15078,11 @@
       <c r="B145" s="11">
         <v>140</v>
       </c>
-      <c r="C145" s="12" t="s">
-        <v>315</v>
+      <c r="C145" s="29" t="s">
+        <v>725</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="E145" s="13">
         <v>300140</v>
@@ -14876,13 +15127,13 @@
         <v>910023</v>
       </c>
       <c r="S145" s="17" t="s">
-        <v>755</v>
+        <v>674</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U145" s="17" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="V145" s="15" t="s">
         <v>52</v>
@@ -14897,10 +15148,10 @@
         <v>141</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>756</v>
+        <v>675</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="E146" s="13">
         <v>300141</v>
@@ -14966,10 +15217,10 @@
         <v>142</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>757</v>
+        <v>676</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="E147" s="13">
         <v>300142</v>
@@ -15034,11 +15285,11 @@
       <c r="B148" s="11">
         <v>143</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>319</v>
+      <c r="C148" s="29" t="s">
+        <v>725</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="E148" s="13">
         <v>300143</v>
@@ -15083,13 +15334,13 @@
         <v>910023</v>
       </c>
       <c r="S148" s="17" t="s">
-        <v>755</v>
+        <v>674</v>
       </c>
       <c r="T148" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U148" s="17" t="s">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="V148" s="15" t="s">
         <v>52</v>
@@ -15104,10 +15355,10 @@
         <v>144</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>758</v>
+        <v>677</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="E149" s="13">
         <v>300144</v>
@@ -15173,10 +15424,10 @@
         <v>145</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>759</v>
+        <v>678</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="E150" s="13">
         <v>300145</v>
@@ -15241,11 +15492,11 @@
       <c r="B151" s="11">
         <v>146</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>323</v>
+      <c r="C151" s="29" t="s">
+        <v>725</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="E151" s="13">
         <v>300146</v>
@@ -15290,13 +15541,13 @@
         <v>910023</v>
       </c>
       <c r="S151" s="17" t="s">
-        <v>755</v>
+        <v>674</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="U151" s="17" t="s">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="V151" s="15" t="s">
         <v>52</v>
@@ -15311,10 +15562,10 @@
         <v>147</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>760</v>
+        <v>679</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="E152" s="13">
         <v>300147</v>
@@ -15380,10 +15631,10 @@
         <v>148</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>761</v>
+        <v>680</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="E153" s="13">
         <v>300148</v>
@@ -15449,10 +15700,10 @@
         <v>149</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="E154" s="13">
         <v>300149</v>
@@ -15518,10 +15769,10 @@
         <v>150</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="E155" s="13">
         <v>300150</v>
@@ -15587,10 +15838,10 @@
         <v>151</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="E156" s="13">
         <v>300151</v>
@@ -15656,10 +15907,10 @@
         <v>152</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="E157" s="13">
         <v>300152</v>
@@ -15725,10 +15976,10 @@
         <v>153</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="E158" s="13">
         <v>300153</v>
@@ -15794,10 +16045,10 @@
         <v>154</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="E159" s="13">
         <v>300154</v>
@@ -15863,10 +16114,10 @@
         <v>155</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="E160" s="13">
         <v>300155</v>
@@ -15932,10 +16183,10 @@
         <v>156</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="E161" s="13">
         <v>300156</v>
@@ -16001,10 +16252,10 @@
         <v>157</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="E162" s="13">
         <v>300157</v>
@@ -16073,12 +16324,6 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16089,6 +16334,12 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16309,36 +16560,36 @@
       <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="50" t="s">
-        <v>773</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>774</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>351</v>
+      <c r="F2" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>431</v>
+        <v>281</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>357</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>362</v>
+        <v>284</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="Q2" s="54" t="s">
         <v>33</v>
@@ -16350,20 +16601,20 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="22" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="39"/>
+        <v>274</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
-      <c r="M3" s="39"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="2:17">
@@ -16380,37 +16631,37 @@
         <v>9</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>771</v>
+        <v>690</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>772</v>
+        <v>691</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>34</v>
@@ -16439,7 +16690,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>21</v>
@@ -16474,7 +16725,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="E6" s="15">
         <v>310001</v>
@@ -16522,7 +16773,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="E7" s="15">
         <v>310002</v>
@@ -16570,7 +16821,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="E8" s="15">
         <v>310003</v>
@@ -16618,7 +16869,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="E9" s="15">
         <v>310004</v>
@@ -16666,7 +16917,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="E10" s="15">
         <v>310005</v>
@@ -16705,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>762</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -16716,7 +16967,7 @@
         <v>115</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="E11" s="15">
         <v>310006</v>
@@ -16755,7 +17006,7 @@
         <v>300024</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>763</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -16766,7 +17017,7 @@
         <v>118</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="E12" s="15">
         <v>310007</v>
@@ -16805,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>764</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="2:17" hidden="1">
@@ -16813,10 +17064,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="E13" s="15">
         <v>310008</v>
@@ -16861,10 +17112,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="E14" s="15">
         <v>310009</v>
@@ -16909,10 +17160,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="E15" s="15">
         <v>310010</v>
@@ -16957,10 +17208,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="E16" s="15">
         <v>310011</v>
@@ -17005,10 +17256,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="E17" s="15">
         <v>310012</v>
@@ -17053,10 +17304,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="E18" s="15">
         <v>310013</v>
@@ -17101,10 +17352,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="E19" s="15">
         <v>310014</v>
@@ -17149,10 +17400,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="E20" s="15">
         <v>310015</v>
@@ -17197,10 +17448,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="E21" s="15">
         <v>310016</v>
@@ -17245,10 +17496,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="E22" s="15">
         <v>310017</v>
@@ -17293,10 +17544,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="E23" s="15">
         <v>310018</v>
@@ -17341,10 +17592,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="E24" s="15">
         <v>310019</v>
@@ -17389,10 +17640,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="E25" s="15">
         <v>310020</v>
@@ -17437,10 +17688,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="E26" s="15">
         <v>310021</v>
@@ -17485,10 +17736,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="E27" s="15">
         <v>310022</v>
@@ -17533,10 +17784,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="E28" s="15">
         <v>310023</v>
@@ -17581,10 +17832,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="E29" s="15">
         <v>310024</v>
@@ -17629,10 +17880,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="E30" s="15">
         <v>310025</v>
@@ -17677,10 +17928,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="E31" s="15">
         <v>310026</v>
@@ -17725,10 +17976,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="E32" s="15">
         <v>310027</v>
@@ -17773,10 +18024,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="E33" s="15">
         <v>310028</v>
@@ -17821,10 +18072,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="E34" s="15">
         <v>310029</v>
@@ -17869,10 +18120,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="E35" s="15">
         <v>310030</v>
@@ -17917,10 +18168,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="E36" s="15">
         <v>310031</v>
@@ -17965,10 +18216,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="E37" s="15">
         <v>310032</v>
@@ -18013,10 +18264,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="E38" s="15">
         <v>310033</v>
@@ -18061,10 +18312,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="E39" s="15">
         <v>310034</v>
@@ -18109,10 +18360,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="E40" s="15">
         <v>310035</v>
@@ -18157,10 +18408,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>495</v>
+        <v>421</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="E41" s="15">
         <v>310036</v>
@@ -18205,10 +18456,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="E42" s="15">
         <v>310037</v>
@@ -18253,10 +18504,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="E43" s="15">
         <v>310038</v>
@@ -18301,10 +18552,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="E44" s="15">
         <v>310039</v>
@@ -18349,10 +18600,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="E45" s="15">
         <v>310040</v>
@@ -18397,10 +18648,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="E46" s="15">
         <v>310041</v>
@@ -18445,10 +18696,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="E47" s="15">
         <v>310042</v>
@@ -18493,10 +18744,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="E48" s="15">
         <v>310043</v>
@@ -18541,10 +18792,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="E49" s="15">
         <v>310044</v>
@@ -18589,10 +18840,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="E50" s="15">
         <v>310045</v>
@@ -18637,10 +18888,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="E51" s="15">
         <v>310046</v>
@@ -18685,10 +18936,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="E52" s="15">
         <v>310047</v>
@@ -18733,10 +18984,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>520</v>
+        <v>446</v>
       </c>
       <c r="E53" s="15">
         <v>310048</v>
@@ -18781,10 +19032,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="E54" s="15">
         <v>310049</v>
@@ -18829,10 +19080,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="E55" s="15">
         <v>310050</v>
@@ -18877,10 +19128,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="E56" s="15">
         <v>310051</v>
@@ -18925,10 +19176,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>527</v>
+        <v>453</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="E57" s="15">
         <v>310052</v>
@@ -18973,10 +19224,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>530</v>
+        <v>456</v>
       </c>
       <c r="E58" s="15">
         <v>310053</v>
@@ -19021,10 +19272,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>531</v>
+        <v>457</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>532</v>
+        <v>458</v>
       </c>
       <c r="E59" s="15">
         <v>310054</v>
@@ -19069,10 +19320,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="E60" s="15">
         <v>310055</v>
@@ -19117,10 +19368,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="E61" s="15">
         <v>310056</v>
@@ -19165,10 +19416,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="E62" s="15">
         <v>310057</v>
@@ -19213,10 +19464,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="E63" s="15">
         <v>310058</v>
@@ -19261,10 +19512,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="E64" s="15">
         <v>310059</v>
@@ -19309,10 +19560,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>543</v>
+        <v>469</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="E65" s="15">
         <v>310060</v>
@@ -19357,10 +19608,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
       <c r="E66" s="15">
         <v>310061</v>
@@ -19405,10 +19656,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>548</v>
+        <v>474</v>
       </c>
       <c r="E67" s="15">
         <v>310062</v>
@@ -19453,10 +19704,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="E68" s="15">
         <v>310063</v>
@@ -19501,10 +19752,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>552</v>
+        <v>478</v>
       </c>
       <c r="E69" s="15">
         <v>310064</v>
@@ -19549,10 +19800,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>554</v>
+        <v>480</v>
       </c>
       <c r="E70" s="15">
         <v>310065</v>
@@ -19597,10 +19848,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>555</v>
+        <v>481</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>556</v>
+        <v>482</v>
       </c>
       <c r="E71" s="15">
         <v>310066</v>
@@ -19647,10 +19898,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="E72" s="15">
         <v>310067</v>
@@ -19697,10 +19948,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
       <c r="E73" s="15">
         <v>310068</v>
@@ -19747,10 +19998,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="E74" s="15">
         <v>310069</v>
@@ -19795,10 +20046,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>563</v>
+        <v>489</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="E75" s="15">
         <v>310070</v>
@@ -19843,10 +20094,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="E76" s="15">
         <v>310071</v>
@@ -19891,10 +20142,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="E77" s="15">
         <v>310072</v>
@@ -19939,10 +20190,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="E78" s="15">
         <v>310073</v>
@@ -19987,10 +20238,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>571</v>
+        <v>497</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>572</v>
+        <v>498</v>
       </c>
       <c r="E79" s="15">
         <v>310074</v>
@@ -20035,10 +20286,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>573</v>
+        <v>499</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>574</v>
+        <v>500</v>
       </c>
       <c r="E80" s="15">
         <v>310075</v>
@@ -20083,10 +20334,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>575</v>
+        <v>501</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="E81" s="15">
         <v>310076</v>
@@ -20131,10 +20382,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="E82" s="15">
         <v>310077</v>
@@ -20179,10 +20430,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="E83" s="15">
         <v>310078</v>
@@ -20227,10 +20478,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="E84" s="15">
         <v>310079</v>
@@ -20275,10 +20526,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>583</v>
+        <v>509</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="E85" s="15">
         <v>310080</v>
@@ -20323,10 +20574,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="E86" s="15">
         <v>310081</v>
@@ -20371,10 +20622,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="E87" s="15">
         <v>310082</v>
@@ -20419,10 +20670,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>590</v>
+        <v>516</v>
       </c>
       <c r="E88" s="15">
         <v>310083</v>
@@ -20467,10 +20718,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="E89" s="15">
         <v>310084</v>
@@ -20515,10 +20766,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>593</v>
+        <v>519</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="E90" s="15">
         <v>310085</v>
@@ -20563,10 +20814,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="E91" s="15">
         <v>310086</v>
@@ -20611,10 +20862,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="E92" s="15">
         <v>310087</v>
@@ -20659,10 +20910,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="E93" s="15">
         <v>310088</v>
@@ -20707,10 +20958,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="E94" s="15">
         <v>310089</v>
@@ -20755,10 +21006,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="E95" s="15">
         <v>310090</v>
@@ -20803,10 +21054,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="E96" s="15">
         <v>310091</v>
@@ -20851,10 +21102,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="E97" s="15">
         <v>310092</v>
@@ -20899,10 +21150,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="E98" s="15">
         <v>310093</v>
@@ -20947,10 +21198,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="E99" s="15">
         <v>310094</v>
@@ -20995,10 +21246,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>614</v>
+        <v>540</v>
       </c>
       <c r="E100" s="15">
         <v>310095</v>
@@ -21043,10 +21294,10 @@
         <v>96</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>616</v>
+        <v>542</v>
       </c>
       <c r="E101" s="15">
         <v>310096</v>
@@ -21091,10 +21342,10 @@
         <v>97</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>617</v>
+        <v>543</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="E102" s="15">
         <v>310097</v>
@@ -21139,10 +21390,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>619</v>
+        <v>545</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>620</v>
+        <v>546</v>
       </c>
       <c r="E103" s="15">
         <v>310098</v>
@@ -21187,10 +21438,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>621</v>
+        <v>547</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="E104" s="15">
         <v>310099</v>
@@ -21235,10 +21486,10 @@
         <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>623</v>
+        <v>549</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="E105" s="15">
         <v>310100</v>
@@ -21283,10 +21534,10 @@
         <v>101</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>625</v>
+        <v>551</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>626</v>
+        <v>552</v>
       </c>
       <c r="E106" s="15">
         <v>310101</v>
@@ -21331,10 +21582,10 @@
         <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
       <c r="E107" s="15">
         <v>310102</v>
@@ -21379,10 +21630,10 @@
         <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="E108" s="15">
         <v>310103</v>
@@ -21427,10 +21678,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>631</v>
+        <v>557</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>632</v>
+        <v>558</v>
       </c>
       <c r="E109" s="15">
         <v>310104</v>
@@ -21475,10 +21726,10 @@
         <v>105</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>633</v>
+        <v>559</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>634</v>
+        <v>560</v>
       </c>
       <c r="E110" s="15">
         <v>310105</v>
@@ -21523,10 +21774,10 @@
         <v>106</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>636</v>
+        <v>562</v>
       </c>
       <c r="E111" s="15">
         <v>310106</v>
@@ -21571,10 +21822,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>637</v>
+        <v>563</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>638</v>
+        <v>564</v>
       </c>
       <c r="E112" s="15">
         <v>310107</v>
@@ -21619,10 +21870,10 @@
         <v>108</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>639</v>
+        <v>565</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="E113" s="15">
         <v>310108</v>
@@ -21667,10 +21918,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>641</v>
+        <v>567</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>642</v>
+        <v>568</v>
       </c>
       <c r="E114" s="15">
         <v>310109</v>
@@ -21715,10 +21966,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="E115" s="15">
         <v>310110</v>
@@ -21763,10 +22014,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>645</v>
+        <v>571</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>646</v>
+        <v>572</v>
       </c>
       <c r="E116" s="15">
         <v>310111</v>
@@ -21811,10 +22062,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>648</v>
+        <v>574</v>
       </c>
       <c r="E117" s="15">
         <v>310112</v>
@@ -21859,10 +22110,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>650</v>
+        <v>576</v>
       </c>
       <c r="E118" s="15">
         <v>310113</v>
@@ -21907,10 +22158,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="E119" s="15">
         <v>310114</v>
@@ -21955,10 +22206,10 @@
         <v>115</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>654</v>
+        <v>580</v>
       </c>
       <c r="E120" s="15">
         <v>310115</v>
@@ -22003,10 +22254,10 @@
         <v>116</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>656</v>
+        <v>582</v>
       </c>
       <c r="E121" s="15">
         <v>310116</v>
@@ -22051,10 +22302,10 @@
         <v>117</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>657</v>
+        <v>583</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="E122" s="15">
         <v>310117</v>
@@ -22099,10 +22350,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="E123" s="15">
         <v>310118</v>
@@ -22147,10 +22398,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="E124" s="15">
         <v>310119</v>
@@ -22195,10 +22446,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>664</v>
+        <v>590</v>
       </c>
       <c r="E125" s="15">
         <v>310120</v>
@@ -22243,10 +22494,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="E126" s="15">
         <v>310121</v>
@@ -22291,10 +22542,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>667</v>
+        <v>593</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>668</v>
+        <v>594</v>
       </c>
       <c r="E127" s="15">
         <v>310122</v>
@@ -22339,10 +22590,10 @@
         <v>123</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>669</v>
+        <v>595</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>670</v>
+        <v>596</v>
       </c>
       <c r="E128" s="15">
         <v>310123</v>
@@ -22387,10 +22638,10 @@
         <v>124</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>671</v>
+        <v>597</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="E129" s="15">
         <v>310124</v>
@@ -22435,10 +22686,10 @@
         <v>125</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>673</v>
+        <v>599</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>674</v>
+        <v>600</v>
       </c>
       <c r="E130" s="15">
         <v>310125</v>
@@ -22483,10 +22734,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>675</v>
+        <v>601</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
       <c r="E131" s="15">
         <v>310126</v>
@@ -22531,10 +22782,10 @@
         <v>127</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>677</v>
+        <v>603</v>
       </c>
       <c r="E132" s="15">
         <v>310127</v>
@@ -22579,10 +22830,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>678</v>
+        <v>604</v>
       </c>
       <c r="E133" s="15">
         <v>310128</v>
@@ -22627,10 +22878,10 @@
         <v>129</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>679</v>
+        <v>605</v>
       </c>
       <c r="E134" s="15">
         <v>310129</v>
@@ -22675,10 +22926,10 @@
         <v>130</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>680</v>
+        <v>606</v>
       </c>
       <c r="E135" s="15">
         <v>310130</v>
@@ -22723,10 +22974,10 @@
         <v>131</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>681</v>
+        <v>607</v>
       </c>
       <c r="E136" s="15">
         <v>310131</v>
@@ -22771,10 +23022,10 @@
         <v>132</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>682</v>
+        <v>608</v>
       </c>
       <c r="E137" s="15">
         <v>310132</v>
@@ -22819,10 +23070,10 @@
         <v>133</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>683</v>
+        <v>609</v>
       </c>
       <c r="E138" s="15">
         <v>310133</v>
@@ -22867,10 +23118,10 @@
         <v>134</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>684</v>
+        <v>610</v>
       </c>
       <c r="E139" s="15">
         <v>310134</v>
@@ -22915,10 +23166,10 @@
         <v>135</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>685</v>
+        <v>611</v>
       </c>
       <c r="E140" s="15">
         <v>310135</v>
@@ -22963,10 +23214,10 @@
         <v>136</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>775</v>
+        <v>694</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>776</v>
+        <v>695</v>
       </c>
       <c r="E141" s="15">
         <v>310136</v>
@@ -23015,12 +23266,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23030,6 +23275,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80BE2FC-E6FF-481D-8FD0-79512C324D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08413AA-A69F-4E4F-9CF6-6CA56379717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$X$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$141</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SkillCondition_Table!$A$1:$X$163</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">SkillStat_Table!$A$1:$Q$142</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">SkillStat_Table!$A$1:$Q$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1413,7 +1413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="728">
   <si>
     <t>번호</t>
   </si>
@@ -4068,6 +4068,14 @@
   </si>
   <si>
     <t>소드레인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증오의 여왕(마왕) 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStat137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4642,6 +4650,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4721,9 +4732,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5136,11 +5144,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="D32:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5170,74 +5178,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="53" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="54" t="s">
         <v>696</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="41" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="36" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5256,9 +5264,9 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="37"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="38"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
       </c>
@@ -5271,7 +5279,7 @@
       <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="37"/>
+      <c r="X3" s="38"/>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="4" t="s">
@@ -5450,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="12">
-        <v>310002</v>
+        <v>310137</v>
       </c>
       <c r="N6" s="12">
         <v>900100</v>
@@ -7318,7 +7326,7 @@
       <c r="S32" s="17" t="str">
         <f>"&lt;b&gt;"&amp;C32&amp;"&lt;/b&gt;"&amp;" [액티브 / 쿨타임: "&amp;SkillStat_Table!G15&amp;"초]"&amp;"
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다."</f>
-        <v>&lt;b&gt;불구덩이&lt;/b&gt; [액티브 / 쿨타임: 10초]
+        <v>&lt;b&gt;불구덩이&lt;/b&gt; [액티브 / 쿨타임: 30초]
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
       <c r="T32" s="17" t="s">
@@ -8178,7 +8186,7 @@
       <c r="B45" s="11">
         <v>40</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="34" t="s">
         <v>700</v>
       </c>
       <c r="D45" s="12" t="s">
@@ -8247,7 +8255,7 @@
       <c r="B46" s="11">
         <v>41</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="34" t="s">
         <v>700</v>
       </c>
       <c r="D46" s="12" t="s">
@@ -8316,7 +8324,7 @@
       <c r="B47" s="11">
         <v>42</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="34" t="s">
         <v>700</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -8385,7 +8393,7 @@
       <c r="B48" s="11">
         <v>43</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="34" t="s">
         <v>701</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -8454,7 +8462,7 @@
       <c r="B49" s="11">
         <v>44</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="34" t="s">
         <v>701</v>
       </c>
       <c r="D49" s="12" t="s">
@@ -8523,7 +8531,7 @@
       <c r="B50" s="11">
         <v>45</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="34" t="s">
         <v>701</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -8592,7 +8600,7 @@
       <c r="B51" s="11">
         <v>46</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="34" t="s">
         <v>702</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -8661,7 +8669,7 @@
       <c r="B52" s="11">
         <v>47</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="34" t="s">
         <v>702</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -8730,7 +8738,7 @@
       <c r="B53" s="11">
         <v>48</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="34" t="s">
         <v>702</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -9213,7 +9221,7 @@
       <c r="B60" s="11">
         <v>55</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="34" t="s">
         <v>705</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -9282,7 +9290,7 @@
       <c r="B61" s="11">
         <v>56</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="34" t="s">
         <v>705</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -9351,7 +9359,7 @@
       <c r="B62" s="11">
         <v>57</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="34" t="s">
         <v>705</v>
       </c>
       <c r="D62" s="12" t="s">
@@ -9420,7 +9428,7 @@
       <c r="B63" s="11">
         <v>58</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="34" t="s">
         <v>706</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -9489,7 +9497,7 @@
       <c r="B64" s="11">
         <v>59</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="34" t="s">
         <v>706</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -9558,7 +9566,7 @@
       <c r="B65" s="11">
         <v>60</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="34" t="s">
         <v>706</v>
       </c>
       <c r="D65" s="12" t="s">
@@ -10041,7 +10049,7 @@
       <c r="B72" s="11">
         <v>67</v>
       </c>
-      <c r="C72" s="61" t="s">
+      <c r="C72" s="34" t="s">
         <v>709</v>
       </c>
       <c r="D72" s="12" t="s">
@@ -10110,7 +10118,7 @@
       <c r="B73" s="11">
         <v>68</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="34" t="s">
         <v>709</v>
       </c>
       <c r="D73" s="12" t="s">
@@ -10179,7 +10187,7 @@
       <c r="B74" s="11">
         <v>69</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="34" t="s">
         <v>709</v>
       </c>
       <c r="D74" s="12" t="s">
@@ -10248,7 +10256,7 @@
       <c r="B75" s="11">
         <v>70</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="34" t="s">
         <v>710</v>
       </c>
       <c r="D75" s="12" t="s">
@@ -10386,7 +10394,7 @@
       <c r="B77" s="11">
         <v>72</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="34" t="s">
         <v>710</v>
       </c>
       <c r="D77" s="12" t="s">
@@ -10524,7 +10532,7 @@
       <c r="B79" s="11">
         <v>74</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="34" t="s">
         <v>710</v>
       </c>
       <c r="D79" s="12" t="s">
@@ -10662,7 +10670,7 @@
       <c r="B81" s="11">
         <v>76</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="34" t="s">
         <v>711</v>
       </c>
       <c r="D81" s="12" t="s">
@@ -10731,7 +10739,7 @@
       <c r="B82" s="11">
         <v>77</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="34" t="s">
         <v>711</v>
       </c>
       <c r="D82" s="12" t="s">
@@ -10800,7 +10808,7 @@
       <c r="B83" s="11">
         <v>78</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="34" t="s">
         <v>711</v>
       </c>
       <c r="D83" s="12" t="s">
@@ -13215,7 +13223,7 @@
       <c r="B118" s="11">
         <v>113</v>
       </c>
-      <c r="C118" s="61" t="s">
+      <c r="C118" s="34" t="s">
         <v>720</v>
       </c>
       <c r="D118" s="12" t="s">
@@ -13284,7 +13292,7 @@
       <c r="B119" s="11">
         <v>114</v>
       </c>
-      <c r="C119" s="61" t="s">
+      <c r="C119" s="34" t="s">
         <v>720</v>
       </c>
       <c r="D119" s="12" t="s">
@@ -13353,7 +13361,7 @@
       <c r="B120" s="11">
         <v>115</v>
       </c>
-      <c r="C120" s="61" t="s">
+      <c r="C120" s="34" t="s">
         <v>720</v>
       </c>
       <c r="D120" s="12" t="s">
@@ -13422,7 +13430,7 @@
       <c r="B121" s="11">
         <v>116</v>
       </c>
-      <c r="C121" s="61" t="s">
+      <c r="C121" s="34" t="s">
         <v>721</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -13491,7 +13499,7 @@
       <c r="B122" s="11">
         <v>117</v>
       </c>
-      <c r="C122" s="61" t="s">
+      <c r="C122" s="34" t="s">
         <v>721</v>
       </c>
       <c r="D122" s="12" t="s">
@@ -13560,7 +13568,7 @@
       <c r="B123" s="11">
         <v>118</v>
       </c>
-      <c r="C123" s="61" t="s">
+      <c r="C123" s="34" t="s">
         <v>721</v>
       </c>
       <c r="D123" s="12" t="s">
@@ -13629,7 +13637,7 @@
       <c r="B124" s="11">
         <v>119</v>
       </c>
-      <c r="C124" s="61" t="s">
+      <c r="C124" s="34" t="s">
         <v>722</v>
       </c>
       <c r="D124" s="12" t="s">
@@ -13698,7 +13706,7 @@
       <c r="B125" s="11">
         <v>120</v>
       </c>
-      <c r="C125" s="61" t="s">
+      <c r="C125" s="34" t="s">
         <v>722</v>
       </c>
       <c r="D125" s="12" t="s">
@@ -13767,7 +13775,7 @@
       <c r="B126" s="11">
         <v>121</v>
       </c>
-      <c r="C126" s="61" t="s">
+      <c r="C126" s="34" t="s">
         <v>722</v>
       </c>
       <c r="D126" s="12" t="s">
@@ -13836,7 +13844,7 @@
       <c r="B127" s="11">
         <v>122</v>
       </c>
-      <c r="C127" s="61" t="s">
+      <c r="C127" s="34" t="s">
         <v>723</v>
       </c>
       <c r="D127" s="12" t="s">
@@ -13905,7 +13913,7 @@
       <c r="B128" s="11">
         <v>123</v>
       </c>
-      <c r="C128" s="61" t="s">
+      <c r="C128" s="34" t="s">
         <v>723</v>
       </c>
       <c r="D128" s="12" t="s">
@@ -13974,7 +13982,7 @@
       <c r="B129" s="11">
         <v>124</v>
       </c>
-      <c r="C129" s="61" t="s">
+      <c r="C129" s="34" t="s">
         <v>723</v>
       </c>
       <c r="D129" s="12" t="s">
@@ -14043,7 +14051,7 @@
       <c r="B130" s="11">
         <v>125</v>
       </c>
-      <c r="C130" s="61" t="s">
+      <c r="C130" s="34" t="s">
         <v>724</v>
       </c>
       <c r="D130" s="12" t="s">
@@ -14388,7 +14396,7 @@
       <c r="B135" s="11">
         <v>130</v>
       </c>
-      <c r="C135" s="61" t="s">
+      <c r="C135" s="34" t="s">
         <v>724</v>
       </c>
       <c r="D135" s="12" t="s">
@@ -14733,7 +14741,7 @@
       <c r="B140" s="11">
         <v>135</v>
       </c>
-      <c r="C140" s="61" t="s">
+      <c r="C140" s="34" t="s">
         <v>724</v>
       </c>
       <c r="D140" s="12" t="s">
@@ -16519,13 +16527,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:Q141"/>
+  <dimension ref="B2:Q142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I125" sqref="I125"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16548,74 +16556,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="59" t="s">
         <v>693</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="22" t="s">
         <v>272</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="55"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="23" t="s">
@@ -17172,7 +17180,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H15" s="27">
         <v>2</v>
@@ -23211,7 +23219,7 @@
     </row>
     <row r="141" spans="2:17">
       <c r="B141" s="26">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>694</v>
@@ -23235,7 +23243,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K141" s="27">
         <v>10</v>
@@ -23256,6 +23264,53 @@
         <v>0</v>
       </c>
       <c r="Q141" s="24"/>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="B142" s="26">
+        <v>133</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="E142" s="15">
+        <v>310137</v>
+      </c>
+      <c r="F142" s="15">
+        <v>1</v>
+      </c>
+      <c r="G142" s="15">
+        <v>0</v>
+      </c>
+      <c r="H142" s="27">
+        <v>1</v>
+      </c>
+      <c r="I142" s="27">
+        <v>0</v>
+      </c>
+      <c r="J142" s="27">
+        <v>8</v>
+      </c>
+      <c r="K142" s="27">
+        <v>10</v>
+      </c>
+      <c r="L142" s="15">
+        <v>1</v>
+      </c>
+      <c r="M142" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="N142" s="15">
+        <v>1</v>
+      </c>
+      <c r="O142" s="15">
+        <v>0</v>
+      </c>
+      <c r="P142" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B5:Q141" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
@@ -23287,11 +23342,11 @@
   <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="141" max="16" man="1"/>
+    <brk id="142" max="16" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>
-    <brk id="16" max="141" man="1"/>
+    <brk id="16" max="142" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08413AA-A69F-4E4F-9CF6-6CA56379717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CB3EC-6F5D-4FAE-873D-F3DEBE643259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillCondition_Table!$B$5:$X$163</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillStat_Table!$B$5:$Q$142</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SkillCondition_Table!$A$1:$X$163</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">SkillStat_Table!$A$1:$Q$143</definedName>
   </definedNames>
@@ -4653,11 +4653,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4665,23 +4665,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4713,16 +4701,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4733,6 +4727,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5187,49 +5187,49 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="53" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="54" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="50" t="s">
         <v>696</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="42" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="43"/>
+      <c r="W2" s="36"/>
       <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
@@ -5239,13 +5239,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="41"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5264,8 +5264,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
       <c r="S3" s="38"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -16332,6 +16332,12 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16342,12 +16348,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16526,14 +16526,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16568,17 +16567,17 @@
       <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="51" t="s">
         <v>277</v>
       </c>
       <c r="K2" s="55" t="s">
@@ -16587,16 +16586,16 @@
       <c r="L2" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="59" t="s">
         <v>357</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="51" t="s">
         <v>288</v>
       </c>
       <c r="Q2" s="55" t="s">
@@ -16614,15 +16613,15 @@
       <c r="G3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="36"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="56"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17">
@@ -17067,7 +17066,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="2:17" hidden="1">
+    <row r="13" spans="2:17">
       <c r="B13" s="26">
         <v>8</v>
       </c>
@@ -17115,7 +17114,7 @@
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="2:17" hidden="1">
+    <row r="14" spans="2:17">
       <c r="B14" s="26">
         <v>9</v>
       </c>
@@ -17211,7 +17210,7 @@
       </c>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="2:17" hidden="1">
+    <row r="16" spans="2:17">
       <c r="B16" s="26">
         <v>11</v>
       </c>
@@ -17259,7 +17258,7 @@
       </c>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="2:17" hidden="1">
+    <row r="17" spans="2:17">
       <c r="B17" s="26">
         <v>12</v>
       </c>
@@ -17595,7 +17594,7 @@
       </c>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" hidden="1">
+    <row r="24" spans="2:17">
       <c r="B24" s="26">
         <v>19</v>
       </c>
@@ -17643,7 +17642,7 @@
       </c>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" hidden="1">
+    <row r="25" spans="2:17">
       <c r="B25" s="26">
         <v>20</v>
       </c>
@@ -17691,7 +17690,7 @@
       </c>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" hidden="1">
+    <row r="26" spans="2:17">
       <c r="B26" s="26">
         <v>21</v>
       </c>
@@ -18171,7 +18170,7 @@
       </c>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" hidden="1">
+    <row r="36" spans="2:17">
       <c r="B36" s="26">
         <v>31</v>
       </c>
@@ -18219,7 +18218,7 @@
       </c>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" hidden="1">
+    <row r="37" spans="2:17">
       <c r="B37" s="26">
         <v>32</v>
       </c>
@@ -18267,7 +18266,7 @@
       </c>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" hidden="1">
+    <row r="38" spans="2:17">
       <c r="B38" s="26">
         <v>33</v>
       </c>
@@ -18315,7 +18314,7 @@
       </c>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" hidden="1">
+    <row r="39" spans="2:17">
       <c r="B39" s="26">
         <v>34</v>
       </c>
@@ -18363,7 +18362,7 @@
       </c>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" hidden="1">
+    <row r="40" spans="2:17">
       <c r="B40" s="26">
         <v>35</v>
       </c>
@@ -18411,7 +18410,7 @@
       </c>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" hidden="1">
+    <row r="41" spans="2:17">
       <c r="B41" s="26">
         <v>36</v>
       </c>
@@ -18459,7 +18458,7 @@
       </c>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" hidden="1">
+    <row r="42" spans="2:17">
       <c r="B42" s="26">
         <v>37</v>
       </c>
@@ -18507,7 +18506,7 @@
       </c>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" hidden="1">
+    <row r="43" spans="2:17">
       <c r="B43" s="26">
         <v>38</v>
       </c>
@@ -18555,7 +18554,7 @@
       </c>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" hidden="1">
+    <row r="44" spans="2:17">
       <c r="B44" s="26">
         <v>39</v>
       </c>
@@ -18603,7 +18602,7 @@
       </c>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" hidden="1">
+    <row r="45" spans="2:17">
       <c r="B45" s="26">
         <v>40</v>
       </c>
@@ -18651,7 +18650,7 @@
       </c>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" hidden="1">
+    <row r="46" spans="2:17">
       <c r="B46" s="26">
         <v>41</v>
       </c>
@@ -18699,7 +18698,7 @@
       </c>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" hidden="1">
+    <row r="47" spans="2:17">
       <c r="B47" s="26">
         <v>42</v>
       </c>
@@ -18747,7 +18746,7 @@
       </c>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" hidden="1">
+    <row r="48" spans="2:17">
       <c r="B48" s="26">
         <v>43</v>
       </c>
@@ -18795,7 +18794,7 @@
       </c>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" hidden="1">
+    <row r="49" spans="2:17">
       <c r="B49" s="26">
         <v>44</v>
       </c>
@@ -18843,7 +18842,7 @@
       </c>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" hidden="1">
+    <row r="50" spans="2:17">
       <c r="B50" s="26">
         <v>45</v>
       </c>
@@ -18891,7 +18890,7 @@
       </c>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" hidden="1">
+    <row r="51" spans="2:17">
       <c r="B51" s="26">
         <v>46</v>
       </c>
@@ -18939,7 +18938,7 @@
       </c>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" hidden="1">
+    <row r="52" spans="2:17">
       <c r="B52" s="26">
         <v>47</v>
       </c>
@@ -18987,7 +18986,7 @@
       </c>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" hidden="1">
+    <row r="53" spans="2:17">
       <c r="B53" s="26">
         <v>48</v>
       </c>
@@ -19035,7 +19034,7 @@
       </c>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" hidden="1">
+    <row r="54" spans="2:17">
       <c r="B54" s="26">
         <v>49</v>
       </c>
@@ -19131,7 +19130,7 @@
       </c>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" hidden="1">
+    <row r="56" spans="2:17">
       <c r="B56" s="26">
         <v>51</v>
       </c>
@@ -19227,7 +19226,7 @@
       </c>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" hidden="1">
+    <row r="58" spans="2:17">
       <c r="B58" s="26">
         <v>53</v>
       </c>
@@ -19323,7 +19322,7 @@
       </c>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" hidden="1">
+    <row r="60" spans="2:17">
       <c r="B60" s="26">
         <v>55</v>
       </c>
@@ -19371,7 +19370,7 @@
       </c>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" hidden="1">
+    <row r="61" spans="2:17">
       <c r="B61" s="26">
         <v>56</v>
       </c>
@@ -19419,7 +19418,7 @@
       </c>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" hidden="1">
+    <row r="62" spans="2:17">
       <c r="B62" s="26">
         <v>57</v>
       </c>
@@ -20337,7 +20336,7 @@
       </c>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" hidden="1">
+    <row r="81" spans="2:17">
       <c r="B81" s="26">
         <v>76</v>
       </c>
@@ -20385,7 +20384,7 @@
       </c>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" hidden="1">
+    <row r="82" spans="2:17">
       <c r="B82" s="26">
         <v>77</v>
       </c>
@@ -20433,7 +20432,7 @@
       </c>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="2:17" hidden="1">
+    <row r="83" spans="2:17">
       <c r="B83" s="26">
         <v>78</v>
       </c>
@@ -20481,7 +20480,7 @@
       </c>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="2:17" hidden="1">
+    <row r="84" spans="2:17">
       <c r="B84" s="26">
         <v>79</v>
       </c>
@@ -20529,7 +20528,7 @@
       </c>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="2:17" hidden="1">
+    <row r="85" spans="2:17">
       <c r="B85" s="26">
         <v>80</v>
       </c>
@@ -20577,7 +20576,7 @@
       </c>
       <c r="Q85" s="15"/>
     </row>
-    <row r="86" spans="2:17" hidden="1">
+    <row r="86" spans="2:17">
       <c r="B86" s="26">
         <v>81</v>
       </c>
@@ -20625,7 +20624,7 @@
       </c>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="2:17" hidden="1">
+    <row r="87" spans="2:17">
       <c r="B87" s="26">
         <v>82</v>
       </c>
@@ -20673,7 +20672,7 @@
       </c>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="2:17" hidden="1">
+    <row r="88" spans="2:17">
       <c r="B88" s="26">
         <v>83</v>
       </c>
@@ -20721,7 +20720,7 @@
       </c>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="2:17" hidden="1">
+    <row r="89" spans="2:17">
       <c r="B89" s="26">
         <v>84</v>
       </c>
@@ -20769,7 +20768,7 @@
       </c>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="2:17" hidden="1">
+    <row r="90" spans="2:17">
       <c r="B90" s="26">
         <v>85</v>
       </c>
@@ -20817,7 +20816,7 @@
       </c>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="2:17" hidden="1">
+    <row r="91" spans="2:17">
       <c r="B91" s="26">
         <v>86</v>
       </c>
@@ -20865,7 +20864,7 @@
       </c>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="2:17" hidden="1">
+    <row r="92" spans="2:17">
       <c r="B92" s="26">
         <v>87</v>
       </c>
@@ -21201,7 +21200,7 @@
       </c>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="2:17" hidden="1">
+    <row r="99" spans="2:17">
       <c r="B99" s="26">
         <v>94</v>
       </c>
@@ -21249,7 +21248,7 @@
       </c>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" hidden="1">
+    <row r="100" spans="2:17">
       <c r="B100" s="26">
         <v>95</v>
       </c>
@@ -21297,7 +21296,7 @@
       </c>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" hidden="1">
+    <row r="101" spans="2:17">
       <c r="B101" s="26">
         <v>96</v>
       </c>
@@ -21345,7 +21344,7 @@
       </c>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="2:17" hidden="1">
+    <row r="102" spans="2:17">
       <c r="B102" s="26">
         <v>97</v>
       </c>
@@ -21393,7 +21392,7 @@
       </c>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="2:17" hidden="1">
+    <row r="103" spans="2:17">
       <c r="B103" s="26">
         <v>98</v>
       </c>
@@ -21441,7 +21440,7 @@
       </c>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="2:17" hidden="1">
+    <row r="104" spans="2:17">
       <c r="B104" s="26">
         <v>99</v>
       </c>
@@ -21489,7 +21488,7 @@
       </c>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" spans="2:17" hidden="1">
+    <row r="105" spans="2:17">
       <c r="B105" s="26">
         <v>100</v>
       </c>
@@ -21537,7 +21536,7 @@
       </c>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="2:17" hidden="1">
+    <row r="106" spans="2:17">
       <c r="B106" s="26">
         <v>101</v>
       </c>
@@ -21585,7 +21584,7 @@
       </c>
       <c r="Q106" s="30"/>
     </row>
-    <row r="107" spans="2:17" hidden="1">
+    <row r="107" spans="2:17">
       <c r="B107" s="26">
         <v>102</v>
       </c>
@@ -21633,7 +21632,7 @@
       </c>
       <c r="Q107" s="30"/>
     </row>
-    <row r="108" spans="2:17" hidden="1">
+    <row r="108" spans="2:17">
       <c r="B108" s="26">
         <v>103</v>
       </c>
@@ -21681,7 +21680,7 @@
       </c>
       <c r="Q108" s="30"/>
     </row>
-    <row r="109" spans="2:17" hidden="1">
+    <row r="109" spans="2:17">
       <c r="B109" s="26">
         <v>104</v>
       </c>
@@ -21729,7 +21728,7 @@
       </c>
       <c r="Q109" s="30"/>
     </row>
-    <row r="110" spans="2:17" hidden="1">
+    <row r="110" spans="2:17">
       <c r="B110" s="26">
         <v>105</v>
       </c>
@@ -21777,7 +21776,7 @@
       </c>
       <c r="Q110" s="30"/>
     </row>
-    <row r="111" spans="2:17" hidden="1">
+    <row r="111" spans="2:17">
       <c r="B111" s="26">
         <v>106</v>
       </c>
@@ -21825,7 +21824,7 @@
       </c>
       <c r="Q111" s="30"/>
     </row>
-    <row r="112" spans="2:17" hidden="1">
+    <row r="112" spans="2:17">
       <c r="B112" s="26">
         <v>107</v>
       </c>
@@ -21873,7 +21872,7 @@
       </c>
       <c r="Q112" s="30"/>
     </row>
-    <row r="113" spans="2:17" hidden="1">
+    <row r="113" spans="2:17">
       <c r="B113" s="26">
         <v>108</v>
       </c>
@@ -21921,7 +21920,7 @@
       </c>
       <c r="Q113" s="30"/>
     </row>
-    <row r="114" spans="2:17" hidden="1">
+    <row r="114" spans="2:17">
       <c r="B114" s="26">
         <v>109</v>
       </c>
@@ -21969,7 +21968,7 @@
       </c>
       <c r="Q114" s="30"/>
     </row>
-    <row r="115" spans="2:17" hidden="1">
+    <row r="115" spans="2:17">
       <c r="B115" s="26">
         <v>110</v>
       </c>
@@ -22017,7 +22016,7 @@
       </c>
       <c r="Q115" s="30"/>
     </row>
-    <row r="116" spans="2:17" hidden="1">
+    <row r="116" spans="2:17">
       <c r="B116" s="26">
         <v>111</v>
       </c>
@@ -22065,7 +22064,7 @@
       </c>
       <c r="Q116" s="30"/>
     </row>
-    <row r="117" spans="2:17" hidden="1">
+    <row r="117" spans="2:17">
       <c r="B117" s="26">
         <v>112</v>
       </c>
@@ -22113,7 +22112,7 @@
       </c>
       <c r="Q117" s="30"/>
     </row>
-    <row r="118" spans="2:17" hidden="1">
+    <row r="118" spans="2:17">
       <c r="B118" s="26">
         <v>113</v>
       </c>
@@ -22161,7 +22160,7 @@
       </c>
       <c r="Q118" s="30"/>
     </row>
-    <row r="119" spans="2:17" hidden="1">
+    <row r="119" spans="2:17">
       <c r="B119" s="26">
         <v>114</v>
       </c>
@@ -22209,7 +22208,7 @@
       </c>
       <c r="Q119" s="30"/>
     </row>
-    <row r="120" spans="2:17" hidden="1">
+    <row r="120" spans="2:17">
       <c r="B120" s="26">
         <v>115</v>
       </c>
@@ -22257,7 +22256,7 @@
       </c>
       <c r="Q120" s="30"/>
     </row>
-    <row r="121" spans="2:17" hidden="1">
+    <row r="121" spans="2:17">
       <c r="B121" s="26">
         <v>116</v>
       </c>
@@ -22305,7 +22304,7 @@
       </c>
       <c r="Q121" s="30"/>
     </row>
-    <row r="122" spans="2:17" hidden="1">
+    <row r="122" spans="2:17">
       <c r="B122" s="26">
         <v>117</v>
       </c>
@@ -22785,7 +22784,7 @@
       </c>
       <c r="Q131" s="30"/>
     </row>
-    <row r="132" spans="2:17" hidden="1">
+    <row r="132" spans="2:17">
       <c r="B132" s="26">
         <v>127</v>
       </c>
@@ -22833,7 +22832,7 @@
       </c>
       <c r="Q132" s="30"/>
     </row>
-    <row r="133" spans="2:17" hidden="1">
+    <row r="133" spans="2:17">
       <c r="B133" s="26">
         <v>128</v>
       </c>
@@ -23025,7 +23024,7 @@
       </c>
       <c r="Q136" s="30"/>
     </row>
-    <row r="137" spans="2:17" hidden="1">
+    <row r="137" spans="2:17">
       <c r="B137" s="26">
         <v>132</v>
       </c>
@@ -23073,7 +23072,7 @@
       </c>
       <c r="Q137" s="30"/>
     </row>
-    <row r="138" spans="2:17" hidden="1">
+    <row r="138" spans="2:17">
       <c r="B138" s="26">
         <v>133</v>
       </c>
@@ -23121,7 +23120,7 @@
       </c>
       <c r="Q138" s="30"/>
     </row>
-    <row r="139" spans="2:17" hidden="1">
+    <row r="139" spans="2:17">
       <c r="B139" s="26">
         <v>134</v>
       </c>
@@ -23169,7 +23168,7 @@
       </c>
       <c r="Q139" s="30"/>
     </row>
-    <row r="140" spans="2:17" hidden="1">
+    <row r="140" spans="2:17">
       <c r="B140" s="26">
         <v>135</v>
       </c>
@@ -23313,14 +23312,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:Q141" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:Q142" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23330,16 +23329,10 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
     <brk id="142" max="16" man="1"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CB3EC-6F5D-4FAE-873D-F3DEBE643259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52F148-7D7F-4A3D-A538-718D82ADB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <author/>
     <author>강민수</author>
     <author>PC-07</author>
+    <author>PC-02</author>
   </authors>
   <commentList>
     <comment ref="H2" authorId="0" shapeId="0" xr:uid="{BBD680FA-166E-4906-BA8A-8A84E9547D47}">
@@ -1168,6 +1169,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="N32" authorId="3" shapeId="0" xr:uid="{2DB061E0-E79E-4084-AF60-3FBFB31137AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">900108 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>였음</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1413,7 +1437,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="765">
   <si>
     <t>번호</t>
   </si>
@@ -2352,192 +2376,6 @@
     <t>방어력 감소</t>
   </si>
   <si>
-    <t>[&lt;b&gt;{50}&lt;/b&gt; / {100} / {200}]</t>
-  </si>
-  <si>
-    <t>[{50} /&lt;b&gt;{100}&lt;/b&gt; / {200}]</t>
-  </si>
-  <si>
-    <t>[{50} / {100} / &lt;b&gt;{200}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{5%}&lt;/b&gt; / {11%} / {18%}]</t>
-  </si>
-  <si>
-    <t>[{5%} / &lt;b&gt;{11%}&lt;/b&gt; / {18%}]</t>
-  </si>
-  <si>
-    <t>[{5%} / {11%} / &lt;b&gt;{18%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[{50} / &lt;b&gt;{100}&lt;/b&gt; / {200}]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{100}&lt;/b&gt; / {200} / {400}]</t>
-  </si>
-  <si>
-    <t>[{100} / &lt;b&gt;{200}&lt;/b&gt; / {400}]</t>
-  </si>
-  <si>
-    <t>[{100} / {200} / &lt;b&gt;{400}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>{50} / {100} / [&lt;b&gt;{200}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{5%}&lt;/b&gt; / {18%} / {33%}]</t>
-  </si>
-  <si>
-    <t>[{5%} / &lt;b&gt;{18%}&lt;/b&gt; / {33%}]</t>
-  </si>
-  <si>
-    <t>[{5%} / {18%} / &lt;b&gt;{33%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{15%}&lt;/b&gt; / {25%} / {40%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / &lt;b&gt;{25%}&lt;/b&gt; / {40%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / {25%} / &lt;b&gt;{40%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{75}&lt;/b&gt; / {150} / {300}]</t>
-  </si>
-  <si>
-    <t>[{75} / &lt;b&gt;{150}&lt;/b&gt; / {300}]</t>
-  </si>
-  <si>
-    <t>[{75} / {150} / &lt;b&gt;{300}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{25}&lt;/b&gt; / {50} / {100}]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{10%}&lt;/b&gt; / {15%} / {25%}]</t>
-  </si>
-  <si>
-    <t>[{25} / &lt;b&gt;{50}&lt;/b&gt; / {100}]</t>
-  </si>
-  <si>
-    <t>[{10%} / &lt;b&gt;{15%}&lt;/b&gt; / {25%}]</t>
-  </si>
-  <si>
-    <t>[{25} / {50} / &lt;b&gt;{100}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[{10%} / {15%} / &lt;b&gt;{25%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{15%}&lt;/b&gt; / {20%} / {30%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / &lt;b&gt;{20%}&lt;/b&gt; / {30%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / {20%} / &lt;b&gt;{30%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{15%}&lt;/b&gt; / {30%} / {40%}]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{11%}&lt;/b&gt; / {18%} / {25%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / &lt;b&gt;{30%}&lt;/b&gt; / {40%}]</t>
-  </si>
-  <si>
-    <t>[{11%} / &lt;b&gt;{18%}&lt;/b&gt; / {25%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / {30%} / &lt;b&gt;{40%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[{11%} / {18%} / &lt;b&gt;{25%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{50}&lt;/b&gt; / {300} / {1000}]</t>
-  </si>
-  <si>
-    <t>[{50} / &lt;b&gt;{300}&lt;/b&gt; / {1000}]</t>
-  </si>
-  <si>
-    <t>[{50} / {300} / &lt;b&gt;{1000}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{20%}&lt;/b&gt; / {30%} / {35%}]</t>
-  </si>
-  <si>
-    <t>[{20%} / &lt;b&gt;{30%}&lt;/b&gt; / {35%}]</t>
-  </si>
-  <si>
-    <t>[{20%}/ {30%} / &lt;b&gt;{35%}&lt;/b&gt; ]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{400}&lt;/b&gt; / {800} / {1600}]</t>
-  </si>
-  <si>
-    <t>[{400} / &lt;b&gt;{800}&lt;/b&gt; / {1600}]</t>
-  </si>
-  <si>
-    <t>[{400} / {800} / &lt;b&gt;{1600}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{15%}&lt;/b&gt; / {20%} / {25%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / &lt;b&gt;{20%}&lt;/b&gt; / {25%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / {20%} / &lt;b&gt;{25%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{10%}&lt;/b&gt; / {15%} / {30%}]</t>
-  </si>
-  <si>
-    <t>[{10%} / &lt;b&gt;{15%}&lt;/b&gt; / {30%}]</t>
-  </si>
-  <si>
-    <t>[{10%} / {15%} / &lt;b&gt;{30%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{15%}&lt;/b&gt; / {25%} / {30%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / &lt;b&gt;{25%}&lt;/b&gt; / {30%}]</t>
-  </si>
-  <si>
-    <t>[{15%} / {25%} / &lt;b&gt;{30%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{10%}&lt;/b&gt; / {20%} / {25%}]</t>
-  </si>
-  <si>
-    <t>[{10%} / &lt;b&gt;{20%}&lt;/b&gt; / {25%}]</t>
-  </si>
-  <si>
-    <t>[{10%} / {20%} / &lt;b&gt;{25%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{20%}&lt;/b&gt; / {30%} / {40%}]</t>
-  </si>
-  <si>
-    <t>[{20%} / &lt;b&gt;{30%}&lt;/b&gt; / {40%}]</t>
-  </si>
-  <si>
-    <t>[{20%} / {30%} / &lt;b&gt;{40%}&lt;/b&gt;]</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{60}&lt;/b&gt; / {120} / {240}]</t>
-  </si>
-  <si>
-    <t>[{60} / &lt;b&gt;{120}&lt;/b&gt; / {240}]</t>
-  </si>
-  <si>
-    <t>[{60} / {120} / &lt;b&gt;{240}&lt;/b&gt;]</t>
-  </si>
-  <si>
     <t>크기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3519,30 +3357,6 @@
   </si>
   <si>
     <t>광역 데미지</t>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{50%}&lt;/b&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{100%}&lt;/b&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{2000}&lt;/b&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{200}&lt;/b&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{150}&lt;/b&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;b&gt;{60%}&lt;/b&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dmg_Percent</t>
@@ -4078,6 +3892,426 @@
     <t>SkillStat137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;b&gt;{50%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{100%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{240}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{100}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{60%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{90}&lt;/b&gt; / {200} / {540}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{90} /&lt;b&gt;{200}&lt;/b&gt; / {540}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{90} / {200} / &lt;b&gt;{540}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{5%}&lt;/b&gt; / {11%} / {18%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5%} / &lt;b&gt;{11%}&lt;/b&gt; / {18%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5%} / {11%} / &lt;b&gt;{18%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{225}&lt;/b&gt; / {480} / {1500}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{225} / &lt;b&gt;{480}&lt;/b&gt; / {1500}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{225} / {480} / &lt;b&gt;{1500}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{64}&lt;/b&gt; / {169} / {570}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{64} / &lt;b&gt;{169}&lt;/b&gt; / {570}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{64} / {169} / &lt;b&gt;{570}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{79}&lt;/b&gt; / {169} / {570}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{79} / &lt;b&gt;{169}&lt;/b&gt; / {570}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{79} / {169} / [&lt;b&gt;{570}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{5%}&lt;/b&gt; / {18%} / {33%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5%} / &lt;b&gt;{18%}&lt;/b&gt; / {33%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5%} / {18%} / &lt;b&gt;{33%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{64}&lt;/b&gt; / {137} / {464}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{64} / &lt;b&gt;{137}&lt;/b&gt; / {464}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{64} / {137} / &lt;b&gt;{464}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{150}&lt;/b&gt; / {320} / {900}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{150} / &lt;b&gt;{320}&lt;/b&gt; / {900}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{150} / {320} / &lt;b&gt;{900}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{169}&lt;/b&gt; / {361} / {1200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{169} / &lt;b&gt;{361}&lt;/b&gt; / {1200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{169} / {361} / &lt;b&gt;{1200}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{15%}&lt;/b&gt; / {20%} / {30%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / &lt;b&gt;{20%}&lt;/b&gt; / {30%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / {20%} / &lt;b&gt;{30%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{15%}&lt;/b&gt; / {30%} / {40%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / &lt;b&gt;{30%}&lt;/b&gt; / {40%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / {30%} / &lt;b&gt;{40%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{82}&lt;/b&gt; / {131} / {255}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{82} / &lt;b&gt;{131}&lt;/b&gt; / {255}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{82} / {131} / &lt;b&gt;{255}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{105}&lt;/b&gt; / {224} / {651}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{105} / &lt;b&gt;{224}&lt;/b&gt; / {651}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{105} / {224} / &lt;b&gt;{651}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{78}&lt;/b&gt; / {166} / {570}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{78} / &lt;b&gt;{166}&lt;/b&gt; / {570}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{78} / {166} / &lt;b&gt;{570}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{1125}&lt;/b&gt; / {550} / {4800}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1125} / &lt;b&gt;{550}&lt;/b&gt; / {4800}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1125} / {550} / &lt;b&gt;{4800}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{163}&lt;/b&gt; / {348} / {1140}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{163} / &lt;b&gt;{348}&lt;/b&gt; / {1140}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{163} / {348} / &lt;b&gt;{1140}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{124}&lt;/b&gt; / {265} / {765}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{124} / &lt;b&gt;{265}&lt;/b&gt; / {765}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{124} / {265} / &lt;b&gt;{765}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{15%}&lt;/b&gt; / {20%} / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / &lt;b&gt;{20%}&lt;/b&gt; / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / {20%} / &lt;b&gt;{25%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{10%}&lt;/b&gt; / {15%} / {30%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10%} / &lt;b&gt;{15%}&lt;/b&gt; / {30%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10%} / {15%} / &lt;b&gt;{30%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{105}&lt;/b&gt; / {220} / {600}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{105} / &lt;b&gt;{220}&lt;/b&gt; / {600}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{105} / {220} / &lt;b&gt;{600}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{165}&lt;/b&gt; / {352} / {1155}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{165} / &lt;b&gt;{352}&lt;/b&gt; / {1155}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{165} / {352} / &lt;b&gt;{1155}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{102}&lt;/b&gt; / {217} / {630}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{102} / &lt;b&gt;{217}&lt;/b&gt; / {630}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{102} / {217} / &lt;b&gt;{630}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{525}&lt;/b&gt; / {1000} / {2400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{525} / &lt;b&gt;{1000}&lt;/b&gt; / {2400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{525} / {1000} / &lt;b&gt;{2400}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{10%}&lt;/b&gt; / {20%} / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10%} / &lt;b&gt;{20%}&lt;/b&gt; / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10%} / {20%} / &lt;b&gt;{25%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{825}&lt;/b&gt; / {1440} / {3465}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{825} / &lt;b&gt;{1440}&lt;/b&gt; / {3465}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{825} / {1440} / &lt;b&gt;{3465}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{367}&lt;/b&gt; / {672} / {1850}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{367} / &lt;b&gt;{672}&lt;/b&gt; / {1850}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{367} / {672} / &lt;b&gt;{1850}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20%} / {30%} / &lt;b&gt;{40%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20%} / &lt;b&gt;{30%}&lt;/b&gt; / {40%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{20%}&lt;/b&gt; / {30%} / {40%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / {25%} / &lt;b&gt;{30%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / &lt;b&gt;{25%}&lt;/b&gt; / {30%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{15%}&lt;/b&gt; / {25%} / {30%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20%} / &lt;b&gt;{30%}&lt;/b&gt; / {35%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20%}/ {30%} / &lt;b&gt;{35%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{20%}&lt;/b&gt; / {30%} / {35%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{123} / {262} / &lt;b&gt;{765}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{123} / &lt;b&gt;{262}&lt;/b&gt; / {765}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{123}&lt;/b&gt; / {262} / {765}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{11%} / {18%} / &lt;b&gt;{25%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{11%} / &lt;b&gt;{18%}&lt;/b&gt; / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{11%}&lt;/b&gt; / {18%} / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10%} / {15%} / &lt;b&gt;{25%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10%} / &lt;b&gt;{15%}&lt;/b&gt; / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{10%}&lt;/b&gt; / {15%} / {25%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / {25%} / &lt;b&gt;{40%}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15%} / &lt;b&gt;{25%}&lt;/b&gt; / {40%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{15%}&lt;/b&gt; / {25%} / {40%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4087,7 +4321,7 @@
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4286,6 +4520,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="81"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -4653,11 +4900,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4665,11 +4912,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4701,22 +4960,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4727,12 +4980,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5144,11 +5391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:X163"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="P111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="D32:R32"/>
+      <selection pane="bottomRight" activeCell="W133" sqref="W133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5187,49 +5434,49 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="40" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="50" t="s">
-        <v>696</v>
-      </c>
-      <c r="R2" s="47" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="R2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="35" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="36"/>
+      <c r="W2" s="43"/>
       <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
@@ -5239,13 +5486,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="54"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5264,8 +5511,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="38"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -5328,7 +5575,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>697</v>
+        <v>629</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>30</v>
@@ -5399,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>698</v>
+        <v>630</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>4</v>
@@ -5562,7 +5809,7 @@
         <v>52</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="2:24">
@@ -6130,7 +6377,7 @@
         <v>52</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>613</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="2:24">
@@ -7186,10 +7433,10 @@
 증오의 여왕이 증오의 씨앗을 뿌려 선택한 구역의 모든 타워 공격력을 5초간 증가시킵니다.</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="V30" s="15" t="s">
         <v>52</v>
@@ -7261,7 +7508,7 @@
         <v>292</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="V31" s="15" t="s">
         <v>52</v>
@@ -7309,7 +7556,7 @@
         <v>310010</v>
       </c>
       <c r="N32" s="12">
-        <v>900108</v>
+        <v>900109</v>
       </c>
       <c r="O32" s="12">
         <v>900000</v>
@@ -7330,10 +7577,10 @@
 지옥의군주가 불구덩이를 만들어 범위 내의 적에게 피해를 줍니다.</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="V32" s="15" t="s">
         <v>52</v>
@@ -7342,7 +7589,7 @@
         <v>52</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>616</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="2:24">
@@ -7545,16 +7792,16 @@
 프로스트리치가 영구동토를 생성해 피해를 입히며 이동속도를 5초간 감소시킵니다.</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="V35" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="X35" s="17"/>
     </row>
@@ -7632,7 +7879,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>618</v>
+        <v>556</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>134</v>
@@ -7686,16 +7933,16 @@
 프로스트리치가 검을 떨어트려 10초간 적에게 피해를 입히고 이동불가 생태로 만듭니다.</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="V37" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="X37" s="19"/>
     </row>
@@ -7773,7 +8020,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>699</v>
+        <v>631</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>137</v>
@@ -7821,13 +8068,13 @@
         <v>910001</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>295</v>
+        <v>665</v>
       </c>
       <c r="V39" s="17" t="s">
         <v>52</v>
@@ -7842,7 +8089,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>138</v>
@@ -7911,7 +8158,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>699</v>
+        <v>631</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>139</v>
@@ -7959,13 +8206,13 @@
         <v>910001</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>296</v>
+        <v>666</v>
       </c>
       <c r="V41" s="17" t="s">
         <v>52</v>
@@ -7980,7 +8227,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>140</v>
@@ -8049,7 +8296,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>699</v>
+        <v>631</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
@@ -8097,13 +8344,13 @@
         <v>910001</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>297</v>
+        <v>667</v>
       </c>
       <c r="V43" s="17" t="s">
         <v>52</v>
@@ -8118,7 +8365,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>142</v>
@@ -8187,7 +8434,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>143</v>
@@ -8235,13 +8482,13 @@
         <v>910002</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="T45" s="17" t="s">
         <v>292</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>298</v>
+        <v>668</v>
       </c>
       <c r="V45" s="17" t="s">
         <v>52</v>
@@ -8256,7 +8503,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>144</v>
@@ -8304,13 +8551,13 @@
         <v>910002</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="T46" s="17" t="s">
         <v>292</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>299</v>
+        <v>669</v>
       </c>
       <c r="V46" s="17" t="s">
         <v>52</v>
@@ -8325,7 +8572,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>145</v>
@@ -8379,7 +8626,7 @@
         <v>292</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>300</v>
+        <v>670</v>
       </c>
       <c r="V47" s="17" t="s">
         <v>52</v>
@@ -8394,7 +8641,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>147</v>
@@ -8442,13 +8689,13 @@
         <v>910003</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U48" s="17" t="s">
-        <v>295</v>
+        <v>671</v>
       </c>
       <c r="V48" s="17" t="s">
         <v>52</v>
@@ -8463,7 +8710,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>148</v>
@@ -8511,13 +8758,13 @@
         <v>910003</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>301</v>
+        <v>672</v>
       </c>
       <c r="V49" s="17" t="s">
         <v>52</v>
@@ -8532,7 +8779,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>149</v>
@@ -8580,13 +8827,13 @@
         <v>910003</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>297</v>
+        <v>673</v>
       </c>
       <c r="V50" s="17" t="s">
         <v>52</v>
@@ -8601,7 +8848,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>702</v>
+        <v>634</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>150</v>
@@ -8649,13 +8896,13 @@
         <v>910004</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U51" s="17" t="s">
-        <v>302</v>
+        <v>674</v>
       </c>
       <c r="V51" s="17" t="s">
         <v>52</v>
@@ -8670,7 +8917,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>702</v>
+        <v>634</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>151</v>
@@ -8718,13 +8965,13 @@
         <v>910004</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>303</v>
+        <v>675</v>
       </c>
       <c r="V52" s="17" t="s">
         <v>52</v>
@@ -8739,7 +8986,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>702</v>
+        <v>634</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>152</v>
@@ -8787,13 +9034,13 @@
         <v>910004</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>304</v>
+        <v>676</v>
       </c>
       <c r="V53" s="17" t="s">
         <v>52</v>
@@ -8808,7 +9055,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>703</v>
+        <v>635</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>153</v>
@@ -8856,13 +9103,13 @@
         <v>910005</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U54" s="17" t="s">
-        <v>295</v>
+        <v>677</v>
       </c>
       <c r="V54" s="17" t="s">
         <v>52</v>
@@ -8877,7 +9124,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>703</v>
+        <v>635</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>154</v>
@@ -8925,13 +9172,13 @@
         <v>910005</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U55" s="17" t="s">
-        <v>301</v>
+        <v>678</v>
       </c>
       <c r="V55" s="17" t="s">
         <v>52</v>
@@ -8946,7 +9193,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>703</v>
+        <v>635</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>155</v>
@@ -8994,13 +9241,13 @@
         <v>910005</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U56" s="17" t="s">
-        <v>305</v>
+        <v>679</v>
       </c>
       <c r="V56" s="17" t="s">
         <v>52</v>
@@ -9015,7 +9262,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>156</v>
@@ -9063,13 +9310,13 @@
         <v>910006</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="T57" s="17" t="s">
         <v>292</v>
       </c>
       <c r="U57" s="17" t="s">
-        <v>306</v>
+        <v>680</v>
       </c>
       <c r="V57" s="17" t="s">
         <v>52</v>
@@ -9084,7 +9331,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>157</v>
@@ -9132,13 +9379,13 @@
         <v>910006</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="T58" s="17" t="s">
         <v>292</v>
       </c>
       <c r="U58" s="17" t="s">
-        <v>307</v>
+        <v>681</v>
       </c>
       <c r="V58" s="17" t="s">
         <v>52</v>
@@ -9153,7 +9400,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>158</v>
@@ -9201,13 +9448,13 @@
         <v>910006</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="T59" s="17" t="s">
         <v>292</v>
       </c>
       <c r="U59" s="17" t="s">
-        <v>308</v>
+        <v>682</v>
       </c>
       <c r="V59" s="17" t="s">
         <v>52</v>
@@ -9222,7 +9469,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>159</v>
@@ -9270,19 +9517,19 @@
         <v>910007</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="T60" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U60" s="17" t="s">
-        <v>295</v>
+        <v>683</v>
       </c>
       <c r="V60" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>309</v>
+        <v>763</v>
       </c>
       <c r="X60" s="17"/>
     </row>
@@ -9291,7 +9538,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>160</v>
@@ -9339,19 +9586,19 @@
         <v>910007</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U61" s="17" t="s">
-        <v>301</v>
+        <v>684</v>
       </c>
       <c r="V61" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W61" s="17" t="s">
-        <v>310</v>
+        <v>762</v>
       </c>
       <c r="X61" s="17"/>
     </row>
@@ -9360,7 +9607,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>161</v>
@@ -9408,19 +9655,19 @@
         <v>910007</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U62" s="17" t="s">
-        <v>297</v>
+        <v>685</v>
       </c>
       <c r="V62" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>311</v>
+        <v>761</v>
       </c>
       <c r="X62" s="17"/>
     </row>
@@ -9429,7 +9676,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>706</v>
+        <v>638</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>162</v>
@@ -9477,13 +9724,13 @@
         <v>910008</v>
       </c>
       <c r="S63" s="17" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U63" s="17" t="s">
-        <v>312</v>
+        <v>686</v>
       </c>
       <c r="V63" s="17" t="s">
         <v>52</v>
@@ -9498,7 +9745,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>706</v>
+        <v>638</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>163</v>
@@ -9546,13 +9793,13 @@
         <v>910008</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="T64" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U64" s="17" t="s">
-        <v>313</v>
+        <v>687</v>
       </c>
       <c r="V64" s="17" t="s">
         <v>52</v>
@@ -9567,7 +9814,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>706</v>
+        <v>638</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>164</v>
@@ -9615,13 +9862,13 @@
         <v>910008</v>
       </c>
       <c r="S65" s="17" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="T65" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U65" s="17" t="s">
-        <v>314</v>
+        <v>688</v>
       </c>
       <c r="V65" s="17" t="s">
         <v>52</v>
@@ -9636,7 +9883,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>707</v>
+        <v>639</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>165</v>
@@ -9684,19 +9931,19 @@
         <v>910009</v>
       </c>
       <c r="S66" s="17" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="T66" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U66" s="17" t="s">
-        <v>315</v>
+        <v>689</v>
       </c>
       <c r="V66" s="17" t="s">
         <v>291</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>316</v>
+        <v>760</v>
       </c>
       <c r="X66" s="19"/>
     </row>
@@ -9705,7 +9952,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>707</v>
+        <v>639</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>166</v>
@@ -9753,19 +10000,19 @@
         <v>910009</v>
       </c>
       <c r="S67" s="17" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="T67" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>317</v>
+        <v>690</v>
       </c>
       <c r="V67" s="17" t="s">
         <v>291</v>
       </c>
       <c r="W67" s="17" t="s">
-        <v>318</v>
+        <v>759</v>
       </c>
       <c r="X67" s="19"/>
     </row>
@@ -9774,7 +10021,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>707</v>
+        <v>639</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>167</v>
@@ -9822,19 +10069,19 @@
         <v>910009</v>
       </c>
       <c r="S68" s="17" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>319</v>
+        <v>691</v>
       </c>
       <c r="V68" s="17" t="s">
         <v>291</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>320</v>
+        <v>758</v>
       </c>
       <c r="X68" s="17"/>
     </row>
@@ -9843,7 +10090,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>708</v>
+        <v>640</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>168</v>
@@ -9891,13 +10138,13 @@
         <v>910010</v>
       </c>
       <c r="S69" s="17" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="T69" s="17" t="s">
         <v>294</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>321</v>
+        <v>692</v>
       </c>
       <c r="V69" s="17" t="s">
         <v>52</v>
@@ -9912,7 +10159,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>708</v>
+        <v>640</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>169</v>
@@ -9960,13 +10207,13 @@
         <v>910010</v>
       </c>
       <c r="S70" s="17" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="T70" s="17" t="s">
         <v>294</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>322</v>
+        <v>693</v>
       </c>
       <c r="V70" s="17" t="s">
         <v>52</v>
@@ -9981,7 +10228,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>708</v>
+        <v>640</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>170</v>
@@ -10029,13 +10276,13 @@
         <v>910010</v>
       </c>
       <c r="S71" s="17" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="T71" s="17" t="s">
         <v>294</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>323</v>
+        <v>694</v>
       </c>
       <c r="V71" s="17" t="s">
         <v>52</v>
@@ -10050,7 +10297,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>709</v>
+        <v>641</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>171</v>
@@ -10098,19 +10345,19 @@
         <v>910011</v>
       </c>
       <c r="S72" s="17" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>324</v>
+        <v>695</v>
       </c>
       <c r="V72" s="17" t="s">
         <v>292</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>325</v>
+        <v>757</v>
       </c>
       <c r="X72" s="17"/>
     </row>
@@ -10119,7 +10366,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>709</v>
+        <v>641</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>172</v>
@@ -10167,19 +10414,19 @@
         <v>910011</v>
       </c>
       <c r="S73" s="17" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>326</v>
+        <v>696</v>
       </c>
       <c r="V73" s="17" t="s">
         <v>292</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>327</v>
+        <v>756</v>
       </c>
       <c r="X73" s="17"/>
     </row>
@@ -10188,7 +10435,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>709</v>
+        <v>641</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>173</v>
@@ -10236,19 +10483,19 @@
         <v>910011</v>
       </c>
       <c r="S74" s="17" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="T74" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>328</v>
+        <v>697</v>
       </c>
       <c r="V74" s="17" t="s">
         <v>292</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>329</v>
+        <v>755</v>
       </c>
       <c r="X74" s="17"/>
     </row>
@@ -10257,7 +10504,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>174</v>
@@ -10305,19 +10552,19 @@
         <v>910012</v>
       </c>
       <c r="S75" s="17" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U75" s="17" t="s">
-        <v>330</v>
+        <v>698</v>
       </c>
       <c r="V75" s="17" t="s">
         <v>293</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>330</v>
+        <v>754</v>
       </c>
       <c r="X75" s="17"/>
     </row>
@@ -10326,7 +10573,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>175</v>
@@ -10395,7 +10642,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>176</v>
@@ -10443,19 +10690,19 @@
         <v>910012</v>
       </c>
       <c r="S77" s="17" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U77" s="17" t="s">
-        <v>331</v>
+        <v>699</v>
       </c>
       <c r="V77" s="17" t="s">
         <v>293</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>331</v>
+        <v>753</v>
       </c>
       <c r="X77" s="17"/>
     </row>
@@ -10464,7 +10711,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>177</v>
@@ -10533,7 +10780,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>178</v>
@@ -10581,19 +10828,19 @@
         <v>910012</v>
       </c>
       <c r="S79" s="17" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>332</v>
+        <v>700</v>
       </c>
       <c r="V79" s="17" t="s">
         <v>293</v>
       </c>
       <c r="W79" s="17" t="s">
-        <v>332</v>
+        <v>752</v>
       </c>
       <c r="X79" s="17"/>
     </row>
@@ -10602,7 +10849,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>179</v>
@@ -10671,7 +10918,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>711</v>
+        <v>643</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>180</v>
@@ -10719,19 +10966,19 @@
         <v>910013</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U81" s="17" t="s">
-        <v>295</v>
+        <v>701</v>
       </c>
       <c r="V81" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W81" s="17" t="s">
-        <v>333</v>
+        <v>751</v>
       </c>
       <c r="X81" s="19"/>
     </row>
@@ -10740,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>711</v>
+        <v>643</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>181</v>
@@ -10788,19 +11035,19 @@
         <v>910013</v>
       </c>
       <c r="S82" s="17" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U82" s="17" t="s">
-        <v>301</v>
+        <v>702</v>
       </c>
       <c r="V82" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W82" s="17" t="s">
-        <v>334</v>
+        <v>749</v>
       </c>
       <c r="X82" s="17"/>
     </row>
@@ -10809,7 +11056,7 @@
         <v>78</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>711</v>
+        <v>643</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>182</v>
@@ -10857,19 +11104,19 @@
         <v>910013</v>
       </c>
       <c r="S83" s="17" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="T83" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>297</v>
+        <v>703</v>
       </c>
       <c r="V83" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W83" s="17" t="s">
-        <v>335</v>
+        <v>750</v>
       </c>
       <c r="X83" s="17"/>
     </row>
@@ -10878,7 +11125,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>183</v>
@@ -10947,7 +11194,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>184</v>
@@ -10995,13 +11242,13 @@
         <v>910014</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U85" s="17" t="s">
-        <v>295</v>
+        <v>704</v>
       </c>
       <c r="V85" s="15" t="s">
         <v>52</v>
@@ -11016,7 +11263,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>185</v>
@@ -11064,13 +11311,13 @@
         <v>910014</v>
       </c>
       <c r="S86" s="17" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="T86" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U86" s="17" t="s">
-        <v>301</v>
+        <v>705</v>
       </c>
       <c r="V86" s="15" t="s">
         <v>52</v>
@@ -11085,7 +11332,7 @@
         <v>82</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>186</v>
@@ -11133,13 +11380,13 @@
         <v>910014</v>
       </c>
       <c r="S87" s="17" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U87" s="17" t="s">
-        <v>297</v>
+        <v>706</v>
       </c>
       <c r="V87" s="15" t="s">
         <v>52</v>
@@ -11154,7 +11401,7 @@
         <v>83</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>187</v>
@@ -11202,13 +11449,13 @@
         <v>910015</v>
       </c>
       <c r="S88" s="17" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U88" s="17" t="s">
-        <v>336</v>
+        <v>707</v>
       </c>
       <c r="V88" s="15" t="s">
         <v>52</v>
@@ -11223,7 +11470,7 @@
         <v>84</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>188</v>
@@ -11292,7 +11539,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>189</v>
@@ -11361,7 +11608,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>190</v>
@@ -11430,7 +11677,7 @@
         <v>87</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>191</v>
@@ -11478,13 +11725,13 @@
         <v>910015</v>
       </c>
       <c r="S92" s="17" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U92" s="17" t="s">
-        <v>337</v>
+        <v>708</v>
       </c>
       <c r="V92" s="15" t="s">
         <v>52</v>
@@ -11499,7 +11746,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>192</v>
@@ -11568,7 +11815,7 @@
         <v>89</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>645</v>
+        <v>583</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>193</v>
@@ -11637,7 +11884,7 @@
         <v>90</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>646</v>
+        <v>584</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>194</v>
@@ -11706,7 +11953,7 @@
         <v>91</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>195</v>
@@ -11754,13 +12001,13 @@
         <v>910015</v>
       </c>
       <c r="S96" s="17" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U96" s="17" t="s">
-        <v>338</v>
+        <v>709</v>
       </c>
       <c r="V96" s="15" t="s">
         <v>52</v>
@@ -11775,7 +12022,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>647</v>
+        <v>585</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>196</v>
@@ -11844,7 +12091,7 @@
         <v>93</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>197</v>
@@ -11913,7 +12160,7 @@
         <v>94</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>198</v>
@@ -11982,7 +12229,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>714</v>
+        <v>646</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>199</v>
@@ -12030,13 +12277,13 @@
         <v>910016</v>
       </c>
       <c r="S100" s="17" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U100" s="17" t="s">
-        <v>295</v>
+        <v>710</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>52</v>
@@ -12051,7 +12298,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>714</v>
+        <v>646</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>200</v>
@@ -12099,13 +12346,13 @@
         <v>910016</v>
       </c>
       <c r="S101" s="17" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U101" s="17" t="s">
-        <v>301</v>
+        <v>711</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>52</v>
@@ -12120,7 +12367,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>714</v>
+        <v>646</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>201</v>
@@ -12168,13 +12415,13 @@
         <v>910016</v>
       </c>
       <c r="S102" s="17" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="T102" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U102" s="17" t="s">
-        <v>297</v>
+        <v>712</v>
       </c>
       <c r="V102" s="15" t="s">
         <v>52</v>
@@ -12189,7 +12436,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>715</v>
+        <v>647</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>202</v>
@@ -12237,13 +12484,13 @@
         <v>910017</v>
       </c>
       <c r="S103" s="17" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U103" s="17" t="s">
-        <v>295</v>
+        <v>713</v>
       </c>
       <c r="V103" s="15" t="s">
         <v>52</v>
@@ -12258,7 +12505,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>715</v>
+        <v>647</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>203</v>
@@ -12306,13 +12553,13 @@
         <v>910017</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U104" s="17" t="s">
-        <v>301</v>
+        <v>714</v>
       </c>
       <c r="V104" s="15" t="s">
         <v>52</v>
@@ -12327,7 +12574,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>715</v>
+        <v>647</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>204</v>
@@ -12375,13 +12622,13 @@
         <v>910017</v>
       </c>
       <c r="S105" s="17" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="T105" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U105" s="17" t="s">
-        <v>297</v>
+        <v>715</v>
       </c>
       <c r="V105" s="15" t="s">
         <v>52</v>
@@ -12396,7 +12643,7 @@
         <v>101</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>716</v>
+        <v>648</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>205</v>
@@ -12444,13 +12691,13 @@
         <v>910018</v>
       </c>
       <c r="S106" s="17" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="T106" s="17" t="s">
         <v>291</v>
       </c>
       <c r="U106" s="17" t="s">
-        <v>339</v>
+        <v>716</v>
       </c>
       <c r="V106" s="15" t="s">
         <v>52</v>
@@ -12465,7 +12712,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>716</v>
+        <v>648</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>206</v>
@@ -12513,13 +12760,13 @@
         <v>910018</v>
       </c>
       <c r="S107" s="17" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="T107" s="17" t="s">
         <v>291</v>
       </c>
       <c r="U107" s="17" t="s">
-        <v>340</v>
+        <v>717</v>
       </c>
       <c r="V107" s="15" t="s">
         <v>52</v>
@@ -12534,7 +12781,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>716</v>
+        <v>648</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>207</v>
@@ -12582,13 +12829,13 @@
         <v>910018</v>
       </c>
       <c r="S108" s="17" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="T108" s="17" t="s">
         <v>291</v>
       </c>
       <c r="U108" s="17" t="s">
-        <v>341</v>
+        <v>718</v>
       </c>
       <c r="V108" s="15" t="s">
         <v>52</v>
@@ -12603,7 +12850,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>717</v>
+        <v>649</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>208</v>
@@ -12651,13 +12898,13 @@
         <v>910019</v>
       </c>
       <c r="S109" s="17" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="T109" s="17" t="s">
         <v>294</v>
       </c>
       <c r="U109" s="17" t="s">
-        <v>342</v>
+        <v>719</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>52</v>
@@ -12672,7 +12919,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>717</v>
+        <v>649</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>209</v>
@@ -12720,13 +12967,13 @@
         <v>910019</v>
       </c>
       <c r="S110" s="17" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="T110" s="17" t="s">
         <v>294</v>
       </c>
       <c r="U110" s="17" t="s">
-        <v>343</v>
+        <v>720</v>
       </c>
       <c r="V110" s="15" t="s">
         <v>52</v>
@@ -12741,7 +12988,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>717</v>
+        <v>649</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>210</v>
@@ -12789,13 +13036,13 @@
         <v>910019</v>
       </c>
       <c r="S111" s="17" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="T111" s="17" t="s">
         <v>294</v>
       </c>
       <c r="U111" s="17" t="s">
-        <v>344</v>
+        <v>721</v>
       </c>
       <c r="V111" s="17" t="s">
         <v>52</v>
@@ -12810,7 +13057,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>718</v>
+        <v>650</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>211</v>
@@ -12858,19 +13105,19 @@
         <v>910020</v>
       </c>
       <c r="S112" s="17" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="T112" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U112" s="17" t="s">
-        <v>312</v>
+        <v>722</v>
       </c>
       <c r="V112" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W112" s="17" t="s">
-        <v>345</v>
+        <v>748</v>
       </c>
       <c r="X112" s="17"/>
     </row>
@@ -12879,7 +13126,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>718</v>
+        <v>650</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>212</v>
@@ -12927,19 +13174,19 @@
         <v>910020</v>
       </c>
       <c r="S113" s="17" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="T113" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U113" s="17" t="s">
-        <v>313</v>
+        <v>723</v>
       </c>
       <c r="V113" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W113" s="17" t="s">
-        <v>346</v>
+        <v>747</v>
       </c>
       <c r="X113" s="17"/>
     </row>
@@ -12948,7 +13195,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>718</v>
+        <v>650</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>213</v>
@@ -12996,19 +13243,19 @@
         <v>910020</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="T114" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U114" s="17" t="s">
-        <v>314</v>
+        <v>724</v>
       </c>
       <c r="V114" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W114" s="17" t="s">
-        <v>347</v>
+        <v>746</v>
       </c>
       <c r="X114" s="17"/>
     </row>
@@ -13017,7 +13264,7 @@
         <v>110</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>719</v>
+        <v>651</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>214</v>
@@ -13065,13 +13312,13 @@
         <v>910021</v>
       </c>
       <c r="S115" s="17" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U115" s="17" t="s">
-        <v>312</v>
+        <v>725</v>
       </c>
       <c r="V115" s="17" t="s">
         <v>52</v>
@@ -13086,7 +13333,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>719</v>
+        <v>651</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>215</v>
@@ -13134,13 +13381,13 @@
         <v>910021</v>
       </c>
       <c r="S116" s="17" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U116" s="17" t="s">
-        <v>313</v>
+        <v>726</v>
       </c>
       <c r="V116" s="17" t="s">
         <v>52</v>
@@ -13155,7 +13402,7 @@
         <v>112</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>719</v>
+        <v>651</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>216</v>
@@ -13203,13 +13450,13 @@
         <v>910021</v>
       </c>
       <c r="S117" s="17" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U117" s="17" t="s">
-        <v>314</v>
+        <v>727</v>
       </c>
       <c r="V117" s="17" t="s">
         <v>52</v>
@@ -13224,7 +13471,7 @@
         <v>113</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>217</v>
@@ -13272,13 +13519,13 @@
         <v>910022</v>
       </c>
       <c r="S118" s="17" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T118" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U118" s="17" t="s">
-        <v>295</v>
+        <v>728</v>
       </c>
       <c r="V118" s="17" t="s">
         <v>52</v>
@@ -13293,7 +13540,7 @@
         <v>114</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>218</v>
@@ -13341,13 +13588,13 @@
         <v>910022</v>
       </c>
       <c r="S119" s="17" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U119" s="17" t="s">
-        <v>301</v>
+        <v>729</v>
       </c>
       <c r="V119" s="17" t="s">
         <v>52</v>
@@ -13362,7 +13609,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>219</v>
@@ -13410,13 +13657,13 @@
         <v>910022</v>
       </c>
       <c r="S120" s="17" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U120" s="17" t="s">
-        <v>297</v>
+        <v>730</v>
       </c>
       <c r="V120" s="17" t="s">
         <v>52</v>
@@ -13431,7 +13678,7 @@
         <v>116</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>721</v>
+        <v>653</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>220</v>
@@ -13479,13 +13726,13 @@
         <v>910024</v>
       </c>
       <c r="S121" s="17" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U121" s="17" t="s">
-        <v>295</v>
+        <v>671</v>
       </c>
       <c r="V121" s="17" t="s">
         <v>52</v>
@@ -13500,7 +13747,7 @@
         <v>117</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>721</v>
+        <v>653</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>221</v>
@@ -13548,13 +13795,13 @@
         <v>910024</v>
       </c>
       <c r="S122" s="17" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="T122" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U122" s="17" t="s">
-        <v>301</v>
+        <v>672</v>
       </c>
       <c r="V122" s="17" t="s">
         <v>52</v>
@@ -13569,7 +13816,7 @@
         <v>118</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>721</v>
+        <v>653</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>222</v>
@@ -13617,13 +13864,13 @@
         <v>910024</v>
       </c>
       <c r="S123" s="17" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U123" s="17" t="s">
-        <v>297</v>
+        <v>673</v>
       </c>
       <c r="V123" s="17" t="s">
         <v>52</v>
@@ -13638,7 +13885,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>223</v>
@@ -13686,19 +13933,19 @@
         <v>910025</v>
       </c>
       <c r="S124" s="17" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U124" s="17" t="s">
-        <v>295</v>
+        <v>731</v>
       </c>
       <c r="V124" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W124" s="17" t="s">
-        <v>324</v>
+        <v>695</v>
       </c>
       <c r="X124" s="17"/>
     </row>
@@ -13707,7 +13954,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>224</v>
@@ -13755,19 +14002,19 @@
         <v>910025</v>
       </c>
       <c r="S125" s="17" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U125" s="17" t="s">
-        <v>301</v>
+        <v>732</v>
       </c>
       <c r="V125" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W125" s="17" t="s">
-        <v>326</v>
+        <v>696</v>
       </c>
       <c r="X125" s="17"/>
     </row>
@@ -13776,7 +14023,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>225</v>
@@ -13824,19 +14071,19 @@
         <v>910025</v>
       </c>
       <c r="S126" s="17" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U126" s="17" t="s">
-        <v>297</v>
+        <v>733</v>
       </c>
       <c r="V126" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W126" s="17" t="s">
-        <v>328</v>
+        <v>697</v>
       </c>
       <c r="X126" s="17"/>
     </row>
@@ -13845,7 +14092,7 @@
         <v>122</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>226</v>
@@ -13893,13 +14140,13 @@
         <v>910026</v>
       </c>
       <c r="S127" s="17" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U127" s="17" t="s">
-        <v>348</v>
+        <v>734</v>
       </c>
       <c r="V127" s="15" t="s">
         <v>52</v>
@@ -13914,7 +14161,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>227</v>
@@ -13962,13 +14209,13 @@
         <v>910026</v>
       </c>
       <c r="S128" s="17" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U128" s="17" t="s">
-        <v>349</v>
+        <v>735</v>
       </c>
       <c r="V128" s="15" t="s">
         <v>52</v>
@@ -13983,7 +14230,7 @@
         <v>124</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>228</v>
@@ -14031,13 +14278,13 @@
         <v>910026</v>
       </c>
       <c r="S129" s="17" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="U129" s="17" t="s">
-        <v>350</v>
+        <v>736</v>
       </c>
       <c r="V129" s="15" t="s">
         <v>52</v>
@@ -14052,7 +14299,7 @@
         <v>125</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>724</v>
+        <v>656</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>229</v>
@@ -14100,19 +14347,19 @@
         <v>910027</v>
       </c>
       <c r="S130" s="17" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U130" s="17" t="s">
-        <v>295</v>
+        <v>737</v>
       </c>
       <c r="V130" s="17" t="s">
         <v>294</v>
       </c>
       <c r="W130" s="17" t="s">
-        <v>351</v>
+        <v>745</v>
       </c>
       <c r="X130" s="17"/>
     </row>
@@ -14121,7 +14368,7 @@
         <v>126</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>230</v>
@@ -14181,7 +14428,7 @@
         <v>52</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>52</v>
+        <v>764</v>
       </c>
       <c r="X131" s="15"/>
     </row>
@@ -14190,7 +14437,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>231</v>
@@ -14250,7 +14497,7 @@
         <v>52</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>52</v>
+        <v>764</v>
       </c>
       <c r="X132" s="15"/>
     </row>
@@ -14259,7 +14506,7 @@
         <v>128</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>664</v>
+        <v>602</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>232</v>
@@ -14328,7 +14575,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>233</v>
@@ -14397,7 +14644,7 @@
         <v>130</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>724</v>
+        <v>656</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>234</v>
@@ -14445,19 +14692,19 @@
         <v>910027</v>
       </c>
       <c r="S135" s="17" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U135" s="17" t="s">
-        <v>301</v>
+        <v>738</v>
       </c>
       <c r="V135" s="17" t="s">
         <v>294</v>
       </c>
       <c r="W135" s="17" t="s">
-        <v>352</v>
+        <v>744</v>
       </c>
       <c r="X135" s="17"/>
     </row>
@@ -14466,7 +14713,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>666</v>
+        <v>604</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>235</v>
@@ -14535,7 +14782,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>236</v>
@@ -14604,7 +14851,7 @@
         <v>133</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>237</v>
@@ -14673,7 +14920,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>669</v>
+        <v>607</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>238</v>
@@ -14742,7 +14989,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>724</v>
+        <v>656</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>239</v>
@@ -14790,19 +15037,19 @@
         <v>910027</v>
       </c>
       <c r="S140" s="17" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U140" s="17" t="s">
-        <v>297</v>
+        <v>739</v>
       </c>
       <c r="V140" s="17" t="s">
         <v>294</v>
       </c>
       <c r="W140" s="17" t="s">
-        <v>353</v>
+        <v>743</v>
       </c>
       <c r="X140" s="17"/>
     </row>
@@ -14811,7 +15058,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>240</v>
@@ -14880,7 +15127,7 @@
         <v>137</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>241</v>
@@ -14949,7 +15196,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>672</v>
+        <v>610</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>242</v>
@@ -15018,7 +15265,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>673</v>
+        <v>611</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>243</v>
@@ -15087,7 +15334,7 @@
         <v>140</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>244</v>
@@ -15135,13 +15382,13 @@
         <v>910023</v>
       </c>
       <c r="S145" s="17" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U145" s="17" t="s">
-        <v>354</v>
+        <v>740</v>
       </c>
       <c r="V145" s="15" t="s">
         <v>52</v>
@@ -15156,7 +15403,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>675</v>
+        <v>613</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>245</v>
@@ -15225,7 +15472,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>676</v>
+        <v>614</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>246</v>
@@ -15294,7 +15541,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>247</v>
@@ -15342,13 +15589,13 @@
         <v>910023</v>
       </c>
       <c r="S148" s="17" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="T148" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U148" s="17" t="s">
-        <v>355</v>
+        <v>741</v>
       </c>
       <c r="V148" s="15" t="s">
         <v>52</v>
@@ -15363,7 +15610,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>677</v>
+        <v>615</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>248</v>
@@ -15432,7 +15679,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>678</v>
+        <v>616</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>249</v>
@@ -15501,7 +15748,7 @@
         <v>146</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>250</v>
@@ -15549,13 +15796,13 @@
         <v>910023</v>
       </c>
       <c r="S151" s="17" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="U151" s="17" t="s">
-        <v>356</v>
+        <v>742</v>
       </c>
       <c r="V151" s="15" t="s">
         <v>52</v>
@@ -15570,7 +15817,7 @@
         <v>147</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>251</v>
@@ -15639,7 +15886,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>252</v>
@@ -16332,12 +16579,6 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16348,6 +16589,12 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16528,7 +16775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -16567,17 +16814,17 @@
       <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>693</v>
-      </c>
-      <c r="J2" s="51" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>277</v>
       </c>
       <c r="K2" s="55" t="s">
@@ -16586,16 +16833,16 @@
       <c r="L2" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="59" t="s">
-        <v>357</v>
+      <c r="M2" s="61" t="s">
+        <v>295</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="35" t="s">
         <v>288</v>
       </c>
       <c r="Q2" s="55" t="s">
@@ -16613,15 +16860,15 @@
       <c r="G3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="56"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17">
@@ -16644,10 +16891,10 @@
         <v>275</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>690</v>
+        <v>622</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>691</v>
+        <v>623</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>278</v>
@@ -16732,7 +16979,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="E6" s="15">
         <v>310001</v>
@@ -16780,7 +17027,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="E7" s="15">
         <v>310002</v>
@@ -16828,7 +17075,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="E8" s="15">
         <v>310003</v>
@@ -16876,7 +17123,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="E9" s="15">
         <v>310004</v>
@@ -16924,7 +17171,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="E10" s="15">
         <v>310005</v>
@@ -16963,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>681</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -16974,7 +17221,7 @@
         <v>115</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="E11" s="15">
         <v>310006</v>
@@ -17013,7 +17260,7 @@
         <v>300024</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>682</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -17024,7 +17271,7 @@
         <v>118</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="E12" s="15">
         <v>310007</v>
@@ -17063,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -17071,10 +17318,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="E13" s="15">
         <v>310008</v>
@@ -17119,10 +17366,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="E14" s="15">
         <v>310009</v>
@@ -17167,10 +17414,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="E15" s="15">
         <v>310010</v>
@@ -17215,10 +17462,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="E16" s="15">
         <v>310011</v>
@@ -17263,10 +17510,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="E17" s="15">
         <v>310012</v>
@@ -17311,10 +17558,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="E18" s="15">
         <v>310013</v>
@@ -17359,10 +17606,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="E19" s="15">
         <v>310014</v>
@@ -17407,10 +17654,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="E20" s="15">
         <v>310015</v>
@@ -17455,10 +17702,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="E21" s="15">
         <v>310016</v>
@@ -17503,10 +17750,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="E22" s="15">
         <v>310017</v>
@@ -17551,10 +17798,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="E23" s="15">
         <v>310018</v>
@@ -17599,10 +17846,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="E24" s="15">
         <v>310019</v>
@@ -17647,10 +17894,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="E25" s="15">
         <v>310020</v>
@@ -17695,10 +17942,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="E26" s="15">
         <v>310021</v>
@@ -17743,10 +17990,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="E27" s="15">
         <v>310022</v>
@@ -17791,10 +18038,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="E28" s="15">
         <v>310023</v>
@@ -17839,10 +18086,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="E29" s="15">
         <v>310024</v>
@@ -17887,10 +18134,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="E30" s="15">
         <v>310025</v>
@@ -17935,10 +18182,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="E31" s="15">
         <v>310026</v>
@@ -17983,10 +18230,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="E32" s="15">
         <v>310027</v>
@@ -18031,10 +18278,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="E33" s="15">
         <v>310028</v>
@@ -18079,10 +18326,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="E34" s="15">
         <v>310029</v>
@@ -18127,10 +18374,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="E35" s="15">
         <v>310030</v>
@@ -18175,10 +18422,10 @@
         <v>31</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="E36" s="15">
         <v>310031</v>
@@ -18223,10 +18470,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="E37" s="15">
         <v>310032</v>
@@ -18271,10 +18518,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="E38" s="15">
         <v>310033</v>
@@ -18319,10 +18566,10 @@
         <v>34</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="E39" s="15">
         <v>310034</v>
@@ -18367,10 +18614,10 @@
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="E40" s="15">
         <v>310035</v>
@@ -18415,10 +18662,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="E41" s="15">
         <v>310036</v>
@@ -18463,10 +18710,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="E42" s="15">
         <v>310037</v>
@@ -18511,10 +18758,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="E43" s="15">
         <v>310038</v>
@@ -18559,10 +18806,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="E44" s="15">
         <v>310039</v>
@@ -18607,10 +18854,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="E45" s="15">
         <v>310040</v>
@@ -18655,10 +18902,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="E46" s="15">
         <v>310041</v>
@@ -18703,10 +18950,10 @@
         <v>42</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="E47" s="15">
         <v>310042</v>
@@ -18751,10 +18998,10 @@
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="E48" s="15">
         <v>310043</v>
@@ -18799,10 +19046,10 @@
         <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="E49" s="15">
         <v>310044</v>
@@ -18847,10 +19094,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="E50" s="15">
         <v>310045</v>
@@ -18895,10 +19142,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="E51" s="15">
         <v>310046</v>
@@ -18943,10 +19190,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="E52" s="15">
         <v>310047</v>
@@ -18991,10 +19238,10 @@
         <v>48</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="E53" s="15">
         <v>310048</v>
@@ -19039,10 +19286,10 @@
         <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="E54" s="15">
         <v>310049</v>
@@ -19087,10 +19334,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="E55" s="15">
         <v>310050</v>
@@ -19135,10 +19382,10 @@
         <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="E56" s="15">
         <v>310051</v>
@@ -19183,10 +19430,10 @@
         <v>52</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="E57" s="15">
         <v>310052</v>
@@ -19231,10 +19478,10 @@
         <v>53</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="E58" s="15">
         <v>310053</v>
@@ -19279,10 +19526,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="E59" s="15">
         <v>310054</v>
@@ -19327,10 +19574,10 @@
         <v>55</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="E60" s="15">
         <v>310055</v>
@@ -19375,10 +19622,10 @@
         <v>56</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="E61" s="15">
         <v>310056</v>
@@ -19423,10 +19670,10 @@
         <v>57</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="E62" s="15">
         <v>310057</v>
@@ -19471,10 +19718,10 @@
         <v>58</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="E63" s="15">
         <v>310058</v>
@@ -19519,10 +19766,10 @@
         <v>59</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="E64" s="15">
         <v>310059</v>
@@ -19567,10 +19814,10 @@
         <v>60</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="E65" s="15">
         <v>310060</v>
@@ -19615,10 +19862,10 @@
         <v>61</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="E66" s="15">
         <v>310061</v>
@@ -19663,10 +19910,10 @@
         <v>62</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="E67" s="15">
         <v>310062</v>
@@ -19711,10 +19958,10 @@
         <v>63</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="E68" s="15">
         <v>310063</v>
@@ -19759,10 +20006,10 @@
         <v>64</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="E69" s="15">
         <v>310064</v>
@@ -19807,10 +20054,10 @@
         <v>65</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="E70" s="15">
         <v>310065</v>
@@ -19855,10 +20102,10 @@
         <v>66</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="E71" s="15">
         <v>310066</v>
@@ -19905,10 +20152,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="E72" s="15">
         <v>310067</v>
@@ -19955,10 +20202,10 @@
         <v>68</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="E73" s="15">
         <v>310068</v>
@@ -20005,10 +20252,10 @@
         <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="E74" s="15">
         <v>310069</v>
@@ -20053,10 +20300,10 @@
         <v>70</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="E75" s="15">
         <v>310070</v>
@@ -20101,10 +20348,10 @@
         <v>71</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="E76" s="15">
         <v>310071</v>
@@ -20149,10 +20396,10 @@
         <v>72</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="E77" s="15">
         <v>310072</v>
@@ -20197,10 +20444,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="E78" s="15">
         <v>310073</v>
@@ -20245,10 +20492,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="E79" s="15">
         <v>310074</v>
@@ -20293,10 +20540,10 @@
         <v>75</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="E80" s="15">
         <v>310075</v>
@@ -20341,10 +20588,10 @@
         <v>76</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="E81" s="15">
         <v>310076</v>
@@ -20389,10 +20636,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="E82" s="15">
         <v>310077</v>
@@ -20437,10 +20684,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="E83" s="15">
         <v>310078</v>
@@ -20485,10 +20732,10 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="E84" s="15">
         <v>310079</v>
@@ -20533,10 +20780,10 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="E85" s="15">
         <v>310080</v>
@@ -20581,10 +20828,10 @@
         <v>81</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="E86" s="15">
         <v>310081</v>
@@ -20629,10 +20876,10 @@
         <v>82</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="E87" s="15">
         <v>310082</v>
@@ -20677,10 +20924,10 @@
         <v>83</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="E88" s="15">
         <v>310083</v>
@@ -20725,10 +20972,10 @@
         <v>84</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="E89" s="15">
         <v>310084</v>
@@ -20773,10 +21020,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="E90" s="15">
         <v>310085</v>
@@ -20821,10 +21068,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="E91" s="15">
         <v>310086</v>
@@ -20869,10 +21116,10 @@
         <v>87</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="E92" s="15">
         <v>310087</v>
@@ -20917,10 +21164,10 @@
         <v>88</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="E93" s="15">
         <v>310088</v>
@@ -20965,10 +21212,10 @@
         <v>89</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="E94" s="15">
         <v>310089</v>
@@ -21013,10 +21260,10 @@
         <v>90</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="E95" s="15">
         <v>310090</v>
@@ -21061,10 +21308,10 @@
         <v>91</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="E96" s="15">
         <v>310091</v>
@@ -21109,10 +21356,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="E97" s="15">
         <v>310092</v>
@@ -21157,10 +21404,10 @@
         <v>93</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="E98" s="15">
         <v>310093</v>
@@ -21205,10 +21452,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="E99" s="15">
         <v>310094</v>
@@ -21253,10 +21500,10 @@
         <v>95</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="E100" s="15">
         <v>310095</v>
@@ -21301,10 +21548,10 @@
         <v>96</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="E101" s="15">
         <v>310096</v>
@@ -21349,10 +21596,10 @@
         <v>97</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="E102" s="15">
         <v>310097</v>
@@ -21397,10 +21644,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="E103" s="15">
         <v>310098</v>
@@ -21445,10 +21692,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="E104" s="15">
         <v>310099</v>
@@ -21493,10 +21740,10 @@
         <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="E105" s="15">
         <v>310100</v>
@@ -21541,10 +21788,10 @@
         <v>101</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="E106" s="15">
         <v>310101</v>
@@ -21589,10 +21836,10 @@
         <v>102</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="E107" s="15">
         <v>310102</v>
@@ -21637,10 +21884,10 @@
         <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="E108" s="15">
         <v>310103</v>
@@ -21685,10 +21932,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="E109" s="15">
         <v>310104</v>
@@ -21733,10 +21980,10 @@
         <v>105</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="E110" s="15">
         <v>310105</v>
@@ -21781,10 +22028,10 @@
         <v>106</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="E111" s="15">
         <v>310106</v>
@@ -21829,10 +22076,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="E112" s="15">
         <v>310107</v>
@@ -21877,10 +22124,10 @@
         <v>108</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
       <c r="E113" s="15">
         <v>310108</v>
@@ -21925,10 +22172,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>568</v>
+        <v>506</v>
       </c>
       <c r="E114" s="15">
         <v>310109</v>
@@ -21973,10 +22220,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
       <c r="E115" s="15">
         <v>310110</v>
@@ -22021,10 +22268,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
       <c r="E116" s="15">
         <v>310111</v>
@@ -22069,10 +22316,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="E117" s="15">
         <v>310112</v>
@@ -22117,10 +22364,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
       <c r="E118" s="15">
         <v>310113</v>
@@ -22165,10 +22412,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="E119" s="15">
         <v>310114</v>
@@ -22213,10 +22460,10 @@
         <v>115</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="E120" s="15">
         <v>310115</v>
@@ -22261,10 +22508,10 @@
         <v>116</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="E121" s="15">
         <v>310116</v>
@@ -22309,10 +22556,10 @@
         <v>117</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>583</v>
+        <v>521</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="E122" s="15">
         <v>310117</v>
@@ -22357,10 +22604,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="E123" s="15">
         <v>310118</v>
@@ -22405,10 +22652,10 @@
         <v>119</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>587</v>
+        <v>525</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
       <c r="E124" s="15">
         <v>310119</v>
@@ -22453,10 +22700,10 @@
         <v>120</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>589</v>
+        <v>527</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
       <c r="E125" s="15">
         <v>310120</v>
@@ -22501,10 +22748,10 @@
         <v>121</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
       <c r="E126" s="15">
         <v>310121</v>
@@ -22549,10 +22796,10 @@
         <v>122</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>594</v>
+        <v>532</v>
       </c>
       <c r="E127" s="15">
         <v>310122</v>
@@ -22597,10 +22844,10 @@
         <v>123</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
       <c r="E128" s="15">
         <v>310123</v>
@@ -22645,10 +22892,10 @@
         <v>124</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>598</v>
+        <v>536</v>
       </c>
       <c r="E129" s="15">
         <v>310124</v>
@@ -22693,10 +22940,10 @@
         <v>125</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="E130" s="15">
         <v>310125</v>
@@ -22741,10 +22988,10 @@
         <v>126</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>601</v>
+        <v>539</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="E131" s="15">
         <v>310126</v>
@@ -22792,7 +23039,7 @@
         <v>253</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="E132" s="15">
         <v>310127</v>
@@ -22840,7 +23087,7 @@
         <v>255</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="E133" s="15">
         <v>310128</v>
@@ -22888,7 +23135,7 @@
         <v>257</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="E134" s="15">
         <v>310129</v>
@@ -22936,7 +23183,7 @@
         <v>259</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="E135" s="15">
         <v>310130</v>
@@ -22984,7 +23231,7 @@
         <v>261</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
       <c r="E136" s="15">
         <v>310131</v>
@@ -23032,7 +23279,7 @@
         <v>263</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="E137" s="15">
         <v>310132</v>
@@ -23080,7 +23327,7 @@
         <v>265</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E138" s="15">
         <v>310133</v>
@@ -23128,7 +23375,7 @@
         <v>267</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="E139" s="15">
         <v>310134</v>
@@ -23176,7 +23423,7 @@
         <v>269</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="E140" s="15">
         <v>310135</v>
@@ -23221,10 +23468,10 @@
         <v>132</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>694</v>
+        <v>626</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>695</v>
+        <v>627</v>
       </c>
       <c r="E141" s="15">
         <v>310136</v>
@@ -23269,10 +23516,10 @@
         <v>133</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>726</v>
+        <v>658</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>727</v>
+        <v>659</v>
       </c>
       <c r="E142" s="15">
         <v>310137</v>
@@ -23314,12 +23561,6 @@
   </sheetData>
   <autoFilter ref="B5:Q142" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23329,6 +23570,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52F148-7D7F-4A3D-A538-718D82ADB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB584E-27AA-4DDF-866D-1B415BF71364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -4900,11 +4900,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4912,23 +4912,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4960,16 +4948,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4980,6 +4974,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5391,11 +5391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P111" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W133" sqref="W133"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="C32:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5434,49 +5434,49 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="53" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="54" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="50" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="42" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="43"/>
+      <c r="W2" s="36"/>
       <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
@@ -5486,13 +5486,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="41"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5511,8 +5511,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
       <c r="S3" s="38"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -16579,6 +16579,12 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16589,12 +16595,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16775,11 +16775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J136" sqref="J136"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16814,17 +16814,17 @@
       <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="51" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="51" t="s">
         <v>277</v>
       </c>
       <c r="K2" s="55" t="s">
@@ -16833,16 +16833,16 @@
       <c r="L2" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="59" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="51" t="s">
         <v>288</v>
       </c>
       <c r="Q2" s="55" t="s">
@@ -16860,15 +16860,15 @@
       <c r="G3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="36"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="56"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17">
@@ -17444,7 +17444,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" s="15">
         <v>1</v>
@@ -23561,6 +23561,12 @@
   </sheetData>
   <autoFilter ref="B5:Q142" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23570,12 +23576,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB584E-27AA-4DDF-866D-1B415BF71364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5176C-3FE0-491A-8B2A-67226342C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="1365" yWindow="1710" windowWidth="16860" windowHeight="12210" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -4900,11 +4900,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4912,11 +4912,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4948,22 +4960,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4974,12 +4980,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5391,11 +5391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:X163"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="C32:Q32"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5408,14 +5408,13 @@
     <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="17" width="12.375" customWidth="1"/>
     <col min="19" max="19" width="113.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
@@ -5434,49 +5433,49 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="40" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="50" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="54" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="35" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="36"/>
+      <c r="W2" s="43"/>
       <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
@@ -5486,13 +5485,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="54"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5511,8 +5510,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="38"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -5930,7 +5929,7 @@
         <v>900132</v>
       </c>
       <c r="Q9" s="12">
-        <v>0</v>
+        <v>920033</v>
       </c>
       <c r="R9" s="12">
         <v>0</v>
@@ -6001,7 +6000,7 @@
         <v>900143</v>
       </c>
       <c r="Q10" s="12">
-        <v>0</v>
+        <v>920038</v>
       </c>
       <c r="R10" s="12">
         <v>0</v>
@@ -6072,7 +6071,7 @@
         <v>900128</v>
       </c>
       <c r="Q11" s="12">
-        <v>0</v>
+        <v>920035</v>
       </c>
       <c r="R11" s="12">
         <v>0</v>
@@ -6143,7 +6142,7 @@
         <v>900158</v>
       </c>
       <c r="Q12" s="12">
-        <v>0</v>
+        <v>920024</v>
       </c>
       <c r="R12" s="12">
         <v>0</v>
@@ -6214,7 +6213,7 @@
         <v>900145</v>
       </c>
       <c r="Q13" s="12">
-        <v>0</v>
+        <v>920030</v>
       </c>
       <c r="R13" s="12">
         <v>0</v>
@@ -6285,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="12">
-        <v>0</v>
+        <v>920026</v>
       </c>
       <c r="R14" s="12">
         <v>0</v>
@@ -6427,7 +6426,7 @@
         <v>900187</v>
       </c>
       <c r="Q16" s="12">
-        <v>0</v>
+        <v>920023</v>
       </c>
       <c r="R16" s="12">
         <v>0</v>
@@ -6498,7 +6497,7 @@
         <v>900141</v>
       </c>
       <c r="Q17" s="12">
-        <v>0</v>
+        <v>920029</v>
       </c>
       <c r="R17" s="12">
         <v>0</v>
@@ -6569,7 +6568,7 @@
         <v>900191</v>
       </c>
       <c r="Q18" s="12">
-        <v>0</v>
+        <v>920036</v>
       </c>
       <c r="R18" s="12">
         <v>0</v>
@@ -6640,7 +6639,7 @@
         <v>900132</v>
       </c>
       <c r="Q19" s="12">
-        <v>0</v>
+        <v>920034</v>
       </c>
       <c r="R19" s="12">
         <v>0</v>
@@ -6711,7 +6710,7 @@
         <v>900128</v>
       </c>
       <c r="Q20" s="12">
-        <v>0</v>
+        <v>920022</v>
       </c>
       <c r="R20" s="12">
         <v>0</v>
@@ -6782,7 +6781,7 @@
         <v>900136</v>
       </c>
       <c r="Q21" s="12">
-        <v>0</v>
+        <v>920036</v>
       </c>
       <c r="R21" s="12">
         <v>0</v>
@@ -6853,7 +6852,7 @@
         <v>900180</v>
       </c>
       <c r="Q22" s="12">
-        <v>0</v>
+        <v>920028</v>
       </c>
       <c r="R22" s="12">
         <v>0</v>
@@ -6995,7 +6994,7 @@
         <v>900132</v>
       </c>
       <c r="Q24" s="12">
-        <v>0</v>
+        <v>920039</v>
       </c>
       <c r="R24" s="12">
         <v>0</v>
@@ -7137,7 +7136,7 @@
         <v>900195</v>
       </c>
       <c r="Q26" s="12">
-        <v>0</v>
+        <v>920027</v>
       </c>
       <c r="R26" s="12">
         <v>0</v>
@@ -7279,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="12">
-        <v>0</v>
+        <v>920031</v>
       </c>
       <c r="R28" s="12">
         <v>0</v>
@@ -7350,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="12">
-        <v>0</v>
+        <v>920031</v>
       </c>
       <c r="R29" s="12">
         <v>0</v>
@@ -16579,12 +16578,6 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16595,6 +16588,12 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16775,11 +16774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16814,17 +16813,17 @@
       <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="59" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="35" t="s">
         <v>277</v>
       </c>
       <c r="K2" s="55" t="s">
@@ -16833,16 +16832,16 @@
       <c r="L2" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="61" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="35" t="s">
         <v>288</v>
       </c>
       <c r="Q2" s="55" t="s">
@@ -16860,15 +16859,15 @@
       <c r="G3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="40"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="56"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17">
@@ -23561,12 +23560,6 @@
   </sheetData>
   <autoFilter ref="B5:Q142" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23576,6 +23569,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5176C-3FE0-491A-8B2A-67226342C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B2332-170F-4D40-AF00-A0256565BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1710" windowWidth="16860" windowHeight="12210" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -4081,18 +4081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;b&gt;{1125}&lt;/b&gt; / {550} / {4800}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1125} / &lt;b&gt;{550}&lt;/b&gt; / {4800}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1125} / {550} / &lt;b&gt;{4800}&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;b&gt;{163}&lt;/b&gt; / {348} / {1140}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4310,6 +4298,18 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;{550}&lt;/b&gt; / {1125} / {4800}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{550} / {1125} / &lt;b&gt;{4800}&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{550} / &lt;b&gt;{1125}&lt;/b&gt; / {4800}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5391,11 +5391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}">
   <dimension ref="B2:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9528,7 +9528,7 @@
         <v>290</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="X60" s="17"/>
     </row>
@@ -9597,7 +9597,7 @@
         <v>290</v>
       </c>
       <c r="W61" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="X61" s="17"/>
     </row>
@@ -9666,7 +9666,7 @@
         <v>290</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="X62" s="17"/>
     </row>
@@ -9942,7 +9942,7 @@
         <v>291</v>
       </c>
       <c r="W66" s="17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="X66" s="19"/>
     </row>
@@ -10011,7 +10011,7 @@
         <v>291</v>
       </c>
       <c r="W67" s="17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="X67" s="19"/>
     </row>
@@ -10080,7 +10080,7 @@
         <v>291</v>
       </c>
       <c r="W68" s="17" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="X68" s="17"/>
     </row>
@@ -10356,7 +10356,7 @@
         <v>292</v>
       </c>
       <c r="W72" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="X72" s="17"/>
     </row>
@@ -10425,7 +10425,7 @@
         <v>292</v>
       </c>
       <c r="W73" s="17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="X73" s="17"/>
     </row>
@@ -10494,7 +10494,7 @@
         <v>292</v>
       </c>
       <c r="W74" s="17" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="X74" s="17"/>
     </row>
@@ -10563,7 +10563,7 @@
         <v>293</v>
       </c>
       <c r="W75" s="17" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="X75" s="17"/>
     </row>
@@ -10701,7 +10701,7 @@
         <v>293</v>
       </c>
       <c r="W77" s="17" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="X77" s="17"/>
     </row>
@@ -10839,7 +10839,7 @@
         <v>293</v>
       </c>
       <c r="W79" s="17" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="X79" s="17"/>
     </row>
@@ -10977,7 +10977,7 @@
         <v>290</v>
       </c>
       <c r="W81" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="X81" s="19"/>
     </row>
@@ -11046,7 +11046,7 @@
         <v>290</v>
       </c>
       <c r="W82" s="17" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="X82" s="17"/>
     </row>
@@ -11115,7 +11115,7 @@
         <v>290</v>
       </c>
       <c r="W83" s="17" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="X83" s="17"/>
     </row>
@@ -11454,7 +11454,7 @@
         <v>553</v>
       </c>
       <c r="U88" s="17" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="V88" s="15" t="s">
         <v>52</v>
@@ -11730,7 +11730,7 @@
         <v>553</v>
       </c>
       <c r="U92" s="17" t="s">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="V92" s="15" t="s">
         <v>52</v>
@@ -12006,7 +12006,7 @@
         <v>553</v>
       </c>
       <c r="U96" s="17" t="s">
-        <v>709</v>
+        <v>763</v>
       </c>
       <c r="V96" s="15" t="s">
         <v>52</v>
@@ -12282,7 +12282,7 @@
         <v>553</v>
       </c>
       <c r="U100" s="17" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>52</v>
@@ -12351,7 +12351,7 @@
         <v>553</v>
       </c>
       <c r="U101" s="17" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>52</v>
@@ -12420,7 +12420,7 @@
         <v>553</v>
       </c>
       <c r="U102" s="17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V102" s="15" t="s">
         <v>52</v>
@@ -12489,7 +12489,7 @@
         <v>553</v>
       </c>
       <c r="U103" s="17" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="V103" s="15" t="s">
         <v>52</v>
@@ -12558,7 +12558,7 @@
         <v>553</v>
       </c>
       <c r="U104" s="17" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="V104" s="15" t="s">
         <v>52</v>
@@ -12627,7 +12627,7 @@
         <v>553</v>
       </c>
       <c r="U105" s="17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="V105" s="15" t="s">
         <v>52</v>
@@ -12696,7 +12696,7 @@
         <v>291</v>
       </c>
       <c r="U106" s="17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="V106" s="15" t="s">
         <v>52</v>
@@ -12765,7 +12765,7 @@
         <v>291</v>
       </c>
       <c r="U107" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="V107" s="15" t="s">
         <v>52</v>
@@ -12834,7 +12834,7 @@
         <v>291</v>
       </c>
       <c r="U108" s="17" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="V108" s="15" t="s">
         <v>52</v>
@@ -12903,7 +12903,7 @@
         <v>294</v>
       </c>
       <c r="U109" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>52</v>
@@ -12972,7 +12972,7 @@
         <v>294</v>
       </c>
       <c r="U110" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="V110" s="15" t="s">
         <v>52</v>
@@ -13041,7 +13041,7 @@
         <v>294</v>
       </c>
       <c r="U111" s="17" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="V111" s="17" t="s">
         <v>52</v>
@@ -13110,13 +13110,13 @@
         <v>553</v>
       </c>
       <c r="U112" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="V112" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W112" s="17" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="X112" s="17"/>
     </row>
@@ -13179,13 +13179,13 @@
         <v>553</v>
       </c>
       <c r="U113" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="V113" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W113" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="X113" s="17"/>
     </row>
@@ -13248,13 +13248,13 @@
         <v>553</v>
       </c>
       <c r="U114" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="V114" s="17" t="s">
         <v>290</v>
       </c>
       <c r="W114" s="17" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="X114" s="17"/>
     </row>
@@ -13317,7 +13317,7 @@
         <v>553</v>
       </c>
       <c r="U115" s="17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="V115" s="17" t="s">
         <v>52</v>
@@ -13386,7 +13386,7 @@
         <v>553</v>
       </c>
       <c r="U116" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="V116" s="17" t="s">
         <v>52</v>
@@ -13455,7 +13455,7 @@
         <v>553</v>
       </c>
       <c r="U117" s="17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="V117" s="17" t="s">
         <v>52</v>
@@ -13524,7 +13524,7 @@
         <v>553</v>
       </c>
       <c r="U118" s="17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V118" s="17" t="s">
         <v>52</v>
@@ -13593,7 +13593,7 @@
         <v>553</v>
       </c>
       <c r="U119" s="17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="V119" s="17" t="s">
         <v>52</v>
@@ -13662,7 +13662,7 @@
         <v>553</v>
       </c>
       <c r="U120" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="V120" s="17" t="s">
         <v>52</v>
@@ -13938,7 +13938,7 @@
         <v>553</v>
       </c>
       <c r="U124" s="17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="V124" s="17" t="s">
         <v>290</v>
@@ -14007,7 +14007,7 @@
         <v>553</v>
       </c>
       <c r="U125" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="V125" s="17" t="s">
         <v>290</v>
@@ -14076,7 +14076,7 @@
         <v>553</v>
       </c>
       <c r="U126" s="17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="V126" s="17" t="s">
         <v>290</v>
@@ -14145,7 +14145,7 @@
         <v>552</v>
       </c>
       <c r="U127" s="17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="V127" s="15" t="s">
         <v>52</v>
@@ -14214,7 +14214,7 @@
         <v>552</v>
       </c>
       <c r="U128" s="17" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="V128" s="15" t="s">
         <v>52</v>
@@ -14283,7 +14283,7 @@
         <v>552</v>
       </c>
       <c r="U129" s="17" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="V129" s="15" t="s">
         <v>52</v>
@@ -14352,13 +14352,13 @@
         <v>553</v>
       </c>
       <c r="U130" s="17" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="V130" s="17" t="s">
         <v>294</v>
       </c>
       <c r="W130" s="17" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="X130" s="17"/>
     </row>
@@ -14427,7 +14427,7 @@
         <v>52</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="X131" s="15"/>
     </row>
@@ -14496,7 +14496,7 @@
         <v>52</v>
       </c>
       <c r="W132" s="15" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="X132" s="15"/>
     </row>
@@ -14697,13 +14697,13 @@
         <v>553</v>
       </c>
       <c r="U135" s="17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="V135" s="17" t="s">
         <v>294</v>
       </c>
       <c r="W135" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="X135" s="17"/>
     </row>
@@ -15042,13 +15042,13 @@
         <v>553</v>
       </c>
       <c r="U140" s="17" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="V140" s="17" t="s">
         <v>294</v>
       </c>
       <c r="W140" s="17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="X140" s="17"/>
     </row>
@@ -15387,7 +15387,7 @@
         <v>553</v>
       </c>
       <c r="U145" s="17" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V145" s="15" t="s">
         <v>52</v>
@@ -15594,7 +15594,7 @@
         <v>553</v>
       </c>
       <c r="U148" s="17" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="V148" s="15" t="s">
         <v>52</v>
@@ -15801,7 +15801,7 @@
         <v>553</v>
       </c>
       <c r="U151" s="17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="V151" s="15" t="s">
         <v>52</v>
@@ -16774,11 +16774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}">
   <dimension ref="B2:Q142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="27">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="27">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K142" s="27">
         <v>10</v>
@@ -23548,7 +23548,7 @@
         <v>0.5</v>
       </c>
       <c r="N142" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O142" s="15">
         <v>0</v>

--- a/Documents/Table_List/04_Skill_Table.xlsx
+++ b/Documents/Table_List/04_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B2332-170F-4D40-AF00-A0256565BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D09D8-C284-4BDB-B093-98B949DB1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
+    <workbookView xWindow="4605" yWindow="2175" windowWidth="22695" windowHeight="13470" activeTab="1" xr2:uid="{57C7CAEA-8AC2-42E8-BA90-BCD032EA953F}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillCondition_Table" sheetId="1" r:id="rId1"/>
@@ -4900,11 +4900,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4912,23 +4912,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4960,16 +4948,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4980,6 +4974,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5433,49 +5433,49 @@
       <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="53" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="54" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="50" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="42" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="43"/>
+      <c r="W2" s="36"/>
       <c r="X2" s="37" t="s">
         <v>33</v>
       </c>
@@ -5485,13 +5485,13 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="41"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5510,8 +5510,8 @@
       <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="52"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48"/>
       <c r="S3" s="38"/>
       <c r="T3" s="3" t="s">
         <v>43</v>
@@ -16578,6 +16578,12 @@
   </sheetData>
   <autoFilter ref="B5:X163" xr:uid="{1345B977-D242-4D3E-A466-648BA660314F}"/>
   <mergeCells count="16">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:X3"/>
@@ -16588,12 +16594,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T85:T91 U88:U91 U103:U105 T100:T132 W75:W77 W130 V51:W59 T84:U84 T92:U99 V84:W111 T6:W50 V63:W65 V60:V62 V69:W71 V66:V68 V72:V77 U75:U80 T51:T83 V78:W80 V81:V83 V115:W123 V112:V114 V127:W129 V124:V126 U130:V132 T133:W162">
@@ -16778,7 +16778,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O75" sqref="O75"/>
+      <selection pane="bottomRight" activeCell="N143" sqref="N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16813,17 +16813,17 @@
       <c r="E2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="51" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="51" t="s">
         <v>277</v>
       </c>
       <c r="K2" s="55" t="s">
@@ -16832,16 +16832,16 @@
       <c r="L2" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="59" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="51" t="s">
         <v>288</v>
       </c>
       <c r="Q2" s="55" t="s">
@@ -16859,15 +16859,15 @@
       <c r="G3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="36"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="56"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17">
@@ -23539,7 +23539,7 @@
         <v>10</v>
       </c>
       <c r="K142" s="27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L142" s="15">
         <v>1</v>
@@ -23548,7 +23548,7 @@
         <v>0.5</v>
       </c>
       <c r="N142" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O142" s="15">
         <v>0</v>
@@ -23560,6 +23560,12 @@
   </sheetData>
   <autoFilter ref="B5:Q142" xr:uid="{1FC1AF45-53E4-41B3-917E-CB9E4125DA9C}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -23569,12 +23575,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
